--- a/database/industries/darou/dejaber/product/monthly_seprated.xlsx
+++ b/database/industries/darou/dejaber/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42FE5E-5CB5-43EC-9478-60045CF30691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="99">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -321,7 +322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,7 +509,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -520,7 +521,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -567,6 +568,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -602,6 +620,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,17 +788,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -818,7 +853,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +910,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -932,7 +967,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -987,7 +1022,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1079,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1136,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1156,7 +1191,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1368,7 +1403,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1425,7 +1460,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1487,65 +1522,65 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>352080</v>
       </c>
       <c r="X11" s="11">
-        <v>352080</v>
+        <v>293400</v>
       </c>
       <c r="Y11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
         <v>293400</v>
       </c>
-      <c r="Z11" s="11">
-        <v>0</v>
-      </c>
       <c r="AA11" s="11">
+        <v>58680</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>116280</v>
+      </c>
+      <c r="AE11" s="11">
         <v>293400</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="11">
         <v>58680</v>
       </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>116280</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>293400</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>0</v>
-      </c>
       <c r="AI11" s="11">
-        <v>58680</v>
+        <v>234720</v>
       </c>
       <c r="AJ11" s="11">
         <v>234720</v>
       </c>
       <c r="AK11" s="11">
-        <v>234720</v>
+        <v>131280</v>
       </c>
       <c r="AL11" s="11">
-        <v>131280</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="11">
         <v>0</v>
       </c>
       <c r="AN11" s="11">
-        <v>0</v>
+        <v>176040</v>
       </c>
       <c r="AO11" s="11">
-        <v>176040</v>
+        <v>207360</v>
       </c>
       <c r="AP11" s="11">
-        <v>207360</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="11">
         <v>0</v>
@@ -1554,37 +1589,37 @@
         <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>0</v>
+        <v>141940</v>
       </c>
       <c r="AT11" s="11">
-        <v>141940</v>
+        <v>214560</v>
       </c>
       <c r="AU11" s="11">
-        <v>214560</v>
+        <v>122740</v>
       </c>
       <c r="AV11" s="11">
-        <v>122740</v>
+        <v>293400</v>
       </c>
       <c r="AW11" s="11">
-        <v>293400</v>
+        <v>232320</v>
       </c>
       <c r="AX11" s="11">
-        <v>232320</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="11">
-        <v>0</v>
+        <v>69720</v>
       </c>
       <c r="AZ11" s="11">
-        <v>69720</v>
+        <v>314040</v>
       </c>
       <c r="BA11" s="11">
-        <v>314040</v>
+        <v>117360</v>
       </c>
       <c r="BB11" s="11">
-        <v>117360</v>
+        <v>111190</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1646,104 +1681,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>392102</v>
       </c>
       <c r="X12" s="13">
-        <v>392102</v>
+        <v>529616</v>
       </c>
       <c r="Y12" s="13">
-        <v>529616</v>
+        <v>650529</v>
       </c>
       <c r="Z12" s="13">
-        <v>650529</v>
+        <v>604365</v>
       </c>
       <c r="AA12" s="13">
-        <v>604365</v>
+        <v>498279</v>
       </c>
       <c r="AB12" s="13">
-        <v>498279</v>
+        <v>625845</v>
       </c>
       <c r="AC12" s="13">
-        <v>625845</v>
+        <v>363106</v>
       </c>
       <c r="AD12" s="13">
-        <v>363106</v>
+        <v>468335</v>
       </c>
       <c r="AE12" s="13">
-        <v>468335</v>
+        <v>23879</v>
       </c>
       <c r="AF12" s="13">
-        <v>23879</v>
+        <v>10764</v>
       </c>
       <c r="AG12" s="13">
-        <v>10764</v>
+        <v>384995</v>
       </c>
       <c r="AH12" s="13">
-        <v>384995</v>
+        <v>274124</v>
       </c>
       <c r="AI12" s="13">
-        <v>274124</v>
+        <v>45133</v>
       </c>
       <c r="AJ12" s="13">
-        <v>45133</v>
+        <v>460825</v>
       </c>
       <c r="AK12" s="13">
-        <v>460825</v>
+        <v>580498</v>
       </c>
       <c r="AL12" s="13">
-        <v>580498</v>
+        <v>553403</v>
       </c>
       <c r="AM12" s="13">
-        <v>553403</v>
+        <v>222225</v>
       </c>
       <c r="AN12" s="13">
-        <v>222225</v>
+        <v>298736</v>
       </c>
       <c r="AO12" s="13">
-        <v>298736</v>
+        <v>721038</v>
       </c>
       <c r="AP12" s="13">
-        <v>721038</v>
+        <v>697700</v>
       </c>
       <c r="AQ12" s="13">
-        <v>697700</v>
+        <v>682353</v>
       </c>
       <c r="AR12" s="13">
-        <v>682353</v>
+        <v>370331</v>
       </c>
       <c r="AS12" s="13">
-        <v>370331</v>
+        <v>157176</v>
       </c>
       <c r="AT12" s="13">
-        <v>157176</v>
+        <v>158641</v>
       </c>
       <c r="AU12" s="13">
-        <v>158641</v>
+        <v>191087</v>
       </c>
       <c r="AV12" s="13">
-        <v>191087</v>
+        <v>76001</v>
       </c>
       <c r="AW12" s="13">
-        <v>76001</v>
+        <v>146768</v>
       </c>
       <c r="AX12" s="13">
-        <v>146768</v>
+        <v>122082</v>
       </c>
       <c r="AY12" s="13">
-        <v>122082</v>
+        <v>505915</v>
       </c>
       <c r="AZ12" s="13">
-        <v>505915</v>
+        <v>812508</v>
       </c>
       <c r="BA12" s="13">
-        <v>812508</v>
+        <v>906122</v>
       </c>
       <c r="BB12" s="13">
-        <v>906122</v>
+        <v>451003</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>61</v>
       </c>
@@ -1805,32 +1840,32 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>87680</v>
       </c>
       <c r="X13" s="11">
-        <v>87680</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="11">
-        <v>0</v>
+        <v>21930</v>
       </c>
       <c r="Z13" s="11">
-        <v>21930</v>
+        <v>41880</v>
       </c>
       <c r="AA13" s="11">
-        <v>41880</v>
+        <v>374780</v>
       </c>
       <c r="AB13" s="11">
-        <v>374780</v>
+        <v>247116</v>
       </c>
       <c r="AC13" s="11">
-        <v>247116</v>
+        <v>219796</v>
       </c>
       <c r="AD13" s="11">
-        <v>219796</v>
+        <v>21916</v>
       </c>
       <c r="AE13" s="11">
-        <v>21916</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="11">
         <v>0</v>
@@ -1848,37 +1883,37 @@
         <v>0</v>
       </c>
       <c r="AK13" s="11">
-        <v>0</v>
+        <v>48937</v>
       </c>
       <c r="AL13" s="11">
-        <v>48937</v>
+        <v>8160</v>
       </c>
       <c r="AM13" s="11">
-        <v>8160</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="11">
-        <v>0</v>
+        <v>226044</v>
       </c>
       <c r="AO13" s="11">
-        <v>226044</v>
+        <v>135324</v>
       </c>
       <c r="AP13" s="11">
-        <v>135324</v>
+        <v>135072</v>
       </c>
       <c r="AQ13" s="11">
-        <v>135072</v>
+        <v>44268</v>
       </c>
       <c r="AR13" s="11">
-        <v>44268</v>
+        <v>185404</v>
       </c>
       <c r="AS13" s="11">
-        <v>185404</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="11">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AU13" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="11">
         <v>0</v>
@@ -1896,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="BA13" s="11">
-        <v>0</v>
+        <v>279650</v>
       </c>
       <c r="BB13" s="11">
-        <v>279650</v>
+        <v>362384</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>63</v>
       </c>
@@ -1964,104 +1999,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>8075390</v>
       </c>
       <c r="X14" s="13">
-        <v>8075390</v>
+        <v>26547714</v>
       </c>
       <c r="Y14" s="13">
-        <v>26547714</v>
+        <v>24142146</v>
       </c>
       <c r="Z14" s="13">
-        <v>24142146</v>
+        <v>14879334</v>
       </c>
       <c r="AA14" s="13">
-        <v>14879334</v>
+        <v>10550250</v>
       </c>
       <c r="AB14" s="13">
-        <v>10550250</v>
+        <v>11872090</v>
       </c>
       <c r="AC14" s="13">
-        <v>11872090</v>
+        <v>17866800</v>
       </c>
       <c r="AD14" s="13">
-        <v>17866800</v>
+        <v>16834100</v>
       </c>
       <c r="AE14" s="13">
-        <v>16834100</v>
+        <v>5409254</v>
       </c>
       <c r="AF14" s="13">
-        <v>5409254</v>
+        <v>3055600</v>
       </c>
       <c r="AG14" s="13">
-        <v>3055600</v>
+        <v>15014300</v>
       </c>
       <c r="AH14" s="13">
-        <v>15014300</v>
+        <v>5002430</v>
       </c>
       <c r="AI14" s="13">
-        <v>5002430</v>
+        <v>11650816</v>
       </c>
       <c r="AJ14" s="13">
-        <v>11650816</v>
+        <v>13152630</v>
       </c>
       <c r="AK14" s="13">
-        <v>13152630</v>
+        <v>46259244</v>
       </c>
       <c r="AL14" s="13">
-        <v>46259244</v>
+        <v>23761286</v>
       </c>
       <c r="AM14" s="13">
-        <v>23761286</v>
+        <v>50864400</v>
       </c>
       <c r="AN14" s="13">
-        <v>50864400</v>
+        <v>11910410</v>
       </c>
       <c r="AO14" s="13">
-        <v>11910410</v>
+        <v>35183260</v>
       </c>
       <c r="AP14" s="13">
-        <v>35183260</v>
+        <v>44400500</v>
       </c>
       <c r="AQ14" s="13">
-        <v>44400500</v>
+        <v>20591790</v>
       </c>
       <c r="AR14" s="13">
-        <v>20591790</v>
+        <v>16864160</v>
       </c>
       <c r="AS14" s="13">
-        <v>16864160</v>
+        <v>22755860</v>
       </c>
       <c r="AT14" s="13">
-        <v>22755860</v>
+        <v>10328380</v>
       </c>
       <c r="AU14" s="13">
-        <v>10328380</v>
+        <v>37519980</v>
       </c>
       <c r="AV14" s="13">
-        <v>37519980</v>
+        <v>35653030</v>
       </c>
       <c r="AW14" s="13">
-        <v>35653030</v>
+        <v>32215080</v>
       </c>
       <c r="AX14" s="13">
-        <v>32215080</v>
+        <v>22228010</v>
       </c>
       <c r="AY14" s="13">
-        <v>22228010</v>
+        <v>21341380</v>
       </c>
       <c r="AZ14" s="13">
-        <v>21341380</v>
+        <v>11357570</v>
       </c>
       <c r="BA14" s="13">
-        <v>11357570</v>
+        <v>34414210</v>
       </c>
       <c r="BB14" s="13">
-        <v>34414210</v>
+        <v>48657360</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>64</v>
       </c>
@@ -2123,104 +2158,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>784079</v>
       </c>
       <c r="X15" s="11">
-        <v>784079</v>
+        <v>3962360</v>
       </c>
       <c r="Y15" s="11">
-        <v>3962360</v>
+        <v>2057514</v>
       </c>
       <c r="Z15" s="11">
-        <v>2057514</v>
+        <v>3218491</v>
       </c>
       <c r="AA15" s="11">
-        <v>3218491</v>
+        <v>2880950</v>
       </c>
       <c r="AB15" s="11">
-        <v>2880950</v>
+        <v>2368190</v>
       </c>
       <c r="AC15" s="11">
-        <v>2368190</v>
+        <v>3255450</v>
       </c>
       <c r="AD15" s="11">
-        <v>3255450</v>
+        <v>1967002</v>
       </c>
       <c r="AE15" s="11">
-        <v>1967002</v>
+        <v>6528321</v>
       </c>
       <c r="AF15" s="11">
-        <v>6528321</v>
+        <v>4198826</v>
       </c>
       <c r="AG15" s="11">
-        <v>4198826</v>
+        <v>573600</v>
       </c>
       <c r="AH15" s="11">
-        <v>573600</v>
+        <v>1377000</v>
       </c>
       <c r="AI15" s="11">
-        <v>1377000</v>
+        <v>1405665</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1405665</v>
+        <v>3970080</v>
       </c>
       <c r="AK15" s="11">
-        <v>3970080</v>
+        <v>2776560</v>
       </c>
       <c r="AL15" s="11">
-        <v>2776560</v>
+        <v>4256530</v>
       </c>
       <c r="AM15" s="11">
-        <v>4256530</v>
+        <v>3318850</v>
       </c>
       <c r="AN15" s="11">
-        <v>3318850</v>
+        <v>2534960</v>
       </c>
       <c r="AO15" s="11">
-        <v>2534960</v>
+        <v>3632720</v>
       </c>
       <c r="AP15" s="11">
-        <v>3632720</v>
+        <v>1497050</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1497050</v>
+        <v>1098950</v>
       </c>
       <c r="AR15" s="11">
-        <v>1098950</v>
+        <v>3414860</v>
       </c>
       <c r="AS15" s="11">
-        <v>3414860</v>
+        <v>1492120</v>
       </c>
       <c r="AT15" s="11">
-        <v>1492120</v>
+        <v>1575200</v>
       </c>
       <c r="AU15" s="11">
-        <v>1575200</v>
+        <v>3884718</v>
       </c>
       <c r="AV15" s="11">
-        <v>3884718</v>
+        <v>3524725</v>
       </c>
       <c r="AW15" s="11">
-        <v>3524725</v>
+        <v>1560160</v>
       </c>
       <c r="AX15" s="11">
-        <v>1560160</v>
+        <v>1703010</v>
       </c>
       <c r="AY15" s="11">
-        <v>1703010</v>
+        <v>4028690</v>
       </c>
       <c r="AZ15" s="11">
-        <v>4028690</v>
+        <v>2919470</v>
       </c>
       <c r="BA15" s="11">
-        <v>2919470</v>
+        <v>730840</v>
       </c>
       <c r="BB15" s="11">
-        <v>3632720</v>
+        <v>1668830</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>65</v>
       </c>
@@ -2315,11 +2350,11 @@
       <c r="AG16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>0</v>
+      <c r="AH16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ16" s="13" t="s">
         <v>58</v>
@@ -2348,8 +2383,8 @@
       <c r="AR16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS16" s="13" t="s">
-        <v>58</v>
+      <c r="AS16" s="13">
+        <v>0</v>
       </c>
       <c r="AT16" s="13">
         <v>0</v>
@@ -2379,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>66</v>
       </c>
@@ -2441,14 +2476,14 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>0</v>
       </c>
       <c r="X17" s="11">
         <v>0</v>
       </c>
-      <c r="Y17" s="11">
-        <v>0</v>
+      <c r="Y17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>58</v>
@@ -2538,7 +2573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>68</v>
       </c>
@@ -2599,103 +2634,103 @@
         <v>0</v>
       </c>
       <c r="W18" s="15">
-        <v>0</v>
+        <v>9691331</v>
       </c>
       <c r="X18" s="15">
-        <v>9691331</v>
+        <v>31333090</v>
       </c>
       <c r="Y18" s="15">
-        <v>31333090</v>
+        <v>26872119</v>
       </c>
       <c r="Z18" s="15">
-        <v>26872119</v>
+        <v>19037470</v>
       </c>
       <c r="AA18" s="15">
-        <v>19037470</v>
+        <v>14362939</v>
       </c>
       <c r="AB18" s="15">
-        <v>14362939</v>
+        <v>15113241</v>
       </c>
       <c r="AC18" s="15">
-        <v>15113241</v>
+        <v>21705152</v>
       </c>
       <c r="AD18" s="15">
-        <v>21705152</v>
+        <v>19407633</v>
       </c>
       <c r="AE18" s="15">
-        <v>19407633</v>
+        <v>12254854</v>
       </c>
       <c r="AF18" s="15">
-        <v>12254854</v>
+        <v>7265190</v>
       </c>
       <c r="AG18" s="15">
-        <v>7265190</v>
+        <v>15972895</v>
       </c>
       <c r="AH18" s="15">
-        <v>15972895</v>
+        <v>6712234</v>
       </c>
       <c r="AI18" s="15">
-        <v>6712234</v>
+        <v>13336334</v>
       </c>
       <c r="AJ18" s="15">
-        <v>13336334</v>
+        <v>17818255</v>
       </c>
       <c r="AK18" s="15">
-        <v>17818255</v>
+        <v>49796519</v>
       </c>
       <c r="AL18" s="15">
-        <v>49796519</v>
+        <v>28579379</v>
       </c>
       <c r="AM18" s="15">
-        <v>28579379</v>
+        <v>54405475</v>
       </c>
       <c r="AN18" s="15">
-        <v>54405475</v>
+        <v>15146190</v>
       </c>
       <c r="AO18" s="15">
-        <v>15146190</v>
+        <v>39879702</v>
       </c>
       <c r="AP18" s="15">
-        <v>39879702</v>
+        <v>46730322</v>
       </c>
       <c r="AQ18" s="15">
-        <v>46730322</v>
+        <v>22417361</v>
       </c>
       <c r="AR18" s="15">
-        <v>22417361</v>
+        <v>20834755</v>
       </c>
       <c r="AS18" s="15">
-        <v>20834755</v>
+        <v>24547096</v>
       </c>
       <c r="AT18" s="15">
-        <v>24547096</v>
+        <v>12321035</v>
       </c>
       <c r="AU18" s="15">
-        <v>12321035</v>
+        <v>41718525</v>
       </c>
       <c r="AV18" s="15">
-        <v>41718525</v>
+        <v>39547156</v>
       </c>
       <c r="AW18" s="15">
-        <v>39547156</v>
+        <v>34154328</v>
       </c>
       <c r="AX18" s="15">
-        <v>34154328</v>
+        <v>24053102</v>
       </c>
       <c r="AY18" s="15">
-        <v>24053102</v>
+        <v>25945705</v>
       </c>
       <c r="AZ18" s="15">
-        <v>25945705</v>
+        <v>15403588</v>
       </c>
       <c r="BA18" s="15">
-        <v>15403588</v>
+        <v>36448182</v>
       </c>
       <c r="BB18" s="15">
-        <v>39350062</v>
+        <v>51250767</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>69</v>
       </c>
@@ -2752,7 +2787,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>56</v>
       </c>
@@ -2814,8 +2849,8 @@
       <c r="V20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="11" t="s">
-        <v>58</v>
+      <c r="W20" s="11">
+        <v>0</v>
       </c>
       <c r="X20" s="11">
         <v>0</v>
@@ -2850,8 +2885,8 @@
       <c r="AH20" s="11">
         <v>0</v>
       </c>
-      <c r="AI20" s="11">
-        <v>0</v>
+      <c r="AI20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>58</v>
@@ -2883,8 +2918,8 @@
       <c r="AS20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT20" s="11" t="s">
-        <v>58</v>
+      <c r="AT20" s="11">
+        <v>0</v>
       </c>
       <c r="AU20" s="11">
         <v>0</v>
@@ -2911,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>59</v>
       </c>
@@ -2973,8 +3008,8 @@
       <c r="V21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="13" t="s">
-        <v>58</v>
+      <c r="W21" s="13">
+        <v>0</v>
       </c>
       <c r="X21" s="13">
         <v>0</v>
@@ -3009,8 +3044,8 @@
       <c r="AH21" s="13">
         <v>0</v>
       </c>
-      <c r="AI21" s="13">
-        <v>0</v>
+      <c r="AI21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ21" s="13" t="s">
         <v>58</v>
@@ -3042,8 +3077,8 @@
       <c r="AS21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT21" s="13" t="s">
-        <v>58</v>
+      <c r="AT21" s="13">
+        <v>0</v>
       </c>
       <c r="AU21" s="13">
         <v>0</v>
@@ -3070,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>61</v>
       </c>
@@ -3132,8 +3167,8 @@
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="11" t="s">
-        <v>58</v>
+      <c r="W22" s="11">
+        <v>0</v>
       </c>
       <c r="X22" s="11">
         <v>0</v>
@@ -3168,8 +3203,8 @@
       <c r="AH22" s="11">
         <v>0</v>
       </c>
-      <c r="AI22" s="11">
-        <v>0</v>
+      <c r="AI22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ22" s="11" t="s">
         <v>58</v>
@@ -3201,8 +3236,8 @@
       <c r="AS22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT22" s="11" t="s">
-        <v>58</v>
+      <c r="AT22" s="11">
+        <v>0</v>
       </c>
       <c r="AU22" s="11">
         <v>0</v>
@@ -3229,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>63</v>
       </c>
@@ -3291,8 +3326,8 @@
       <c r="V23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="13" t="s">
-        <v>58</v>
+      <c r="W23" s="13">
+        <v>0</v>
       </c>
       <c r="X23" s="13">
         <v>0</v>
@@ -3327,8 +3362,8 @@
       <c r="AH23" s="13">
         <v>0</v>
       </c>
-      <c r="AI23" s="13">
-        <v>0</v>
+      <c r="AI23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ23" s="13" t="s">
         <v>58</v>
@@ -3360,8 +3395,8 @@
       <c r="AS23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT23" s="13" t="s">
-        <v>58</v>
+      <c r="AT23" s="13">
+        <v>0</v>
       </c>
       <c r="AU23" s="13">
         <v>0</v>
@@ -3388,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>64</v>
       </c>
@@ -3450,14 +3485,14 @@
       <c r="V24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="11" t="s">
-        <v>58</v>
+      <c r="W24" s="11">
+        <v>0</v>
       </c>
       <c r="X24" s="11">
         <v>0</v>
       </c>
-      <c r="Y24" s="11">
-        <v>0</v>
+      <c r="Y24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>58</v>
@@ -3465,8 +3500,8 @@
       <c r="AA24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="11" t="s">
-        <v>58</v>
+      <c r="AB24" s="11">
+        <v>0</v>
       </c>
       <c r="AC24" s="11">
         <v>0</v>
@@ -3486,8 +3521,8 @@
       <c r="AH24" s="11">
         <v>0</v>
       </c>
-      <c r="AI24" s="11">
-        <v>0</v>
+      <c r="AI24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ24" s="11" t="s">
         <v>58</v>
@@ -3504,23 +3539,23 @@
       <c r="AN24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP24" s="11">
+      <c r="AO24" s="11">
         <v>345838</v>
       </c>
-      <c r="AQ24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR24" s="11">
-        <v>0</v>
+      <c r="AP24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT24" s="11" t="s">
-        <v>58</v>
+      <c r="AT24" s="11">
+        <v>0</v>
       </c>
       <c r="AU24" s="11">
         <v>0</v>
@@ -3547,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>65</v>
       </c>
@@ -3678,8 +3713,8 @@
       <c r="AS25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT25" s="13" t="s">
-        <v>58</v>
+      <c r="AT25" s="13">
+        <v>0</v>
       </c>
       <c r="AU25" s="13">
         <v>0</v>
@@ -3706,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>66</v>
       </c>
@@ -3768,14 +3803,14 @@
       <c r="V26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W26" s="11" t="s">
-        <v>58</v>
+      <c r="W26" s="11">
+        <v>0</v>
       </c>
       <c r="X26" s="11">
         <v>0</v>
       </c>
-      <c r="Y26" s="11">
-        <v>0</v>
+      <c r="Y26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z26" s="11" t="s">
         <v>58</v>
@@ -3865,7 +3900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>70</v>
       </c>
@@ -3980,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="AO27" s="15">
-        <v>0</v>
+        <v>345838</v>
       </c>
       <c r="AP27" s="15">
-        <v>345838</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="15">
         <v>0</v>
@@ -4022,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>71</v>
       </c>
@@ -4079,7 +4114,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>66</v>
       </c>
@@ -4147,8 +4182,8 @@
       <c r="X29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="11" t="s">
-        <v>58</v>
+      <c r="Y29" s="11">
+        <v>0</v>
       </c>
       <c r="Z29" s="11">
         <v>0</v>
@@ -4180,23 +4215,23 @@
       <c r="AI29" s="11">
         <v>0</v>
       </c>
-      <c r="AJ29" s="11">
-        <v>0</v>
+      <c r="AJ29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL29" s="11" t="s">
-        <v>58</v>
+      <c r="AL29" s="11">
+        <v>0</v>
       </c>
       <c r="AM29" s="11">
         <v>0</v>
       </c>
-      <c r="AN29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="11" t="s">
-        <v>58</v>
+      <c r="AN29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO29" s="11">
+        <v>0</v>
       </c>
       <c r="AP29" s="11">
         <v>0</v>
@@ -4204,8 +4239,8 @@
       <c r="AQ29" s="11">
         <v>0</v>
       </c>
-      <c r="AR29" s="11">
-        <v>0</v>
+      <c r="AR29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS29" s="11" t="s">
         <v>58</v>
@@ -4238,7 +4273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>72</v>
       </c>
@@ -4366,11 +4401,11 @@
       <c r="AR30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT30" s="13">
-        <v>0</v>
+      <c r="AS30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU30" s="13" t="s">
         <v>58</v>
@@ -4387,17 +4422,17 @@
       <c r="AY30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ30" s="13" t="s">
-        <v>58</v>
+      <c r="AZ30" s="13">
+        <v>0</v>
       </c>
       <c r="BA30" s="13">
         <v>0</v>
       </c>
-      <c r="BB30" s="13" t="s">
-        <v>58</v>
+      <c r="BB30" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
@@ -4463,8 +4498,8 @@
       <c r="X31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="17" t="s">
-        <v>58</v>
+      <c r="Y31" s="17">
+        <v>0</v>
       </c>
       <c r="Z31" s="17">
         <v>0</v>
@@ -4554,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>74</v>
       </c>
@@ -4615,103 +4650,103 @@
         <v>0</v>
       </c>
       <c r="W32" s="15">
-        <v>0</v>
+        <v>9691331</v>
       </c>
       <c r="X32" s="15">
-        <v>9691331</v>
+        <v>31333090</v>
       </c>
       <c r="Y32" s="15">
-        <v>31333090</v>
+        <v>26872119</v>
       </c>
       <c r="Z32" s="15">
-        <v>26872119</v>
+        <v>19037470</v>
       </c>
       <c r="AA32" s="15">
-        <v>19037470</v>
+        <v>14362939</v>
       </c>
       <c r="AB32" s="15">
-        <v>14362939</v>
+        <v>15113241</v>
       </c>
       <c r="AC32" s="15">
-        <v>15113241</v>
+        <v>21705152</v>
       </c>
       <c r="AD32" s="15">
-        <v>21705152</v>
+        <v>19407633</v>
       </c>
       <c r="AE32" s="15">
-        <v>19407633</v>
+        <v>12254854</v>
       </c>
       <c r="AF32" s="15">
-        <v>12254854</v>
+        <v>7265190</v>
       </c>
       <c r="AG32" s="15">
-        <v>7265190</v>
+        <v>15972895</v>
       </c>
       <c r="AH32" s="15">
-        <v>15972895</v>
+        <v>6712234</v>
       </c>
       <c r="AI32" s="15">
-        <v>6712234</v>
+        <v>13336334</v>
       </c>
       <c r="AJ32" s="15">
-        <v>13336334</v>
+        <v>17818255</v>
       </c>
       <c r="AK32" s="15">
-        <v>17818255</v>
+        <v>49796519</v>
       </c>
       <c r="AL32" s="15">
-        <v>49796519</v>
+        <v>28579379</v>
       </c>
       <c r="AM32" s="15">
-        <v>28579379</v>
+        <v>54405475</v>
       </c>
       <c r="AN32" s="15">
-        <v>54405475</v>
+        <v>15146190</v>
       </c>
       <c r="AO32" s="15">
-        <v>15146190</v>
+        <v>40225540</v>
       </c>
       <c r="AP32" s="15">
-        <v>40225540</v>
+        <v>46730322</v>
       </c>
       <c r="AQ32" s="15">
-        <v>46730322</v>
+        <v>22417361</v>
       </c>
       <c r="AR32" s="15">
-        <v>22417361</v>
+        <v>20834755</v>
       </c>
       <c r="AS32" s="15">
-        <v>20834755</v>
+        <v>24547096</v>
       </c>
       <c r="AT32" s="15">
-        <v>24547096</v>
+        <v>12321035</v>
       </c>
       <c r="AU32" s="15">
-        <v>12321035</v>
+        <v>41718525</v>
       </c>
       <c r="AV32" s="15">
-        <v>41718525</v>
+        <v>39547156</v>
       </c>
       <c r="AW32" s="15">
-        <v>39547156</v>
+        <v>34154328</v>
       </c>
       <c r="AX32" s="15">
-        <v>34154328</v>
+        <v>24053102</v>
       </c>
       <c r="AY32" s="15">
-        <v>24053102</v>
+        <v>25945705</v>
       </c>
       <c r="AZ32" s="15">
-        <v>25945705</v>
+        <v>15403588</v>
       </c>
       <c r="BA32" s="15">
-        <v>15403588</v>
+        <v>36448182</v>
       </c>
       <c r="BB32" s="15">
-        <v>39350062</v>
+        <v>51250767</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4766,7 +4801,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4821,7 +4856,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4876,7 +4911,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>75</v>
       </c>
@@ -5033,7 +5068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5088,7 +5123,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>76</v>
       </c>
@@ -5145,7 +5180,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>56</v>
       </c>
@@ -5207,104 +5242,104 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>352080</v>
       </c>
       <c r="X39" s="11">
-        <v>352080</v>
+        <v>293280</v>
       </c>
       <c r="Y39" s="11">
-        <v>293280</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="11">
-        <v>0</v>
+        <v>293250</v>
       </c>
       <c r="AA39" s="11">
-        <v>293250</v>
+        <v>58680</v>
       </c>
       <c r="AB39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>116280</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>293400</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="11">
         <v>58680</v>
       </c>
-      <c r="AC39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="11">
-        <v>116280</v>
-      </c>
-      <c r="AF39" s="11">
+      <c r="AI39" s="11">
+        <v>234600</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>112530</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>210960</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>42240</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>176040</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>207360</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>60000</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>233400</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>45137</v>
+      </c>
+      <c r="AV39" s="11">
         <v>293400</v>
       </c>
-      <c r="AG39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>58680</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>234600</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>112530</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>210960</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>42240</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>176040</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>207360</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>60000</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>233400</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>45137</v>
-      </c>
       <c r="AW39" s="11">
-        <v>293400</v>
+        <v>232320</v>
       </c>
       <c r="AX39" s="11">
-        <v>232320</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="11">
-        <v>0</v>
+        <v>88712</v>
       </c>
       <c r="AZ39" s="11">
-        <v>88712</v>
+        <v>357560</v>
       </c>
       <c r="BA39" s="11">
-        <v>357560</v>
+        <v>194398</v>
       </c>
       <c r="BB39" s="11">
-        <v>194398</v>
+        <v>76169</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
@@ -5366,104 +5401,104 @@
       <c r="V40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>58</v>
+      <c r="W40" s="13">
+        <v>350036</v>
       </c>
       <c r="X40" s="13">
-        <v>350036</v>
+        <v>314605</v>
       </c>
       <c r="Y40" s="13">
-        <v>314605</v>
+        <v>749791</v>
       </c>
       <c r="Z40" s="13">
-        <v>749791</v>
+        <v>521049</v>
       </c>
       <c r="AA40" s="13">
-        <v>521049</v>
+        <v>617582</v>
       </c>
       <c r="AB40" s="13">
-        <v>617582</v>
+        <v>652210</v>
       </c>
       <c r="AC40" s="13">
-        <v>652210</v>
+        <v>411366</v>
       </c>
       <c r="AD40" s="13">
-        <v>411366</v>
+        <v>554704</v>
       </c>
       <c r="AE40" s="13">
-        <v>554704</v>
+        <v>16900</v>
       </c>
       <c r="AF40" s="13">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="13">
-        <v>0</v>
+        <v>384770</v>
       </c>
       <c r="AH40" s="13">
-        <v>384770</v>
+        <v>225058</v>
       </c>
       <c r="AI40" s="13">
-        <v>225058</v>
+        <v>66194</v>
       </c>
       <c r="AJ40" s="13">
-        <v>66194</v>
+        <v>462605</v>
       </c>
       <c r="AK40" s="13">
-        <v>462605</v>
+        <v>590694</v>
       </c>
       <c r="AL40" s="13">
-        <v>590694</v>
+        <v>623854</v>
       </c>
       <c r="AM40" s="13">
-        <v>623854</v>
+        <v>223425</v>
       </c>
       <c r="AN40" s="13">
-        <v>223425</v>
+        <v>264913</v>
       </c>
       <c r="AO40" s="13">
-        <v>264913</v>
+        <v>637709</v>
       </c>
       <c r="AP40" s="13">
-        <v>637709</v>
+        <v>814046</v>
       </c>
       <c r="AQ40" s="13">
-        <v>814046</v>
+        <v>681703</v>
       </c>
       <c r="AR40" s="13">
-        <v>681703</v>
+        <v>351924</v>
       </c>
       <c r="AS40" s="13">
-        <v>351924</v>
+        <v>175467</v>
       </c>
       <c r="AT40" s="13">
-        <v>175467</v>
+        <v>155901</v>
       </c>
       <c r="AU40" s="13">
-        <v>155901</v>
+        <v>186323</v>
       </c>
       <c r="AV40" s="13">
-        <v>186323</v>
+        <v>76001</v>
       </c>
       <c r="AW40" s="13">
-        <v>76001</v>
+        <v>146648</v>
       </c>
       <c r="AX40" s="13">
-        <v>146648</v>
+        <v>121962</v>
       </c>
       <c r="AY40" s="13">
-        <v>121962</v>
+        <v>497348</v>
       </c>
       <c r="AZ40" s="13">
-        <v>497348</v>
+        <v>801639</v>
       </c>
       <c r="BA40" s="13">
-        <v>801639</v>
+        <v>883420</v>
       </c>
       <c r="BB40" s="13">
-        <v>883420</v>
+        <v>457990</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>61</v>
       </c>
@@ -5525,80 +5560,80 @@
       <c r="V41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>58</v>
+      <c r="W41" s="11">
+        <v>127596</v>
       </c>
       <c r="X41" s="11">
-        <v>127596</v>
+        <v>26000</v>
       </c>
       <c r="Y41" s="11">
-        <v>26000</v>
+        <v>72010</v>
       </c>
       <c r="Z41" s="11">
-        <v>72010</v>
+        <v>41800</v>
       </c>
       <c r="AA41" s="11">
-        <v>41800</v>
+        <v>279000</v>
       </c>
       <c r="AB41" s="11">
-        <v>279000</v>
+        <v>446982</v>
       </c>
       <c r="AC41" s="11">
-        <v>446982</v>
+        <v>32396</v>
       </c>
       <c r="AD41" s="11">
-        <v>32396</v>
+        <v>33668</v>
       </c>
       <c r="AE41" s="11">
-        <v>33668</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="11">
         <v>0</v>
       </c>
       <c r="AG41" s="11">
-        <v>0</v>
+        <v>203696</v>
       </c>
       <c r="AH41" s="11">
-        <v>203696</v>
-      </c>
-      <c r="AI41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>0</v>
       </c>
       <c r="AK41" s="11">
         <v>0</v>
       </c>
       <c r="AL41" s="11">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AM41" s="11">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="AN41" s="11">
-        <v>15000</v>
+        <v>247971</v>
       </c>
       <c r="AO41" s="11">
-        <v>247971</v>
+        <v>135324</v>
       </c>
       <c r="AP41" s="11">
-        <v>135324</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="11">
-        <v>0</v>
+        <v>179340</v>
       </c>
       <c r="AR41" s="11">
-        <v>179340</v>
+        <v>180894</v>
       </c>
       <c r="AS41" s="11">
-        <v>180894</v>
+        <v>4430</v>
       </c>
       <c r="AT41" s="11">
-        <v>4430</v>
+        <v>44254</v>
       </c>
       <c r="AU41" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="11">
         <v>0</v>
@@ -5616,13 +5651,13 @@
         <v>0</v>
       </c>
       <c r="BA41" s="11">
-        <v>0</v>
+        <v>279450</v>
       </c>
       <c r="BB41" s="11">
-        <v>279450</v>
+        <v>362381</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -5684,104 +5719,104 @@
       <c r="V42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="13" t="s">
-        <v>58</v>
+      <c r="W42" s="13">
+        <v>9808340</v>
       </c>
       <c r="X42" s="13">
-        <v>9808340</v>
+        <v>26264800</v>
       </c>
       <c r="Y42" s="13">
-        <v>26264800</v>
+        <v>25781960</v>
       </c>
       <c r="Z42" s="13">
-        <v>25781960</v>
+        <v>14958930</v>
       </c>
       <c r="AA42" s="13">
-        <v>14958930</v>
+        <v>3650278</v>
       </c>
       <c r="AB42" s="13">
-        <v>3650278</v>
+        <v>3313698</v>
       </c>
       <c r="AC42" s="13">
-        <v>3313698</v>
+        <v>29056350</v>
       </c>
       <c r="AD42" s="13">
-        <v>29056350</v>
+        <v>18249450</v>
       </c>
       <c r="AE42" s="13">
-        <v>18249450</v>
+        <v>3319694</v>
       </c>
       <c r="AF42" s="13">
-        <v>3319694</v>
+        <v>5095000</v>
       </c>
       <c r="AG42" s="13">
-        <v>5095000</v>
+        <v>16123430</v>
       </c>
       <c r="AH42" s="13">
-        <v>16123430</v>
+        <v>5246250</v>
       </c>
       <c r="AI42" s="13">
-        <v>5246250</v>
+        <v>10389950</v>
       </c>
       <c r="AJ42" s="13">
-        <v>10389950</v>
+        <v>4586768</v>
       </c>
       <c r="AK42" s="13">
-        <v>4586768</v>
+        <v>55923024</v>
       </c>
       <c r="AL42" s="13">
-        <v>55923024</v>
+        <v>24923336</v>
       </c>
       <c r="AM42" s="13">
-        <v>24923336</v>
+        <v>51018720</v>
       </c>
       <c r="AN42" s="13">
-        <v>51018720</v>
+        <v>10668860</v>
       </c>
       <c r="AO42" s="13">
-        <v>10668860</v>
+        <v>34980130</v>
       </c>
       <c r="AP42" s="13">
-        <v>34980130</v>
+        <v>44978050</v>
       </c>
       <c r="AQ42" s="13">
-        <v>44978050</v>
+        <v>19983750</v>
       </c>
       <c r="AR42" s="13">
-        <v>19983750</v>
+        <v>17294200</v>
       </c>
       <c r="AS42" s="13">
-        <v>17294200</v>
+        <v>22223050</v>
       </c>
       <c r="AT42" s="13">
-        <v>22223050</v>
+        <v>9391220</v>
       </c>
       <c r="AU42" s="13">
-        <v>9391220</v>
+        <v>38699600</v>
       </c>
       <c r="AV42" s="13">
-        <v>38699600</v>
+        <v>34421030</v>
       </c>
       <c r="AW42" s="13">
-        <v>34421030</v>
+        <v>26777450</v>
       </c>
       <c r="AX42" s="13">
-        <v>26777450</v>
+        <v>28959360</v>
       </c>
       <c r="AY42" s="13">
-        <v>28959360</v>
+        <v>20009370</v>
       </c>
       <c r="AZ42" s="13">
-        <v>20009370</v>
+        <v>7543550</v>
       </c>
       <c r="BA42" s="13">
-        <v>7543550</v>
+        <v>32461460</v>
       </c>
       <c r="BB42" s="13">
-        <v>32461460</v>
+        <v>49846060</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
@@ -5843,104 +5878,104 @@
       <c r="V43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="11" t="s">
-        <v>58</v>
+      <c r="W43" s="11">
+        <v>909718</v>
       </c>
       <c r="X43" s="11">
-        <v>909718</v>
+        <v>4172276</v>
       </c>
       <c r="Y43" s="11">
-        <v>4172276</v>
+        <v>1689961</v>
       </c>
       <c r="Z43" s="11">
-        <v>1689961</v>
+        <v>3586174</v>
       </c>
       <c r="AA43" s="11">
-        <v>3586174</v>
+        <v>1869520</v>
       </c>
       <c r="AB43" s="11">
-        <v>1869520</v>
+        <v>1701000</v>
       </c>
       <c r="AC43" s="11">
-        <v>1701000</v>
+        <v>2866590</v>
       </c>
       <c r="AD43" s="11">
-        <v>2866590</v>
+        <v>4088530</v>
       </c>
       <c r="AE43" s="11">
-        <v>4088530</v>
+        <v>5302230</v>
       </c>
       <c r="AF43" s="11">
-        <v>5302230</v>
+        <v>5243040</v>
       </c>
       <c r="AG43" s="11">
-        <v>5243040</v>
+        <v>640827</v>
       </c>
       <c r="AH43" s="11">
-        <v>640827</v>
+        <v>1091320</v>
       </c>
       <c r="AI43" s="11">
-        <v>1091320</v>
+        <v>1386230</v>
       </c>
       <c r="AJ43" s="11">
-        <v>1386230</v>
+        <v>3985760</v>
       </c>
       <c r="AK43" s="11">
-        <v>3985760</v>
+        <v>2484060</v>
       </c>
       <c r="AL43" s="11">
-        <v>2484060</v>
+        <v>4816465</v>
       </c>
       <c r="AM43" s="11">
-        <v>4816465</v>
+        <v>3258720</v>
       </c>
       <c r="AN43" s="11">
-        <v>3258720</v>
+        <v>2574820</v>
       </c>
       <c r="AO43" s="11">
-        <v>2574820</v>
+        <v>3669880</v>
       </c>
       <c r="AP43" s="11">
-        <v>3669880</v>
+        <v>1077780</v>
       </c>
       <c r="AQ43" s="11">
-        <v>1077780</v>
+        <v>1147800</v>
       </c>
       <c r="AR43" s="11">
-        <v>1147800</v>
+        <v>3867980</v>
       </c>
       <c r="AS43" s="11">
-        <v>3867980</v>
+        <v>1546240</v>
       </c>
       <c r="AT43" s="11">
-        <v>1546240</v>
+        <v>1342800</v>
       </c>
       <c r="AU43" s="11">
-        <v>1342800</v>
+        <v>4116468</v>
       </c>
       <c r="AV43" s="11">
-        <v>4116468</v>
+        <v>3355025</v>
       </c>
       <c r="AW43" s="11">
-        <v>3355025</v>
+        <v>2249560</v>
       </c>
       <c r="AX43" s="11">
-        <v>2249560</v>
+        <v>1702765</v>
       </c>
       <c r="AY43" s="11">
-        <v>1702765</v>
+        <v>3884700</v>
       </c>
       <c r="AZ43" s="11">
-        <v>3884700</v>
+        <v>2906720</v>
       </c>
       <c r="BA43" s="11">
-        <v>2906720</v>
+        <v>868740</v>
       </c>
       <c r="BB43" s="11">
-        <v>868740</v>
+        <v>1691420</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>65</v>
       </c>
@@ -6035,11 +6070,11 @@
       <c r="AG44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI44" s="13">
-        <v>0</v>
+      <c r="AH44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ44" s="13" t="s">
         <v>58</v>
@@ -6071,8 +6106,8 @@
       <c r="AS44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT44" s="13" t="s">
-        <v>58</v>
+      <c r="AT44" s="13">
+        <v>0</v>
       </c>
       <c r="AU44" s="13">
         <v>0</v>
@@ -6099,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>66</v>
       </c>
@@ -6161,14 +6196,14 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>0</v>
       </c>
       <c r="X45" s="11">
         <v>0</v>
       </c>
-      <c r="Y45" s="11">
-        <v>0</v>
+      <c r="Y45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z45" s="11" t="s">
         <v>58</v>
@@ -6258,7 +6293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>77</v>
       </c>
@@ -6319,103 +6354,103 @@
         <v>0</v>
       </c>
       <c r="W46" s="15">
-        <v>0</v>
+        <v>11547770</v>
       </c>
       <c r="X46" s="15">
-        <v>11547770</v>
+        <v>31070961</v>
       </c>
       <c r="Y46" s="15">
-        <v>31070961</v>
+        <v>28293722</v>
       </c>
       <c r="Z46" s="15">
-        <v>28293722</v>
+        <v>19401203</v>
       </c>
       <c r="AA46" s="15">
-        <v>19401203</v>
+        <v>6475060</v>
       </c>
       <c r="AB46" s="15">
-        <v>6475060</v>
+        <v>6113890</v>
       </c>
       <c r="AC46" s="15">
-        <v>6113890</v>
+        <v>32366702</v>
       </c>
       <c r="AD46" s="15">
-        <v>32366702</v>
+        <v>23042632</v>
       </c>
       <c r="AE46" s="15">
-        <v>23042632</v>
+        <v>8932224</v>
       </c>
       <c r="AF46" s="15">
-        <v>8932224</v>
+        <v>10338040</v>
       </c>
       <c r="AG46" s="15">
-        <v>10338040</v>
+        <v>17352723</v>
       </c>
       <c r="AH46" s="15">
-        <v>17352723</v>
+        <v>6621308</v>
       </c>
       <c r="AI46" s="15">
-        <v>6621308</v>
+        <v>12076974</v>
       </c>
       <c r="AJ46" s="15">
-        <v>12076974</v>
+        <v>9147663</v>
       </c>
       <c r="AK46" s="15">
-        <v>9147663</v>
+        <v>59208738</v>
       </c>
       <c r="AL46" s="15">
-        <v>59208738</v>
+        <v>30425895</v>
       </c>
       <c r="AM46" s="15">
-        <v>30425895</v>
+        <v>54515865</v>
       </c>
       <c r="AN46" s="15">
-        <v>54515865</v>
+        <v>13932604</v>
       </c>
       <c r="AO46" s="15">
-        <v>13932604</v>
+        <v>39630403</v>
       </c>
       <c r="AP46" s="15">
-        <v>39630403</v>
+        <v>46869876</v>
       </c>
       <c r="AQ46" s="15">
-        <v>46869876</v>
+        <v>21992593</v>
       </c>
       <c r="AR46" s="15">
-        <v>21992593</v>
+        <v>21694998</v>
       </c>
       <c r="AS46" s="15">
-        <v>21694998</v>
+        <v>24009187</v>
       </c>
       <c r="AT46" s="15">
-        <v>24009187</v>
+        <v>11167575</v>
       </c>
       <c r="AU46" s="15">
-        <v>11167575</v>
+        <v>43047528</v>
       </c>
       <c r="AV46" s="15">
-        <v>43047528</v>
+        <v>38145456</v>
       </c>
       <c r="AW46" s="15">
-        <v>38145456</v>
+        <v>29405978</v>
       </c>
       <c r="AX46" s="15">
-        <v>29405978</v>
+        <v>30784087</v>
       </c>
       <c r="AY46" s="15">
-        <v>30784087</v>
+        <v>24480130</v>
       </c>
       <c r="AZ46" s="15">
-        <v>24480130</v>
+        <v>11609469</v>
       </c>
       <c r="BA46" s="15">
-        <v>11609469</v>
+        <v>34687468</v>
       </c>
       <c r="BB46" s="15">
-        <v>34687468</v>
+        <v>52434020</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>78</v>
       </c>
@@ -6472,7 +6507,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>56</v>
       </c>
@@ -6534,8 +6569,8 @@
       <c r="V48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="11" t="s">
-        <v>58</v>
+      <c r="W48" s="11">
+        <v>0</v>
       </c>
       <c r="X48" s="11">
         <v>0</v>
@@ -6570,14 +6605,14 @@
       <c r="AH48" s="11">
         <v>0</v>
       </c>
-      <c r="AI48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK48" s="11">
-        <v>0</v>
+      <c r="AI48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL48" s="11" t="s">
         <v>58</v>
@@ -6603,8 +6638,8 @@
       <c r="AS48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT48" s="11" t="s">
-        <v>58</v>
+      <c r="AT48" s="11">
+        <v>0</v>
       </c>
       <c r="AU48" s="11">
         <v>0</v>
@@ -6631,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>59</v>
       </c>
@@ -6693,8 +6728,8 @@
       <c r="V49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="13" t="s">
-        <v>58</v>
+      <c r="W49" s="13">
+        <v>0</v>
       </c>
       <c r="X49" s="13">
         <v>0</v>
@@ -6729,14 +6764,14 @@
       <c r="AH49" s="13">
         <v>0</v>
       </c>
-      <c r="AI49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK49" s="13">
-        <v>0</v>
+      <c r="AI49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL49" s="13" t="s">
         <v>58</v>
@@ -6762,8 +6797,8 @@
       <c r="AS49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT49" s="13" t="s">
-        <v>58</v>
+      <c r="AT49" s="13">
+        <v>0</v>
       </c>
       <c r="AU49" s="13">
         <v>0</v>
@@ -6790,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>61</v>
       </c>
@@ -6852,8 +6887,8 @@
       <c r="V50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="11" t="s">
-        <v>58</v>
+      <c r="W50" s="11">
+        <v>0</v>
       </c>
       <c r="X50" s="11">
         <v>0</v>
@@ -6888,14 +6923,14 @@
       <c r="AH50" s="11">
         <v>0</v>
       </c>
-      <c r="AI50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK50" s="11">
-        <v>0</v>
+      <c r="AI50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL50" s="11" t="s">
         <v>58</v>
@@ -6921,8 +6956,8 @@
       <c r="AS50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT50" s="11" t="s">
-        <v>58</v>
+      <c r="AT50" s="11">
+        <v>0</v>
       </c>
       <c r="AU50" s="11">
         <v>0</v>
@@ -6949,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>63</v>
       </c>
@@ -7011,8 +7046,8 @@
       <c r="V51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="13" t="s">
-        <v>58</v>
+      <c r="W51" s="13">
+        <v>0</v>
       </c>
       <c r="X51" s="13">
         <v>0</v>
@@ -7047,14 +7082,14 @@
       <c r="AH51" s="13">
         <v>0</v>
       </c>
-      <c r="AI51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK51" s="13">
-        <v>0</v>
+      <c r="AI51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ51" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL51" s="13" t="s">
         <v>58</v>
@@ -7080,8 +7115,8 @@
       <c r="AS51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT51" s="13" t="s">
-        <v>58</v>
+      <c r="AT51" s="13">
+        <v>0</v>
       </c>
       <c r="AU51" s="13">
         <v>0</v>
@@ -7108,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>64</v>
       </c>
@@ -7170,14 +7205,14 @@
       <c r="V52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="11" t="s">
-        <v>58</v>
+      <c r="W52" s="11">
+        <v>0</v>
       </c>
       <c r="X52" s="11">
         <v>0</v>
       </c>
-      <c r="Y52" s="11">
-        <v>0</v>
+      <c r="Y52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z52" s="11" t="s">
         <v>58</v>
@@ -7185,8 +7220,8 @@
       <c r="AA52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB52" s="11" t="s">
-        <v>58</v>
+      <c r="AB52" s="11">
+        <v>0</v>
       </c>
       <c r="AC52" s="11">
         <v>0</v>
@@ -7206,14 +7241,14 @@
       <c r="AH52" s="11">
         <v>0</v>
       </c>
-      <c r="AI52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK52" s="11">
-        <v>0</v>
+      <c r="AI52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL52" s="11" t="s">
         <v>58</v>
@@ -7224,23 +7259,23 @@
       <c r="AN52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP52" s="11">
+      <c r="AO52" s="11">
         <v>366798</v>
       </c>
-      <c r="AQ52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR52" s="11">
-        <v>0</v>
+      <c r="AP52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT52" s="11" t="s">
-        <v>58</v>
+      <c r="AT52" s="11">
+        <v>0</v>
       </c>
       <c r="AU52" s="11">
         <v>0</v>
@@ -7267,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>65</v>
       </c>
@@ -7398,8 +7433,8 @@
       <c r="AS53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT53" s="13" t="s">
-        <v>58</v>
+      <c r="AT53" s="13">
+        <v>0</v>
       </c>
       <c r="AU53" s="13">
         <v>0</v>
@@ -7426,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>66</v>
       </c>
@@ -7488,14 +7523,14 @@
       <c r="V54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="11" t="s">
-        <v>58</v>
+      <c r="W54" s="11">
+        <v>0</v>
       </c>
       <c r="X54" s="11">
         <v>0</v>
       </c>
-      <c r="Y54" s="11">
-        <v>0</v>
+      <c r="Y54" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z54" s="11" t="s">
         <v>58</v>
@@ -7585,7 +7620,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>79</v>
       </c>
@@ -7700,10 +7735,10 @@
         <v>0</v>
       </c>
       <c r="AO55" s="15">
-        <v>0</v>
+        <v>366798</v>
       </c>
       <c r="AP55" s="15">
-        <v>366798</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="15">
         <v>0</v>
@@ -7742,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>71</v>
       </c>
@@ -7799,7 +7834,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>66</v>
       </c>
@@ -7867,69 +7902,69 @@
       <c r="X57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>58</v>
+      <c r="Y57" s="11">
+        <v>8</v>
       </c>
       <c r="Z57" s="11">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AA57" s="11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB57" s="11">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AC57" s="11">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AD57" s="11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE57" s="11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AF57" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG57" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH57" s="11">
+        <v>13</v>
+      </c>
+      <c r="AI57" s="11">
+        <v>15</v>
+      </c>
+      <c r="AJ57" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK57" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="11">
+        <v>51</v>
+      </c>
+      <c r="AN57" s="11">
         <v>5</v>
       </c>
-      <c r="AG57" s="11">
-        <v>3</v>
-      </c>
-      <c r="AH57" s="11">
-        <v>6</v>
-      </c>
-      <c r="AI57" s="11">
-        <v>13</v>
-      </c>
-      <c r="AJ57" s="11">
-        <v>15</v>
-      </c>
-      <c r="AK57" s="11">
-        <v>4</v>
-      </c>
-      <c r="AL57" s="11">
-        <v>3</v>
-      </c>
-      <c r="AM57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN57" s="11">
-        <v>51</v>
-      </c>
-      <c r="AO57" s="11">
-        <v>5</v>
-      </c>
-      <c r="AP57" s="11" t="s">
+      <c r="AO57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP57" s="11">
         <v>58</v>
       </c>
       <c r="AQ57" s="11">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="AR57" s="11">
-        <v>9</v>
-      </c>
-      <c r="AS57" s="11">
         <v>21</v>
       </c>
+      <c r="AS57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT57" s="11" t="s">
         <v>58</v>
       </c>
@@ -7958,7 +7993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>72</v>
       </c>
@@ -8086,38 +8121,38 @@
       <c r="AR58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT58" s="13">
+      <c r="AS58" s="13">
         <v>1751428</v>
       </c>
-      <c r="AU58" s="13" t="s">
-        <v>58</v>
+      <c r="AT58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU58" s="13">
+        <v>377858</v>
       </c>
       <c r="AV58" s="13">
-        <v>377858</v>
+        <v>480437</v>
       </c>
       <c r="AW58" s="13">
-        <v>480437</v>
+        <v>113565</v>
       </c>
       <c r="AX58" s="13">
-        <v>113565</v>
+        <v>128507</v>
       </c>
       <c r="AY58" s="13">
-        <v>128507</v>
-      </c>
-      <c r="AZ58" s="13">
         <v>498767</v>
       </c>
-      <c r="BA58" s="13" t="s">
-        <v>58</v>
+      <c r="AZ58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA58" s="13">
+        <v>30187</v>
       </c>
       <c r="BB58" s="13">
-        <v>30187</v>
+        <v>11850</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="16" t="s">
         <v>73</v>
       </c>
@@ -8183,98 +8218,98 @@
       <c r="X59" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="17" t="s">
-        <v>58</v>
+      <c r="Y59" s="17">
+        <v>8</v>
       </c>
       <c r="Z59" s="17">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AA59" s="17">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB59" s="17">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AC59" s="17">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AD59" s="17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE59" s="17">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AF59" s="17">
+        <v>3</v>
+      </c>
+      <c r="AG59" s="17">
+        <v>6</v>
+      </c>
+      <c r="AH59" s="17">
+        <v>13</v>
+      </c>
+      <c r="AI59" s="17">
+        <v>15</v>
+      </c>
+      <c r="AJ59" s="17">
+        <v>4</v>
+      </c>
+      <c r="AK59" s="17">
+        <v>3</v>
+      </c>
+      <c r="AL59" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="17">
+        <v>51</v>
+      </c>
+      <c r="AN59" s="17">
         <v>5</v>
       </c>
-      <c r="AG59" s="17">
-        <v>3</v>
-      </c>
-      <c r="AH59" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI59" s="17">
-        <v>13</v>
-      </c>
-      <c r="AJ59" s="17">
-        <v>15</v>
-      </c>
-      <c r="AK59" s="17">
-        <v>4</v>
-      </c>
-      <c r="AL59" s="17">
-        <v>3</v>
-      </c>
-      <c r="AM59" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN59" s="17">
-        <v>51</v>
-      </c>
       <c r="AO59" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP59" s="17">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AQ59" s="17">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="AR59" s="17">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AS59" s="17">
-        <v>21</v>
+        <v>1751428</v>
       </c>
       <c r="AT59" s="17">
-        <v>1751428</v>
+        <v>0</v>
       </c>
       <c r="AU59" s="17">
-        <v>0</v>
+        <v>377858</v>
       </c>
       <c r="AV59" s="17">
-        <v>377858</v>
+        <v>480437</v>
       </c>
       <c r="AW59" s="17">
-        <v>480437</v>
+        <v>113565</v>
       </c>
       <c r="AX59" s="17">
-        <v>113565</v>
+        <v>128507</v>
       </c>
       <c r="AY59" s="17">
-        <v>128507</v>
+        <v>498767</v>
       </c>
       <c r="AZ59" s="17">
-        <v>498767</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="17">
-        <v>0</v>
+        <v>30187</v>
       </c>
       <c r="BB59" s="17">
-        <v>30187</v>
+        <v>11850</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>80</v>
       </c>
@@ -8331,7 +8366,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
@@ -8399,8 +8434,8 @@
       <c r="X61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>58</v>
+      <c r="Y61" s="11">
+        <v>0</v>
       </c>
       <c r="Z61" s="11">
         <v>0</v>
@@ -8429,14 +8464,14 @@
       <c r="AH61" s="11">
         <v>0</v>
       </c>
-      <c r="AI61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK61" s="11">
-        <v>0</v>
+      <c r="AI61" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL61" s="11" t="s">
         <v>58</v>
@@ -8453,11 +8488,11 @@
       <c r="AP61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR61" s="11">
-        <v>0</v>
+      <c r="AQ61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS61" s="11" t="s">
         <v>58</v>
@@ -8483,14 +8518,14 @@
       <c r="AZ61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA61" s="11" t="s">
-        <v>58</v>
+      <c r="BA61" s="11">
+        <v>0</v>
       </c>
       <c r="BB61" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>59</v>
       </c>
@@ -8558,44 +8593,44 @@
       <c r="X62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y62" s="13" t="s">
-        <v>58</v>
+      <c r="Y62" s="13">
+        <v>0</v>
       </c>
       <c r="Z62" s="13">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA62" s="13">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="13">
         <v>0</v>
       </c>
       <c r="AC62" s="13">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="AD62" s="13">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="13">
         <v>0</v>
       </c>
       <c r="AF62" s="13">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AG62" s="13">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="AH62" s="13">
         <v>0</v>
       </c>
-      <c r="AI62" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK62" s="13">
-        <v>0</v>
+      <c r="AI62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL62" s="13" t="s">
         <v>58</v>
@@ -8612,11 +8647,11 @@
       <c r="AP62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR62" s="13">
-        <v>0</v>
+      <c r="AQ62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS62" s="13" t="s">
         <v>58</v>
@@ -8642,14 +8677,14 @@
       <c r="AZ62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB62" s="13">
+      <c r="BA62" s="13">
         <v>-120</v>
       </c>
+      <c r="BB62" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>61</v>
       </c>
@@ -8717,8 +8752,8 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>0</v>
       </c>
       <c r="Z63" s="11">
         <v>0</v>
@@ -8747,14 +8782,14 @@
       <c r="AH63" s="11">
         <v>0</v>
       </c>
-      <c r="AI63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK63" s="11">
-        <v>0</v>
+      <c r="AI63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL63" s="11" t="s">
         <v>58</v>
@@ -8771,11 +8806,11 @@
       <c r="AP63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR63" s="11">
-        <v>0</v>
+      <c r="AQ63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS63" s="11" t="s">
         <v>58</v>
@@ -8801,14 +8836,14 @@
       <c r="AZ63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA63" s="11" t="s">
-        <v>58</v>
+      <c r="BA63" s="11">
+        <v>0</v>
       </c>
       <c r="BB63" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>63</v>
       </c>
@@ -8876,17 +8911,17 @@
       <c r="X64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>58</v>
+      <c r="Y64" s="13">
+        <v>0</v>
       </c>
       <c r="Z64" s="13">
         <v>0</v>
       </c>
       <c r="AA64" s="13">
-        <v>0</v>
+        <v>-108000</v>
       </c>
       <c r="AB64" s="13">
-        <v>-108000</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="13">
         <v>0</v>
@@ -8901,19 +8936,19 @@
         <v>0</v>
       </c>
       <c r="AG64" s="13">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="AH64" s="13">
-        <v>-450</v>
-      </c>
-      <c r="AI64" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK64" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL64" s="13" t="s">
         <v>58</v>
@@ -8927,17 +8962,17 @@
       <c r="AO64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP64" s="13" t="s">
-        <v>58</v>
+      <c r="AP64" s="13">
+        <v>-414</v>
       </c>
       <c r="AQ64" s="13">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AR64" s="13">
         <v>0</v>
       </c>
-      <c r="AS64" s="13">
-        <v>0</v>
+      <c r="AS64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT64" s="13" t="s">
         <v>58</v>
@@ -8945,29 +8980,29 @@
       <c r="AU64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV64" s="13" t="s">
-        <v>58</v>
+      <c r="AV64" s="13">
+        <v>-62490</v>
       </c>
       <c r="AW64" s="13">
-        <v>-62490</v>
-      </c>
-      <c r="AX64" s="13">
         <v>-6120</v>
       </c>
+      <c r="AX64" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ64" s="13" t="s">
-        <v>58</v>
+      <c r="AZ64" s="13">
+        <v>-933650</v>
       </c>
       <c r="BA64" s="13">
-        <v>-933650</v>
-      </c>
-      <c r="BB64" s="13">
         <v>-1884400</v>
       </c>
+      <c r="BB64" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>64</v>
       </c>
@@ -9035,14 +9070,14 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>-10927</v>
       </c>
       <c r="Z65" s="11">
-        <v>-10927</v>
+        <v>-800</v>
       </c>
       <c r="AA65" s="11">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="11">
         <v>0</v>
@@ -9060,34 +9095,34 @@
         <v>0</v>
       </c>
       <c r="AG65" s="11">
-        <v>0</v>
+        <v>-471</v>
       </c>
       <c r="AH65" s="11">
-        <v>-471</v>
-      </c>
-      <c r="AI65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ65" s="11">
+        <v>0</v>
       </c>
       <c r="AK65" s="11">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AL65" s="11">
-        <v>-2000</v>
+        <v>-5000</v>
       </c>
       <c r="AM65" s="11">
-        <v>-5000</v>
+        <v>-25720</v>
       </c>
       <c r="AN65" s="11">
-        <v>-25720</v>
+        <v>-21000</v>
       </c>
       <c r="AO65" s="11">
-        <v>-21000</v>
+        <v>-4860</v>
       </c>
       <c r="AP65" s="11">
-        <v>-4860</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="11">
         <v>0</v>
@@ -9095,8 +9130,8 @@
       <c r="AR65" s="11">
         <v>0</v>
       </c>
-      <c r="AS65" s="11">
-        <v>0</v>
+      <c r="AS65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT65" s="11" t="s">
         <v>58</v>
@@ -9104,29 +9139,29 @@
       <c r="AU65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV65" s="11" t="s">
-        <v>58</v>
+      <c r="AV65" s="11">
+        <v>-13</v>
       </c>
       <c r="AW65" s="11">
-        <v>-13</v>
-      </c>
-      <c r="AX65" s="11">
         <v>-557600</v>
       </c>
+      <c r="AX65" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AY65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ65" s="11" t="s">
-        <v>58</v>
+      <c r="AZ65" s="11">
+        <v>-10000</v>
       </c>
       <c r="BA65" s="11">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>81</v>
       </c>
@@ -9221,17 +9256,17 @@
       <c r="AG66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI66" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK66" s="13">
-        <v>0</v>
+      <c r="AH66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL66" s="13" t="s">
         <v>58</v>
@@ -9248,11 +9283,11 @@
       <c r="AP66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR66" s="13">
-        <v>0</v>
+      <c r="AQ66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS66" s="13" t="s">
         <v>58</v>
@@ -9285,7 +9320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>65</v>
       </c>
@@ -9437,14 +9472,14 @@
       <c r="AZ67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA67" s="11" t="s">
-        <v>58</v>
+      <c r="BA67" s="11">
+        <v>0</v>
       </c>
       <c r="BB67" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
         <v>82</v>
       </c>
@@ -9510,35 +9545,35 @@
       <c r="X68" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="15" t="s">
-        <v>58</v>
+      <c r="Y68" s="15">
+        <v>-10927</v>
       </c>
       <c r="Z68" s="15">
-        <v>-10927</v>
+        <v>-900</v>
       </c>
       <c r="AA68" s="15">
-        <v>-900</v>
+        <v>-108000</v>
       </c>
       <c r="AB68" s="15">
-        <v>-108000</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="15">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="AD68" s="15">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="15">
         <v>0</v>
       </c>
       <c r="AF68" s="15">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AG68" s="15">
-        <v>-1500</v>
+        <v>-921</v>
       </c>
       <c r="AH68" s="15">
-        <v>-921</v>
+        <v>0</v>
       </c>
       <c r="AI68" s="15">
         <v>0</v>
@@ -9547,25 +9582,25 @@
         <v>0</v>
       </c>
       <c r="AK68" s="15">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AL68" s="15">
-        <v>-2000</v>
+        <v>-5000</v>
       </c>
       <c r="AM68" s="15">
-        <v>-5000</v>
+        <v>-25720</v>
       </c>
       <c r="AN68" s="15">
-        <v>-25720</v>
+        <v>-21000</v>
       </c>
       <c r="AO68" s="15">
-        <v>-21000</v>
+        <v>-4860</v>
       </c>
       <c r="AP68" s="15">
-        <v>-4860</v>
+        <v>-414</v>
       </c>
       <c r="AQ68" s="15">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AR68" s="15">
         <v>0</v>
@@ -9580,28 +9615,28 @@
         <v>0</v>
       </c>
       <c r="AV68" s="15">
-        <v>0</v>
+        <v>-62503</v>
       </c>
       <c r="AW68" s="15">
-        <v>-62503</v>
+        <v>-563720</v>
       </c>
       <c r="AX68" s="15">
-        <v>-563720</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="15">
         <v>0</v>
       </c>
       <c r="AZ68" s="15">
-        <v>0</v>
+        <v>-943650</v>
       </c>
       <c r="BA68" s="15">
-        <v>-943650</v>
+        <v>-1884520</v>
       </c>
       <c r="BB68" s="15">
-        <v>-1884520</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="16" t="s">
         <v>74</v>
       </c>
@@ -9662,103 +9697,103 @@
         <v>0</v>
       </c>
       <c r="W69" s="17">
-        <v>0</v>
+        <v>11547770</v>
       </c>
       <c r="X69" s="17">
-        <v>11547770</v>
+        <v>31070961</v>
       </c>
       <c r="Y69" s="17">
-        <v>31070961</v>
+        <v>28282803</v>
       </c>
       <c r="Z69" s="17">
-        <v>28282803</v>
+        <v>19400331</v>
       </c>
       <c r="AA69" s="17">
-        <v>19400331</v>
+        <v>6367072</v>
       </c>
       <c r="AB69" s="17">
-        <v>6367072</v>
+        <v>6113920</v>
       </c>
       <c r="AC69" s="17">
-        <v>6113920</v>
+        <v>32316709</v>
       </c>
       <c r="AD69" s="17">
-        <v>32316709</v>
+        <v>23042643</v>
       </c>
       <c r="AE69" s="17">
-        <v>23042643</v>
+        <v>8932229</v>
       </c>
       <c r="AF69" s="17">
-        <v>8932229</v>
+        <v>10336543</v>
       </c>
       <c r="AG69" s="17">
-        <v>10336543</v>
+        <v>17351808</v>
       </c>
       <c r="AH69" s="17">
-        <v>17351808</v>
+        <v>6621321</v>
       </c>
       <c r="AI69" s="17">
-        <v>6621321</v>
+        <v>12076989</v>
       </c>
       <c r="AJ69" s="17">
-        <v>12076989</v>
+        <v>9147667</v>
       </c>
       <c r="AK69" s="17">
-        <v>9147667</v>
+        <v>59206741</v>
       </c>
       <c r="AL69" s="17">
-        <v>59206741</v>
+        <v>30420895</v>
       </c>
       <c r="AM69" s="17">
-        <v>30420895</v>
+        <v>54490196</v>
       </c>
       <c r="AN69" s="17">
-        <v>54490196</v>
+        <v>13911609</v>
       </c>
       <c r="AO69" s="17">
-        <v>13911609</v>
+        <v>39992341</v>
       </c>
       <c r="AP69" s="17">
-        <v>39992341</v>
+        <v>46869520</v>
       </c>
       <c r="AQ69" s="17">
-        <v>46869520</v>
+        <v>21992602</v>
       </c>
       <c r="AR69" s="17">
-        <v>21992602</v>
+        <v>21695019</v>
       </c>
       <c r="AS69" s="17">
-        <v>21695019</v>
+        <v>25760615</v>
       </c>
       <c r="AT69" s="17">
-        <v>25760615</v>
+        <v>11167575</v>
       </c>
       <c r="AU69" s="17">
-        <v>11167575</v>
+        <v>43425386</v>
       </c>
       <c r="AV69" s="17">
-        <v>43425386</v>
+        <v>38563390</v>
       </c>
       <c r="AW69" s="17">
-        <v>38563390</v>
+        <v>28955823</v>
       </c>
       <c r="AX69" s="17">
-        <v>28955823</v>
+        <v>30912594</v>
       </c>
       <c r="AY69" s="17">
-        <v>30912594</v>
+        <v>24978897</v>
       </c>
       <c r="AZ69" s="17">
-        <v>24978897</v>
+        <v>10665819</v>
       </c>
       <c r="BA69" s="17">
-        <v>10665819</v>
+        <v>32833135</v>
       </c>
       <c r="BB69" s="17">
-        <v>32833135</v>
+        <v>52445870</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -9813,7 +9848,7 @@
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9868,7 +9903,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9923,7 +9958,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>83</v>
       </c>
@@ -10080,7 +10115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -10135,7 +10170,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>84</v>
       </c>
@@ -10192,7 +10227,7 @@
       <c r="BA75" s="9"/>
       <c r="BB75" s="9"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
@@ -10254,65 +10289,65 @@
       <c r="V76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="11" t="s">
-        <v>58</v>
+      <c r="W76" s="11">
+        <v>10307</v>
       </c>
       <c r="X76" s="11">
-        <v>10307</v>
+        <v>8157</v>
       </c>
       <c r="Y76" s="11">
-        <v>8157</v>
+        <v>0</v>
       </c>
       <c r="Z76" s="11">
-        <v>0</v>
+        <v>8585</v>
       </c>
       <c r="AA76" s="11">
-        <v>8585</v>
+        <v>1718</v>
       </c>
       <c r="AB76" s="11">
-        <v>1718</v>
+        <v>0</v>
       </c>
       <c r="AC76" s="11">
         <v>0</v>
       </c>
       <c r="AD76" s="11">
-        <v>0</v>
+        <v>4658</v>
       </c>
       <c r="AE76" s="11">
-        <v>4658</v>
+        <v>11754</v>
       </c>
       <c r="AF76" s="11">
-        <v>11754</v>
+        <v>0</v>
       </c>
       <c r="AG76" s="11">
         <v>0</v>
       </c>
       <c r="AH76" s="11">
-        <v>0</v>
+        <v>2351</v>
       </c>
       <c r="AI76" s="11">
-        <v>2351</v>
+        <v>9399</v>
       </c>
       <c r="AJ76" s="11">
-        <v>9399</v>
+        <v>3791</v>
       </c>
       <c r="AK76" s="11">
-        <v>3791</v>
+        <v>10909</v>
       </c>
       <c r="AL76" s="11">
-        <v>10909</v>
+        <v>1692</v>
       </c>
       <c r="AM76" s="11">
-        <v>1692</v>
+        <v>0</v>
       </c>
       <c r="AN76" s="11">
-        <v>0</v>
+        <v>9330</v>
       </c>
       <c r="AO76" s="11">
-        <v>9330</v>
+        <v>10990</v>
       </c>
       <c r="AP76" s="11">
-        <v>10990</v>
+        <v>0</v>
       </c>
       <c r="AQ76" s="11">
         <v>0</v>
@@ -10321,37 +10356,37 @@
         <v>0</v>
       </c>
       <c r="AS76" s="11">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AT76" s="11">
-        <v>3180</v>
+        <v>12370</v>
       </c>
       <c r="AU76" s="11">
-        <v>12370</v>
+        <v>2392</v>
       </c>
       <c r="AV76" s="11">
-        <v>2392</v>
+        <v>15550</v>
       </c>
       <c r="AW76" s="11">
-        <v>15550</v>
+        <v>12313</v>
       </c>
       <c r="AX76" s="11">
-        <v>12313</v>
+        <v>0</v>
       </c>
       <c r="AY76" s="11">
-        <v>0</v>
+        <v>8291</v>
       </c>
       <c r="AZ76" s="11">
-        <v>8291</v>
+        <v>21779</v>
       </c>
       <c r="BA76" s="11">
-        <v>21779</v>
+        <v>9420</v>
       </c>
       <c r="BB76" s="11">
-        <v>9420</v>
+        <v>9521</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>59</v>
       </c>
@@ -10413,104 +10448,104 @@
       <c r="V77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="13" t="s">
-        <v>58</v>
+      <c r="W77" s="13">
+        <v>47991</v>
       </c>
       <c r="X77" s="13">
-        <v>47991</v>
+        <v>60447</v>
       </c>
       <c r="Y77" s="13">
-        <v>60447</v>
+        <v>161256</v>
       </c>
       <c r="Z77" s="13">
-        <v>161256</v>
+        <v>212547</v>
       </c>
       <c r="AA77" s="13">
-        <v>212547</v>
+        <v>307590</v>
       </c>
       <c r="AB77" s="13">
-        <v>307590</v>
+        <v>247431</v>
       </c>
       <c r="AC77" s="13">
-        <v>247431</v>
+        <v>172764</v>
       </c>
       <c r="AD77" s="13">
-        <v>172764</v>
+        <v>108790</v>
       </c>
       <c r="AE77" s="13">
-        <v>108790</v>
+        <v>3322</v>
       </c>
       <c r="AF77" s="13">
-        <v>3322</v>
+        <v>0</v>
       </c>
       <c r="AG77" s="13">
-        <v>0</v>
+        <v>90097</v>
       </c>
       <c r="AH77" s="13">
-        <v>90097</v>
+        <v>58098</v>
       </c>
       <c r="AI77" s="13">
-        <v>58098</v>
+        <v>28297</v>
       </c>
       <c r="AJ77" s="13">
-        <v>28297</v>
+        <v>151540</v>
       </c>
       <c r="AK77" s="13">
-        <v>151540</v>
+        <v>174366</v>
       </c>
       <c r="AL77" s="13">
-        <v>174366</v>
+        <v>242443</v>
       </c>
       <c r="AM77" s="13">
-        <v>242443</v>
+        <v>97097</v>
       </c>
       <c r="AN77" s="13">
-        <v>97097</v>
+        <v>76651</v>
       </c>
       <c r="AO77" s="13">
-        <v>76651</v>
+        <v>177613</v>
       </c>
       <c r="AP77" s="13">
-        <v>177613</v>
+        <v>276757</v>
       </c>
       <c r="AQ77" s="13">
-        <v>276757</v>
+        <v>145962</v>
       </c>
       <c r="AR77" s="13">
-        <v>145962</v>
+        <v>100349</v>
       </c>
       <c r="AS77" s="13">
-        <v>100349</v>
+        <v>16181</v>
       </c>
       <c r="AT77" s="13">
-        <v>16181</v>
+        <v>22580</v>
       </c>
       <c r="AU77" s="13">
-        <v>22580</v>
+        <v>28980</v>
       </c>
       <c r="AV77" s="13">
-        <v>28980</v>
+        <v>7594</v>
       </c>
       <c r="AW77" s="13">
-        <v>7594</v>
+        <v>42876</v>
       </c>
       <c r="AX77" s="13">
-        <v>42876</v>
+        <v>23552</v>
       </c>
       <c r="AY77" s="13">
-        <v>23552</v>
+        <v>193370</v>
       </c>
       <c r="AZ77" s="13">
-        <v>193370</v>
+        <v>278000</v>
       </c>
       <c r="BA77" s="13">
-        <v>278000</v>
+        <v>296732</v>
       </c>
       <c r="BB77" s="13">
-        <v>296732</v>
+        <v>196240</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>61</v>
       </c>
@@ -10572,41 +10607,41 @@
       <c r="V78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="11" t="s">
-        <v>58</v>
+      <c r="W78" s="11">
+        <v>6428</v>
       </c>
       <c r="X78" s="11">
-        <v>6428</v>
+        <v>1042</v>
       </c>
       <c r="Y78" s="11">
-        <v>1042</v>
+        <v>3204</v>
       </c>
       <c r="Z78" s="11">
-        <v>3204</v>
+        <v>2452</v>
       </c>
       <c r="AA78" s="11">
-        <v>2452</v>
+        <v>14868</v>
       </c>
       <c r="AB78" s="11">
-        <v>14868</v>
+        <v>27178</v>
       </c>
       <c r="AC78" s="11">
-        <v>27178</v>
+        <v>1824</v>
       </c>
       <c r="AD78" s="11">
-        <v>1824</v>
+        <v>1540</v>
       </c>
       <c r="AE78" s="11">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="AF78" s="11">
         <v>0</v>
       </c>
       <c r="AG78" s="11">
-        <v>0</v>
+        <v>14254</v>
       </c>
       <c r="AH78" s="11">
-        <v>14254</v>
+        <v>0</v>
       </c>
       <c r="AI78" s="11">
         <v>0</v>
@@ -10618,34 +10653,34 @@
         <v>0</v>
       </c>
       <c r="AL78" s="11">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="AM78" s="11">
-        <v>1351</v>
+        <v>1013</v>
       </c>
       <c r="AN78" s="11">
-        <v>1013</v>
+        <v>13913</v>
       </c>
       <c r="AO78" s="11">
-        <v>13913</v>
+        <v>7443</v>
       </c>
       <c r="AP78" s="11">
-        <v>7443</v>
+        <v>0</v>
       </c>
       <c r="AQ78" s="11">
-        <v>0</v>
+        <v>13451</v>
       </c>
       <c r="AR78" s="11">
-        <v>13451</v>
+        <v>13567</v>
       </c>
       <c r="AS78" s="11">
-        <v>13567</v>
+        <v>487</v>
       </c>
       <c r="AT78" s="11">
-        <v>487</v>
+        <v>3319</v>
       </c>
       <c r="AU78" s="11">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="AV78" s="11">
         <v>0</v>
@@ -10663,13 +10698,13 @@
         <v>0</v>
       </c>
       <c r="BA78" s="11">
-        <v>0</v>
+        <v>56643</v>
       </c>
       <c r="BB78" s="11">
-        <v>56643</v>
+        <v>72284</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>63</v>
       </c>
@@ -10731,104 +10766,104 @@
       <c r="V79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="13" t="s">
-        <v>58</v>
+      <c r="W79" s="13">
+        <v>58107</v>
       </c>
       <c r="X79" s="13">
-        <v>58107</v>
+        <v>72192</v>
       </c>
       <c r="Y79" s="13">
-        <v>72192</v>
+        <v>125966</v>
       </c>
       <c r="Z79" s="13">
-        <v>125966</v>
+        <v>42461</v>
       </c>
       <c r="AA79" s="13">
-        <v>42461</v>
+        <v>21704</v>
       </c>
       <c r="AB79" s="13">
-        <v>21704</v>
+        <v>46637</v>
       </c>
       <c r="AC79" s="13">
-        <v>46637</v>
+        <v>128731</v>
       </c>
       <c r="AD79" s="13">
-        <v>128731</v>
+        <v>92702</v>
       </c>
       <c r="AE79" s="13">
-        <v>92702</v>
+        <v>19910</v>
       </c>
       <c r="AF79" s="13">
-        <v>19910</v>
+        <v>29784</v>
       </c>
       <c r="AG79" s="13">
-        <v>29784</v>
+        <v>97643</v>
       </c>
       <c r="AH79" s="13">
-        <v>97643</v>
+        <v>24411</v>
       </c>
       <c r="AI79" s="13">
-        <v>24411</v>
+        <v>47975</v>
       </c>
       <c r="AJ79" s="13">
-        <v>47975</v>
+        <v>19510</v>
       </c>
       <c r="AK79" s="13">
-        <v>19510</v>
+        <v>475336</v>
       </c>
       <c r="AL79" s="13">
-        <v>475336</v>
+        <v>179921</v>
       </c>
       <c r="AM79" s="13">
-        <v>179921</v>
+        <v>429215</v>
       </c>
       <c r="AN79" s="13">
-        <v>429215</v>
+        <v>55755</v>
       </c>
       <c r="AO79" s="13">
-        <v>55755</v>
+        <v>234475</v>
       </c>
       <c r="AP79" s="13">
-        <v>234475</v>
+        <v>339821</v>
       </c>
       <c r="AQ79" s="13">
-        <v>339821</v>
+        <v>120407</v>
       </c>
       <c r="AR79" s="13">
-        <v>120407</v>
+        <v>104790</v>
       </c>
       <c r="AS79" s="13">
-        <v>104790</v>
+        <v>177478</v>
       </c>
       <c r="AT79" s="13">
-        <v>177478</v>
+        <v>110070</v>
       </c>
       <c r="AU79" s="13">
-        <v>110070</v>
+        <v>349688</v>
       </c>
       <c r="AV79" s="13">
-        <v>349688</v>
+        <v>278033</v>
       </c>
       <c r="AW79" s="13">
-        <v>278033</v>
+        <v>232174</v>
       </c>
       <c r="AX79" s="13">
-        <v>232174</v>
+        <v>237308</v>
       </c>
       <c r="AY79" s="13">
-        <v>237308</v>
+        <v>210039</v>
       </c>
       <c r="AZ79" s="13">
-        <v>210039</v>
+        <v>91005</v>
       </c>
       <c r="BA79" s="13">
-        <v>91005</v>
+        <v>389632</v>
       </c>
       <c r="BB79" s="13">
-        <v>389632</v>
+        <v>632033</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>64</v>
       </c>
@@ -10890,104 +10925,104 @@
       <c r="V80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="11" t="s">
-        <v>58</v>
+      <c r="W80" s="11">
+        <v>78922</v>
       </c>
       <c r="X80" s="11">
-        <v>78922</v>
+        <v>152315</v>
       </c>
       <c r="Y80" s="11">
-        <v>152315</v>
+        <v>85005</v>
       </c>
       <c r="Z80" s="11">
-        <v>85005</v>
+        <v>136854</v>
       </c>
       <c r="AA80" s="11">
-        <v>136854</v>
+        <v>100090</v>
       </c>
       <c r="AB80" s="11">
-        <v>100090</v>
+        <v>84238</v>
       </c>
       <c r="AC80" s="11">
-        <v>84238</v>
+        <v>125014</v>
       </c>
       <c r="AD80" s="11">
-        <v>125014</v>
+        <v>175782</v>
       </c>
       <c r="AE80" s="11">
-        <v>175782</v>
+        <v>230730</v>
       </c>
       <c r="AF80" s="11">
-        <v>230730</v>
+        <v>229744</v>
       </c>
       <c r="AG80" s="11">
-        <v>229744</v>
+        <v>20814</v>
       </c>
       <c r="AH80" s="11">
-        <v>20814</v>
+        <v>29141</v>
       </c>
       <c r="AI80" s="11">
-        <v>29141</v>
+        <v>137842</v>
       </c>
       <c r="AJ80" s="11">
-        <v>137842</v>
+        <v>203737</v>
       </c>
       <c r="AK80" s="11">
-        <v>203737</v>
+        <v>97889</v>
       </c>
       <c r="AL80" s="11">
-        <v>97889</v>
+        <v>212354</v>
       </c>
       <c r="AM80" s="11">
-        <v>212354</v>
+        <v>183639</v>
       </c>
       <c r="AN80" s="11">
-        <v>183639</v>
+        <v>146001</v>
       </c>
       <c r="AO80" s="11">
-        <v>146001</v>
+        <v>175094</v>
       </c>
       <c r="AP80" s="11">
-        <v>175094</v>
+        <v>51604</v>
       </c>
       <c r="AQ80" s="11">
-        <v>51604</v>
+        <v>52676</v>
       </c>
       <c r="AR80" s="11">
-        <v>52676</v>
+        <v>220945</v>
       </c>
       <c r="AS80" s="11">
-        <v>220945</v>
+        <v>135164</v>
       </c>
       <c r="AT80" s="11">
-        <v>135164</v>
+        <v>53711</v>
       </c>
       <c r="AU80" s="11">
-        <v>53711</v>
+        <v>170814</v>
       </c>
       <c r="AV80" s="11">
-        <v>170814</v>
+        <v>123193</v>
       </c>
       <c r="AW80" s="11">
-        <v>123193</v>
+        <v>439004</v>
       </c>
       <c r="AX80" s="11">
-        <v>439004</v>
+        <v>267284</v>
       </c>
       <c r="AY80" s="11">
-        <v>267284</v>
+        <v>652686</v>
       </c>
       <c r="AZ80" s="11">
-        <v>652686</v>
+        <v>372804</v>
       </c>
       <c r="BA80" s="11">
-        <v>372804</v>
+        <v>125385</v>
       </c>
       <c r="BB80" s="11">
-        <v>125385</v>
+        <v>157486</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>65</v>
       </c>
@@ -11082,8 +11117,8 @@
       <c r="AG81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH81" s="13" t="s">
-        <v>58</v>
+      <c r="AH81" s="13">
+        <v>0</v>
       </c>
       <c r="AI81" s="13">
         <v>0</v>
@@ -11146,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>66</v>
       </c>
@@ -11208,14 +11243,14 @@
       <c r="V82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="11" t="s">
-        <v>58</v>
+      <c r="W82" s="11">
+        <v>0</v>
       </c>
       <c r="X82" s="11">
         <v>0</v>
       </c>
-      <c r="Y82" s="11">
-        <v>0</v>
+      <c r="Y82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z82" s="11" t="s">
         <v>58</v>
@@ -11305,7 +11340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>77</v>
       </c>
@@ -11366,103 +11401,103 @@
         <v>0</v>
       </c>
       <c r="W83" s="15">
-        <v>0</v>
+        <v>201755</v>
       </c>
       <c r="X83" s="15">
-        <v>201755</v>
+        <v>294153</v>
       </c>
       <c r="Y83" s="15">
-        <v>294153</v>
+        <v>375431</v>
       </c>
       <c r="Z83" s="15">
-        <v>375431</v>
+        <v>402899</v>
       </c>
       <c r="AA83" s="15">
-        <v>402899</v>
+        <v>445970</v>
       </c>
       <c r="AB83" s="15">
-        <v>445970</v>
+        <v>405484</v>
       </c>
       <c r="AC83" s="15">
-        <v>405484</v>
+        <v>428333</v>
       </c>
       <c r="AD83" s="15">
-        <v>428333</v>
+        <v>383472</v>
       </c>
       <c r="AE83" s="15">
-        <v>383472</v>
+        <v>265716</v>
       </c>
       <c r="AF83" s="15">
-        <v>265716</v>
+        <v>259528</v>
       </c>
       <c r="AG83" s="15">
-        <v>259528</v>
+        <v>222808</v>
       </c>
       <c r="AH83" s="15">
-        <v>222808</v>
+        <v>114001</v>
       </c>
       <c r="AI83" s="15">
-        <v>114001</v>
+        <v>223513</v>
       </c>
       <c r="AJ83" s="15">
-        <v>223513</v>
+        <v>378578</v>
       </c>
       <c r="AK83" s="15">
-        <v>378578</v>
+        <v>758500</v>
       </c>
       <c r="AL83" s="15">
-        <v>758500</v>
+        <v>637761</v>
       </c>
       <c r="AM83" s="15">
-        <v>637761</v>
+        <v>710964</v>
       </c>
       <c r="AN83" s="15">
-        <v>710964</v>
+        <v>301650</v>
       </c>
       <c r="AO83" s="15">
-        <v>301650</v>
+        <v>605615</v>
       </c>
       <c r="AP83" s="15">
-        <v>605615</v>
+        <v>668182</v>
       </c>
       <c r="AQ83" s="15">
-        <v>668182</v>
+        <v>332496</v>
       </c>
       <c r="AR83" s="15">
-        <v>332496</v>
+        <v>439651</v>
       </c>
       <c r="AS83" s="15">
-        <v>439651</v>
+        <v>332490</v>
       </c>
       <c r="AT83" s="15">
-        <v>332490</v>
+        <v>202050</v>
       </c>
       <c r="AU83" s="15">
-        <v>202050</v>
+        <v>551874</v>
       </c>
       <c r="AV83" s="15">
-        <v>551874</v>
+        <v>424370</v>
       </c>
       <c r="AW83" s="15">
-        <v>424370</v>
+        <v>726367</v>
       </c>
       <c r="AX83" s="15">
-        <v>726367</v>
+        <v>528144</v>
       </c>
       <c r="AY83" s="15">
-        <v>528144</v>
+        <v>1064386</v>
       </c>
       <c r="AZ83" s="15">
-        <v>1064386</v>
+        <v>763588</v>
       </c>
       <c r="BA83" s="15">
-        <v>763588</v>
+        <v>877812</v>
       </c>
       <c r="BB83" s="15">
-        <v>877812</v>
+        <v>1067564</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>86</v>
       </c>
@@ -11519,7 +11554,7 @@
       <c r="BA84" s="9"/>
       <c r="BB84" s="9"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>56</v>
       </c>
@@ -11581,8 +11616,8 @@
       <c r="V85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="11" t="s">
-        <v>58</v>
+      <c r="W85" s="11">
+        <v>0</v>
       </c>
       <c r="X85" s="11">
         <v>0</v>
@@ -11678,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>59</v>
       </c>
@@ -11740,8 +11775,8 @@
       <c r="V86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="13" t="s">
-        <v>58</v>
+      <c r="W86" s="13">
+        <v>0</v>
       </c>
       <c r="X86" s="13">
         <v>0</v>
@@ -11837,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>61</v>
       </c>
@@ -11899,8 +11934,8 @@
       <c r="V87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="11" t="s">
-        <v>58</v>
+      <c r="W87" s="11">
+        <v>0</v>
       </c>
       <c r="X87" s="11">
         <v>0</v>
@@ -11996,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>63</v>
       </c>
@@ -12058,8 +12093,8 @@
       <c r="V88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="13" t="s">
-        <v>58</v>
+      <c r="W88" s="13">
+        <v>0</v>
       </c>
       <c r="X88" s="13">
         <v>0</v>
@@ -12155,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>64</v>
       </c>
@@ -12217,14 +12252,14 @@
       <c r="V89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W89" s="11" t="s">
-        <v>58</v>
+      <c r="W89" s="11">
+        <v>0</v>
       </c>
       <c r="X89" s="11">
         <v>0</v>
       </c>
-      <c r="Y89" s="11">
-        <v>0</v>
+      <c r="Y89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z89" s="11" t="s">
         <v>58</v>
@@ -12232,8 +12267,8 @@
       <c r="AA89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB89" s="11" t="s">
-        <v>58</v>
+      <c r="AB89" s="11">
+        <v>0</v>
       </c>
       <c r="AC89" s="11">
         <v>0</v>
@@ -12272,10 +12307,10 @@
         <v>0</v>
       </c>
       <c r="AO89" s="11">
-        <v>0</v>
+        <v>14597</v>
       </c>
       <c r="AP89" s="11">
-        <v>14597</v>
+        <v>0</v>
       </c>
       <c r="AQ89" s="11">
         <v>0</v>
@@ -12314,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>65</v>
       </c>
@@ -12445,8 +12480,8 @@
       <c r="AS90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT90" s="13" t="s">
-        <v>58</v>
+      <c r="AT90" s="13">
+        <v>0</v>
       </c>
       <c r="AU90" s="13">
         <v>0</v>
@@ -12473,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>66</v>
       </c>
@@ -12535,14 +12570,14 @@
       <c r="V91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="11" t="s">
-        <v>58</v>
+      <c r="W91" s="11">
+        <v>0</v>
       </c>
       <c r="X91" s="11">
         <v>0</v>
       </c>
-      <c r="Y91" s="11">
-        <v>0</v>
+      <c r="Y91" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Z91" s="11" t="s">
         <v>58</v>
@@ -12632,7 +12667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>79</v>
       </c>
@@ -12747,10 +12782,10 @@
         <v>0</v>
       </c>
       <c r="AO92" s="15">
-        <v>0</v>
+        <v>14597</v>
       </c>
       <c r="AP92" s="15">
-        <v>14597</v>
+        <v>0</v>
       </c>
       <c r="AQ92" s="15">
         <v>0</v>
@@ -12789,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>87</v>
       </c>
@@ -12846,7 +12881,7 @@
       <c r="BA93" s="9"/>
       <c r="BB93" s="9"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>66</v>
       </c>
@@ -12914,69 +12949,69 @@
       <c r="X94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y94" s="11" t="s">
-        <v>58</v>
+      <c r="Y94" s="11">
+        <v>208</v>
       </c>
       <c r="Z94" s="11">
-        <v>208</v>
+        <v>791</v>
       </c>
       <c r="AA94" s="11">
-        <v>791</v>
+        <v>160</v>
       </c>
       <c r="AB94" s="11">
-        <v>160</v>
+        <v>484</v>
       </c>
       <c r="AC94" s="11">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="AD94" s="11">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AE94" s="11">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AF94" s="11">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="AG94" s="11">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AH94" s="11">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AI94" s="11">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="AJ94" s="11">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="AK94" s="11">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="AL94" s="11">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AM94" s="11">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="AN94" s="11">
-        <v>916</v>
+        <v>94</v>
       </c>
       <c r="AO94" s="11">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AP94" s="11">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="AQ94" s="11">
-        <v>1401</v>
+        <v>261</v>
       </c>
       <c r="AR94" s="11">
-        <v>261</v>
-      </c>
-      <c r="AS94" s="11">
         <v>902</v>
       </c>
+      <c r="AS94" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT94" s="11" t="s">
         <v>58</v>
       </c>
@@ -13005,7 +13040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>72</v>
       </c>
@@ -13133,38 +13168,38 @@
       <c r="AR95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS95" s="13" t="s">
-        <v>58</v>
+      <c r="AS95" s="13">
+        <v>84477</v>
       </c>
       <c r="AT95" s="13">
-        <v>84477</v>
+        <v>0</v>
       </c>
       <c r="AU95" s="13">
-        <v>0</v>
+        <v>22360</v>
       </c>
       <c r="AV95" s="13">
-        <v>22360</v>
+        <v>23707</v>
       </c>
       <c r="AW95" s="13">
-        <v>23707</v>
+        <v>5167</v>
       </c>
       <c r="AX95" s="13">
-        <v>5167</v>
+        <v>9875</v>
       </c>
       <c r="AY95" s="13">
-        <v>9875</v>
+        <v>27883</v>
       </c>
       <c r="AZ95" s="13">
-        <v>27883</v>
+        <v>0</v>
       </c>
       <c r="BA95" s="13">
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="BB95" s="13">
-        <v>5858</v>
+        <v>12755</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="16" t="s">
         <v>73</v>
       </c>
@@ -13232,98 +13267,98 @@
       <c r="X96" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="17" t="s">
-        <v>58</v>
+      <c r="Y96" s="17">
+        <v>208</v>
       </c>
       <c r="Z96" s="17">
-        <v>208</v>
+        <v>791</v>
       </c>
       <c r="AA96" s="17">
-        <v>791</v>
+        <v>160</v>
       </c>
       <c r="AB96" s="17">
-        <v>160</v>
+        <v>484</v>
       </c>
       <c r="AC96" s="17">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="AD96" s="17">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AE96" s="17">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AF96" s="17">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="AG96" s="17">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AH96" s="17">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AI96" s="17">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="AJ96" s="17">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="AK96" s="17">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="AL96" s="17">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AM96" s="17">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="AN96" s="17">
-        <v>916</v>
+        <v>94</v>
       </c>
       <c r="AO96" s="17">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AP96" s="17">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="AQ96" s="17">
-        <v>1401</v>
+        <v>261</v>
       </c>
       <c r="AR96" s="17">
-        <v>261</v>
+        <v>902</v>
       </c>
       <c r="AS96" s="17">
-        <v>902</v>
+        <v>84477</v>
       </c>
       <c r="AT96" s="17">
-        <v>84477</v>
+        <v>0</v>
       </c>
       <c r="AU96" s="17">
-        <v>0</v>
+        <v>22360</v>
       </c>
       <c r="AV96" s="17">
-        <v>22360</v>
+        <v>23707</v>
       </c>
       <c r="AW96" s="17">
-        <v>23707</v>
+        <v>5167</v>
       </c>
       <c r="AX96" s="17">
-        <v>5167</v>
+        <v>9875</v>
       </c>
       <c r="AY96" s="17">
-        <v>9875</v>
+        <v>27883</v>
       </c>
       <c r="AZ96" s="17">
-        <v>27883</v>
+        <v>0</v>
       </c>
       <c r="BA96" s="17">
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="BB96" s="17">
-        <v>5858</v>
+        <v>12755</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>88</v>
       </c>
@@ -13380,7 +13415,7 @@
       <c r="BA97" s="9"/>
       <c r="BB97" s="9"/>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>56</v>
       </c>
@@ -13448,8 +13483,8 @@
       <c r="X98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" s="11" t="s">
-        <v>58</v>
+      <c r="Y98" s="11">
+        <v>0</v>
       </c>
       <c r="Z98" s="11">
         <v>0</v>
@@ -13511,14 +13546,14 @@
       <c r="AS98" s="11">
         <v>0</v>
       </c>
-      <c r="AT98" s="11">
-        <v>0</v>
+      <c r="AT98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV98" s="11" t="s">
-        <v>58</v>
+      <c r="AV98" s="11">
+        <v>0</v>
       </c>
       <c r="AW98" s="11">
         <v>0</v>
@@ -13539,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>59</v>
       </c>
@@ -13607,32 +13642,32 @@
       <c r="X99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="13" t="s">
-        <v>58</v>
+      <c r="Y99" s="13">
+        <v>0</v>
       </c>
       <c r="Z99" s="13">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="AA99" s="13">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="AB99" s="13">
         <v>0</v>
       </c>
       <c r="AC99" s="13">
-        <v>0</v>
+        <v>-80979</v>
       </c>
       <c r="AD99" s="13">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AE99" s="13">
         <v>0</v>
       </c>
       <c r="AF99" s="13">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AG99" s="13">
-        <v>-2429</v>
+        <v>0</v>
       </c>
       <c r="AH99" s="13">
         <v>0</v>
@@ -13670,14 +13705,14 @@
       <c r="AS99" s="13">
         <v>0</v>
       </c>
-      <c r="AT99" s="13">
-        <v>0</v>
+      <c r="AT99" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV99" s="13" t="s">
-        <v>58</v>
+      <c r="AV99" s="13">
+        <v>0</v>
       </c>
       <c r="AW99" s="13">
         <v>0</v>
@@ -13692,13 +13727,13 @@
         <v>0</v>
       </c>
       <c r="BA99" s="13">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="BB99" s="13">
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>61</v>
       </c>
@@ -13766,8 +13801,8 @@
       <c r="X100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y100" s="11" t="s">
-        <v>58</v>
+      <c r="Y100" s="11">
+        <v>0</v>
       </c>
       <c r="Z100" s="11">
         <v>0</v>
@@ -13829,14 +13864,14 @@
       <c r="AS100" s="11">
         <v>0</v>
       </c>
-      <c r="AT100" s="11">
-        <v>0</v>
+      <c r="AT100" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV100" s="11" t="s">
-        <v>58</v>
+      <c r="AV100" s="11">
+        <v>0</v>
       </c>
       <c r="AW100" s="11">
         <v>0</v>
@@ -13857,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>63</v>
       </c>
@@ -13925,17 +13960,17 @@
       <c r="X101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y101" s="13" t="s">
-        <v>58</v>
+      <c r="Y101" s="13">
+        <v>0</v>
       </c>
       <c r="Z101" s="13">
         <v>0</v>
       </c>
       <c r="AA101" s="13">
-        <v>0</v>
+        <v>-2714</v>
       </c>
       <c r="AB101" s="13">
-        <v>-2714</v>
+        <v>0</v>
       </c>
       <c r="AC101" s="13">
         <v>0</v>
@@ -13950,10 +13985,10 @@
         <v>0</v>
       </c>
       <c r="AG101" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH101" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI101" s="13">
         <v>0</v>
@@ -13977,10 +14012,10 @@
         <v>0</v>
       </c>
       <c r="AP101" s="13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AQ101" s="13">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AR101" s="13">
         <v>0</v>
@@ -13988,35 +14023,35 @@
       <c r="AS101" s="13">
         <v>0</v>
       </c>
-      <c r="AT101" s="13">
-        <v>0</v>
+      <c r="AT101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV101" s="13" t="s">
-        <v>58</v>
+      <c r="AV101" s="13">
+        <v>-233</v>
       </c>
       <c r="AW101" s="13">
-        <v>-233</v>
+        <v>-26</v>
       </c>
       <c r="AX101" s="13">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="AY101" s="13">
         <v>0</v>
       </c>
       <c r="AZ101" s="13">
-        <v>0</v>
+        <v>-6965</v>
       </c>
       <c r="BA101" s="13">
-        <v>-6965</v>
+        <v>-18844</v>
       </c>
       <c r="BB101" s="13">
-        <v>-18844</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>64</v>
       </c>
@@ -14084,14 +14119,14 @@
       <c r="X102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y102" s="11" t="s">
-        <v>58</v>
+      <c r="Y102" s="11">
+        <v>-768</v>
       </c>
       <c r="Z102" s="11">
-        <v>-768</v>
+        <v>-24</v>
       </c>
       <c r="AA102" s="11">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="11">
         <v>0</v>
@@ -14109,10 +14144,10 @@
         <v>0</v>
       </c>
       <c r="AG102" s="11">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AH102" s="11">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="AI102" s="11">
         <v>0</v>
@@ -14121,22 +14156,22 @@
         <v>0</v>
       </c>
       <c r="AK102" s="11">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AL102" s="11">
-        <v>-74</v>
+        <v>-175</v>
       </c>
       <c r="AM102" s="11">
-        <v>-175</v>
+        <v>-1183</v>
       </c>
       <c r="AN102" s="11">
-        <v>-1183</v>
+        <v>-568</v>
       </c>
       <c r="AO102" s="11">
-        <v>-568</v>
+        <v>-1030</v>
       </c>
       <c r="AP102" s="11">
-        <v>-1030</v>
+        <v>0</v>
       </c>
       <c r="AQ102" s="11">
         <v>0</v>
@@ -14147,35 +14182,35 @@
       <c r="AS102" s="11">
         <v>0</v>
       </c>
-      <c r="AT102" s="11">
-        <v>0</v>
+      <c r="AT102" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV102" s="11" t="s">
-        <v>58</v>
+      <c r="AV102" s="11">
+        <v>-1</v>
       </c>
       <c r="AW102" s="11">
-        <v>-1</v>
+        <v>-18959</v>
       </c>
       <c r="AX102" s="11">
-        <v>-18959</v>
+        <v>0</v>
       </c>
       <c r="AY102" s="11">
         <v>0</v>
       </c>
       <c r="AZ102" s="11">
-        <v>0</v>
+        <v>-4275</v>
       </c>
       <c r="BA102" s="11">
-        <v>-4275</v>
+        <v>0</v>
       </c>
       <c r="BB102" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>81</v>
       </c>
@@ -14270,8 +14305,8 @@
       <c r="AG103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH103" s="13" t="s">
-        <v>58</v>
+      <c r="AH103" s="13">
+        <v>0</v>
       </c>
       <c r="AI103" s="13">
         <v>0</v>
@@ -14306,8 +14341,8 @@
       <c r="AS103" s="13">
         <v>0</v>
       </c>
-      <c r="AT103" s="13">
-        <v>0</v>
+      <c r="AT103" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU103" s="13" t="s">
         <v>58</v>
@@ -14334,7 +14369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>65</v>
       </c>
@@ -14471,8 +14506,8 @@
       <c r="AU104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV104" s="11" t="s">
-        <v>58</v>
+      <c r="AV104" s="11">
+        <v>0</v>
       </c>
       <c r="AW104" s="11">
         <v>0</v>
@@ -14493,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>82</v>
       </c>
@@ -14561,35 +14596,35 @@
       <c r="X105" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="15" t="s">
-        <v>58</v>
+      <c r="Y105" s="15">
+        <v>-768</v>
       </c>
       <c r="Z105" s="15">
-        <v>-768</v>
+        <v>-65</v>
       </c>
       <c r="AA105" s="15">
-        <v>-65</v>
+        <v>-2714</v>
       </c>
       <c r="AB105" s="15">
-        <v>-2714</v>
+        <v>0</v>
       </c>
       <c r="AC105" s="15">
-        <v>0</v>
+        <v>-80979</v>
       </c>
       <c r="AD105" s="15">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AE105" s="15">
         <v>0</v>
       </c>
       <c r="AF105" s="15">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AG105" s="15">
-        <v>-2429</v>
+        <v>-49</v>
       </c>
       <c r="AH105" s="15">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="AI105" s="15">
         <v>0</v>
@@ -14598,25 +14633,25 @@
         <v>0</v>
       </c>
       <c r="AK105" s="15">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AL105" s="15">
-        <v>-74</v>
+        <v>-175</v>
       </c>
       <c r="AM105" s="15">
-        <v>-175</v>
+        <v>-1183</v>
       </c>
       <c r="AN105" s="15">
-        <v>-1183</v>
+        <v>-568</v>
       </c>
       <c r="AO105" s="15">
-        <v>-568</v>
+        <v>-1030</v>
       </c>
       <c r="AP105" s="15">
-        <v>-1030</v>
+        <v>-3</v>
       </c>
       <c r="AQ105" s="15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AR105" s="15">
         <v>0</v>
@@ -14631,28 +14666,28 @@
         <v>0</v>
       </c>
       <c r="AV105" s="15">
-        <v>0</v>
+        <v>-234</v>
       </c>
       <c r="AW105" s="15">
-        <v>-234</v>
+        <v>-18985</v>
       </c>
       <c r="AX105" s="15">
-        <v>-18985</v>
+        <v>0</v>
       </c>
       <c r="AY105" s="15">
         <v>0</v>
       </c>
       <c r="AZ105" s="15">
-        <v>0</v>
+        <v>-11240</v>
       </c>
       <c r="BA105" s="15">
-        <v>-11240</v>
+        <v>-18924</v>
       </c>
       <c r="BB105" s="15">
-        <v>-18924</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>89</v>
       </c>
@@ -14709,7 +14744,7 @@
       <c r="BA106" s="9"/>
       <c r="BB106" s="9"/>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>90</v>
       </c>
@@ -14777,98 +14812,98 @@
       <c r="X107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y107" s="11" t="s">
-        <v>58</v>
+      <c r="Y107" s="11">
+        <v>-53535</v>
       </c>
       <c r="Z107" s="11">
-        <v>-53535</v>
+        <v>-26683</v>
       </c>
       <c r="AA107" s="11">
-        <v>-26683</v>
+        <v>-51250</v>
       </c>
       <c r="AB107" s="11">
-        <v>-51250</v>
+        <v>-19708</v>
       </c>
       <c r="AC107" s="11">
-        <v>-19708</v>
+        <v>-20840</v>
       </c>
       <c r="AD107" s="11">
-        <v>-20840</v>
+        <v>-40908</v>
       </c>
       <c r="AE107" s="11">
-        <v>-40908</v>
+        <v>-54275</v>
       </c>
       <c r="AF107" s="11">
-        <v>-54275</v>
+        <v>-56779</v>
       </c>
       <c r="AG107" s="11">
-        <v>-56779</v>
+        <v>-51415</v>
       </c>
       <c r="AH107" s="11">
-        <v>-51415</v>
+        <v>0</v>
       </c>
       <c r="AI107" s="11">
-        <v>0</v>
+        <v>-16580</v>
       </c>
       <c r="AJ107" s="11">
-        <v>-16580</v>
+        <v>-23757</v>
       </c>
       <c r="AK107" s="11">
-        <v>-23757</v>
+        <v>-24507</v>
       </c>
       <c r="AL107" s="11">
-        <v>-24507</v>
+        <v>-37338</v>
       </c>
       <c r="AM107" s="11">
-        <v>-37338</v>
+        <v>-109756</v>
       </c>
       <c r="AN107" s="11">
-        <v>-109756</v>
+        <v>-14216</v>
       </c>
       <c r="AO107" s="11">
-        <v>-14216</v>
+        <v>-62287</v>
       </c>
       <c r="AP107" s="11">
-        <v>-62287</v>
+        <v>-64914</v>
       </c>
       <c r="AQ107" s="11">
-        <v>-64914</v>
+        <v>-29034</v>
       </c>
       <c r="AR107" s="11">
-        <v>-29034</v>
+        <v>-58989</v>
       </c>
       <c r="AS107" s="11">
-        <v>-58989</v>
+        <v>-71192</v>
       </c>
       <c r="AT107" s="11">
-        <v>-71192</v>
+        <v>-6276</v>
       </c>
       <c r="AU107" s="11">
-        <v>-6276</v>
+        <v>-44107</v>
       </c>
       <c r="AV107" s="11">
-        <v>-44107</v>
+        <v>-83965</v>
       </c>
       <c r="AW107" s="11">
-        <v>-83965</v>
+        <v>-62345</v>
       </c>
       <c r="AX107" s="11">
-        <v>-62345</v>
+        <v>-64805</v>
       </c>
       <c r="AY107" s="11">
-        <v>-64805</v>
+        <v>-127801</v>
       </c>
       <c r="AZ107" s="11">
-        <v>-127801</v>
+        <v>-76623</v>
       </c>
       <c r="BA107" s="11">
-        <v>-76623</v>
+        <v>-58198</v>
       </c>
       <c r="BB107" s="11">
-        <v>-58198</v>
+        <v>-122441</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B108" s="14" t="s">
         <v>74</v>
       </c>
@@ -14929,103 +14964,103 @@
         <v>0</v>
       </c>
       <c r="W108" s="15">
-        <v>0</v>
+        <v>201755</v>
       </c>
       <c r="X108" s="15">
-        <v>201755</v>
+        <v>294153</v>
       </c>
       <c r="Y108" s="15">
-        <v>294153</v>
+        <v>321336</v>
       </c>
       <c r="Z108" s="15">
-        <v>321336</v>
+        <v>376942</v>
       </c>
       <c r="AA108" s="15">
-        <v>376942</v>
+        <v>392166</v>
       </c>
       <c r="AB108" s="15">
-        <v>392166</v>
+        <v>386260</v>
       </c>
       <c r="AC108" s="15">
-        <v>386260</v>
+        <v>326556</v>
       </c>
       <c r="AD108" s="15">
-        <v>326556</v>
+        <v>342861</v>
       </c>
       <c r="AE108" s="15">
-        <v>342861</v>
+        <v>211505</v>
       </c>
       <c r="AF108" s="15">
-        <v>211505</v>
+        <v>200550</v>
       </c>
       <c r="AG108" s="15">
-        <v>200550</v>
+        <v>171601</v>
       </c>
       <c r="AH108" s="15">
-        <v>171601</v>
+        <v>114228</v>
       </c>
       <c r="AI108" s="15">
-        <v>114228</v>
+        <v>207304</v>
       </c>
       <c r="AJ108" s="15">
-        <v>207304</v>
+        <v>354835</v>
       </c>
       <c r="AK108" s="15">
-        <v>354835</v>
+        <v>734129</v>
       </c>
       <c r="AL108" s="15">
-        <v>734129</v>
+        <v>600248</v>
       </c>
       <c r="AM108" s="15">
-        <v>600248</v>
+        <v>600941</v>
       </c>
       <c r="AN108" s="15">
-        <v>600941</v>
+        <v>286960</v>
       </c>
       <c r="AO108" s="15">
-        <v>286960</v>
+        <v>556895</v>
       </c>
       <c r="AP108" s="15">
-        <v>556895</v>
+        <v>604666</v>
       </c>
       <c r="AQ108" s="15">
-        <v>604666</v>
+        <v>303723</v>
       </c>
       <c r="AR108" s="15">
-        <v>303723</v>
+        <v>381564</v>
       </c>
       <c r="AS108" s="15">
-        <v>381564</v>
+        <v>345775</v>
       </c>
       <c r="AT108" s="15">
-        <v>345775</v>
+        <v>195774</v>
       </c>
       <c r="AU108" s="15">
-        <v>195774</v>
+        <v>530127</v>
       </c>
       <c r="AV108" s="15">
-        <v>530127</v>
+        <v>363878</v>
       </c>
       <c r="AW108" s="15">
-        <v>363878</v>
+        <v>650204</v>
       </c>
       <c r="AX108" s="15">
-        <v>650204</v>
+        <v>473214</v>
       </c>
       <c r="AY108" s="15">
-        <v>473214</v>
+        <v>964468</v>
       </c>
       <c r="AZ108" s="15">
-        <v>964468</v>
+        <v>675725</v>
       </c>
       <c r="BA108" s="15">
-        <v>675725</v>
+        <v>806548</v>
       </c>
       <c r="BB108" s="15">
-        <v>806548</v>
+        <v>957878</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -15080,7 +15115,7 @@
       <c r="BA109" s="1"/>
       <c r="BB109" s="1"/>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -15135,7 +15170,7 @@
       <c r="BA110" s="1"/>
       <c r="BB110" s="1"/>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -15190,7 +15225,7 @@
       <c r="BA111" s="1"/>
       <c r="BB111" s="1"/>
     </row>
-    <row r="112" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>91</v>
       </c>
@@ -15347,7 +15382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -15402,7 +15437,7 @@
       <c r="BA113" s="1"/>
       <c r="BB113" s="1"/>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>92</v>
       </c>
@@ -15459,7 +15494,7 @@
       <c r="BA114" s="9"/>
       <c r="BB114" s="9"/>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>56</v>
       </c>
@@ -15521,104 +15556,104 @@
       <c r="V115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W115" s="11" t="s">
-        <v>58</v>
+      <c r="W115" s="11">
+        <v>29275</v>
       </c>
       <c r="X115" s="11">
+        <v>27813</v>
+      </c>
+      <c r="Y115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z115" s="11">
         <v>29275</v>
       </c>
-      <c r="Y115" s="11">
-        <v>27813</v>
-      </c>
-      <c r="Z115" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AA115" s="11">
-        <v>29275</v>
-      </c>
-      <c r="AB115" s="11">
         <v>29277</v>
       </c>
+      <c r="AB115" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AC115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD115" s="11" t="s">
-        <v>58</v>
+      <c r="AD115" s="11">
+        <v>40058</v>
       </c>
       <c r="AE115" s="11">
-        <v>40058</v>
-      </c>
-      <c r="AF115" s="11">
         <v>40061</v>
       </c>
+      <c r="AF115" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AG115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH115" s="11" t="s">
-        <v>58</v>
+      <c r="AH115" s="11">
+        <v>40065</v>
       </c>
       <c r="AI115" s="11">
-        <v>40065</v>
+        <v>40064</v>
       </c>
       <c r="AJ115" s="11">
-        <v>40064</v>
+        <v>33689</v>
       </c>
       <c r="AK115" s="11">
-        <v>33689</v>
+        <v>51711</v>
       </c>
       <c r="AL115" s="11">
-        <v>51711</v>
-      </c>
-      <c r="AM115" s="11">
         <v>40057</v>
       </c>
-      <c r="AN115" s="11" t="s">
-        <v>58</v>
+      <c r="AM115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN115" s="11">
+        <v>52999</v>
       </c>
       <c r="AO115" s="11">
+        <v>53000</v>
+      </c>
+      <c r="AP115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS115" s="11">
+        <v>53000</v>
+      </c>
+      <c r="AT115" s="11">
         <v>52999</v>
       </c>
-      <c r="AP115" s="11">
+      <c r="AU115" s="11">
+        <v>52994</v>
+      </c>
+      <c r="AV115" s="11">
+        <v>52999</v>
+      </c>
+      <c r="AW115" s="11">
         <v>53000</v>
       </c>
-      <c r="AQ115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT115" s="11">
-        <v>53000</v>
-      </c>
-      <c r="AU115" s="11">
-        <v>52999</v>
-      </c>
-      <c r="AV115" s="11">
-        <v>52994</v>
-      </c>
-      <c r="AW115" s="11">
-        <v>52999</v>
-      </c>
-      <c r="AX115" s="11">
-        <v>53000</v>
-      </c>
-      <c r="AY115" s="11" t="s">
-        <v>58</v>
+      <c r="AX115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY115" s="11">
+        <v>93460</v>
       </c>
       <c r="AZ115" s="11">
-        <v>93460</v>
+        <v>60910</v>
       </c>
       <c r="BA115" s="11">
-        <v>60910</v>
+        <v>48457</v>
       </c>
       <c r="BB115" s="11">
-        <v>48457</v>
+        <v>124998</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>59</v>
       </c>
@@ -15680,104 +15715,104 @@
       <c r="V116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W116" s="13" t="s">
-        <v>58</v>
+      <c r="W116" s="13">
+        <v>137103</v>
       </c>
       <c r="X116" s="13">
-        <v>137103</v>
+        <v>192136</v>
       </c>
       <c r="Y116" s="13">
-        <v>192136</v>
+        <v>215068</v>
       </c>
       <c r="Z116" s="13">
-        <v>215068</v>
+        <v>407921</v>
       </c>
       <c r="AA116" s="13">
-        <v>407921</v>
+        <v>498055</v>
       </c>
       <c r="AB116" s="13">
-        <v>498055</v>
+        <v>379373</v>
       </c>
       <c r="AC116" s="13">
-        <v>379373</v>
+        <v>419976</v>
       </c>
       <c r="AD116" s="13">
-        <v>419976</v>
+        <v>196123</v>
       </c>
       <c r="AE116" s="13">
-        <v>196123</v>
-      </c>
-      <c r="AF116" s="13">
         <v>196568</v>
       </c>
-      <c r="AG116" s="13" t="s">
-        <v>58</v>
+      <c r="AF116" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG116" s="13">
+        <v>234158</v>
       </c>
       <c r="AH116" s="13">
-        <v>234158</v>
+        <v>258147</v>
       </c>
       <c r="AI116" s="13">
-        <v>258147</v>
+        <v>427486</v>
       </c>
       <c r="AJ116" s="13">
-        <v>427486</v>
+        <v>327580</v>
       </c>
       <c r="AK116" s="13">
-        <v>327580</v>
+        <v>295188</v>
       </c>
       <c r="AL116" s="13">
-        <v>295188</v>
+        <v>388621</v>
       </c>
       <c r="AM116" s="13">
-        <v>388621</v>
+        <v>434584</v>
       </c>
       <c r="AN116" s="13">
-        <v>434584</v>
+        <v>289344</v>
       </c>
       <c r="AO116" s="13">
-        <v>289344</v>
+        <v>278517</v>
       </c>
       <c r="AP116" s="13">
-        <v>278517</v>
+        <v>339977</v>
       </c>
       <c r="AQ116" s="13">
-        <v>339977</v>
+        <v>214114</v>
       </c>
       <c r="AR116" s="13">
-        <v>214114</v>
+        <v>285144</v>
       </c>
       <c r="AS116" s="13">
-        <v>285144</v>
+        <v>92217</v>
       </c>
       <c r="AT116" s="13">
-        <v>92217</v>
+        <v>144836</v>
       </c>
       <c r="AU116" s="13">
-        <v>144836</v>
+        <v>155536</v>
       </c>
       <c r="AV116" s="13">
-        <v>155536</v>
+        <v>99920</v>
       </c>
       <c r="AW116" s="13">
-        <v>99920</v>
+        <v>292374</v>
       </c>
       <c r="AX116" s="13">
-        <v>292374</v>
+        <v>193109</v>
       </c>
       <c r="AY116" s="13">
-        <v>193109</v>
+        <v>388802</v>
       </c>
       <c r="AZ116" s="13">
-        <v>388802</v>
+        <v>346790</v>
       </c>
       <c r="BA116" s="13">
-        <v>346790</v>
+        <v>335890</v>
       </c>
       <c r="BB116" s="13">
-        <v>335890</v>
+        <v>428481</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>61</v>
       </c>
@@ -15839,42 +15874,42 @@
       <c r="V117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W117" s="11" t="s">
-        <v>58</v>
+      <c r="W117" s="11">
+        <v>50378</v>
       </c>
       <c r="X117" s="11">
-        <v>50378</v>
+        <v>40077</v>
       </c>
       <c r="Y117" s="11">
-        <v>40077</v>
+        <v>44494</v>
       </c>
       <c r="Z117" s="11">
-        <v>44494</v>
+        <v>58660</v>
       </c>
       <c r="AA117" s="11">
-        <v>58660</v>
+        <v>53290</v>
       </c>
       <c r="AB117" s="11">
-        <v>53290</v>
+        <v>60803</v>
       </c>
       <c r="AC117" s="11">
-        <v>60803</v>
+        <v>56303</v>
       </c>
       <c r="AD117" s="11">
-        <v>56303</v>
-      </c>
-      <c r="AE117" s="11">
         <v>45741</v>
       </c>
+      <c r="AE117" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AF117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG117" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH117" s="11">
+      <c r="AG117" s="11">
         <v>69977</v>
       </c>
+      <c r="AH117" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI117" s="11" t="s">
         <v>58</v>
       </c>
@@ -15884,36 +15919,36 @@
       <c r="AK117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL117" s="11" t="s">
-        <v>58</v>
+      <c r="AL117" s="11">
+        <v>67550</v>
       </c>
       <c r="AM117" s="11">
-        <v>67550</v>
+        <v>67533</v>
       </c>
       <c r="AN117" s="11">
-        <v>67533</v>
+        <v>56107</v>
       </c>
       <c r="AO117" s="11">
-        <v>56107</v>
-      </c>
-      <c r="AP117" s="11">
         <v>55001</v>
       </c>
-      <c r="AQ117" s="11" t="s">
-        <v>58</v>
+      <c r="AP117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ117" s="11">
+        <v>75003</v>
       </c>
       <c r="AR117" s="11">
-        <v>75003</v>
+        <v>75000</v>
       </c>
       <c r="AS117" s="11">
-        <v>75000</v>
+        <v>109932</v>
       </c>
       <c r="AT117" s="11">
-        <v>109932</v>
-      </c>
-      <c r="AU117" s="11">
         <v>74999</v>
       </c>
+      <c r="AU117" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV117" s="11" t="s">
         <v>58</v>
       </c>
@@ -15929,14 +15964,14 @@
       <c r="AZ117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA117" s="11" t="s">
-        <v>58</v>
+      <c r="BA117" s="11">
+        <v>202695</v>
       </c>
       <c r="BB117" s="11">
-        <v>202695</v>
+        <v>199470</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>63</v>
       </c>
@@ -15998,104 +16033,104 @@
       <c r="V118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W118" s="13" t="s">
-        <v>58</v>
+      <c r="W118" s="13">
+        <v>5924</v>
       </c>
       <c r="X118" s="13">
-        <v>5924</v>
+        <v>2749</v>
       </c>
       <c r="Y118" s="13">
-        <v>2749</v>
+        <v>4886</v>
       </c>
       <c r="Z118" s="13">
-        <v>4886</v>
+        <v>2839</v>
       </c>
       <c r="AA118" s="13">
-        <v>2839</v>
+        <v>5946</v>
       </c>
       <c r="AB118" s="13">
-        <v>5946</v>
+        <v>14074</v>
       </c>
       <c r="AC118" s="13">
-        <v>14074</v>
+        <v>4430</v>
       </c>
       <c r="AD118" s="13">
-        <v>4430</v>
+        <v>5080</v>
       </c>
       <c r="AE118" s="13">
-        <v>5080</v>
+        <v>5998</v>
       </c>
       <c r="AF118" s="13">
-        <v>5998</v>
+        <v>5846</v>
       </c>
       <c r="AG118" s="13">
-        <v>5846</v>
+        <v>6056</v>
       </c>
       <c r="AH118" s="13">
-        <v>6056</v>
+        <v>4653</v>
       </c>
       <c r="AI118" s="13">
-        <v>4653</v>
+        <v>4617</v>
       </c>
       <c r="AJ118" s="13">
-        <v>4617</v>
+        <v>4254</v>
       </c>
       <c r="AK118" s="13">
-        <v>4254</v>
+        <v>8500</v>
       </c>
       <c r="AL118" s="13">
-        <v>8500</v>
+        <v>7219</v>
       </c>
       <c r="AM118" s="13">
-        <v>7219</v>
+        <v>8413</v>
       </c>
       <c r="AN118" s="13">
-        <v>8413</v>
+        <v>5226</v>
       </c>
       <c r="AO118" s="13">
-        <v>5226</v>
+        <v>6703</v>
       </c>
       <c r="AP118" s="13">
-        <v>6703</v>
+        <v>7555</v>
       </c>
       <c r="AQ118" s="13">
-        <v>7555</v>
+        <v>6025</v>
       </c>
       <c r="AR118" s="13">
-        <v>6025</v>
+        <v>6059</v>
       </c>
       <c r="AS118" s="13">
-        <v>6059</v>
+        <v>7986</v>
       </c>
       <c r="AT118" s="13">
-        <v>7986</v>
+        <v>11721</v>
       </c>
       <c r="AU118" s="13">
-        <v>11721</v>
+        <v>9036</v>
       </c>
       <c r="AV118" s="13">
-        <v>9036</v>
+        <v>8077</v>
       </c>
       <c r="AW118" s="13">
-        <v>8077</v>
+        <v>8671</v>
       </c>
       <c r="AX118" s="13">
-        <v>8671</v>
+        <v>8195</v>
       </c>
       <c r="AY118" s="13">
-        <v>8195</v>
+        <v>10497</v>
       </c>
       <c r="AZ118" s="13">
-        <v>10497</v>
+        <v>12064</v>
       </c>
       <c r="BA118" s="13">
-        <v>12064</v>
+        <v>12003</v>
       </c>
       <c r="BB118" s="13">
-        <v>12003</v>
+        <v>12680</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>64</v>
       </c>
@@ -16157,104 +16192,104 @@
       <c r="V119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W119" s="11" t="s">
-        <v>58</v>
+      <c r="W119" s="11">
+        <v>86754</v>
       </c>
       <c r="X119" s="11">
-        <v>86754</v>
+        <v>36506</v>
       </c>
       <c r="Y119" s="11">
-        <v>36506</v>
+        <v>50300</v>
       </c>
       <c r="Z119" s="11">
-        <v>50300</v>
+        <v>38162</v>
       </c>
       <c r="AA119" s="11">
-        <v>38162</v>
+        <v>53538</v>
       </c>
       <c r="AB119" s="11">
-        <v>53538</v>
+        <v>49523</v>
       </c>
       <c r="AC119" s="11">
-        <v>49523</v>
+        <v>43611</v>
       </c>
       <c r="AD119" s="11">
-        <v>43611</v>
+        <v>42994</v>
       </c>
       <c r="AE119" s="11">
-        <v>42994</v>
+        <v>43516</v>
       </c>
       <c r="AF119" s="11">
-        <v>43516</v>
+        <v>43819</v>
       </c>
       <c r="AG119" s="11">
-        <v>43819</v>
+        <v>32480</v>
       </c>
       <c r="AH119" s="11">
-        <v>32480</v>
+        <v>26703</v>
       </c>
       <c r="AI119" s="11">
-        <v>26703</v>
+        <v>99437</v>
       </c>
       <c r="AJ119" s="11">
-        <v>99437</v>
+        <v>51116</v>
       </c>
       <c r="AK119" s="11">
-        <v>51116</v>
+        <v>39407</v>
       </c>
       <c r="AL119" s="11">
-        <v>39407</v>
+        <v>44089</v>
       </c>
       <c r="AM119" s="11">
-        <v>44089</v>
+        <v>56353</v>
       </c>
       <c r="AN119" s="11">
-        <v>56353</v>
+        <v>56703</v>
       </c>
       <c r="AO119" s="11">
-        <v>56703</v>
+        <v>47711</v>
       </c>
       <c r="AP119" s="11">
-        <v>47711</v>
+        <v>47880</v>
       </c>
       <c r="AQ119" s="11">
-        <v>47880</v>
+        <v>45893</v>
       </c>
       <c r="AR119" s="11">
-        <v>45893</v>
+        <v>57122</v>
       </c>
       <c r="AS119" s="11">
-        <v>57122</v>
+        <v>87415</v>
       </c>
       <c r="AT119" s="11">
-        <v>87415</v>
+        <v>39999</v>
       </c>
       <c r="AU119" s="11">
-        <v>39999</v>
+        <v>41495</v>
       </c>
       <c r="AV119" s="11">
-        <v>41495</v>
+        <v>36719</v>
       </c>
       <c r="AW119" s="11">
-        <v>36719</v>
+        <v>195151</v>
       </c>
       <c r="AX119" s="11">
-        <v>195151</v>
+        <v>156971</v>
       </c>
       <c r="AY119" s="11">
-        <v>156971</v>
+        <v>168015</v>
       </c>
       <c r="AZ119" s="11">
-        <v>168015</v>
+        <v>128256</v>
       </c>
       <c r="BA119" s="11">
-        <v>128256</v>
+        <v>144330</v>
       </c>
       <c r="BB119" s="11">
-        <v>144330</v>
+        <v>93109</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>96</v>
       </c>
@@ -16311,7 +16346,7 @@
       <c r="BA120" s="9"/>
       <c r="BB120" s="9"/>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>64</v>
       </c>
@@ -16427,12 +16462,12 @@
       <c r="AN121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO121" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP121" s="11">
+      <c r="AO121" s="11">
         <v>39796</v>
       </c>
+      <c r="AP121" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ121" s="11" t="s">
         <v>58</v>
       </c>
@@ -16470,7 +16505,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>97</v>
       </c>
@@ -16527,7 +16562,7 @@
       <c r="BA122" s="9"/>
       <c r="BB122" s="9"/>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>66</v>
       </c>
@@ -16595,69 +16630,69 @@
       <c r="X123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y123" s="11" t="s">
-        <v>58</v>
+      <c r="Y123" s="11">
+        <v>26000000</v>
       </c>
       <c r="Z123" s="11">
-        <v>26000000</v>
+        <v>28250000</v>
       </c>
       <c r="AA123" s="11">
-        <v>28250000</v>
+        <v>13333333</v>
       </c>
       <c r="AB123" s="11">
-        <v>13333333</v>
+        <v>16133333</v>
       </c>
       <c r="AC123" s="11">
-        <v>16133333</v>
+        <v>6000000</v>
       </c>
       <c r="AD123" s="11">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="AE123" s="11">
-        <v>27000000</v>
+        <v>12800000</v>
       </c>
       <c r="AF123" s="11">
-        <v>12800000</v>
+        <v>76666667</v>
       </c>
       <c r="AG123" s="11">
-        <v>76666667</v>
+        <v>42833333</v>
       </c>
       <c r="AH123" s="11">
-        <v>42833333</v>
+        <v>17461538</v>
       </c>
       <c r="AI123" s="11">
-        <v>17461538</v>
+        <v>24733333</v>
       </c>
       <c r="AJ123" s="11">
-        <v>24733333</v>
+        <v>3500000</v>
       </c>
       <c r="AK123" s="11">
-        <v>3500000</v>
+        <v>70000000</v>
       </c>
       <c r="AL123" s="11">
-        <v>70000000</v>
+        <v>0</v>
       </c>
       <c r="AM123" s="11">
-        <v>0</v>
+        <v>17960784</v>
       </c>
       <c r="AN123" s="11">
-        <v>17960784</v>
+        <v>18800000</v>
       </c>
       <c r="AO123" s="11">
-        <v>18800000</v>
+        <v>0</v>
       </c>
       <c r="AP123" s="11">
-        <v>0</v>
+        <v>24155172</v>
       </c>
       <c r="AQ123" s="11">
-        <v>24155172</v>
+        <v>29000000</v>
       </c>
       <c r="AR123" s="11">
-        <v>29000000</v>
-      </c>
-      <c r="AS123" s="11">
         <v>42952381</v>
       </c>
+      <c r="AS123" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT123" s="11" t="s">
         <v>58</v>
       </c>
@@ -16686,7 +16721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>72</v>
       </c>
@@ -16814,35 +16849,35 @@
       <c r="AR124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS124" s="13" t="s">
-        <v>58</v>
+      <c r="AS124" s="13">
+        <v>48233</v>
       </c>
       <c r="AT124" s="13">
-        <v>48233</v>
+        <v>0</v>
       </c>
       <c r="AU124" s="13">
-        <v>0</v>
+        <v>59176</v>
       </c>
       <c r="AV124" s="13">
-        <v>59176</v>
+        <v>49345</v>
       </c>
       <c r="AW124" s="13">
-        <v>49345</v>
+        <v>45498</v>
       </c>
       <c r="AX124" s="13">
-        <v>45498</v>
+        <v>76844</v>
       </c>
       <c r="AY124" s="13">
-        <v>76844</v>
+        <v>55904</v>
       </c>
       <c r="AZ124" s="13">
-        <v>55904</v>
+        <v>0</v>
       </c>
       <c r="BA124" s="13">
-        <v>0</v>
+        <v>194057</v>
       </c>
       <c r="BB124" s="13">
-        <v>194057</v>
+        <v>1076371</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/dejaber/product/monthly_seprated.xlsx
+++ b/database/industries/darou/dejaber/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42FE5E-5CB5-43EC-9478-60045CF30691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA0C4B-2B46-417E-9026-20865EAE6F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="99">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دجابر-داروسازی‌ جابرابن‌حیان‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -793,12 +793,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -853,7 +853,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1022,7 +1022,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1191,7 +1191,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1516,110 +1516,110 @@
       <c r="T11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>58</v>
+      <c r="U11" s="11">
+        <v>352080</v>
+      </c>
+      <c r="V11" s="11">
+        <v>293400</v>
       </c>
       <c r="W11" s="11">
-        <v>352080</v>
+        <v>0</v>
       </c>
       <c r="X11" s="11">
         <v>293400</v>
       </c>
       <c r="Y11" s="11">
-        <v>0</v>
+        <v>58680</v>
       </c>
       <c r="Z11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>116280</v>
+      </c>
+      <c r="AC11" s="11">
         <v>293400</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AD11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11">
         <v>58680</v>
       </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>116280</v>
-      </c>
-      <c r="AE11" s="11">
+      <c r="AG11" s="11">
+        <v>234720</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>234720</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>131280</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>176040</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>207360</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>141940</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>214560</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>122740</v>
+      </c>
+      <c r="AT11" s="11">
         <v>293400</v>
       </c>
-      <c r="AF11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>58680</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>234720</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>234720</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>131280</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>176040</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>207360</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>141940</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>214560</v>
-      </c>
       <c r="AU11" s="11">
-        <v>122740</v>
+        <v>232320</v>
       </c>
       <c r="AV11" s="11">
-        <v>293400</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="11">
-        <v>232320</v>
+        <v>69720</v>
       </c>
       <c r="AX11" s="11">
-        <v>0</v>
+        <v>314040</v>
       </c>
       <c r="AY11" s="11">
-        <v>69720</v>
+        <v>117360</v>
       </c>
       <c r="AZ11" s="11">
-        <v>314040</v>
+        <v>111190</v>
       </c>
       <c r="BA11" s="11">
-        <v>117360</v>
+        <v>153480</v>
       </c>
       <c r="BB11" s="11">
-        <v>111190</v>
+        <v>193233</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1675,110 +1675,110 @@
       <c r="T12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>58</v>
+      <c r="U12" s="13">
+        <v>392102</v>
+      </c>
+      <c r="V12" s="13">
+        <v>529616</v>
       </c>
       <c r="W12" s="13">
-        <v>392102</v>
+        <v>650529</v>
       </c>
       <c r="X12" s="13">
-        <v>529616</v>
+        <v>604365</v>
       </c>
       <c r="Y12" s="13">
-        <v>650529</v>
+        <v>498279</v>
       </c>
       <c r="Z12" s="13">
-        <v>604365</v>
+        <v>625845</v>
       </c>
       <c r="AA12" s="13">
-        <v>498279</v>
+        <v>363106</v>
       </c>
       <c r="AB12" s="13">
-        <v>625845</v>
+        <v>468335</v>
       </c>
       <c r="AC12" s="13">
-        <v>363106</v>
+        <v>23879</v>
       </c>
       <c r="AD12" s="13">
-        <v>468335</v>
+        <v>10764</v>
       </c>
       <c r="AE12" s="13">
-        <v>23879</v>
+        <v>384995</v>
       </c>
       <c r="AF12" s="13">
-        <v>10764</v>
+        <v>274124</v>
       </c>
       <c r="AG12" s="13">
-        <v>384995</v>
+        <v>45133</v>
       </c>
       <c r="AH12" s="13">
-        <v>274124</v>
+        <v>460825</v>
       </c>
       <c r="AI12" s="13">
-        <v>45133</v>
+        <v>580498</v>
       </c>
       <c r="AJ12" s="13">
-        <v>460825</v>
+        <v>553403</v>
       </c>
       <c r="AK12" s="13">
-        <v>580498</v>
+        <v>222225</v>
       </c>
       <c r="AL12" s="13">
-        <v>553403</v>
+        <v>298736</v>
       </c>
       <c r="AM12" s="13">
-        <v>222225</v>
+        <v>721038</v>
       </c>
       <c r="AN12" s="13">
-        <v>298736</v>
+        <v>697700</v>
       </c>
       <c r="AO12" s="13">
-        <v>721038</v>
+        <v>682353</v>
       </c>
       <c r="AP12" s="13">
-        <v>697700</v>
+        <v>370331</v>
       </c>
       <c r="AQ12" s="13">
-        <v>682353</v>
+        <v>157176</v>
       </c>
       <c r="AR12" s="13">
-        <v>370331</v>
+        <v>158641</v>
       </c>
       <c r="AS12" s="13">
-        <v>157176</v>
+        <v>191087</v>
       </c>
       <c r="AT12" s="13">
-        <v>158641</v>
+        <v>76001</v>
       </c>
       <c r="AU12" s="13">
-        <v>191087</v>
+        <v>146768</v>
       </c>
       <c r="AV12" s="13">
-        <v>76001</v>
+        <v>122082</v>
       </c>
       <c r="AW12" s="13">
-        <v>146768</v>
+        <v>505915</v>
       </c>
       <c r="AX12" s="13">
-        <v>122082</v>
+        <v>812508</v>
       </c>
       <c r="AY12" s="13">
-        <v>505915</v>
+        <v>906122</v>
       </c>
       <c r="AZ12" s="13">
-        <v>812508</v>
+        <v>451003</v>
       </c>
       <c r="BA12" s="13">
-        <v>906122</v>
+        <v>89655</v>
       </c>
       <c r="BB12" s="13">
-        <v>451003</v>
+        <v>449147</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>61</v>
       </c>
@@ -1834,35 +1834,35 @@
       <c r="T13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>58</v>
+      <c r="U13" s="11">
+        <v>87680</v>
+      </c>
+      <c r="V13" s="11">
+        <v>0</v>
       </c>
       <c r="W13" s="11">
-        <v>87680</v>
+        <v>21930</v>
       </c>
       <c r="X13" s="11">
-        <v>0</v>
+        <v>41880</v>
       </c>
       <c r="Y13" s="11">
-        <v>21930</v>
+        <v>374780</v>
       </c>
       <c r="Z13" s="11">
-        <v>41880</v>
+        <v>247116</v>
       </c>
       <c r="AA13" s="11">
-        <v>374780</v>
+        <v>219796</v>
       </c>
       <c r="AB13" s="11">
-        <v>247116</v>
+        <v>21916</v>
       </c>
       <c r="AC13" s="11">
-        <v>219796</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="11">
-        <v>21916</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="11">
         <v>0</v>
@@ -1877,40 +1877,40 @@
         <v>0</v>
       </c>
       <c r="AI13" s="11">
-        <v>0</v>
+        <v>48937</v>
       </c>
       <c r="AJ13" s="11">
-        <v>0</v>
+        <v>8160</v>
       </c>
       <c r="AK13" s="11">
-        <v>48937</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="11">
-        <v>8160</v>
+        <v>226044</v>
       </c>
       <c r="AM13" s="11">
-        <v>0</v>
+        <v>135324</v>
       </c>
       <c r="AN13" s="11">
-        <v>226044</v>
+        <v>135072</v>
       </c>
       <c r="AO13" s="11">
-        <v>135324</v>
+        <v>44268</v>
       </c>
       <c r="AP13" s="11">
-        <v>135072</v>
+        <v>185404</v>
       </c>
       <c r="AQ13" s="11">
-        <v>44268</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="11">
-        <v>185404</v>
+        <v>44254</v>
       </c>
       <c r="AS13" s="11">
         <v>0</v>
       </c>
       <c r="AT13" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="11">
         <v>0</v>
@@ -1925,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="AY13" s="11">
-        <v>0</v>
+        <v>279650</v>
       </c>
       <c r="AZ13" s="11">
-        <v>0</v>
+        <v>362384</v>
       </c>
       <c r="BA13" s="11">
-        <v>279650</v>
+        <v>279000</v>
       </c>
       <c r="BB13" s="11">
-        <v>362384</v>
+        <v>328932</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>63</v>
       </c>
@@ -1993,110 +1993,110 @@
       <c r="T14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>58</v>
+      <c r="U14" s="13">
+        <v>8075390</v>
+      </c>
+      <c r="V14" s="13">
+        <v>26547714</v>
       </c>
       <c r="W14" s="13">
-        <v>8075390</v>
+        <v>24142146</v>
       </c>
       <c r="X14" s="13">
-        <v>26547714</v>
+        <v>14879334</v>
       </c>
       <c r="Y14" s="13">
-        <v>24142146</v>
+        <v>10550250</v>
       </c>
       <c r="Z14" s="13">
-        <v>14879334</v>
+        <v>11872090</v>
       </c>
       <c r="AA14" s="13">
-        <v>10550250</v>
+        <v>17866800</v>
       </c>
       <c r="AB14" s="13">
-        <v>11872090</v>
+        <v>16834100</v>
       </c>
       <c r="AC14" s="13">
-        <v>17866800</v>
+        <v>5409254</v>
       </c>
       <c r="AD14" s="13">
-        <v>16834100</v>
+        <v>3055600</v>
       </c>
       <c r="AE14" s="13">
-        <v>5409254</v>
+        <v>15014300</v>
       </c>
       <c r="AF14" s="13">
-        <v>3055600</v>
+        <v>5002430</v>
       </c>
       <c r="AG14" s="13">
-        <v>15014300</v>
+        <v>11650816</v>
       </c>
       <c r="AH14" s="13">
-        <v>5002430</v>
+        <v>13152630</v>
       </c>
       <c r="AI14" s="13">
-        <v>11650816</v>
+        <v>46259244</v>
       </c>
       <c r="AJ14" s="13">
-        <v>13152630</v>
+        <v>23761286</v>
       </c>
       <c r="AK14" s="13">
-        <v>46259244</v>
+        <v>50864400</v>
       </c>
       <c r="AL14" s="13">
-        <v>23761286</v>
+        <v>11910410</v>
       </c>
       <c r="AM14" s="13">
-        <v>50864400</v>
+        <v>35183260</v>
       </c>
       <c r="AN14" s="13">
-        <v>11910410</v>
+        <v>44400500</v>
       </c>
       <c r="AO14" s="13">
-        <v>35183260</v>
+        <v>20591790</v>
       </c>
       <c r="AP14" s="13">
-        <v>44400500</v>
+        <v>16864160</v>
       </c>
       <c r="AQ14" s="13">
-        <v>20591790</v>
+        <v>22755860</v>
       </c>
       <c r="AR14" s="13">
-        <v>16864160</v>
+        <v>10328380</v>
       </c>
       <c r="AS14" s="13">
-        <v>22755860</v>
+        <v>37519980</v>
       </c>
       <c r="AT14" s="13">
-        <v>10328380</v>
+        <v>35653030</v>
       </c>
       <c r="AU14" s="13">
-        <v>37519980</v>
+        <v>32215080</v>
       </c>
       <c r="AV14" s="13">
-        <v>35653030</v>
+        <v>22228010</v>
       </c>
       <c r="AW14" s="13">
-        <v>32215080</v>
+        <v>21341380</v>
       </c>
       <c r="AX14" s="13">
-        <v>22228010</v>
+        <v>11357570</v>
       </c>
       <c r="AY14" s="13">
-        <v>21341380</v>
+        <v>34414210</v>
       </c>
       <c r="AZ14" s="13">
-        <v>11357570</v>
+        <v>48657360</v>
       </c>
       <c r="BA14" s="13">
-        <v>34414210</v>
+        <v>25016650</v>
       </c>
       <c r="BB14" s="13">
-        <v>48657360</v>
+        <v>37104670</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>64</v>
       </c>
@@ -2152,110 +2152,110 @@
       <c r="T15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>58</v>
+      <c r="U15" s="11">
+        <v>784079</v>
+      </c>
+      <c r="V15" s="11">
+        <v>3962360</v>
       </c>
       <c r="W15" s="11">
-        <v>784079</v>
+        <v>2057514</v>
       </c>
       <c r="X15" s="11">
-        <v>3962360</v>
+        <v>3218491</v>
       </c>
       <c r="Y15" s="11">
-        <v>2057514</v>
+        <v>2880950</v>
       </c>
       <c r="Z15" s="11">
-        <v>3218491</v>
+        <v>2368190</v>
       </c>
       <c r="AA15" s="11">
-        <v>2880950</v>
+        <v>3255450</v>
       </c>
       <c r="AB15" s="11">
-        <v>2368190</v>
+        <v>1967002</v>
       </c>
       <c r="AC15" s="11">
-        <v>3255450</v>
+        <v>6528321</v>
       </c>
       <c r="AD15" s="11">
-        <v>1967002</v>
+        <v>4198826</v>
       </c>
       <c r="AE15" s="11">
-        <v>6528321</v>
+        <v>573600</v>
       </c>
       <c r="AF15" s="11">
-        <v>4198826</v>
+        <v>1377000</v>
       </c>
       <c r="AG15" s="11">
-        <v>573600</v>
+        <v>1405665</v>
       </c>
       <c r="AH15" s="11">
-        <v>1377000</v>
+        <v>3970080</v>
       </c>
       <c r="AI15" s="11">
-        <v>1405665</v>
+        <v>2776560</v>
       </c>
       <c r="AJ15" s="11">
-        <v>3970080</v>
+        <v>4256530</v>
       </c>
       <c r="AK15" s="11">
-        <v>2776560</v>
+        <v>3318850</v>
       </c>
       <c r="AL15" s="11">
-        <v>4256530</v>
+        <v>2534960</v>
       </c>
       <c r="AM15" s="11">
-        <v>3318850</v>
+        <v>3632720</v>
       </c>
       <c r="AN15" s="11">
-        <v>2534960</v>
+        <v>1497050</v>
       </c>
       <c r="AO15" s="11">
+        <v>1098950</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>3414860</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>1492120</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>1575200</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>3884718</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>3524725</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>1560160</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>1703010</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>4028690</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>2919470</v>
+      </c>
+      <c r="AY15" s="11">
         <v>3632720</v>
       </c>
-      <c r="AP15" s="11">
-        <v>1497050</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>1098950</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>3414860</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>1492120</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>1575200</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>3884718</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>3524725</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>1560160</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>1703010</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>4028690</v>
-      </c>
       <c r="AZ15" s="11">
-        <v>2919470</v>
+        <v>1668830</v>
       </c>
       <c r="BA15" s="11">
-        <v>730840</v>
+        <v>3127632</v>
       </c>
       <c r="BB15" s="11">
-        <v>1668830</v>
+        <v>2269180</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>65</v>
       </c>
@@ -2344,14 +2344,14 @@
       <c r="AE16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF16" s="13" t="s">
-        <v>58</v>
+      <c r="AF16" s="13">
+        <v>0</v>
       </c>
       <c r="AG16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH16" s="13">
-        <v>0</v>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
@@ -2377,11 +2377,11 @@
       <c r="AP16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
+      <c r="AQ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>0</v>
       </c>
       <c r="AS16" s="13">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>66</v>
       </c>
@@ -2470,17 +2470,17 @@
       <c r="T17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0</v>
-      </c>
-      <c r="X17" s="11">
-        <v>0</v>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Y17" s="11" t="s">
         <v>58</v>
@@ -2573,7 +2573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>68</v>
       </c>
@@ -2628,109 +2628,109 @@
         <v>0</v>
       </c>
       <c r="U18" s="15">
-        <v>0</v>
+        <v>9691331</v>
       </c>
       <c r="V18" s="15">
-        <v>0</v>
+        <v>31333090</v>
       </c>
       <c r="W18" s="15">
-        <v>9691331</v>
+        <v>26872119</v>
       </c>
       <c r="X18" s="15">
-        <v>31333090</v>
+        <v>19037470</v>
       </c>
       <c r="Y18" s="15">
-        <v>26872119</v>
+        <v>14362939</v>
       </c>
       <c r="Z18" s="15">
-        <v>19037470</v>
+        <v>15113241</v>
       </c>
       <c r="AA18" s="15">
-        <v>14362939</v>
+        <v>21705152</v>
       </c>
       <c r="AB18" s="15">
-        <v>15113241</v>
+        <v>19407633</v>
       </c>
       <c r="AC18" s="15">
-        <v>21705152</v>
+        <v>12254854</v>
       </c>
       <c r="AD18" s="15">
-        <v>19407633</v>
+        <v>7265190</v>
       </c>
       <c r="AE18" s="15">
-        <v>12254854</v>
+        <v>15972895</v>
       </c>
       <c r="AF18" s="15">
-        <v>7265190</v>
+        <v>6712234</v>
       </c>
       <c r="AG18" s="15">
-        <v>15972895</v>
+        <v>13336334</v>
       </c>
       <c r="AH18" s="15">
-        <v>6712234</v>
+        <v>17818255</v>
       </c>
       <c r="AI18" s="15">
-        <v>13336334</v>
+        <v>49796519</v>
       </c>
       <c r="AJ18" s="15">
-        <v>17818255</v>
+        <v>28579379</v>
       </c>
       <c r="AK18" s="15">
-        <v>49796519</v>
+        <v>54405475</v>
       </c>
       <c r="AL18" s="15">
-        <v>28579379</v>
+        <v>15146190</v>
       </c>
       <c r="AM18" s="15">
-        <v>54405475</v>
+        <v>39879702</v>
       </c>
       <c r="AN18" s="15">
-        <v>15146190</v>
+        <v>46730322</v>
       </c>
       <c r="AO18" s="15">
-        <v>39879702</v>
+        <v>22417361</v>
       </c>
       <c r="AP18" s="15">
-        <v>46730322</v>
+        <v>20834755</v>
       </c>
       <c r="AQ18" s="15">
-        <v>22417361</v>
+        <v>24547096</v>
       </c>
       <c r="AR18" s="15">
-        <v>20834755</v>
+        <v>12321035</v>
       </c>
       <c r="AS18" s="15">
-        <v>24547096</v>
+        <v>41718525</v>
       </c>
       <c r="AT18" s="15">
-        <v>12321035</v>
+        <v>39547156</v>
       </c>
       <c r="AU18" s="15">
-        <v>41718525</v>
+        <v>34154328</v>
       </c>
       <c r="AV18" s="15">
-        <v>39547156</v>
+        <v>24053102</v>
       </c>
       <c r="AW18" s="15">
-        <v>34154328</v>
+        <v>25945705</v>
       </c>
       <c r="AX18" s="15">
-        <v>24053102</v>
+        <v>15403588</v>
       </c>
       <c r="AY18" s="15">
-        <v>25945705</v>
+        <v>39350062</v>
       </c>
       <c r="AZ18" s="15">
-        <v>15403588</v>
+        <v>51250767</v>
       </c>
       <c r="BA18" s="15">
-        <v>36448182</v>
+        <v>28666417</v>
       </c>
       <c r="BB18" s="15">
-        <v>51250767</v>
+        <v>40345162</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>69</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>56</v>
       </c>
@@ -2843,11 +2843,11 @@
       <c r="T20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>58</v>
+      <c r="U20" s="11">
+        <v>0</v>
+      </c>
+      <c r="V20" s="11">
+        <v>0</v>
       </c>
       <c r="W20" s="11">
         <v>0</v>
@@ -2879,11 +2879,11 @@
       <c r="AF20" s="11">
         <v>0</v>
       </c>
-      <c r="AG20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="11">
-        <v>0</v>
+      <c r="AG20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>58</v>
@@ -2909,14 +2909,14 @@
       <c r="AP20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS20" s="11" t="s">
-        <v>58</v>
+      <c r="AQ20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="11">
+        <v>0</v>
       </c>
       <c r="AT20" s="11">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>59</v>
       </c>
@@ -3002,11 +3002,11 @@
       <c r="T21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>58</v>
+      <c r="U21" s="13">
+        <v>0</v>
+      </c>
+      <c r="V21" s="13">
+        <v>0</v>
       </c>
       <c r="W21" s="13">
         <v>0</v>
@@ -3038,11 +3038,11 @@
       <c r="AF21" s="13">
         <v>0</v>
       </c>
-      <c r="AG21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="13">
-        <v>0</v>
+      <c r="AG21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI21" s="13" t="s">
         <v>58</v>
@@ -3068,14 +3068,14 @@
       <c r="AP21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS21" s="13" t="s">
-        <v>58</v>
+      <c r="AQ21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="13">
+        <v>0</v>
       </c>
       <c r="AT21" s="13">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>61</v>
       </c>
@@ -3161,11 +3161,11 @@
       <c r="T22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>58</v>
+      <c r="U22" s="11">
+        <v>0</v>
+      </c>
+      <c r="V22" s="11">
+        <v>0</v>
       </c>
       <c r="W22" s="11">
         <v>0</v>
@@ -3197,11 +3197,11 @@
       <c r="AF22" s="11">
         <v>0</v>
       </c>
-      <c r="AG22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="11">
-        <v>0</v>
+      <c r="AG22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI22" s="11" t="s">
         <v>58</v>
@@ -3227,14 +3227,14 @@
       <c r="AP22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS22" s="11" t="s">
-        <v>58</v>
+      <c r="AQ22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="11">
+        <v>0</v>
       </c>
       <c r="AT22" s="11">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>63</v>
       </c>
@@ -3320,11 +3320,11 @@
       <c r="T23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V23" s="13" t="s">
-        <v>58</v>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
       </c>
       <c r="W23" s="13">
         <v>0</v>
@@ -3356,11 +3356,11 @@
       <c r="AF23" s="13">
         <v>0</v>
       </c>
-      <c r="AG23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="13">
-        <v>0</v>
+      <c r="AG23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI23" s="13" t="s">
         <v>58</v>
@@ -3386,14 +3386,14 @@
       <c r="AP23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS23" s="13" t="s">
-        <v>58</v>
+      <c r="AQ23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="13">
+        <v>0</v>
       </c>
       <c r="AT23" s="13">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>64</v>
       </c>
@@ -3479,26 +3479,26 @@
       <c r="T24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W24" s="11">
-        <v>0</v>
-      </c>
-      <c r="X24" s="11">
-        <v>0</v>
+      <c r="U24" s="11">
+        <v>0</v>
+      </c>
+      <c r="V24" s="11">
+        <v>0</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA24" s="11" t="s">
-        <v>58</v>
+      <c r="Z24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="11">
+        <v>0</v>
       </c>
       <c r="AB24" s="11">
         <v>0</v>
@@ -3515,11 +3515,11 @@
       <c r="AF24" s="11">
         <v>0</v>
       </c>
-      <c r="AG24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="11">
-        <v>0</v>
+      <c r="AG24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>58</v>
@@ -3533,14 +3533,14 @@
       <c r="AL24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM24" s="11" t="s">
-        <v>58</v>
+      <c r="AM24" s="11">
+        <v>345838</v>
       </c>
       <c r="AN24" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO24" s="11">
-        <v>345838</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="11" t="s">
         <v>58</v>
@@ -3548,11 +3548,11 @@
       <c r="AQ24" s="11">
         <v>0</v>
       </c>
-      <c r="AR24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS24" s="11" t="s">
-        <v>58</v>
+      <c r="AR24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="11">
+        <v>0</v>
       </c>
       <c r="AT24" s="11">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>65</v>
       </c>
@@ -3707,11 +3707,11 @@
       <c r="AQ25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS25" s="13" t="s">
-        <v>58</v>
+      <c r="AR25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="13">
+        <v>0</v>
       </c>
       <c r="AT25" s="13">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>66</v>
       </c>
@@ -3797,17 +3797,17 @@
       <c r="T26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W26" s="11">
-        <v>0</v>
-      </c>
-      <c r="X26" s="11">
-        <v>0</v>
+      <c r="U26" s="11">
+        <v>0</v>
+      </c>
+      <c r="V26" s="11">
+        <v>0</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Y26" s="11" t="s">
         <v>58</v>
@@ -3900,7 +3900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>70</v>
       </c>
@@ -4009,13 +4009,13 @@
         <v>0</v>
       </c>
       <c r="AM27" s="15">
-        <v>0</v>
+        <v>345838</v>
       </c>
       <c r="AN27" s="15">
         <v>0</v>
       </c>
       <c r="AO27" s="15">
-        <v>345838</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="15">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>71</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>66</v>
       </c>
@@ -4176,11 +4176,11 @@
       <c r="V29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>58</v>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+      <c r="X29" s="11">
+        <v>0</v>
       </c>
       <c r="Y29" s="11">
         <v>0</v>
@@ -4209,35 +4209,35 @@
       <c r="AG29" s="11">
         <v>0</v>
       </c>
-      <c r="AH29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL29" s="11">
-        <v>0</v>
+      <c r="AH29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM29" s="11">
         <v>0</v>
       </c>
-      <c r="AN29" s="11" t="s">
-        <v>58</v>
+      <c r="AN29" s="11">
+        <v>0</v>
       </c>
       <c r="AO29" s="11">
         <v>0</v>
       </c>
-      <c r="AP29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="11">
-        <v>0</v>
+      <c r="AP29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR29" s="11" t="s">
         <v>58</v>
@@ -4273,7 +4273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>72</v>
       </c>
@@ -4395,14 +4395,14 @@
       <c r="AP30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ30" s="13" t="s">
-        <v>58</v>
+      <c r="AQ30" s="13">
+        <v>0</v>
       </c>
       <c r="AR30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS30" s="13">
-        <v>0</v>
+      <c r="AS30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT30" s="13" t="s">
         <v>58</v>
@@ -4416,8 +4416,8 @@
       <c r="AW30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX30" s="13" t="s">
-        <v>58</v>
+      <c r="AX30" s="13">
+        <v>0</v>
       </c>
       <c r="AY30" s="13" t="s">
         <v>58</v>
@@ -4425,14 +4425,14 @@
       <c r="AZ30" s="13">
         <v>0</v>
       </c>
-      <c r="BA30" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB30" s="13">
-        <v>0</v>
+      <c r="BA30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB30" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
@@ -4492,11 +4492,11 @@
       <c r="V31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>58</v>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <v>0</v>
       </c>
       <c r="Y31" s="17">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>74</v>
       </c>
@@ -4644,109 +4644,109 @@
         <v>0</v>
       </c>
       <c r="U32" s="15">
-        <v>0</v>
+        <v>9691331</v>
       </c>
       <c r="V32" s="15">
-        <v>0</v>
+        <v>31333090</v>
       </c>
       <c r="W32" s="15">
-        <v>9691331</v>
+        <v>26872119</v>
       </c>
       <c r="X32" s="15">
-        <v>31333090</v>
+        <v>19037470</v>
       </c>
       <c r="Y32" s="15">
-        <v>26872119</v>
+        <v>14362939</v>
       </c>
       <c r="Z32" s="15">
-        <v>19037470</v>
+        <v>15113241</v>
       </c>
       <c r="AA32" s="15">
-        <v>14362939</v>
+        <v>21705152</v>
       </c>
       <c r="AB32" s="15">
-        <v>15113241</v>
+        <v>19407633</v>
       </c>
       <c r="AC32" s="15">
-        <v>21705152</v>
+        <v>12254854</v>
       </c>
       <c r="AD32" s="15">
-        <v>19407633</v>
+        <v>7265190</v>
       </c>
       <c r="AE32" s="15">
-        <v>12254854</v>
+        <v>15972895</v>
       </c>
       <c r="AF32" s="15">
-        <v>7265190</v>
+        <v>6712234</v>
       </c>
       <c r="AG32" s="15">
-        <v>15972895</v>
+        <v>13336334</v>
       </c>
       <c r="AH32" s="15">
-        <v>6712234</v>
+        <v>17818255</v>
       </c>
       <c r="AI32" s="15">
-        <v>13336334</v>
+        <v>49796519</v>
       </c>
       <c r="AJ32" s="15">
-        <v>17818255</v>
+        <v>28579379</v>
       </c>
       <c r="AK32" s="15">
-        <v>49796519</v>
+        <v>54405475</v>
       </c>
       <c r="AL32" s="15">
-        <v>28579379</v>
+        <v>15146190</v>
       </c>
       <c r="AM32" s="15">
-        <v>54405475</v>
+        <v>40225540</v>
       </c>
       <c r="AN32" s="15">
-        <v>15146190</v>
+        <v>46730322</v>
       </c>
       <c r="AO32" s="15">
-        <v>40225540</v>
+        <v>22417361</v>
       </c>
       <c r="AP32" s="15">
-        <v>46730322</v>
+        <v>20834755</v>
       </c>
       <c r="AQ32" s="15">
-        <v>22417361</v>
+        <v>24547096</v>
       </c>
       <c r="AR32" s="15">
-        <v>20834755</v>
+        <v>12321035</v>
       </c>
       <c r="AS32" s="15">
-        <v>24547096</v>
+        <v>41718525</v>
       </c>
       <c r="AT32" s="15">
-        <v>12321035</v>
+        <v>39547156</v>
       </c>
       <c r="AU32" s="15">
-        <v>41718525</v>
+        <v>34154328</v>
       </c>
       <c r="AV32" s="15">
-        <v>39547156</v>
+        <v>24053102</v>
       </c>
       <c r="AW32" s="15">
-        <v>34154328</v>
+        <v>25945705</v>
       </c>
       <c r="AX32" s="15">
-        <v>24053102</v>
+        <v>15403588</v>
       </c>
       <c r="AY32" s="15">
-        <v>25945705</v>
+        <v>39350062</v>
       </c>
       <c r="AZ32" s="15">
-        <v>15403588</v>
+        <v>51250767</v>
       </c>
       <c r="BA32" s="15">
-        <v>36448182</v>
+        <v>28666417</v>
       </c>
       <c r="BB32" s="15">
-        <v>51250767</v>
+        <v>40345162</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4801,7 +4801,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4856,7 +4856,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4911,7 +4911,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>75</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5123,7 +5123,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>76</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>56</v>
       </c>
@@ -5236,110 +5236,110 @@
       <c r="T39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>58</v>
+      <c r="U39" s="11">
+        <v>352080</v>
+      </c>
+      <c r="V39" s="11">
+        <v>293280</v>
       </c>
       <c r="W39" s="11">
-        <v>352080</v>
+        <v>0</v>
       </c>
       <c r="X39" s="11">
-        <v>293280</v>
+        <v>293250</v>
       </c>
       <c r="Y39" s="11">
-        <v>0</v>
+        <v>58680</v>
       </c>
       <c r="Z39" s="11">
-        <v>293250</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>116280</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>293400</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="11">
         <v>58680</v>
       </c>
-      <c r="AB39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>116280</v>
-      </c>
-      <c r="AE39" s="11">
+      <c r="AG39" s="11">
+        <v>234600</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>112530</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>210960</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>42240</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>176040</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>207360</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>60000</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>233400</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>45137</v>
+      </c>
+      <c r="AT39" s="11">
         <v>293400</v>
       </c>
-      <c r="AF39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>58680</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>234600</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>112530</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>210960</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>42240</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>176040</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>207360</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>60000</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>233400</v>
-      </c>
       <c r="AU39" s="11">
-        <v>45137</v>
+        <v>232320</v>
       </c>
       <c r="AV39" s="11">
-        <v>293400</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="11">
-        <v>232320</v>
+        <v>88712</v>
       </c>
       <c r="AX39" s="11">
-        <v>0</v>
+        <v>357560</v>
       </c>
       <c r="AY39" s="11">
-        <v>88712</v>
+        <v>194398</v>
       </c>
       <c r="AZ39" s="11">
-        <v>357560</v>
+        <v>76169</v>
       </c>
       <c r="BA39" s="11">
-        <v>194398</v>
+        <v>104791</v>
       </c>
       <c r="BB39" s="11">
-        <v>76169</v>
+        <v>150000</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
@@ -5395,110 +5395,110 @@
       <c r="T40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>58</v>
+      <c r="U40" s="13">
+        <v>350036</v>
+      </c>
+      <c r="V40" s="13">
+        <v>314605</v>
       </c>
       <c r="W40" s="13">
-        <v>350036</v>
+        <v>749791</v>
       </c>
       <c r="X40" s="13">
-        <v>314605</v>
+        <v>521049</v>
       </c>
       <c r="Y40" s="13">
-        <v>749791</v>
+        <v>617582</v>
       </c>
       <c r="Z40" s="13">
-        <v>521049</v>
+        <v>652210</v>
       </c>
       <c r="AA40" s="13">
-        <v>617582</v>
+        <v>411366</v>
       </c>
       <c r="AB40" s="13">
-        <v>652210</v>
+        <v>554704</v>
       </c>
       <c r="AC40" s="13">
-        <v>411366</v>
+        <v>16900</v>
       </c>
       <c r="AD40" s="13">
-        <v>554704</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="13">
-        <v>16900</v>
+        <v>384770</v>
       </c>
       <c r="AF40" s="13">
-        <v>0</v>
+        <v>225058</v>
       </c>
       <c r="AG40" s="13">
-        <v>384770</v>
+        <v>66194</v>
       </c>
       <c r="AH40" s="13">
-        <v>225058</v>
+        <v>462605</v>
       </c>
       <c r="AI40" s="13">
-        <v>66194</v>
+        <v>590694</v>
       </c>
       <c r="AJ40" s="13">
-        <v>462605</v>
+        <v>623854</v>
       </c>
       <c r="AK40" s="13">
-        <v>590694</v>
+        <v>223425</v>
       </c>
       <c r="AL40" s="13">
-        <v>623854</v>
+        <v>264913</v>
       </c>
       <c r="AM40" s="13">
-        <v>223425</v>
+        <v>637709</v>
       </c>
       <c r="AN40" s="13">
-        <v>264913</v>
+        <v>814046</v>
       </c>
       <c r="AO40" s="13">
-        <v>637709</v>
+        <v>681703</v>
       </c>
       <c r="AP40" s="13">
-        <v>814046</v>
+        <v>351924</v>
       </c>
       <c r="AQ40" s="13">
-        <v>681703</v>
+        <v>175467</v>
       </c>
       <c r="AR40" s="13">
-        <v>351924</v>
+        <v>155901</v>
       </c>
       <c r="AS40" s="13">
-        <v>175467</v>
+        <v>186323</v>
       </c>
       <c r="AT40" s="13">
-        <v>155901</v>
+        <v>76001</v>
       </c>
       <c r="AU40" s="13">
-        <v>186323</v>
+        <v>146648</v>
       </c>
       <c r="AV40" s="13">
-        <v>76001</v>
+        <v>121962</v>
       </c>
       <c r="AW40" s="13">
-        <v>146648</v>
+        <v>497348</v>
       </c>
       <c r="AX40" s="13">
-        <v>121962</v>
+        <v>801639</v>
       </c>
       <c r="AY40" s="13">
-        <v>497348</v>
+        <v>883420</v>
       </c>
       <c r="AZ40" s="13">
-        <v>801639</v>
+        <v>457990</v>
       </c>
       <c r="BA40" s="13">
-        <v>883420</v>
+        <v>106084</v>
       </c>
       <c r="BB40" s="13">
-        <v>457990</v>
+        <v>448907</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>61</v>
       </c>
@@ -5554,110 +5554,110 @@
       <c r="T41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>58</v>
+      <c r="U41" s="11">
+        <v>127596</v>
+      </c>
+      <c r="V41" s="11">
+        <v>26000</v>
       </c>
       <c r="W41" s="11">
-        <v>127596</v>
+        <v>72010</v>
       </c>
       <c r="X41" s="11">
-        <v>26000</v>
+        <v>41800</v>
       </c>
       <c r="Y41" s="11">
-        <v>72010</v>
+        <v>279000</v>
       </c>
       <c r="Z41" s="11">
-        <v>41800</v>
+        <v>446982</v>
       </c>
       <c r="AA41" s="11">
+        <v>32396</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>33668</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>203696</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>20000</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>15000</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>247971</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>135324</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>179340</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>180894</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>4430</v>
+      </c>
+      <c r="AR41" s="11">
+        <v>44254</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="11">
+        <v>279450</v>
+      </c>
+      <c r="AZ41" s="11">
+        <v>362381</v>
+      </c>
+      <c r="BA41" s="11">
         <v>279000</v>
       </c>
-      <c r="AB41" s="11">
-        <v>446982</v>
-      </c>
-      <c r="AC41" s="11">
-        <v>32396</v>
-      </c>
-      <c r="AD41" s="11">
-        <v>33668</v>
-      </c>
-      <c r="AE41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="11">
-        <v>203696</v>
-      </c>
-      <c r="AH41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>20000</v>
-      </c>
-      <c r="AM41" s="11">
-        <v>15000</v>
-      </c>
-      <c r="AN41" s="11">
-        <v>247971</v>
-      </c>
-      <c r="AO41" s="11">
-        <v>135324</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>179340</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>180894</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>4430</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>44254</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA41" s="11">
-        <v>279450</v>
-      </c>
       <c r="BB41" s="11">
-        <v>362381</v>
+        <v>328852</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -5713,110 +5713,110 @@
       <c r="T42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V42" s="13" t="s">
-        <v>58</v>
+      <c r="U42" s="13">
+        <v>9808340</v>
+      </c>
+      <c r="V42" s="13">
+        <v>26264800</v>
       </c>
       <c r="W42" s="13">
-        <v>9808340</v>
+        <v>25781960</v>
       </c>
       <c r="X42" s="13">
-        <v>26264800</v>
+        <v>14958930</v>
       </c>
       <c r="Y42" s="13">
-        <v>25781960</v>
+        <v>3650278</v>
       </c>
       <c r="Z42" s="13">
-        <v>14958930</v>
+        <v>3313698</v>
       </c>
       <c r="AA42" s="13">
-        <v>3650278</v>
+        <v>29056350</v>
       </c>
       <c r="AB42" s="13">
-        <v>3313698</v>
+        <v>18249450</v>
       </c>
       <c r="AC42" s="13">
-        <v>29056350</v>
+        <v>3319694</v>
       </c>
       <c r="AD42" s="13">
-        <v>18249450</v>
+        <v>5095000</v>
       </c>
       <c r="AE42" s="13">
-        <v>3319694</v>
+        <v>16123430</v>
       </c>
       <c r="AF42" s="13">
-        <v>5095000</v>
+        <v>5246250</v>
       </c>
       <c r="AG42" s="13">
-        <v>16123430</v>
+        <v>10389950</v>
       </c>
       <c r="AH42" s="13">
-        <v>5246250</v>
+        <v>4586768</v>
       </c>
       <c r="AI42" s="13">
-        <v>10389950</v>
+        <v>55923024</v>
       </c>
       <c r="AJ42" s="13">
-        <v>4586768</v>
+        <v>24923336</v>
       </c>
       <c r="AK42" s="13">
-        <v>55923024</v>
+        <v>51018720</v>
       </c>
       <c r="AL42" s="13">
-        <v>24923336</v>
+        <v>10668860</v>
       </c>
       <c r="AM42" s="13">
-        <v>51018720</v>
+        <v>34980130</v>
       </c>
       <c r="AN42" s="13">
-        <v>10668860</v>
+        <v>44978050</v>
       </c>
       <c r="AO42" s="13">
-        <v>34980130</v>
+        <v>19983750</v>
       </c>
       <c r="AP42" s="13">
-        <v>44978050</v>
+        <v>17294200</v>
       </c>
       <c r="AQ42" s="13">
-        <v>19983750</v>
+        <v>22223050</v>
       </c>
       <c r="AR42" s="13">
-        <v>17294200</v>
+        <v>9391220</v>
       </c>
       <c r="AS42" s="13">
-        <v>22223050</v>
+        <v>38699600</v>
       </c>
       <c r="AT42" s="13">
-        <v>9391220</v>
+        <v>34421030</v>
       </c>
       <c r="AU42" s="13">
-        <v>38699600</v>
+        <v>26777450</v>
       </c>
       <c r="AV42" s="13">
-        <v>34421030</v>
+        <v>28959360</v>
       </c>
       <c r="AW42" s="13">
-        <v>26777450</v>
+        <v>20009370</v>
       </c>
       <c r="AX42" s="13">
-        <v>28959360</v>
+        <v>7543550</v>
       </c>
       <c r="AY42" s="13">
-        <v>20009370</v>
+        <v>32461460</v>
       </c>
       <c r="AZ42" s="13">
-        <v>7543550</v>
+        <v>49846060</v>
       </c>
       <c r="BA42" s="13">
-        <v>32461460</v>
+        <v>31931740</v>
       </c>
       <c r="BB42" s="13">
-        <v>49846060</v>
+        <v>35708130</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
@@ -5872,110 +5872,110 @@
       <c r="T43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>58</v>
+      <c r="U43" s="11">
+        <v>909718</v>
+      </c>
+      <c r="V43" s="11">
+        <v>4172276</v>
       </c>
       <c r="W43" s="11">
-        <v>909718</v>
+        <v>1689961</v>
       </c>
       <c r="X43" s="11">
-        <v>4172276</v>
+        <v>3586174</v>
       </c>
       <c r="Y43" s="11">
-        <v>1689961</v>
+        <v>1869520</v>
       </c>
       <c r="Z43" s="11">
-        <v>3586174</v>
+        <v>1701000</v>
       </c>
       <c r="AA43" s="11">
-        <v>1869520</v>
+        <v>2866590</v>
       </c>
       <c r="AB43" s="11">
-        <v>1701000</v>
+        <v>4088530</v>
       </c>
       <c r="AC43" s="11">
-        <v>2866590</v>
+        <v>5302230</v>
       </c>
       <c r="AD43" s="11">
-        <v>4088530</v>
+        <v>5243040</v>
       </c>
       <c r="AE43" s="11">
-        <v>5302230</v>
+        <v>640827</v>
       </c>
       <c r="AF43" s="11">
-        <v>5243040</v>
+        <v>1091320</v>
       </c>
       <c r="AG43" s="11">
-        <v>640827</v>
+        <v>1386230</v>
       </c>
       <c r="AH43" s="11">
-        <v>1091320</v>
+        <v>3985760</v>
       </c>
       <c r="AI43" s="11">
-        <v>1386230</v>
+        <v>2484060</v>
       </c>
       <c r="AJ43" s="11">
-        <v>3985760</v>
+        <v>4816465</v>
       </c>
       <c r="AK43" s="11">
-        <v>2484060</v>
+        <v>3258720</v>
       </c>
       <c r="AL43" s="11">
-        <v>4816465</v>
+        <v>2574820</v>
       </c>
       <c r="AM43" s="11">
-        <v>3258720</v>
+        <v>3669880</v>
       </c>
       <c r="AN43" s="11">
-        <v>2574820</v>
+        <v>1077780</v>
       </c>
       <c r="AO43" s="11">
-        <v>3669880</v>
+        <v>1147800</v>
       </c>
       <c r="AP43" s="11">
-        <v>1077780</v>
+        <v>3867980</v>
       </c>
       <c r="AQ43" s="11">
-        <v>1147800</v>
+        <v>1546240</v>
       </c>
       <c r="AR43" s="11">
-        <v>3867980</v>
+        <v>1342800</v>
       </c>
       <c r="AS43" s="11">
-        <v>1546240</v>
+        <v>4116468</v>
       </c>
       <c r="AT43" s="11">
-        <v>1342800</v>
+        <v>3355025</v>
       </c>
       <c r="AU43" s="11">
-        <v>4116468</v>
+        <v>2249560</v>
       </c>
       <c r="AV43" s="11">
-        <v>3355025</v>
+        <v>1702765</v>
       </c>
       <c r="AW43" s="11">
-        <v>2249560</v>
+        <v>3884700</v>
       </c>
       <c r="AX43" s="11">
-        <v>1702765</v>
+        <v>2906720</v>
       </c>
       <c r="AY43" s="11">
-        <v>3884700</v>
+        <v>868740</v>
       </c>
       <c r="AZ43" s="11">
-        <v>2906720</v>
+        <v>1691420</v>
       </c>
       <c r="BA43" s="11">
-        <v>868740</v>
+        <v>2614182</v>
       </c>
       <c r="BB43" s="11">
-        <v>1691420</v>
+        <v>2450040</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>65</v>
       </c>
@@ -6064,14 +6064,14 @@
       <c r="AE44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF44" s="13" t="s">
-        <v>58</v>
+      <c r="AF44" s="13">
+        <v>0</v>
       </c>
       <c r="AG44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH44" s="13">
-        <v>0</v>
+      <c r="AH44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI44" s="13" t="s">
         <v>58</v>
@@ -6097,14 +6097,14 @@
       <c r="AP44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS44" s="13" t="s">
-        <v>58</v>
+      <c r="AQ44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="13">
+        <v>0</v>
       </c>
       <c r="AT44" s="13">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>66</v>
       </c>
@@ -6190,17 +6190,17 @@
       <c r="T45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W45" s="11">
-        <v>0</v>
-      </c>
-      <c r="X45" s="11">
-        <v>0</v>
+      <c r="U45" s="11">
+        <v>0</v>
+      </c>
+      <c r="V45" s="11">
+        <v>0</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Y45" s="11" t="s">
         <v>58</v>
@@ -6293,7 +6293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>77</v>
       </c>
@@ -6348,109 +6348,109 @@
         <v>0</v>
       </c>
       <c r="U46" s="15">
-        <v>0</v>
+        <v>11547770</v>
       </c>
       <c r="V46" s="15">
-        <v>0</v>
+        <v>31070961</v>
       </c>
       <c r="W46" s="15">
-        <v>11547770</v>
+        <v>28293722</v>
       </c>
       <c r="X46" s="15">
-        <v>31070961</v>
+        <v>19401203</v>
       </c>
       <c r="Y46" s="15">
-        <v>28293722</v>
+        <v>6475060</v>
       </c>
       <c r="Z46" s="15">
-        <v>19401203</v>
+        <v>6113890</v>
       </c>
       <c r="AA46" s="15">
-        <v>6475060</v>
+        <v>32366702</v>
       </c>
       <c r="AB46" s="15">
-        <v>6113890</v>
+        <v>23042632</v>
       </c>
       <c r="AC46" s="15">
-        <v>32366702</v>
+        <v>8932224</v>
       </c>
       <c r="AD46" s="15">
-        <v>23042632</v>
+        <v>10338040</v>
       </c>
       <c r="AE46" s="15">
-        <v>8932224</v>
+        <v>17352723</v>
       </c>
       <c r="AF46" s="15">
-        <v>10338040</v>
+        <v>6621308</v>
       </c>
       <c r="AG46" s="15">
-        <v>17352723</v>
+        <v>12076974</v>
       </c>
       <c r="AH46" s="15">
-        <v>6621308</v>
+        <v>9147663</v>
       </c>
       <c r="AI46" s="15">
-        <v>12076974</v>
+        <v>59208738</v>
       </c>
       <c r="AJ46" s="15">
-        <v>9147663</v>
+        <v>30425895</v>
       </c>
       <c r="AK46" s="15">
-        <v>59208738</v>
+        <v>54515865</v>
       </c>
       <c r="AL46" s="15">
-        <v>30425895</v>
+        <v>13932604</v>
       </c>
       <c r="AM46" s="15">
-        <v>54515865</v>
+        <v>39630403</v>
       </c>
       <c r="AN46" s="15">
-        <v>13932604</v>
+        <v>46869876</v>
       </c>
       <c r="AO46" s="15">
-        <v>39630403</v>
+        <v>21992593</v>
       </c>
       <c r="AP46" s="15">
-        <v>46869876</v>
+        <v>21694998</v>
       </c>
       <c r="AQ46" s="15">
-        <v>21992593</v>
+        <v>24009187</v>
       </c>
       <c r="AR46" s="15">
-        <v>21694998</v>
+        <v>11167575</v>
       </c>
       <c r="AS46" s="15">
-        <v>24009187</v>
+        <v>43047528</v>
       </c>
       <c r="AT46" s="15">
-        <v>11167575</v>
+        <v>38145456</v>
       </c>
       <c r="AU46" s="15">
-        <v>43047528</v>
+        <v>29405978</v>
       </c>
       <c r="AV46" s="15">
-        <v>38145456</v>
+        <v>30784087</v>
       </c>
       <c r="AW46" s="15">
-        <v>29405978</v>
+        <v>24480130</v>
       </c>
       <c r="AX46" s="15">
-        <v>30784087</v>
+        <v>11609469</v>
       </c>
       <c r="AY46" s="15">
-        <v>24480130</v>
+        <v>34687468</v>
       </c>
       <c r="AZ46" s="15">
-        <v>11609469</v>
+        <v>52434020</v>
       </c>
       <c r="BA46" s="15">
-        <v>34687468</v>
+        <v>35035797</v>
       </c>
       <c r="BB46" s="15">
-        <v>52434020</v>
+        <v>39085929</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>78</v>
       </c>
@@ -6507,7 +6507,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>56</v>
       </c>
@@ -6563,11 +6563,11 @@
       <c r="T48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V48" s="11" t="s">
-        <v>58</v>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
       </c>
       <c r="W48" s="11">
         <v>0</v>
@@ -6599,8 +6599,8 @@
       <c r="AF48" s="11">
         <v>0</v>
       </c>
-      <c r="AG48" s="11">
-        <v>0</v>
+      <c r="AG48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH48" s="11">
         <v>0</v>
@@ -6608,8 +6608,8 @@
       <c r="AI48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ48" s="11">
-        <v>0</v>
+      <c r="AJ48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK48" s="11" t="s">
         <v>58</v>
@@ -6629,14 +6629,14 @@
       <c r="AP48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS48" s="11" t="s">
-        <v>58</v>
+      <c r="AQ48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="11">
+        <v>0</v>
       </c>
       <c r="AT48" s="11">
         <v>0</v>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>59</v>
       </c>
@@ -6722,11 +6722,11 @@
       <c r="T49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V49" s="13" t="s">
-        <v>58</v>
+      <c r="U49" s="13">
+        <v>0</v>
+      </c>
+      <c r="V49" s="13">
+        <v>0</v>
       </c>
       <c r="W49" s="13">
         <v>0</v>
@@ -6758,8 +6758,8 @@
       <c r="AF49" s="13">
         <v>0</v>
       </c>
-      <c r="AG49" s="13">
-        <v>0</v>
+      <c r="AG49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH49" s="13">
         <v>0</v>
@@ -6767,8 +6767,8 @@
       <c r="AI49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ49" s="13">
-        <v>0</v>
+      <c r="AJ49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK49" s="13" t="s">
         <v>58</v>
@@ -6788,14 +6788,14 @@
       <c r="AP49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS49" s="13" t="s">
-        <v>58</v>
+      <c r="AQ49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="13">
+        <v>0</v>
       </c>
       <c r="AT49" s="13">
         <v>0</v>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>61</v>
       </c>
@@ -6881,11 +6881,11 @@
       <c r="T50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V50" s="11" t="s">
-        <v>58</v>
+      <c r="U50" s="11">
+        <v>0</v>
+      </c>
+      <c r="V50" s="11">
+        <v>0</v>
       </c>
       <c r="W50" s="11">
         <v>0</v>
@@ -6917,8 +6917,8 @@
       <c r="AF50" s="11">
         <v>0</v>
       </c>
-      <c r="AG50" s="11">
-        <v>0</v>
+      <c r="AG50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH50" s="11">
         <v>0</v>
@@ -6926,8 +6926,8 @@
       <c r="AI50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ50" s="11">
-        <v>0</v>
+      <c r="AJ50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK50" s="11" t="s">
         <v>58</v>
@@ -6947,14 +6947,14 @@
       <c r="AP50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS50" s="11" t="s">
-        <v>58</v>
+      <c r="AQ50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="11">
+        <v>0</v>
       </c>
       <c r="AT50" s="11">
         <v>0</v>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>63</v>
       </c>
@@ -7040,11 +7040,11 @@
       <c r="T51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V51" s="13" t="s">
-        <v>58</v>
+      <c r="U51" s="13">
+        <v>0</v>
+      </c>
+      <c r="V51" s="13">
+        <v>0</v>
       </c>
       <c r="W51" s="13">
         <v>0</v>
@@ -7076,8 +7076,8 @@
       <c r="AF51" s="13">
         <v>0</v>
       </c>
-      <c r="AG51" s="13">
-        <v>0</v>
+      <c r="AG51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH51" s="13">
         <v>0</v>
@@ -7085,8 +7085,8 @@
       <c r="AI51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ51" s="13">
-        <v>0</v>
+      <c r="AJ51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK51" s="13" t="s">
         <v>58</v>
@@ -7106,14 +7106,14 @@
       <c r="AP51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS51" s="13" t="s">
-        <v>58</v>
+      <c r="AQ51" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="13">
+        <v>0</v>
       </c>
       <c r="AT51" s="13">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>64</v>
       </c>
@@ -7199,26 +7199,26 @@
       <c r="T52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W52" s="11">
-        <v>0</v>
-      </c>
-      <c r="X52" s="11">
-        <v>0</v>
+      <c r="U52" s="11">
+        <v>0</v>
+      </c>
+      <c r="V52" s="11">
+        <v>0</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Y52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA52" s="11" t="s">
-        <v>58</v>
+      <c r="Z52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="11">
+        <v>0</v>
       </c>
       <c r="AB52" s="11">
         <v>0</v>
@@ -7235,8 +7235,8 @@
       <c r="AF52" s="11">
         <v>0</v>
       </c>
-      <c r="AG52" s="11">
-        <v>0</v>
+      <c r="AG52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH52" s="11">
         <v>0</v>
@@ -7244,8 +7244,8 @@
       <c r="AI52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ52" s="11">
-        <v>0</v>
+      <c r="AJ52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK52" s="11" t="s">
         <v>58</v>
@@ -7253,14 +7253,14 @@
       <c r="AL52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM52" s="11" t="s">
-        <v>58</v>
+      <c r="AM52" s="11">
+        <v>366798</v>
       </c>
       <c r="AN52" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO52" s="11">
-        <v>366798</v>
+        <v>0</v>
       </c>
       <c r="AP52" s="11" t="s">
         <v>58</v>
@@ -7268,11 +7268,11 @@
       <c r="AQ52" s="11">
         <v>0</v>
       </c>
-      <c r="AR52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS52" s="11" t="s">
-        <v>58</v>
+      <c r="AR52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="11">
+        <v>0</v>
       </c>
       <c r="AT52" s="11">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>65</v>
       </c>
@@ -7427,11 +7427,11 @@
       <c r="AQ53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS53" s="13" t="s">
-        <v>58</v>
+      <c r="AR53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="13">
+        <v>0</v>
       </c>
       <c r="AT53" s="13">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>66</v>
       </c>
@@ -7517,17 +7517,17 @@
       <c r="T54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W54" s="11">
-        <v>0</v>
-      </c>
-      <c r="X54" s="11">
-        <v>0</v>
+      <c r="U54" s="11">
+        <v>0</v>
+      </c>
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X54" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Y54" s="11" t="s">
         <v>58</v>
@@ -7620,7 +7620,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>79</v>
       </c>
@@ -7729,13 +7729,13 @@
         <v>0</v>
       </c>
       <c r="AM55" s="15">
-        <v>0</v>
+        <v>366798</v>
       </c>
       <c r="AN55" s="15">
         <v>0</v>
       </c>
       <c r="AO55" s="15">
-        <v>366798</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="15">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>71</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>66</v>
       </c>
@@ -7896,72 +7896,72 @@
       <c r="V57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="11" t="s">
-        <v>58</v>
+      <c r="W57" s="11">
+        <v>8</v>
+      </c>
+      <c r="X57" s="11">
+        <v>28</v>
       </c>
       <c r="Y57" s="11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z57" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA57" s="11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB57" s="11">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AC57" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD57" s="11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE57" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF57" s="11">
+        <v>13</v>
+      </c>
+      <c r="AG57" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH57" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI57" s="11">
+        <v>3</v>
+      </c>
+      <c r="AJ57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="11">
+        <v>51</v>
+      </c>
+      <c r="AL57" s="11">
         <v>5</v>
       </c>
-      <c r="AF57" s="11">
-        <v>3</v>
-      </c>
-      <c r="AG57" s="11">
-        <v>6</v>
-      </c>
-      <c r="AH57" s="11">
-        <v>13</v>
-      </c>
-      <c r="AI57" s="11">
-        <v>15</v>
-      </c>
-      <c r="AJ57" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK57" s="11">
-        <v>3</v>
-      </c>
-      <c r="AL57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM57" s="11">
-        <v>51</v>
+      <c r="AM57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN57" s="11">
-        <v>5</v>
-      </c>
-      <c r="AO57" s="11" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="AO57" s="11">
+        <v>9</v>
       </c>
       <c r="AP57" s="11">
-        <v>58</v>
-      </c>
-      <c r="AQ57" s="11">
-        <v>9</v>
-      </c>
-      <c r="AR57" s="11">
         <v>21</v>
       </c>
+      <c r="AQ57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS57" s="11" t="s">
         <v>58</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>72</v>
       </c>
@@ -8115,44 +8115,44 @@
       <c r="AP58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ58" s="13" t="s">
-        <v>58</v>
+      <c r="AQ58" s="13">
+        <v>1751428</v>
       </c>
       <c r="AR58" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AS58" s="13">
-        <v>1751428</v>
-      </c>
-      <c r="AT58" s="13" t="s">
-        <v>58</v>
+        <v>377858</v>
+      </c>
+      <c r="AT58" s="13">
+        <v>480437</v>
       </c>
       <c r="AU58" s="13">
-        <v>377858</v>
+        <v>113565</v>
       </c>
       <c r="AV58" s="13">
-        <v>480437</v>
+        <v>128507</v>
       </c>
       <c r="AW58" s="13">
-        <v>113565</v>
-      </c>
-      <c r="AX58" s="13">
-        <v>128507</v>
+        <v>498767</v>
+      </c>
+      <c r="AX58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY58" s="13">
-        <v>498767</v>
-      </c>
-      <c r="AZ58" s="13" t="s">
-        <v>58</v>
+        <v>30187</v>
+      </c>
+      <c r="AZ58" s="13">
+        <v>11850</v>
       </c>
       <c r="BA58" s="13">
-        <v>30187</v>
+        <v>354846</v>
       </c>
       <c r="BB58" s="13">
-        <v>11850</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>73</v>
       </c>
@@ -8212,104 +8212,104 @@
       <c r="V59" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="17" t="s">
-        <v>58</v>
+      <c r="W59" s="17">
+        <v>8</v>
+      </c>
+      <c r="X59" s="17">
+        <v>28</v>
       </c>
       <c r="Y59" s="17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z59" s="17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA59" s="17">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB59" s="17">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AC59" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD59" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE59" s="17">
+        <v>6</v>
+      </c>
+      <c r="AF59" s="17">
+        <v>13</v>
+      </c>
+      <c r="AG59" s="17">
+        <v>15</v>
+      </c>
+      <c r="AH59" s="17">
+        <v>4</v>
+      </c>
+      <c r="AI59" s="17">
+        <v>3</v>
+      </c>
+      <c r="AJ59" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="17">
+        <v>51</v>
+      </c>
+      <c r="AL59" s="17">
         <v>5</v>
       </c>
-      <c r="AF59" s="17">
-        <v>3</v>
-      </c>
-      <c r="AG59" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH59" s="17">
-        <v>13</v>
-      </c>
-      <c r="AI59" s="17">
-        <v>15</v>
-      </c>
-      <c r="AJ59" s="17">
-        <v>4</v>
-      </c>
-      <c r="AK59" s="17">
-        <v>3</v>
-      </c>
-      <c r="AL59" s="17">
-        <v>0</v>
-      </c>
       <c r="AM59" s="17">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="17">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="AO59" s="17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AP59" s="17">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="AQ59" s="17">
-        <v>9</v>
+        <v>1751428</v>
       </c>
       <c r="AR59" s="17">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="17">
-        <v>1751428</v>
+        <v>377858</v>
       </c>
       <c r="AT59" s="17">
-        <v>0</v>
+        <v>480437</v>
       </c>
       <c r="AU59" s="17">
-        <v>377858</v>
+        <v>113565</v>
       </c>
       <c r="AV59" s="17">
-        <v>480437</v>
+        <v>128507</v>
       </c>
       <c r="AW59" s="17">
-        <v>113565</v>
+        <v>498767</v>
       </c>
       <c r="AX59" s="17">
-        <v>128507</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="17">
-        <v>498767</v>
+        <v>30187</v>
       </c>
       <c r="AZ59" s="17">
-        <v>0</v>
+        <v>11850</v>
       </c>
       <c r="BA59" s="17">
-        <v>30187</v>
+        <v>354846</v>
       </c>
       <c r="BB59" s="17">
-        <v>11850</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>80</v>
       </c>
@@ -8366,7 +8366,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
@@ -8428,11 +8428,11 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>0</v>
+      </c>
+      <c r="X61" s="11">
+        <v>0</v>
       </c>
       <c r="Y61" s="11">
         <v>0</v>
@@ -8458,8 +8458,8 @@
       <c r="AF61" s="11">
         <v>0</v>
       </c>
-      <c r="AG61" s="11">
-        <v>0</v>
+      <c r="AG61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH61" s="11">
         <v>0</v>
@@ -8467,8 +8467,8 @@
       <c r="AI61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ61" s="11">
-        <v>0</v>
+      <c r="AJ61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK61" s="11" t="s">
         <v>58</v>
@@ -8482,14 +8482,14 @@
       <c r="AN61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO61" s="11" t="s">
-        <v>58</v>
+      <c r="AO61" s="11">
+        <v>0</v>
       </c>
       <c r="AP61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ61" s="11">
-        <v>0</v>
+      <c r="AQ61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR61" s="11" t="s">
         <v>58</v>
@@ -8518,14 +8518,14 @@
       <c r="AZ61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA61" s="11">
-        <v>0</v>
+      <c r="BA61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB61" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>59</v>
       </c>
@@ -8587,38 +8587,38 @@
       <c r="V62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X62" s="13" t="s">
-        <v>58</v>
+      <c r="W62" s="13">
+        <v>0</v>
+      </c>
+      <c r="X62" s="13">
+        <v>-100</v>
       </c>
       <c r="Y62" s="13">
         <v>0</v>
       </c>
       <c r="Z62" s="13">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="13">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="AB62" s="13">
         <v>0</v>
       </c>
       <c r="AC62" s="13">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AD62" s="13">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AE62" s="13">
         <v>0</v>
       </c>
       <c r="AF62" s="13">
-        <v>-1500</v>
-      </c>
-      <c r="AG62" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH62" s="13">
         <v>0</v>
@@ -8626,8 +8626,8 @@
       <c r="AI62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ62" s="13">
-        <v>0</v>
+      <c r="AJ62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK62" s="13" t="s">
         <v>58</v>
@@ -8641,14 +8641,14 @@
       <c r="AN62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO62" s="13" t="s">
-        <v>58</v>
+      <c r="AO62" s="13">
+        <v>0</v>
       </c>
       <c r="AP62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ62" s="13">
-        <v>0</v>
+      <c r="AQ62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR62" s="13" t="s">
         <v>58</v>
@@ -8671,20 +8671,20 @@
       <c r="AX62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY62" s="13" t="s">
-        <v>58</v>
+      <c r="AY62" s="13">
+        <v>-120</v>
       </c>
       <c r="AZ62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA62" s="13">
-        <v>-120</v>
+      <c r="BA62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB62" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>61</v>
       </c>
@@ -8746,11 +8746,11 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>0</v>
+      </c>
+      <c r="X63" s="11">
+        <v>0</v>
       </c>
       <c r="Y63" s="11">
         <v>0</v>
@@ -8776,8 +8776,8 @@
       <c r="AF63" s="11">
         <v>0</v>
       </c>
-      <c r="AG63" s="11">
-        <v>0</v>
+      <c r="AG63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH63" s="11">
         <v>0</v>
@@ -8785,8 +8785,8 @@
       <c r="AI63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ63" s="11">
-        <v>0</v>
+      <c r="AJ63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK63" s="11" t="s">
         <v>58</v>
@@ -8800,14 +8800,14 @@
       <c r="AN63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO63" s="11" t="s">
-        <v>58</v>
+      <c r="AO63" s="11">
+        <v>0</v>
       </c>
       <c r="AP63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ63" s="11">
-        <v>0</v>
+      <c r="AQ63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR63" s="11" t="s">
         <v>58</v>
@@ -8836,14 +8836,14 @@
       <c r="AZ63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA63" s="11">
-        <v>0</v>
+      <c r="BA63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB63" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>63</v>
       </c>
@@ -8905,20 +8905,20 @@
       <c r="V64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="13" t="s">
-        <v>58</v>
+      <c r="W64" s="13">
+        <v>0</v>
+      </c>
+      <c r="X64" s="13">
+        <v>0</v>
       </c>
       <c r="Y64" s="13">
-        <v>0</v>
+        <v>-108000</v>
       </c>
       <c r="Z64" s="13">
         <v>0</v>
       </c>
       <c r="AA64" s="13">
-        <v>-108000</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="13">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>0</v>
       </c>
       <c r="AE64" s="13">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="AF64" s="13">
         <v>0</v>
       </c>
-      <c r="AG64" s="13">
-        <v>-450</v>
+      <c r="AG64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH64" s="13">
         <v>0</v>
@@ -8944,8 +8944,8 @@
       <c r="AI64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ64" s="13">
-        <v>0</v>
+      <c r="AJ64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK64" s="13" t="s">
         <v>58</v>
@@ -8956,53 +8956,53 @@
       <c r="AM64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO64" s="13" t="s">
-        <v>58</v>
+      <c r="AN64" s="13">
+        <v>-414</v>
+      </c>
+      <c r="AO64" s="13">
+        <v>0</v>
       </c>
       <c r="AP64" s="13">
-        <v>-414</v>
-      </c>
-      <c r="AQ64" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV64" s="13">
+      <c r="AT64" s="13">
         <v>-62490</v>
       </c>
-      <c r="AW64" s="13">
+      <c r="AU64" s="13">
         <v>-6120</v>
       </c>
-      <c r="AX64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ64" s="13">
+      <c r="AV64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX64" s="13">
         <v>-933650</v>
       </c>
+      <c r="AY64" s="13">
+        <v>-1884400</v>
+      </c>
+      <c r="AZ64" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="BA64" s="13">
-        <v>-1884400</v>
+        <v>-25950</v>
       </c>
       <c r="BB64" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>64</v>
       </c>
@@ -9064,17 +9064,17 @@
       <c r="V65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>58</v>
+      <c r="W65" s="11">
+        <v>-10927</v>
+      </c>
+      <c r="X65" s="11">
+        <v>-800</v>
       </c>
       <c r="Y65" s="11">
-        <v>-10927</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="11">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="AA65" s="11">
         <v>0</v>
@@ -9089,79 +9089,79 @@
         <v>0</v>
       </c>
       <c r="AE65" s="11">
-        <v>0</v>
+        <v>-471</v>
       </c>
       <c r="AF65" s="11">
         <v>0</v>
       </c>
-      <c r="AG65" s="11">
-        <v>-471</v>
+      <c r="AG65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH65" s="11">
         <v>0</v>
       </c>
-      <c r="AI65" s="11" t="s">
-        <v>58</v>
+      <c r="AI65" s="11">
+        <v>-2000</v>
       </c>
       <c r="AJ65" s="11">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="AK65" s="11">
-        <v>-2000</v>
+        <v>-25720</v>
       </c>
       <c r="AL65" s="11">
-        <v>-5000</v>
+        <v>-21000</v>
       </c>
       <c r="AM65" s="11">
-        <v>-25720</v>
+        <v>-4860</v>
       </c>
       <c r="AN65" s="11">
-        <v>-21000</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="11">
-        <v>-4860</v>
+        <v>0</v>
       </c>
       <c r="AP65" s="11">
         <v>0</v>
       </c>
-      <c r="AQ65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR65" s="11">
-        <v>0</v>
+      <c r="AQ65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV65" s="11">
+      <c r="AT65" s="11">
         <v>-13</v>
       </c>
-      <c r="AW65" s="11">
+      <c r="AU65" s="11">
         <v>-557600</v>
       </c>
-      <c r="AX65" s="11" t="s">
-        <v>58</v>
+      <c r="AV65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX65" s="11">
+        <v>-10000</v>
       </c>
       <c r="AY65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ65" s="11">
-        <v>-10000</v>
+      <c r="AZ65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA65" s="11">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="BB65" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>81</v>
       </c>
@@ -9250,8 +9250,8 @@
       <c r="AE66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF66" s="13" t="s">
-        <v>58</v>
+      <c r="AF66" s="13">
+        <v>0</v>
       </c>
       <c r="AG66" s="13" t="s">
         <v>58</v>
@@ -9262,8 +9262,8 @@
       <c r="AI66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ66" s="13">
-        <v>0</v>
+      <c r="AJ66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK66" s="13" t="s">
         <v>58</v>
@@ -9277,14 +9277,14 @@
       <c r="AN66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO66" s="13" t="s">
-        <v>58</v>
+      <c r="AO66" s="13">
+        <v>0</v>
       </c>
       <c r="AP66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ66" s="13">
-        <v>0</v>
+      <c r="AQ66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR66" s="13" t="s">
         <v>58</v>
@@ -9320,7 +9320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>65</v>
       </c>
@@ -9472,14 +9472,14 @@
       <c r="AZ67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA67" s="11">
-        <v>0</v>
+      <c r="BA67" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB67" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>82</v>
       </c>
@@ -9539,65 +9539,65 @@
       <c r="V68" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="15" t="s">
-        <v>58</v>
+      <c r="W68" s="15">
+        <v>-10927</v>
+      </c>
+      <c r="X68" s="15">
+        <v>-900</v>
       </c>
       <c r="Y68" s="15">
-        <v>-10927</v>
+        <v>-108000</v>
       </c>
       <c r="Z68" s="15">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="15">
-        <v>-108000</v>
+        <v>-50000</v>
       </c>
       <c r="AB68" s="15">
         <v>0</v>
       </c>
       <c r="AC68" s="15">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="15">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AE68" s="15">
-        <v>0</v>
+        <v>-921</v>
       </c>
       <c r="AF68" s="15">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="15">
-        <v>-921</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="15">
         <v>0</v>
       </c>
       <c r="AI68" s="15">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AJ68" s="15">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="AK68" s="15">
-        <v>-2000</v>
+        <v>-25720</v>
       </c>
       <c r="AL68" s="15">
-        <v>-5000</v>
+        <v>-21000</v>
       </c>
       <c r="AM68" s="15">
-        <v>-25720</v>
+        <v>-4860</v>
       </c>
       <c r="AN68" s="15">
-        <v>-21000</v>
+        <v>-414</v>
       </c>
       <c r="AO68" s="15">
-        <v>-4860</v>
+        <v>0</v>
       </c>
       <c r="AP68" s="15">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="15">
         <v>0</v>
@@ -9609,34 +9609,34 @@
         <v>0</v>
       </c>
       <c r="AT68" s="15">
-        <v>0</v>
+        <v>-62503</v>
       </c>
       <c r="AU68" s="15">
-        <v>0</v>
+        <v>-563720</v>
       </c>
       <c r="AV68" s="15">
-        <v>-62503</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="15">
-        <v>-563720</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="15">
-        <v>0</v>
+        <v>-943650</v>
       </c>
       <c r="AY68" s="15">
-        <v>0</v>
+        <v>-1884520</v>
       </c>
       <c r="AZ68" s="15">
-        <v>-943650</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="15">
-        <v>-1884520</v>
+        <v>-26000</v>
       </c>
       <c r="BB68" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
         <v>74</v>
       </c>
@@ -9691,109 +9691,109 @@
         <v>0</v>
       </c>
       <c r="U69" s="17">
-        <v>0</v>
+        <v>11547770</v>
       </c>
       <c r="V69" s="17">
-        <v>0</v>
+        <v>31070961</v>
       </c>
       <c r="W69" s="17">
-        <v>11547770</v>
+        <v>28282803</v>
       </c>
       <c r="X69" s="17">
-        <v>31070961</v>
+        <v>19400331</v>
       </c>
       <c r="Y69" s="17">
-        <v>28282803</v>
+        <v>6367072</v>
       </c>
       <c r="Z69" s="17">
-        <v>19400331</v>
+        <v>6113920</v>
       </c>
       <c r="AA69" s="17">
-        <v>6367072</v>
+        <v>32316709</v>
       </c>
       <c r="AB69" s="17">
-        <v>6113920</v>
+        <v>23042643</v>
       </c>
       <c r="AC69" s="17">
-        <v>32316709</v>
+        <v>8932229</v>
       </c>
       <c r="AD69" s="17">
-        <v>23042643</v>
+        <v>10336543</v>
       </c>
       <c r="AE69" s="17">
-        <v>8932229</v>
+        <v>17351808</v>
       </c>
       <c r="AF69" s="17">
-        <v>10336543</v>
+        <v>6621321</v>
       </c>
       <c r="AG69" s="17">
-        <v>17351808</v>
+        <v>12076989</v>
       </c>
       <c r="AH69" s="17">
-        <v>6621321</v>
+        <v>9147667</v>
       </c>
       <c r="AI69" s="17">
-        <v>12076989</v>
+        <v>59206741</v>
       </c>
       <c r="AJ69" s="17">
-        <v>9147667</v>
+        <v>30420895</v>
       </c>
       <c r="AK69" s="17">
-        <v>59206741</v>
+        <v>54490196</v>
       </c>
       <c r="AL69" s="17">
-        <v>30420895</v>
+        <v>13911609</v>
       </c>
       <c r="AM69" s="17">
-        <v>54490196</v>
+        <v>39992341</v>
       </c>
       <c r="AN69" s="17">
-        <v>13911609</v>
+        <v>46869520</v>
       </c>
       <c r="AO69" s="17">
-        <v>39992341</v>
+        <v>21992602</v>
       </c>
       <c r="AP69" s="17">
-        <v>46869520</v>
+        <v>21695019</v>
       </c>
       <c r="AQ69" s="17">
-        <v>21992602</v>
+        <v>25760615</v>
       </c>
       <c r="AR69" s="17">
-        <v>21695019</v>
+        <v>11167575</v>
       </c>
       <c r="AS69" s="17">
-        <v>25760615</v>
+        <v>43425386</v>
       </c>
       <c r="AT69" s="17">
-        <v>11167575</v>
+        <v>38563390</v>
       </c>
       <c r="AU69" s="17">
-        <v>43425386</v>
+        <v>28955823</v>
       </c>
       <c r="AV69" s="17">
-        <v>38563390</v>
+        <v>30912594</v>
       </c>
       <c r="AW69" s="17">
-        <v>28955823</v>
+        <v>24978897</v>
       </c>
       <c r="AX69" s="17">
-        <v>30912594</v>
+        <v>10665819</v>
       </c>
       <c r="AY69" s="17">
-        <v>24978897</v>
+        <v>32833135</v>
       </c>
       <c r="AZ69" s="17">
-        <v>10665819</v>
+        <v>52445870</v>
       </c>
       <c r="BA69" s="17">
-        <v>32833135</v>
+        <v>35364643</v>
       </c>
       <c r="BB69" s="17">
-        <v>52445870</v>
+        <v>39085929</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -9848,7 +9848,7 @@
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9903,7 +9903,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9958,7 +9958,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>83</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -10170,7 +10170,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>84</v>
       </c>
@@ -10227,7 +10227,7 @@
       <c r="BA75" s="9"/>
       <c r="BB75" s="9"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
@@ -10283,110 +10283,110 @@
       <c r="T76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V76" s="11" t="s">
-        <v>58</v>
+      <c r="U76" s="11">
+        <v>10307</v>
+      </c>
+      <c r="V76" s="11">
+        <v>8157</v>
       </c>
       <c r="W76" s="11">
-        <v>10307</v>
+        <v>0</v>
       </c>
       <c r="X76" s="11">
-        <v>8157</v>
+        <v>8585</v>
       </c>
       <c r="Y76" s="11">
-        <v>0</v>
+        <v>1718</v>
       </c>
       <c r="Z76" s="11">
-        <v>8585</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="11">
-        <v>1718</v>
+        <v>0</v>
       </c>
       <c r="AB76" s="11">
-        <v>0</v>
+        <v>4658</v>
       </c>
       <c r="AC76" s="11">
-        <v>0</v>
+        <v>11754</v>
       </c>
       <c r="AD76" s="11">
-        <v>4658</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="11">
-        <v>11754</v>
+        <v>0</v>
       </c>
       <c r="AF76" s="11">
-        <v>0</v>
+        <v>2351</v>
       </c>
       <c r="AG76" s="11">
-        <v>0</v>
+        <v>9399</v>
       </c>
       <c r="AH76" s="11">
-        <v>2351</v>
+        <v>3791</v>
       </c>
       <c r="AI76" s="11">
-        <v>9399</v>
+        <v>10909</v>
       </c>
       <c r="AJ76" s="11">
-        <v>3791</v>
+        <v>1692</v>
       </c>
       <c r="AK76" s="11">
-        <v>10909</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="11">
-        <v>1692</v>
+        <v>9330</v>
       </c>
       <c r="AM76" s="11">
-        <v>0</v>
+        <v>10990</v>
       </c>
       <c r="AN76" s="11">
-        <v>9330</v>
+        <v>0</v>
       </c>
       <c r="AO76" s="11">
-        <v>10990</v>
+        <v>0</v>
       </c>
       <c r="AP76" s="11">
         <v>0</v>
       </c>
       <c r="AQ76" s="11">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AR76" s="11">
-        <v>0</v>
+        <v>12370</v>
       </c>
       <c r="AS76" s="11">
-        <v>3180</v>
+        <v>2392</v>
       </c>
       <c r="AT76" s="11">
-        <v>12370</v>
+        <v>15550</v>
       </c>
       <c r="AU76" s="11">
-        <v>2392</v>
+        <v>12313</v>
       </c>
       <c r="AV76" s="11">
-        <v>15550</v>
+        <v>0</v>
       </c>
       <c r="AW76" s="11">
-        <v>12313</v>
+        <v>8291</v>
       </c>
       <c r="AX76" s="11">
-        <v>0</v>
+        <v>21779</v>
       </c>
       <c r="AY76" s="11">
-        <v>8291</v>
+        <v>9420</v>
       </c>
       <c r="AZ76" s="11">
-        <v>21779</v>
+        <v>9521</v>
       </c>
       <c r="BA76" s="11">
-        <v>9420</v>
+        <v>13099</v>
       </c>
       <c r="BB76" s="11">
-        <v>9521</v>
+        <v>15150</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>59</v>
       </c>
@@ -10442,110 +10442,110 @@
       <c r="T77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V77" s="13" t="s">
-        <v>58</v>
+      <c r="U77" s="13">
+        <v>47991</v>
+      </c>
+      <c r="V77" s="13">
+        <v>60447</v>
       </c>
       <c r="W77" s="13">
-        <v>47991</v>
+        <v>161256</v>
       </c>
       <c r="X77" s="13">
-        <v>60447</v>
+        <v>212547</v>
       </c>
       <c r="Y77" s="13">
-        <v>161256</v>
+        <v>307590</v>
       </c>
       <c r="Z77" s="13">
-        <v>212547</v>
+        <v>247431</v>
       </c>
       <c r="AA77" s="13">
-        <v>307590</v>
+        <v>172764</v>
       </c>
       <c r="AB77" s="13">
-        <v>247431</v>
+        <v>108790</v>
       </c>
       <c r="AC77" s="13">
-        <v>172764</v>
+        <v>3322</v>
       </c>
       <c r="AD77" s="13">
-        <v>108790</v>
+        <v>0</v>
       </c>
       <c r="AE77" s="13">
-        <v>3322</v>
+        <v>90097</v>
       </c>
       <c r="AF77" s="13">
-        <v>0</v>
+        <v>58098</v>
       </c>
       <c r="AG77" s="13">
-        <v>90097</v>
+        <v>28297</v>
       </c>
       <c r="AH77" s="13">
-        <v>58098</v>
+        <v>151540</v>
       </c>
       <c r="AI77" s="13">
-        <v>28297</v>
+        <v>174366</v>
       </c>
       <c r="AJ77" s="13">
-        <v>151540</v>
+        <v>242443</v>
       </c>
       <c r="AK77" s="13">
-        <v>174366</v>
+        <v>97097</v>
       </c>
       <c r="AL77" s="13">
-        <v>242443</v>
+        <v>76651</v>
       </c>
       <c r="AM77" s="13">
-        <v>97097</v>
+        <v>177613</v>
       </c>
       <c r="AN77" s="13">
-        <v>76651</v>
+        <v>276757</v>
       </c>
       <c r="AO77" s="13">
-        <v>177613</v>
+        <v>145962</v>
       </c>
       <c r="AP77" s="13">
-        <v>276757</v>
+        <v>100349</v>
       </c>
       <c r="AQ77" s="13">
-        <v>145962</v>
+        <v>16181</v>
       </c>
       <c r="AR77" s="13">
-        <v>100349</v>
+        <v>22580</v>
       </c>
       <c r="AS77" s="13">
-        <v>16181</v>
+        <v>28980</v>
       </c>
       <c r="AT77" s="13">
-        <v>22580</v>
+        <v>7594</v>
       </c>
       <c r="AU77" s="13">
-        <v>28980</v>
+        <v>42876</v>
       </c>
       <c r="AV77" s="13">
-        <v>7594</v>
+        <v>23552</v>
       </c>
       <c r="AW77" s="13">
-        <v>42876</v>
+        <v>193370</v>
       </c>
       <c r="AX77" s="13">
-        <v>23552</v>
+        <v>278000</v>
       </c>
       <c r="AY77" s="13">
-        <v>193370</v>
+        <v>296732</v>
       </c>
       <c r="AZ77" s="13">
-        <v>278000</v>
+        <v>196240</v>
       </c>
       <c r="BA77" s="13">
-        <v>296732</v>
+        <v>42434</v>
       </c>
       <c r="BB77" s="13">
-        <v>196240</v>
+        <v>174774</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>61</v>
       </c>
@@ -10601,44 +10601,44 @@
       <c r="T78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V78" s="11" t="s">
-        <v>58</v>
+      <c r="U78" s="11">
+        <v>6428</v>
+      </c>
+      <c r="V78" s="11">
+        <v>1042</v>
       </c>
       <c r="W78" s="11">
-        <v>6428</v>
+        <v>3204</v>
       </c>
       <c r="X78" s="11">
-        <v>1042</v>
+        <v>2452</v>
       </c>
       <c r="Y78" s="11">
-        <v>3204</v>
+        <v>14868</v>
       </c>
       <c r="Z78" s="11">
-        <v>2452</v>
+        <v>27178</v>
       </c>
       <c r="AA78" s="11">
-        <v>14868</v>
+        <v>1824</v>
       </c>
       <c r="AB78" s="11">
-        <v>27178</v>
+        <v>1540</v>
       </c>
       <c r="AC78" s="11">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="AD78" s="11">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="11">
-        <v>0</v>
+        <v>14254</v>
       </c>
       <c r="AF78" s="11">
         <v>0</v>
       </c>
       <c r="AG78" s="11">
-        <v>14254</v>
+        <v>0</v>
       </c>
       <c r="AH78" s="11">
         <v>0</v>
@@ -10647,37 +10647,37 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="11">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="AK78" s="11">
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="AL78" s="11">
-        <v>1351</v>
+        <v>13913</v>
       </c>
       <c r="AM78" s="11">
-        <v>1013</v>
+        <v>7443</v>
       </c>
       <c r="AN78" s="11">
-        <v>13913</v>
+        <v>0</v>
       </c>
       <c r="AO78" s="11">
-        <v>7443</v>
+        <v>13451</v>
       </c>
       <c r="AP78" s="11">
-        <v>0</v>
+        <v>13567</v>
       </c>
       <c r="AQ78" s="11">
-        <v>13451</v>
+        <v>487</v>
       </c>
       <c r="AR78" s="11">
-        <v>13567</v>
+        <v>3319</v>
       </c>
       <c r="AS78" s="11">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="11">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="AU78" s="11">
         <v>0</v>
@@ -10692,19 +10692,19 @@
         <v>0</v>
       </c>
       <c r="AY78" s="11">
-        <v>0</v>
+        <v>56643</v>
       </c>
       <c r="AZ78" s="11">
-        <v>0</v>
+        <v>72284</v>
       </c>
       <c r="BA78" s="11">
-        <v>56643</v>
+        <v>53497</v>
       </c>
       <c r="BB78" s="11">
-        <v>72284</v>
+        <v>57081</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>63</v>
       </c>
@@ -10760,110 +10760,110 @@
       <c r="T79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V79" s="13" t="s">
-        <v>58</v>
+      <c r="U79" s="13">
+        <v>58107</v>
+      </c>
+      <c r="V79" s="13">
+        <v>72192</v>
       </c>
       <c r="W79" s="13">
-        <v>58107</v>
+        <v>125966</v>
       </c>
       <c r="X79" s="13">
-        <v>72192</v>
+        <v>42461</v>
       </c>
       <c r="Y79" s="13">
-        <v>125966</v>
+        <v>21704</v>
       </c>
       <c r="Z79" s="13">
-        <v>42461</v>
+        <v>46637</v>
       </c>
       <c r="AA79" s="13">
-        <v>21704</v>
+        <v>128731</v>
       </c>
       <c r="AB79" s="13">
-        <v>46637</v>
+        <v>92702</v>
       </c>
       <c r="AC79" s="13">
-        <v>128731</v>
+        <v>19910</v>
       </c>
       <c r="AD79" s="13">
-        <v>92702</v>
+        <v>29784</v>
       </c>
       <c r="AE79" s="13">
-        <v>19910</v>
+        <v>97643</v>
       </c>
       <c r="AF79" s="13">
-        <v>29784</v>
+        <v>24411</v>
       </c>
       <c r="AG79" s="13">
-        <v>97643</v>
+        <v>47975</v>
       </c>
       <c r="AH79" s="13">
-        <v>24411</v>
+        <v>19510</v>
       </c>
       <c r="AI79" s="13">
-        <v>47975</v>
+        <v>475336</v>
       </c>
       <c r="AJ79" s="13">
-        <v>19510</v>
+        <v>179921</v>
       </c>
       <c r="AK79" s="13">
-        <v>475336</v>
+        <v>429215</v>
       </c>
       <c r="AL79" s="13">
-        <v>179921</v>
+        <v>55755</v>
       </c>
       <c r="AM79" s="13">
-        <v>429215</v>
+        <v>234475</v>
       </c>
       <c r="AN79" s="13">
-        <v>55755</v>
+        <v>339821</v>
       </c>
       <c r="AO79" s="13">
-        <v>234475</v>
+        <v>120407</v>
       </c>
       <c r="AP79" s="13">
-        <v>339821</v>
+        <v>104790</v>
       </c>
       <c r="AQ79" s="13">
-        <v>120407</v>
+        <v>177478</v>
       </c>
       <c r="AR79" s="13">
-        <v>104790</v>
+        <v>110070</v>
       </c>
       <c r="AS79" s="13">
-        <v>177478</v>
+        <v>349688</v>
       </c>
       <c r="AT79" s="13">
-        <v>110070</v>
+        <v>278033</v>
       </c>
       <c r="AU79" s="13">
-        <v>349688</v>
+        <v>232174</v>
       </c>
       <c r="AV79" s="13">
-        <v>278033</v>
+        <v>237308</v>
       </c>
       <c r="AW79" s="13">
-        <v>232174</v>
+        <v>210039</v>
       </c>
       <c r="AX79" s="13">
-        <v>237308</v>
+        <v>91005</v>
       </c>
       <c r="AY79" s="13">
-        <v>210039</v>
+        <v>389632</v>
       </c>
       <c r="AZ79" s="13">
-        <v>91005</v>
+        <v>632033</v>
       </c>
       <c r="BA79" s="13">
-        <v>389632</v>
+        <v>348098</v>
       </c>
       <c r="BB79" s="13">
-        <v>632033</v>
+        <v>457077</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>64</v>
       </c>
@@ -10919,110 +10919,110 @@
       <c r="T80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V80" s="11" t="s">
-        <v>58</v>
+      <c r="U80" s="11">
+        <v>78922</v>
+      </c>
+      <c r="V80" s="11">
+        <v>152315</v>
       </c>
       <c r="W80" s="11">
-        <v>78922</v>
+        <v>85005</v>
       </c>
       <c r="X80" s="11">
-        <v>152315</v>
+        <v>136854</v>
       </c>
       <c r="Y80" s="11">
-        <v>85005</v>
+        <v>100090</v>
       </c>
       <c r="Z80" s="11">
-        <v>136854</v>
+        <v>84238</v>
       </c>
       <c r="AA80" s="11">
-        <v>100090</v>
+        <v>125014</v>
       </c>
       <c r="AB80" s="11">
-        <v>84238</v>
+        <v>175782</v>
       </c>
       <c r="AC80" s="11">
-        <v>125014</v>
+        <v>230730</v>
       </c>
       <c r="AD80" s="11">
-        <v>175782</v>
+        <v>229744</v>
       </c>
       <c r="AE80" s="11">
-        <v>230730</v>
+        <v>20814</v>
       </c>
       <c r="AF80" s="11">
-        <v>229744</v>
+        <v>29141</v>
       </c>
       <c r="AG80" s="11">
-        <v>20814</v>
+        <v>137842</v>
       </c>
       <c r="AH80" s="11">
-        <v>29141</v>
+        <v>203737</v>
       </c>
       <c r="AI80" s="11">
-        <v>137842</v>
+        <v>97889</v>
       </c>
       <c r="AJ80" s="11">
-        <v>203737</v>
+        <v>212354</v>
       </c>
       <c r="AK80" s="11">
-        <v>97889</v>
+        <v>183639</v>
       </c>
       <c r="AL80" s="11">
-        <v>212354</v>
+        <v>146001</v>
       </c>
       <c r="AM80" s="11">
-        <v>183639</v>
+        <v>175094</v>
       </c>
       <c r="AN80" s="11">
-        <v>146001</v>
+        <v>51604</v>
       </c>
       <c r="AO80" s="11">
-        <v>175094</v>
+        <v>52676</v>
       </c>
       <c r="AP80" s="11">
-        <v>51604</v>
+        <v>220945</v>
       </c>
       <c r="AQ80" s="11">
-        <v>52676</v>
+        <v>135164</v>
       </c>
       <c r="AR80" s="11">
-        <v>220945</v>
+        <v>53711</v>
       </c>
       <c r="AS80" s="11">
-        <v>135164</v>
+        <v>170814</v>
       </c>
       <c r="AT80" s="11">
-        <v>53711</v>
+        <v>123193</v>
       </c>
       <c r="AU80" s="11">
-        <v>170814</v>
+        <v>439004</v>
       </c>
       <c r="AV80" s="11">
-        <v>123193</v>
+        <v>267284</v>
       </c>
       <c r="AW80" s="11">
-        <v>439004</v>
+        <v>652686</v>
       </c>
       <c r="AX80" s="11">
-        <v>267284</v>
+        <v>372804</v>
       </c>
       <c r="AY80" s="11">
-        <v>652686</v>
+        <v>125385</v>
       </c>
       <c r="AZ80" s="11">
-        <v>372804</v>
+        <v>157486</v>
       </c>
       <c r="BA80" s="11">
-        <v>125385</v>
+        <v>368913</v>
       </c>
       <c r="BB80" s="11">
-        <v>157486</v>
+        <v>249682</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>65</v>
       </c>
@@ -11111,11 +11111,11 @@
       <c r="AE81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG81" s="13" t="s">
-        <v>58</v>
+      <c r="AF81" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="13">
+        <v>0</v>
       </c>
       <c r="AH81" s="13">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>66</v>
       </c>
@@ -11237,17 +11237,17 @@
       <c r="T82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W82" s="11">
-        <v>0</v>
-      </c>
-      <c r="X82" s="11">
-        <v>0</v>
+      <c r="U82" s="11">
+        <v>0</v>
+      </c>
+      <c r="V82" s="11">
+        <v>0</v>
+      </c>
+      <c r="W82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Y82" s="11" t="s">
         <v>58</v>
@@ -11340,7 +11340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
         <v>77</v>
       </c>
@@ -11395,109 +11395,109 @@
         <v>0</v>
       </c>
       <c r="U83" s="15">
-        <v>0</v>
+        <v>201755</v>
       </c>
       <c r="V83" s="15">
-        <v>0</v>
+        <v>294153</v>
       </c>
       <c r="W83" s="15">
-        <v>201755</v>
+        <v>375431</v>
       </c>
       <c r="X83" s="15">
-        <v>294153</v>
+        <v>402899</v>
       </c>
       <c r="Y83" s="15">
-        <v>375431</v>
+        <v>445970</v>
       </c>
       <c r="Z83" s="15">
-        <v>402899</v>
+        <v>405484</v>
       </c>
       <c r="AA83" s="15">
-        <v>445970</v>
+        <v>428333</v>
       </c>
       <c r="AB83" s="15">
-        <v>405484</v>
+        <v>383472</v>
       </c>
       <c r="AC83" s="15">
-        <v>428333</v>
+        <v>265716</v>
       </c>
       <c r="AD83" s="15">
-        <v>383472</v>
+        <v>259528</v>
       </c>
       <c r="AE83" s="15">
-        <v>265716</v>
+        <v>222808</v>
       </c>
       <c r="AF83" s="15">
-        <v>259528</v>
+        <v>114001</v>
       </c>
       <c r="AG83" s="15">
-        <v>222808</v>
+        <v>223513</v>
       </c>
       <c r="AH83" s="15">
-        <v>114001</v>
+        <v>378578</v>
       </c>
       <c r="AI83" s="15">
-        <v>223513</v>
+        <v>758500</v>
       </c>
       <c r="AJ83" s="15">
-        <v>378578</v>
+        <v>637761</v>
       </c>
       <c r="AK83" s="15">
-        <v>758500</v>
+        <v>710964</v>
       </c>
       <c r="AL83" s="15">
-        <v>637761</v>
+        <v>301650</v>
       </c>
       <c r="AM83" s="15">
-        <v>710964</v>
+        <v>605615</v>
       </c>
       <c r="AN83" s="15">
-        <v>301650</v>
+        <v>668182</v>
       </c>
       <c r="AO83" s="15">
-        <v>605615</v>
+        <v>332496</v>
       </c>
       <c r="AP83" s="15">
-        <v>668182</v>
+        <v>439651</v>
       </c>
       <c r="AQ83" s="15">
-        <v>332496</v>
+        <v>332490</v>
       </c>
       <c r="AR83" s="15">
-        <v>439651</v>
+        <v>202050</v>
       </c>
       <c r="AS83" s="15">
-        <v>332490</v>
+        <v>551874</v>
       </c>
       <c r="AT83" s="15">
-        <v>202050</v>
+        <v>424370</v>
       </c>
       <c r="AU83" s="15">
-        <v>551874</v>
+        <v>726367</v>
       </c>
       <c r="AV83" s="15">
-        <v>424370</v>
+        <v>528144</v>
       </c>
       <c r="AW83" s="15">
-        <v>726367</v>
+        <v>1064386</v>
       </c>
       <c r="AX83" s="15">
-        <v>528144</v>
+        <v>763588</v>
       </c>
       <c r="AY83" s="15">
-        <v>1064386</v>
+        <v>877812</v>
       </c>
       <c r="AZ83" s="15">
-        <v>763588</v>
+        <v>1067564</v>
       </c>
       <c r="BA83" s="15">
-        <v>877812</v>
+        <v>826041</v>
       </c>
       <c r="BB83" s="15">
-        <v>1067564</v>
+        <v>953764</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>86</v>
       </c>
@@ -11554,7 +11554,7 @@
       <c r="BA84" s="9"/>
       <c r="BB84" s="9"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>56</v>
       </c>
@@ -11610,11 +11610,11 @@
       <c r="T85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V85" s="11" t="s">
-        <v>58</v>
+      <c r="U85" s="11">
+        <v>0</v>
+      </c>
+      <c r="V85" s="11">
+        <v>0</v>
       </c>
       <c r="W85" s="11">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>59</v>
       </c>
@@ -11769,11 +11769,11 @@
       <c r="T86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V86" s="13" t="s">
-        <v>58</v>
+      <c r="U86" s="13">
+        <v>0</v>
+      </c>
+      <c r="V86" s="13">
+        <v>0</v>
       </c>
       <c r="W86" s="13">
         <v>0</v>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>61</v>
       </c>
@@ -11928,11 +11928,11 @@
       <c r="T87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V87" s="11" t="s">
-        <v>58</v>
+      <c r="U87" s="11">
+        <v>0</v>
+      </c>
+      <c r="V87" s="11">
+        <v>0</v>
       </c>
       <c r="W87" s="11">
         <v>0</v>
@@ -12031,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>63</v>
       </c>
@@ -12087,11 +12087,11 @@
       <c r="T88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V88" s="13" t="s">
-        <v>58</v>
+      <c r="U88" s="13">
+        <v>0</v>
+      </c>
+      <c r="V88" s="13">
+        <v>0</v>
       </c>
       <c r="W88" s="13">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>64</v>
       </c>
@@ -12246,26 +12246,26 @@
       <c r="T89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W89" s="11">
-        <v>0</v>
-      </c>
-      <c r="X89" s="11">
-        <v>0</v>
+      <c r="U89" s="11">
+        <v>0</v>
+      </c>
+      <c r="V89" s="11">
+        <v>0</v>
+      </c>
+      <c r="W89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Y89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA89" s="11" t="s">
-        <v>58</v>
+      <c r="Z89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="11">
+        <v>0</v>
       </c>
       <c r="AB89" s="11">
         <v>0</v>
@@ -12301,13 +12301,13 @@
         <v>0</v>
       </c>
       <c r="AM89" s="11">
-        <v>0</v>
+        <v>14597</v>
       </c>
       <c r="AN89" s="11">
         <v>0</v>
       </c>
       <c r="AO89" s="11">
-        <v>14597</v>
+        <v>0</v>
       </c>
       <c r="AP89" s="11">
         <v>0</v>
@@ -12349,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>65</v>
       </c>
@@ -12474,11 +12474,11 @@
       <c r="AQ90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR90" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS90" s="13" t="s">
-        <v>58</v>
+      <c r="AR90" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS90" s="13">
+        <v>0</v>
       </c>
       <c r="AT90" s="13">
         <v>0</v>
@@ -12508,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>66</v>
       </c>
@@ -12564,17 +12564,17 @@
       <c r="T91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W91" s="11">
-        <v>0</v>
-      </c>
-      <c r="X91" s="11">
-        <v>0</v>
+      <c r="U91" s="11">
+        <v>0</v>
+      </c>
+      <c r="V91" s="11">
+        <v>0</v>
+      </c>
+      <c r="W91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X91" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="Y91" s="11" t="s">
         <v>58</v>
@@ -12667,7 +12667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
         <v>79</v>
       </c>
@@ -12776,13 +12776,13 @@
         <v>0</v>
       </c>
       <c r="AM92" s="15">
-        <v>0</v>
+        <v>14597</v>
       </c>
       <c r="AN92" s="15">
         <v>0</v>
       </c>
       <c r="AO92" s="15">
-        <v>14597</v>
+        <v>0</v>
       </c>
       <c r="AP92" s="15">
         <v>0</v>
@@ -12824,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>87</v>
       </c>
@@ -12881,7 +12881,7 @@
       <c r="BA93" s="9"/>
       <c r="BB93" s="9"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>66</v>
       </c>
@@ -12943,72 +12943,72 @@
       <c r="V94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X94" s="11" t="s">
-        <v>58</v>
+      <c r="W94" s="11">
+        <v>208</v>
+      </c>
+      <c r="X94" s="11">
+        <v>791</v>
       </c>
       <c r="Y94" s="11">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="Z94" s="11">
-        <v>791</v>
+        <v>484</v>
       </c>
       <c r="AA94" s="11">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AB94" s="11">
-        <v>484</v>
+        <v>297</v>
       </c>
       <c r="AC94" s="11">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AD94" s="11">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="AE94" s="11">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="AF94" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG94" s="11">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="AH94" s="11">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="AI94" s="11">
-        <v>371</v>
+        <v>210</v>
       </c>
       <c r="AJ94" s="11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK94" s="11">
-        <v>210</v>
+        <v>916</v>
       </c>
       <c r="AL94" s="11">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AM94" s="11">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="AN94" s="11">
-        <v>94</v>
+        <v>1401</v>
       </c>
       <c r="AO94" s="11">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="AP94" s="11">
-        <v>1401</v>
-      </c>
-      <c r="AQ94" s="11">
-        <v>261</v>
-      </c>
-      <c r="AR94" s="11">
         <v>902</v>
       </c>
+      <c r="AQ94" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR94" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS94" s="11" t="s">
         <v>58</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>72</v>
       </c>
@@ -13162,44 +13162,44 @@
       <c r="AP95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR95" s="13" t="s">
-        <v>58</v>
+      <c r="AQ95" s="13">
+        <v>84477</v>
+      </c>
+      <c r="AR95" s="13">
+        <v>0</v>
       </c>
       <c r="AS95" s="13">
-        <v>84477</v>
+        <v>22360</v>
       </c>
       <c r="AT95" s="13">
-        <v>0</v>
+        <v>23707</v>
       </c>
       <c r="AU95" s="13">
-        <v>22360</v>
+        <v>5167</v>
       </c>
       <c r="AV95" s="13">
-        <v>23707</v>
+        <v>9875</v>
       </c>
       <c r="AW95" s="13">
-        <v>5167</v>
+        <v>27883</v>
       </c>
       <c r="AX95" s="13">
-        <v>9875</v>
+        <v>0</v>
       </c>
       <c r="AY95" s="13">
-        <v>27883</v>
+        <v>5858</v>
       </c>
       <c r="AZ95" s="13">
-        <v>0</v>
+        <v>12755</v>
       </c>
       <c r="BA95" s="13">
-        <v>5858</v>
+        <v>8668</v>
       </c>
       <c r="BB95" s="13">
-        <v>12755</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="16" t="s">
         <v>73</v>
       </c>
@@ -13261,104 +13261,104 @@
       <c r="V96" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W96" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X96" s="17" t="s">
-        <v>58</v>
+      <c r="W96" s="17">
+        <v>208</v>
+      </c>
+      <c r="X96" s="17">
+        <v>791</v>
       </c>
       <c r="Y96" s="17">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="Z96" s="17">
-        <v>791</v>
+        <v>484</v>
       </c>
       <c r="AA96" s="17">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AB96" s="17">
-        <v>484</v>
+        <v>297</v>
       </c>
       <c r="AC96" s="17">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AD96" s="17">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="AE96" s="17">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="AF96" s="17">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG96" s="17">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="AH96" s="17">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="AI96" s="17">
-        <v>371</v>
+        <v>210</v>
       </c>
       <c r="AJ96" s="17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK96" s="17">
-        <v>210</v>
+        <v>916</v>
       </c>
       <c r="AL96" s="17">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AM96" s="17">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="AN96" s="17">
-        <v>94</v>
+        <v>1401</v>
       </c>
       <c r="AO96" s="17">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="AP96" s="17">
-        <v>1401</v>
+        <v>902</v>
       </c>
       <c r="AQ96" s="17">
-        <v>261</v>
+        <v>84477</v>
       </c>
       <c r="AR96" s="17">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="AS96" s="17">
-        <v>84477</v>
+        <v>22360</v>
       </c>
       <c r="AT96" s="17">
-        <v>0</v>
+        <v>23707</v>
       </c>
       <c r="AU96" s="17">
-        <v>22360</v>
+        <v>5167</v>
       </c>
       <c r="AV96" s="17">
-        <v>23707</v>
+        <v>9875</v>
       </c>
       <c r="AW96" s="17">
-        <v>5167</v>
+        <v>27883</v>
       </c>
       <c r="AX96" s="17">
-        <v>9875</v>
+        <v>0</v>
       </c>
       <c r="AY96" s="17">
-        <v>27883</v>
+        <v>5858</v>
       </c>
       <c r="AZ96" s="17">
-        <v>0</v>
+        <v>12755</v>
       </c>
       <c r="BA96" s="17">
-        <v>5858</v>
+        <v>8668</v>
       </c>
       <c r="BB96" s="17">
-        <v>12755</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>88</v>
       </c>
@@ -13415,7 +13415,7 @@
       <c r="BA97" s="9"/>
       <c r="BB97" s="9"/>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>56</v>
       </c>
@@ -13477,11 +13477,11 @@
       <c r="V98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X98" s="11" t="s">
-        <v>58</v>
+      <c r="W98" s="11">
+        <v>0</v>
+      </c>
+      <c r="X98" s="11">
+        <v>0</v>
       </c>
       <c r="Y98" s="11">
         <v>0</v>
@@ -13540,17 +13540,17 @@
       <c r="AQ98" s="11">
         <v>0</v>
       </c>
-      <c r="AR98" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS98" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU98" s="11" t="s">
-        <v>58</v>
+      <c r="AR98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT98" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU98" s="11">
+        <v>0</v>
       </c>
       <c r="AV98" s="11">
         <v>0</v>
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>59</v>
       </c>
@@ -13636,35 +13636,35 @@
       <c r="V99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="13" t="s">
-        <v>58</v>
+      <c r="W99" s="13">
+        <v>0</v>
+      </c>
+      <c r="X99" s="13">
+        <v>-41</v>
       </c>
       <c r="Y99" s="13">
         <v>0</v>
       </c>
       <c r="Z99" s="13">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="AA99" s="13">
-        <v>0</v>
+        <v>-80979</v>
       </c>
       <c r="AB99" s="13">
         <v>0</v>
       </c>
       <c r="AC99" s="13">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AD99" s="13">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AE99" s="13">
         <v>0</v>
       </c>
       <c r="AF99" s="13">
-        <v>-2429</v>
+        <v>0</v>
       </c>
       <c r="AG99" s="13">
         <v>0</v>
@@ -13699,17 +13699,17 @@
       <c r="AQ99" s="13">
         <v>0</v>
       </c>
-      <c r="AR99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT99" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU99" s="13" t="s">
-        <v>58</v>
+      <c r="AR99" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS99" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU99" s="13">
+        <v>0</v>
       </c>
       <c r="AV99" s="13">
         <v>0</v>
@@ -13721,19 +13721,19 @@
         <v>0</v>
       </c>
       <c r="AY99" s="13">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="AZ99" s="13">
         <v>0</v>
       </c>
       <c r="BA99" s="13">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="BB99" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>61</v>
       </c>
@@ -13795,11 +13795,11 @@
       <c r="V100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X100" s="11" t="s">
-        <v>58</v>
+      <c r="W100" s="11">
+        <v>0</v>
+      </c>
+      <c r="X100" s="11">
+        <v>0</v>
       </c>
       <c r="Y100" s="11">
         <v>0</v>
@@ -13858,17 +13858,17 @@
       <c r="AQ100" s="11">
         <v>0</v>
       </c>
-      <c r="AR100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU100" s="11" t="s">
-        <v>58</v>
+      <c r="AR100" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS100" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT100" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU100" s="11">
+        <v>0</v>
       </c>
       <c r="AV100" s="11">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>63</v>
       </c>
@@ -13954,20 +13954,20 @@
       <c r="V101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X101" s="13" t="s">
-        <v>58</v>
+      <c r="W101" s="13">
+        <v>0</v>
+      </c>
+      <c r="X101" s="13">
+        <v>0</v>
       </c>
       <c r="Y101" s="13">
-        <v>0</v>
+        <v>-2714</v>
       </c>
       <c r="Z101" s="13">
         <v>0</v>
       </c>
       <c r="AA101" s="13">
-        <v>-2714</v>
+        <v>0</v>
       </c>
       <c r="AB101" s="13">
         <v>0</v>
@@ -13979,13 +13979,13 @@
         <v>0</v>
       </c>
       <c r="AE101" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF101" s="13">
         <v>0</v>
       </c>
       <c r="AG101" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH101" s="13">
         <v>0</v>
@@ -14006,52 +14006,52 @@
         <v>0</v>
       </c>
       <c r="AN101" s="13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AO101" s="13">
         <v>0</v>
       </c>
       <c r="AP101" s="13">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AQ101" s="13">
         <v>0</v>
       </c>
-      <c r="AR101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU101" s="13" t="s">
-        <v>58</v>
+      <c r="AR101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT101" s="13">
+        <v>-233</v>
+      </c>
+      <c r="AU101" s="13">
+        <v>-26</v>
       </c>
       <c r="AV101" s="13">
-        <v>-233</v>
+        <v>0</v>
       </c>
       <c r="AW101" s="13">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="AX101" s="13">
-        <v>0</v>
+        <v>-6965</v>
       </c>
       <c r="AY101" s="13">
-        <v>0</v>
+        <v>-18844</v>
       </c>
       <c r="AZ101" s="13">
-        <v>-6965</v>
+        <v>0</v>
       </c>
       <c r="BA101" s="13">
-        <v>-18844</v>
+        <v>-295</v>
       </c>
       <c r="BB101" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>64</v>
       </c>
@@ -14113,17 +14113,17 @@
       <c r="V102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X102" s="11" t="s">
-        <v>58</v>
+      <c r="W102" s="11">
+        <v>-768</v>
+      </c>
+      <c r="X102" s="11">
+        <v>-24</v>
       </c>
       <c r="Y102" s="11">
-        <v>-768</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="11">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="11">
         <v>0</v>
@@ -14138,37 +14138,37 @@
         <v>0</v>
       </c>
       <c r="AE102" s="11">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AF102" s="11">
         <v>0</v>
       </c>
       <c r="AG102" s="11">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="AH102" s="11">
         <v>0</v>
       </c>
       <c r="AI102" s="11">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AJ102" s="11">
-        <v>0</v>
+        <v>-175</v>
       </c>
       <c r="AK102" s="11">
-        <v>-74</v>
+        <v>-1183</v>
       </c>
       <c r="AL102" s="11">
-        <v>-175</v>
+        <v>-568</v>
       </c>
       <c r="AM102" s="11">
-        <v>-1183</v>
+        <v>-1030</v>
       </c>
       <c r="AN102" s="11">
-        <v>-568</v>
+        <v>0</v>
       </c>
       <c r="AO102" s="11">
-        <v>-1030</v>
+        <v>0</v>
       </c>
       <c r="AP102" s="11">
         <v>0</v>
@@ -14176,41 +14176,41 @@
       <c r="AQ102" s="11">
         <v>0</v>
       </c>
-      <c r="AR102" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS102" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU102" s="11" t="s">
-        <v>58</v>
+      <c r="AR102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT102" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AU102" s="11">
+        <v>-18959</v>
       </c>
       <c r="AV102" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW102" s="11">
-        <v>-18959</v>
+        <v>0</v>
       </c>
       <c r="AX102" s="11">
-        <v>0</v>
+        <v>-4275</v>
       </c>
       <c r="AY102" s="11">
         <v>0</v>
       </c>
       <c r="AZ102" s="11">
-        <v>-4275</v>
+        <v>0</v>
       </c>
       <c r="BA102" s="11">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="BB102" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>81</v>
       </c>
@@ -14299,11 +14299,11 @@
       <c r="AE103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF103" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG103" s="13" t="s">
-        <v>58</v>
+      <c r="AF103" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="13">
+        <v>0</v>
       </c>
       <c r="AH103" s="13">
         <v>0</v>
@@ -14335,11 +14335,11 @@
       <c r="AQ103" s="13">
         <v>0</v>
       </c>
-      <c r="AR103" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS103" s="13">
-        <v>0</v>
+      <c r="AR103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS103" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT103" s="13" t="s">
         <v>58</v>
@@ -14369,7 +14369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>65</v>
       </c>
@@ -14500,11 +14500,11 @@
       <c r="AS104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU104" s="11" t="s">
-        <v>58</v>
+      <c r="AT104" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU104" s="11">
+        <v>0</v>
       </c>
       <c r="AV104" s="11">
         <v>0</v>
@@ -14528,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
         <v>82</v>
       </c>
@@ -14590,65 +14590,65 @@
       <c r="V105" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X105" s="15" t="s">
-        <v>58</v>
+      <c r="W105" s="15">
+        <v>-768</v>
+      </c>
+      <c r="X105" s="15">
+        <v>-65</v>
       </c>
       <c r="Y105" s="15">
-        <v>-768</v>
+        <v>-2714</v>
       </c>
       <c r="Z105" s="15">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="AA105" s="15">
-        <v>-2714</v>
+        <v>-80979</v>
       </c>
       <c r="AB105" s="15">
         <v>0</v>
       </c>
       <c r="AC105" s="15">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AD105" s="15">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AE105" s="15">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="AF105" s="15">
-        <v>-2429</v>
+        <v>0</v>
       </c>
       <c r="AG105" s="15">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="AH105" s="15">
         <v>0</v>
       </c>
       <c r="AI105" s="15">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AJ105" s="15">
-        <v>0</v>
+        <v>-175</v>
       </c>
       <c r="AK105" s="15">
-        <v>-74</v>
+        <v>-1183</v>
       </c>
       <c r="AL105" s="15">
-        <v>-175</v>
+        <v>-568</v>
       </c>
       <c r="AM105" s="15">
-        <v>-1183</v>
+        <v>-1030</v>
       </c>
       <c r="AN105" s="15">
-        <v>-568</v>
+        <v>-3</v>
       </c>
       <c r="AO105" s="15">
-        <v>-1030</v>
+        <v>0</v>
       </c>
       <c r="AP105" s="15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AQ105" s="15">
         <v>0</v>
@@ -14660,34 +14660,34 @@
         <v>0</v>
       </c>
       <c r="AT105" s="15">
-        <v>0</v>
+        <v>-234</v>
       </c>
       <c r="AU105" s="15">
-        <v>0</v>
+        <v>-18985</v>
       </c>
       <c r="AV105" s="15">
-        <v>-234</v>
+        <v>0</v>
       </c>
       <c r="AW105" s="15">
-        <v>-18985</v>
+        <v>0</v>
       </c>
       <c r="AX105" s="15">
-        <v>0</v>
+        <v>-11240</v>
       </c>
       <c r="AY105" s="15">
-        <v>0</v>
+        <v>-18924</v>
       </c>
       <c r="AZ105" s="15">
-        <v>-11240</v>
+        <v>0</v>
       </c>
       <c r="BA105" s="15">
-        <v>-18924</v>
+        <v>-301</v>
       </c>
       <c r="BB105" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>89</v>
       </c>
@@ -14744,7 +14744,7 @@
       <c r="BA106" s="9"/>
       <c r="BB106" s="9"/>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>90</v>
       </c>
@@ -14806,104 +14806,104 @@
       <c r="V107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X107" s="11" t="s">
-        <v>58</v>
+      <c r="W107" s="11">
+        <v>-53535</v>
+      </c>
+      <c r="X107" s="11">
+        <v>-26683</v>
       </c>
       <c r="Y107" s="11">
-        <v>-53535</v>
+        <v>-51250</v>
       </c>
       <c r="Z107" s="11">
-        <v>-26683</v>
+        <v>-19708</v>
       </c>
       <c r="AA107" s="11">
-        <v>-51250</v>
+        <v>-20840</v>
       </c>
       <c r="AB107" s="11">
-        <v>-19708</v>
+        <v>-40908</v>
       </c>
       <c r="AC107" s="11">
-        <v>-20840</v>
+        <v>-54275</v>
       </c>
       <c r="AD107" s="11">
-        <v>-40908</v>
+        <v>-56779</v>
       </c>
       <c r="AE107" s="11">
-        <v>-54275</v>
+        <v>-51415</v>
       </c>
       <c r="AF107" s="11">
-        <v>-56779</v>
+        <v>0</v>
       </c>
       <c r="AG107" s="11">
-        <v>-51415</v>
+        <v>-16580</v>
       </c>
       <c r="AH107" s="11">
-        <v>0</v>
+        <v>-23757</v>
       </c>
       <c r="AI107" s="11">
-        <v>-16580</v>
+        <v>-24507</v>
       </c>
       <c r="AJ107" s="11">
-        <v>-23757</v>
+        <v>-37338</v>
       </c>
       <c r="AK107" s="11">
-        <v>-24507</v>
+        <v>-109756</v>
       </c>
       <c r="AL107" s="11">
-        <v>-37338</v>
+        <v>-14216</v>
       </c>
       <c r="AM107" s="11">
-        <v>-109756</v>
+        <v>-62287</v>
       </c>
       <c r="AN107" s="11">
-        <v>-14216</v>
+        <v>-64914</v>
       </c>
       <c r="AO107" s="11">
-        <v>-62287</v>
+        <v>-29034</v>
       </c>
       <c r="AP107" s="11">
-        <v>-64914</v>
+        <v>-58989</v>
       </c>
       <c r="AQ107" s="11">
-        <v>-29034</v>
+        <v>-71192</v>
       </c>
       <c r="AR107" s="11">
-        <v>-58989</v>
+        <v>-6276</v>
       </c>
       <c r="AS107" s="11">
-        <v>-71192</v>
+        <v>-44107</v>
       </c>
       <c r="AT107" s="11">
-        <v>-6276</v>
+        <v>-83965</v>
       </c>
       <c r="AU107" s="11">
-        <v>-44107</v>
+        <v>-62345</v>
       </c>
       <c r="AV107" s="11">
-        <v>-83965</v>
+        <v>-64805</v>
       </c>
       <c r="AW107" s="11">
-        <v>-62345</v>
+        <v>-127801</v>
       </c>
       <c r="AX107" s="11">
-        <v>-64805</v>
+        <v>-76623</v>
       </c>
       <c r="AY107" s="11">
-        <v>-127801</v>
+        <v>-58198</v>
       </c>
       <c r="AZ107" s="11">
-        <v>-76623</v>
+        <v>-122441</v>
       </c>
       <c r="BA107" s="11">
-        <v>-58198</v>
+        <v>-126273</v>
       </c>
       <c r="BB107" s="11">
-        <v>-122441</v>
+        <v>-33010</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="14" t="s">
         <v>74</v>
       </c>
@@ -14958,109 +14958,109 @@
         <v>0</v>
       </c>
       <c r="U108" s="15">
-        <v>0</v>
+        <v>201755</v>
       </c>
       <c r="V108" s="15">
-        <v>0</v>
+        <v>294153</v>
       </c>
       <c r="W108" s="15">
-        <v>201755</v>
+        <v>321336</v>
       </c>
       <c r="X108" s="15">
-        <v>294153</v>
+        <v>376942</v>
       </c>
       <c r="Y108" s="15">
-        <v>321336</v>
+        <v>392166</v>
       </c>
       <c r="Z108" s="15">
-        <v>376942</v>
+        <v>386260</v>
       </c>
       <c r="AA108" s="15">
-        <v>392166</v>
+        <v>326556</v>
       </c>
       <c r="AB108" s="15">
-        <v>386260</v>
+        <v>342861</v>
       </c>
       <c r="AC108" s="15">
-        <v>326556</v>
+        <v>211505</v>
       </c>
       <c r="AD108" s="15">
-        <v>342861</v>
+        <v>200550</v>
       </c>
       <c r="AE108" s="15">
-        <v>211505</v>
+        <v>171601</v>
       </c>
       <c r="AF108" s="15">
-        <v>200550</v>
+        <v>114228</v>
       </c>
       <c r="AG108" s="15">
-        <v>171601</v>
+        <v>207304</v>
       </c>
       <c r="AH108" s="15">
-        <v>114228</v>
+        <v>354835</v>
       </c>
       <c r="AI108" s="15">
-        <v>207304</v>
+        <v>734129</v>
       </c>
       <c r="AJ108" s="15">
-        <v>354835</v>
+        <v>600248</v>
       </c>
       <c r="AK108" s="15">
-        <v>734129</v>
+        <v>600941</v>
       </c>
       <c r="AL108" s="15">
-        <v>600248</v>
+        <v>286960</v>
       </c>
       <c r="AM108" s="15">
-        <v>600941</v>
+        <v>556895</v>
       </c>
       <c r="AN108" s="15">
-        <v>286960</v>
+        <v>604666</v>
       </c>
       <c r="AO108" s="15">
-        <v>556895</v>
+        <v>303723</v>
       </c>
       <c r="AP108" s="15">
-        <v>604666</v>
+        <v>381564</v>
       </c>
       <c r="AQ108" s="15">
-        <v>303723</v>
+        <v>345775</v>
       </c>
       <c r="AR108" s="15">
-        <v>381564</v>
+        <v>195774</v>
       </c>
       <c r="AS108" s="15">
-        <v>345775</v>
+        <v>530127</v>
       </c>
       <c r="AT108" s="15">
-        <v>195774</v>
+        <v>363878</v>
       </c>
       <c r="AU108" s="15">
-        <v>530127</v>
+        <v>650204</v>
       </c>
       <c r="AV108" s="15">
-        <v>363878</v>
+        <v>473214</v>
       </c>
       <c r="AW108" s="15">
-        <v>650204</v>
+        <v>964468</v>
       </c>
       <c r="AX108" s="15">
-        <v>473214</v>
+        <v>675725</v>
       </c>
       <c r="AY108" s="15">
-        <v>964468</v>
+        <v>806548</v>
       </c>
       <c r="AZ108" s="15">
-        <v>675725</v>
+        <v>957878</v>
       </c>
       <c r="BA108" s="15">
-        <v>806548</v>
+        <v>708135</v>
       </c>
       <c r="BB108" s="15">
-        <v>957878</v>
+        <v>920754</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -15115,7 +15115,7 @@
       <c r="BA109" s="1"/>
       <c r="BB109" s="1"/>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -15170,7 +15170,7 @@
       <c r="BA110" s="1"/>
       <c r="BB110" s="1"/>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -15225,7 +15225,7 @@
       <c r="BA111" s="1"/>
       <c r="BB111" s="1"/>
     </row>
-    <row r="112" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
         <v>91</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -15437,7 +15437,7 @@
       <c r="BA113" s="1"/>
       <c r="BB113" s="1"/>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>92</v>
       </c>
@@ -15494,7 +15494,7 @@
       <c r="BA114" s="9"/>
       <c r="BB114" s="9"/>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>56</v>
       </c>
@@ -15550,110 +15550,110 @@
       <c r="T115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W115" s="11">
+      <c r="U115" s="11">
         <v>29275</v>
       </c>
+      <c r="V115" s="11">
+        <v>27813</v>
+      </c>
+      <c r="W115" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="X115" s="11">
-        <v>27813</v>
-      </c>
-      <c r="Y115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z115" s="11">
         <v>29275</v>
       </c>
-      <c r="AA115" s="11">
+      <c r="Y115" s="11">
         <v>29277</v>
       </c>
-      <c r="AB115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD115" s="11">
+      <c r="Z115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB115" s="11">
         <v>40058</v>
       </c>
-      <c r="AE115" s="11">
+      <c r="AC115" s="11">
         <v>40061</v>
       </c>
-      <c r="AF115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG115" s="11" t="s">
-        <v>58</v>
+      <c r="AD115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF115" s="11">
+        <v>40065</v>
+      </c>
+      <c r="AG115" s="11">
+        <v>40064</v>
       </c>
       <c r="AH115" s="11">
-        <v>40065</v>
+        <v>33689</v>
       </c>
       <c r="AI115" s="11">
-        <v>40064</v>
+        <v>51711</v>
       </c>
       <c r="AJ115" s="11">
-        <v>33689</v>
-      </c>
-      <c r="AK115" s="11">
-        <v>51711</v>
+        <v>40057</v>
+      </c>
+      <c r="AK115" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL115" s="11">
-        <v>40057</v>
-      </c>
-      <c r="AM115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN115" s="11">
         <v>52999</v>
       </c>
-      <c r="AO115" s="11">
+      <c r="AM115" s="11">
         <v>53000</v>
       </c>
+      <c r="AN115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO115" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR115" s="11" t="s">
-        <v>58</v>
+      <c r="AQ115" s="11">
+        <v>53000</v>
+      </c>
+      <c r="AR115" s="11">
+        <v>52999</v>
       </c>
       <c r="AS115" s="11">
-        <v>53000</v>
+        <v>52994</v>
       </c>
       <c r="AT115" s="11">
         <v>52999</v>
       </c>
       <c r="AU115" s="11">
-        <v>52994</v>
-      </c>
-      <c r="AV115" s="11">
-        <v>52999</v>
+        <v>53000</v>
+      </c>
+      <c r="AV115" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW115" s="11">
-        <v>53000</v>
-      </c>
-      <c r="AX115" s="11" t="s">
-        <v>58</v>
+        <v>93460</v>
+      </c>
+      <c r="AX115" s="11">
+        <v>60910</v>
       </c>
       <c r="AY115" s="11">
-        <v>93460</v>
+        <v>48457</v>
       </c>
       <c r="AZ115" s="11">
-        <v>60910</v>
+        <v>124998</v>
       </c>
       <c r="BA115" s="11">
-        <v>48457</v>
+        <v>125001</v>
       </c>
       <c r="BB115" s="11">
-        <v>124998</v>
+        <v>101000</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>59</v>
       </c>
@@ -15709,110 +15709,110 @@
       <c r="T116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V116" s="13" t="s">
-        <v>58</v>
+      <c r="U116" s="13">
+        <v>137103</v>
+      </c>
+      <c r="V116" s="13">
+        <v>192136</v>
       </c>
       <c r="W116" s="13">
-        <v>137103</v>
+        <v>215068</v>
       </c>
       <c r="X116" s="13">
-        <v>192136</v>
+        <v>407921</v>
       </c>
       <c r="Y116" s="13">
-        <v>215068</v>
+        <v>498055</v>
       </c>
       <c r="Z116" s="13">
-        <v>407921</v>
+        <v>379373</v>
       </c>
       <c r="AA116" s="13">
-        <v>498055</v>
+        <v>419976</v>
       </c>
       <c r="AB116" s="13">
-        <v>379373</v>
+        <v>196123</v>
       </c>
       <c r="AC116" s="13">
-        <v>419976</v>
-      </c>
-      <c r="AD116" s="13">
-        <v>196123</v>
+        <v>196568</v>
+      </c>
+      <c r="AD116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE116" s="13">
-        <v>196568</v>
-      </c>
-      <c r="AF116" s="13" t="s">
-        <v>58</v>
+        <v>234158</v>
+      </c>
+      <c r="AF116" s="13">
+        <v>258147</v>
       </c>
       <c r="AG116" s="13">
-        <v>234158</v>
+        <v>427486</v>
       </c>
       <c r="AH116" s="13">
-        <v>258147</v>
+        <v>327580</v>
       </c>
       <c r="AI116" s="13">
-        <v>427486</v>
+        <v>295188</v>
       </c>
       <c r="AJ116" s="13">
-        <v>327580</v>
+        <v>388621</v>
       </c>
       <c r="AK116" s="13">
-        <v>295188</v>
+        <v>434584</v>
       </c>
       <c r="AL116" s="13">
-        <v>388621</v>
+        <v>289344</v>
       </c>
       <c r="AM116" s="13">
-        <v>434584</v>
+        <v>278517</v>
       </c>
       <c r="AN116" s="13">
-        <v>289344</v>
+        <v>339977</v>
       </c>
       <c r="AO116" s="13">
-        <v>278517</v>
+        <v>214114</v>
       </c>
       <c r="AP116" s="13">
-        <v>339977</v>
+        <v>285144</v>
       </c>
       <c r="AQ116" s="13">
-        <v>214114</v>
+        <v>92217</v>
       </c>
       <c r="AR116" s="13">
-        <v>285144</v>
+        <v>144836</v>
       </c>
       <c r="AS116" s="13">
-        <v>92217</v>
+        <v>155536</v>
       </c>
       <c r="AT116" s="13">
-        <v>144836</v>
+        <v>99920</v>
       </c>
       <c r="AU116" s="13">
-        <v>155536</v>
+        <v>292374</v>
       </c>
       <c r="AV116" s="13">
-        <v>99920</v>
+        <v>193109</v>
       </c>
       <c r="AW116" s="13">
-        <v>292374</v>
+        <v>388802</v>
       </c>
       <c r="AX116" s="13">
-        <v>193109</v>
+        <v>346790</v>
       </c>
       <c r="AY116" s="13">
-        <v>388802</v>
+        <v>335890</v>
       </c>
       <c r="AZ116" s="13">
-        <v>346790</v>
+        <v>428481</v>
       </c>
       <c r="BA116" s="13">
-        <v>335890</v>
+        <v>400004</v>
       </c>
       <c r="BB116" s="13">
-        <v>428481</v>
+        <v>389332</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
         <v>61</v>
       </c>
@@ -15868,44 +15868,44 @@
       <c r="T117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U117" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V117" s="11" t="s">
-        <v>58</v>
+      <c r="U117" s="11">
+        <v>50378</v>
+      </c>
+      <c r="V117" s="11">
+        <v>40077</v>
       </c>
       <c r="W117" s="11">
-        <v>50378</v>
+        <v>44494</v>
       </c>
       <c r="X117" s="11">
-        <v>40077</v>
+        <v>58660</v>
       </c>
       <c r="Y117" s="11">
-        <v>44494</v>
+        <v>53290</v>
       </c>
       <c r="Z117" s="11">
-        <v>58660</v>
+        <v>60803</v>
       </c>
       <c r="AA117" s="11">
-        <v>53290</v>
+        <v>56303</v>
       </c>
       <c r="AB117" s="11">
-        <v>60803</v>
-      </c>
-      <c r="AC117" s="11">
-        <v>56303</v>
-      </c>
-      <c r="AD117" s="11">
         <v>45741</v>
       </c>
-      <c r="AE117" s="11" t="s">
-        <v>58</v>
+      <c r="AC117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE117" s="11">
+        <v>69977</v>
       </c>
       <c r="AF117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG117" s="11">
-        <v>69977</v>
+      <c r="AG117" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH117" s="11" t="s">
         <v>58</v>
@@ -15913,39 +15913,39 @@
       <c r="AI117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ117" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK117" s="11" t="s">
-        <v>58</v>
+      <c r="AJ117" s="11">
+        <v>67550</v>
+      </c>
+      <c r="AK117" s="11">
+        <v>67533</v>
       </c>
       <c r="AL117" s="11">
-        <v>67550</v>
+        <v>56107</v>
       </c>
       <c r="AM117" s="11">
-        <v>67533</v>
-      </c>
-      <c r="AN117" s="11">
-        <v>56107</v>
+        <v>55001</v>
+      </c>
+      <c r="AN117" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO117" s="11">
-        <v>55001</v>
-      </c>
-      <c r="AP117" s="11" t="s">
-        <v>58</v>
+        <v>75003</v>
+      </c>
+      <c r="AP117" s="11">
+        <v>75000</v>
       </c>
       <c r="AQ117" s="11">
-        <v>75003</v>
+        <v>109932</v>
       </c>
       <c r="AR117" s="11">
-        <v>75000</v>
-      </c>
-      <c r="AS117" s="11">
-        <v>109932</v>
-      </c>
-      <c r="AT117" s="11">
         <v>74999</v>
       </c>
+      <c r="AS117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT117" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU117" s="11" t="s">
         <v>58</v>
       </c>
@@ -15958,20 +15958,20 @@
       <c r="AX117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY117" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ117" s="11" t="s">
-        <v>58</v>
+      <c r="AY117" s="11">
+        <v>202695</v>
+      </c>
+      <c r="AZ117" s="11">
+        <v>199470</v>
       </c>
       <c r="BA117" s="11">
-        <v>202695</v>
+        <v>191746</v>
       </c>
       <c r="BB117" s="11">
-        <v>199470</v>
+        <v>173577</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
         <v>63</v>
       </c>
@@ -16027,110 +16027,110 @@
       <c r="T118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U118" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V118" s="13" t="s">
-        <v>58</v>
+      <c r="U118" s="13">
+        <v>5924</v>
+      </c>
+      <c r="V118" s="13">
+        <v>2749</v>
       </c>
       <c r="W118" s="13">
-        <v>5924</v>
+        <v>4886</v>
       </c>
       <c r="X118" s="13">
-        <v>2749</v>
+        <v>2839</v>
       </c>
       <c r="Y118" s="13">
-        <v>4886</v>
+        <v>5946</v>
       </c>
       <c r="Z118" s="13">
-        <v>2839</v>
+        <v>14074</v>
       </c>
       <c r="AA118" s="13">
-        <v>5946</v>
+        <v>4430</v>
       </c>
       <c r="AB118" s="13">
-        <v>14074</v>
+        <v>5080</v>
       </c>
       <c r="AC118" s="13">
-        <v>4430</v>
+        <v>5998</v>
       </c>
       <c r="AD118" s="13">
-        <v>5080</v>
+        <v>5846</v>
       </c>
       <c r="AE118" s="13">
-        <v>5998</v>
+        <v>6056</v>
       </c>
       <c r="AF118" s="13">
-        <v>5846</v>
+        <v>4653</v>
       </c>
       <c r="AG118" s="13">
-        <v>6056</v>
+        <v>4617</v>
       </c>
       <c r="AH118" s="13">
-        <v>4653</v>
+        <v>4254</v>
       </c>
       <c r="AI118" s="13">
-        <v>4617</v>
+        <v>8500</v>
       </c>
       <c r="AJ118" s="13">
-        <v>4254</v>
+        <v>7219</v>
       </c>
       <c r="AK118" s="13">
-        <v>8500</v>
+        <v>8413</v>
       </c>
       <c r="AL118" s="13">
-        <v>7219</v>
+        <v>5226</v>
       </c>
       <c r="AM118" s="13">
-        <v>8413</v>
+        <v>6703</v>
       </c>
       <c r="AN118" s="13">
-        <v>5226</v>
+        <v>7555</v>
       </c>
       <c r="AO118" s="13">
-        <v>6703</v>
+        <v>6025</v>
       </c>
       <c r="AP118" s="13">
-        <v>7555</v>
+        <v>6059</v>
       </c>
       <c r="AQ118" s="13">
-        <v>6025</v>
+        <v>7986</v>
       </c>
       <c r="AR118" s="13">
-        <v>6059</v>
+        <v>11721</v>
       </c>
       <c r="AS118" s="13">
-        <v>7986</v>
+        <v>9036</v>
       </c>
       <c r="AT118" s="13">
-        <v>11721</v>
+        <v>8077</v>
       </c>
       <c r="AU118" s="13">
-        <v>9036</v>
+        <v>8671</v>
       </c>
       <c r="AV118" s="13">
-        <v>8077</v>
+        <v>8195</v>
       </c>
       <c r="AW118" s="13">
-        <v>8671</v>
+        <v>10497</v>
       </c>
       <c r="AX118" s="13">
-        <v>8195</v>
+        <v>12064</v>
       </c>
       <c r="AY118" s="13">
-        <v>10497</v>
+        <v>12003</v>
       </c>
       <c r="AZ118" s="13">
-        <v>12064</v>
+        <v>12680</v>
       </c>
       <c r="BA118" s="13">
-        <v>12003</v>
+        <v>10901</v>
       </c>
       <c r="BB118" s="13">
-        <v>12680</v>
+        <v>12800</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>64</v>
       </c>
@@ -16186,110 +16186,110 @@
       <c r="T119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U119" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V119" s="11" t="s">
-        <v>58</v>
+      <c r="U119" s="11">
+        <v>86754</v>
+      </c>
+      <c r="V119" s="11">
+        <v>36506</v>
       </c>
       <c r="W119" s="11">
-        <v>86754</v>
+        <v>50300</v>
       </c>
       <c r="X119" s="11">
-        <v>36506</v>
+        <v>38162</v>
       </c>
       <c r="Y119" s="11">
-        <v>50300</v>
+        <v>53538</v>
       </c>
       <c r="Z119" s="11">
-        <v>38162</v>
+        <v>49523</v>
       </c>
       <c r="AA119" s="11">
-        <v>53538</v>
+        <v>43611</v>
       </c>
       <c r="AB119" s="11">
-        <v>49523</v>
+        <v>42994</v>
       </c>
       <c r="AC119" s="11">
-        <v>43611</v>
+        <v>43516</v>
       </c>
       <c r="AD119" s="11">
-        <v>42994</v>
+        <v>43819</v>
       </c>
       <c r="AE119" s="11">
-        <v>43516</v>
+        <v>32480</v>
       </c>
       <c r="AF119" s="11">
-        <v>43819</v>
+        <v>26703</v>
       </c>
       <c r="AG119" s="11">
-        <v>32480</v>
+        <v>99437</v>
       </c>
       <c r="AH119" s="11">
-        <v>26703</v>
+        <v>51116</v>
       </c>
       <c r="AI119" s="11">
-        <v>99437</v>
+        <v>39407</v>
       </c>
       <c r="AJ119" s="11">
-        <v>51116</v>
+        <v>44089</v>
       </c>
       <c r="AK119" s="11">
-        <v>39407</v>
+        <v>56353</v>
       </c>
       <c r="AL119" s="11">
-        <v>44089</v>
+        <v>56703</v>
       </c>
       <c r="AM119" s="11">
-        <v>56353</v>
+        <v>47711</v>
       </c>
       <c r="AN119" s="11">
-        <v>56703</v>
+        <v>47880</v>
       </c>
       <c r="AO119" s="11">
-        <v>47711</v>
+        <v>45893</v>
       </c>
       <c r="AP119" s="11">
-        <v>47880</v>
+        <v>57122</v>
       </c>
       <c r="AQ119" s="11">
-        <v>45893</v>
+        <v>87415</v>
       </c>
       <c r="AR119" s="11">
-        <v>57122</v>
+        <v>39999</v>
       </c>
       <c r="AS119" s="11">
-        <v>87415</v>
+        <v>41495</v>
       </c>
       <c r="AT119" s="11">
-        <v>39999</v>
+        <v>36719</v>
       </c>
       <c r="AU119" s="11">
-        <v>41495</v>
+        <v>195151</v>
       </c>
       <c r="AV119" s="11">
-        <v>36719</v>
+        <v>156971</v>
       </c>
       <c r="AW119" s="11">
-        <v>195151</v>
+        <v>168015</v>
       </c>
       <c r="AX119" s="11">
-        <v>156971</v>
+        <v>128256</v>
       </c>
       <c r="AY119" s="11">
-        <v>168015</v>
+        <v>144330</v>
       </c>
       <c r="AZ119" s="11">
-        <v>128256</v>
+        <v>93109</v>
       </c>
       <c r="BA119" s="11">
-        <v>144330</v>
+        <v>141120</v>
       </c>
       <c r="BB119" s="11">
-        <v>93109</v>
+        <v>101909</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
         <v>96</v>
       </c>
@@ -16346,7 +16346,7 @@
       <c r="BA120" s="9"/>
       <c r="BB120" s="9"/>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>64</v>
       </c>
@@ -16456,14 +16456,14 @@
       <c r="AL121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM121" s="11" t="s">
-        <v>58</v>
+      <c r="AM121" s="11">
+        <v>39796</v>
       </c>
       <c r="AN121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO121" s="11">
-        <v>39796</v>
+      <c r="AO121" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP121" s="11" t="s">
         <v>58</v>
@@ -16505,7 +16505,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
         <v>97</v>
       </c>
@@ -16562,7 +16562,7 @@
       <c r="BA122" s="9"/>
       <c r="BB122" s="9"/>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>66</v>
       </c>
@@ -16624,72 +16624,72 @@
       <c r="V123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W123" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X123" s="11" t="s">
-        <v>58</v>
+      <c r="W123" s="11">
+        <v>26000000</v>
+      </c>
+      <c r="X123" s="11">
+        <v>28250000</v>
       </c>
       <c r="Y123" s="11">
-        <v>26000000</v>
+        <v>13333333</v>
       </c>
       <c r="Z123" s="11">
-        <v>28250000</v>
+        <v>16133333</v>
       </c>
       <c r="AA123" s="11">
-        <v>13333333</v>
+        <v>6000000</v>
       </c>
       <c r="AB123" s="11">
-        <v>16133333</v>
+        <v>27000000</v>
       </c>
       <c r="AC123" s="11">
-        <v>6000000</v>
+        <v>12800000</v>
       </c>
       <c r="AD123" s="11">
-        <v>27000000</v>
+        <v>76666667</v>
       </c>
       <c r="AE123" s="11">
-        <v>12800000</v>
+        <v>42833333</v>
       </c>
       <c r="AF123" s="11">
-        <v>76666667</v>
+        <v>17461538</v>
       </c>
       <c r="AG123" s="11">
-        <v>42833333</v>
+        <v>24733333</v>
       </c>
       <c r="AH123" s="11">
-        <v>17461538</v>
+        <v>3500000</v>
       </c>
       <c r="AI123" s="11">
-        <v>24733333</v>
+        <v>70000000</v>
       </c>
       <c r="AJ123" s="11">
-        <v>3500000</v>
+        <v>0</v>
       </c>
       <c r="AK123" s="11">
-        <v>70000000</v>
+        <v>17960784</v>
       </c>
       <c r="AL123" s="11">
-        <v>0</v>
+        <v>18800000</v>
       </c>
       <c r="AM123" s="11">
-        <v>17960784</v>
+        <v>0</v>
       </c>
       <c r="AN123" s="11">
-        <v>18800000</v>
+        <v>24155172</v>
       </c>
       <c r="AO123" s="11">
-        <v>0</v>
+        <v>29000000</v>
       </c>
       <c r="AP123" s="11">
-        <v>24155172</v>
-      </c>
-      <c r="AQ123" s="11">
-        <v>29000000</v>
-      </c>
-      <c r="AR123" s="11">
         <v>42952381</v>
       </c>
+      <c r="AQ123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR123" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS123" s="11" t="s">
         <v>58</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>72</v>
       </c>
@@ -16843,41 +16843,41 @@
       <c r="AP124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ124" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR124" s="13" t="s">
-        <v>58</v>
+      <c r="AQ124" s="13">
+        <v>48233</v>
+      </c>
+      <c r="AR124" s="13">
+        <v>0</v>
       </c>
       <c r="AS124" s="13">
-        <v>48233</v>
+        <v>59176</v>
       </c>
       <c r="AT124" s="13">
-        <v>0</v>
+        <v>49345</v>
       </c>
       <c r="AU124" s="13">
-        <v>59176</v>
+        <v>45498</v>
       </c>
       <c r="AV124" s="13">
-        <v>49345</v>
+        <v>76844</v>
       </c>
       <c r="AW124" s="13">
-        <v>45498</v>
+        <v>55904</v>
       </c>
       <c r="AX124" s="13">
-        <v>76844</v>
+        <v>0</v>
       </c>
       <c r="AY124" s="13">
-        <v>55904</v>
+        <v>194057</v>
       </c>
       <c r="AZ124" s="13">
-        <v>0</v>
+        <v>1076371</v>
       </c>
       <c r="BA124" s="13">
-        <v>194057</v>
+        <v>24427</v>
       </c>
       <c r="BB124" s="13">
-        <v>1076371</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/dejaber/product/monthly_seprated.xlsx
+++ b/database/industries/darou/dejaber/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="99">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3418,65 +3418,65 @@
       <c r="R11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S11" s="13" t="s">
-        <v>58</v>
+      <c r="S11" s="13" t="n">
+        <v>352080</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>352080</v>
+        <v>293400</v>
       </c>
       <c r="U11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13" t="n">
         <v>293400</v>
       </c>
-      <c r="V11" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" s="13" t="n">
+        <v>58680</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>116280</v>
+      </c>
+      <c r="AA11" s="13" t="n">
         <v>293400</v>
       </c>
-      <c r="X11" s="13" t="n">
+      <c r="AB11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="13" t="n">
         <v>58680</v>
       </c>
-      <c r="Y11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="13" t="n">
-        <v>116280</v>
-      </c>
-      <c r="AB11" s="13" t="n">
-        <v>293400</v>
-      </c>
-      <c r="AC11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="AE11" s="13" t="n">
-        <v>58680</v>
+        <v>234720</v>
       </c>
       <c r="AF11" s="13" t="n">
         <v>234720</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>234720</v>
+        <v>131280</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>131280</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>0</v>
+        <v>176040</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>176040</v>
+        <v>207360</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>207360</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="13" t="n">
         <v>0</v>
@@ -3485,46 +3485,46 @@
         <v>0</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>0</v>
+        <v>141940</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>141940</v>
+        <v>214560</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>214560</v>
+        <v>122740</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>122740</v>
+        <v>293400</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>293400</v>
+        <v>232320</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>232320</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>0</v>
+        <v>69720</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>69720</v>
+        <v>314040</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>314040</v>
+        <v>117360</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>117360</v>
+        <v>111190</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>111190</v>
+        <v>153480</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>153480</v>
+        <v>193233</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>193233</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>0</v>
+        <v>58710</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,113 +3577,113 @@
       <c r="R12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="16" t="s">
-        <v>58</v>
+      <c r="S12" s="16" t="n">
+        <v>392102</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>392102</v>
+        <v>529616</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>529616</v>
+        <v>650529</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>650529</v>
+        <v>604365</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>604365</v>
+        <v>498279</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>498279</v>
+        <v>625845</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>625845</v>
+        <v>363106</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>363106</v>
+        <v>468335</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>468335</v>
+        <v>23879</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>23879</v>
+        <v>10764</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>10764</v>
+        <v>384995</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>384995</v>
+        <v>274124</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>274124</v>
+        <v>45133</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>45133</v>
+        <v>460825</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>460825</v>
+        <v>580498</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>580498</v>
+        <v>553403</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>553403</v>
+        <v>222225</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>222225</v>
+        <v>298736</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>298736</v>
+        <v>721038</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>721038</v>
+        <v>697700</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>697700</v>
+        <v>682353</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>682353</v>
+        <v>370331</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>370331</v>
+        <v>157176</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>157176</v>
+        <v>158641</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>158641</v>
+        <v>191087</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>191087</v>
+        <v>76001</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>76001</v>
+        <v>146768</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>146768</v>
+        <v>122082</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>122082</v>
+        <v>505915</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>505915</v>
+        <v>812508</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>812508</v>
+        <v>906122</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>906122</v>
+        <v>451003</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>451003</v>
+        <v>89655</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>89655</v>
+        <v>449147</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>449147</v>
+        <v>346340</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>346340</v>
+        <v>347057</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,32 +3736,32 @@
       <c r="R13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="13" t="s">
-        <v>58</v>
+      <c r="S13" s="13" t="n">
+        <v>87680</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>87680</v>
+        <v>0</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>0</v>
+        <v>21930</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>21930</v>
+        <v>41880</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>41880</v>
+        <v>374780</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>374780</v>
+        <v>247116</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>247116</v>
+        <v>219796</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>219796</v>
+        <v>21916</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>21916</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="13" t="n">
         <v>0</v>
@@ -3779,37 +3779,37 @@
         <v>0</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>0</v>
+        <v>48937</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>48937</v>
+        <v>8160</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>8160</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>0</v>
+        <v>226044</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>226044</v>
+        <v>135324</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>135324</v>
+        <v>135072</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>135072</v>
+        <v>44268</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>44268</v>
+        <v>185404</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>185404</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="13" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>0</v>
+        <v>279650</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>279650</v>
+        <v>362384</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>362384</v>
+        <v>279000</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>279000</v>
+        <v>328932</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>328932</v>
+        <v>93400</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>93400</v>
+        <v>149520</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3895,113 +3895,113 @@
       <c r="R14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S14" s="16" t="s">
-        <v>58</v>
+      <c r="S14" s="16" t="n">
+        <v>8075390</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>8075390</v>
+        <v>26547714</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>26547714</v>
+        <v>24142146</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>24142146</v>
+        <v>14879334</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>14879334</v>
+        <v>10550250</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>10550250</v>
+        <v>11872090</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>11872090</v>
+        <v>17866800</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>17866800</v>
+        <v>16834100</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>16834100</v>
+        <v>5409254</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>5409254</v>
+        <v>3055600</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>3055600</v>
+        <v>15014300</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>15014300</v>
+        <v>5002430</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>5002430</v>
+        <v>11650816</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>11650816</v>
+        <v>13152630</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>13152630</v>
+        <v>46259244</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>46259244</v>
+        <v>23761286</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>23761286</v>
+        <v>50864400</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>50864400</v>
+        <v>11910410</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>11910410</v>
+        <v>35183260</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>35183260</v>
+        <v>44400500</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>44400500</v>
+        <v>20591790</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>20591790</v>
+        <v>16864160</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>16864160</v>
+        <v>22755860</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>22755860</v>
+        <v>10328380</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>10328380</v>
+        <v>37519980</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>37519980</v>
+        <v>35653030</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>35653030</v>
+        <v>32215080</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>32215080</v>
+        <v>22228010</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>22228010</v>
+        <v>21341380</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>21341380</v>
+        <v>11357570</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>11357570</v>
+        <v>34414210</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>34414210</v>
+        <v>48657360</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>48657360</v>
+        <v>25016650</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>25016650</v>
+        <v>37104670</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>37104670</v>
+        <v>26810500</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>26810500</v>
+        <v>48866310</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,113 +4054,113 @@
       <c r="R15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="13" t="s">
-        <v>58</v>
+      <c r="S15" s="13" t="n">
+        <v>784079</v>
       </c>
       <c r="T15" s="13" t="n">
-        <v>784079</v>
+        <v>3962360</v>
       </c>
       <c r="U15" s="13" t="n">
-        <v>3962360</v>
+        <v>2057514</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>2057514</v>
+        <v>3218491</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>3218491</v>
+        <v>2880950</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>2880950</v>
+        <v>2368190</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>2368190</v>
+        <v>3255450</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>3255450</v>
+        <v>1967002</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>1967002</v>
+        <v>6528321</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>6528321</v>
+        <v>4198826</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>4198826</v>
+        <v>573600</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>573600</v>
+        <v>1377000</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>1377000</v>
+        <v>1405665</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>1405665</v>
+        <v>3970080</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>3970080</v>
+        <v>2776560</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>2776560</v>
+        <v>4256530</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>4256530</v>
+        <v>3318850</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>3318850</v>
+        <v>2534960</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>2534960</v>
+        <v>3632720</v>
       </c>
       <c r="AL15" s="13" t="n">
+        <v>1497050</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>1098950</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>3414860</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>1492120</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>1575200</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>3884718</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>3524725</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>1560160</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>1703010</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>4028690</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>2919470</v>
+      </c>
+      <c r="AW15" s="13" t="n">
         <v>3632720</v>
       </c>
-      <c r="AM15" s="13" t="n">
-        <v>1497050</v>
-      </c>
-      <c r="AN15" s="13" t="n">
-        <v>1098950</v>
-      </c>
-      <c r="AO15" s="13" t="n">
-        <v>3414860</v>
-      </c>
-      <c r="AP15" s="13" t="n">
-        <v>1492120</v>
-      </c>
-      <c r="AQ15" s="13" t="n">
-        <v>1575200</v>
-      </c>
-      <c r="AR15" s="13" t="n">
-        <v>3884718</v>
-      </c>
-      <c r="AS15" s="13" t="n">
-        <v>3524725</v>
-      </c>
-      <c r="AT15" s="13" t="n">
-        <v>1560160</v>
-      </c>
-      <c r="AU15" s="13" t="n">
-        <v>1703010</v>
-      </c>
-      <c r="AV15" s="13" t="n">
-        <v>4028690</v>
-      </c>
-      <c r="AW15" s="13" t="n">
-        <v>2919470</v>
-      </c>
       <c r="AX15" s="13" t="n">
-        <v>3632720</v>
+        <v>1668830</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>1668830</v>
+        <v>3127632</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>3127632</v>
+        <v>2269180</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>2269180</v>
+        <v>58160</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>58160</v>
+        <v>1933935</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,11 +4246,11 @@
       <c r="AC16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD16" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE16" s="16" t="n">
-        <v>0</v>
+      <c r="AD16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF16" s="16" t="s">
         <v>58</v>
@@ -4279,8 +4279,8 @@
       <c r="AN16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO16" s="16" t="s">
-        <v>58</v>
+      <c r="AO16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP16" s="16" t="n">
         <v>0</v>
@@ -4372,14 +4372,14 @@
       <c r="R17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S17" s="13" t="s">
-        <v>58</v>
+      <c r="S17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U17" s="13" t="n">
-        <v>0</v>
+      <c r="U17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="V17" s="13" t="s">
         <v>58</v>
@@ -4530,112 +4530,112 @@
         <v>0</v>
       </c>
       <c r="S18" s="18" t="n">
-        <v>0</v>
+        <v>9691331</v>
       </c>
       <c r="T18" s="18" t="n">
-        <v>9691331</v>
+        <v>31333090</v>
       </c>
       <c r="U18" s="18" t="n">
-        <v>31333090</v>
+        <v>26872119</v>
       </c>
       <c r="V18" s="18" t="n">
-        <v>26872119</v>
+        <v>19037470</v>
       </c>
       <c r="W18" s="18" t="n">
-        <v>19037470</v>
+        <v>14362939</v>
       </c>
       <c r="X18" s="18" t="n">
-        <v>14362939</v>
+        <v>15113241</v>
       </c>
       <c r="Y18" s="18" t="n">
-        <v>15113241</v>
+        <v>21705152</v>
       </c>
       <c r="Z18" s="18" t="n">
-        <v>21705152</v>
+        <v>19407633</v>
       </c>
       <c r="AA18" s="18" t="n">
-        <v>19407633</v>
+        <v>12254854</v>
       </c>
       <c r="AB18" s="18" t="n">
-        <v>12254854</v>
+        <v>7265190</v>
       </c>
       <c r="AC18" s="18" t="n">
-        <v>7265190</v>
+        <v>15972895</v>
       </c>
       <c r="AD18" s="18" t="n">
-        <v>15972895</v>
+        <v>6712234</v>
       </c>
       <c r="AE18" s="18" t="n">
-        <v>6712234</v>
+        <v>13336334</v>
       </c>
       <c r="AF18" s="18" t="n">
-        <v>13336334</v>
+        <v>17818255</v>
       </c>
       <c r="AG18" s="18" t="n">
-        <v>17818255</v>
+        <v>49796519</v>
       </c>
       <c r="AH18" s="18" t="n">
-        <v>49796519</v>
+        <v>28579379</v>
       </c>
       <c r="AI18" s="18" t="n">
-        <v>28579379</v>
+        <v>54405475</v>
       </c>
       <c r="AJ18" s="18" t="n">
-        <v>54405475</v>
+        <v>15146190</v>
       </c>
       <c r="AK18" s="18" t="n">
-        <v>15146190</v>
+        <v>39879702</v>
       </c>
       <c r="AL18" s="18" t="n">
-        <v>39879702</v>
+        <v>46730322</v>
       </c>
       <c r="AM18" s="18" t="n">
-        <v>46730322</v>
+        <v>22417361</v>
       </c>
       <c r="AN18" s="18" t="n">
-        <v>22417361</v>
+        <v>20834755</v>
       </c>
       <c r="AO18" s="18" t="n">
-        <v>20834755</v>
+        <v>24547096</v>
       </c>
       <c r="AP18" s="18" t="n">
-        <v>24547096</v>
+        <v>12321035</v>
       </c>
       <c r="AQ18" s="18" t="n">
-        <v>12321035</v>
+        <v>41718525</v>
       </c>
       <c r="AR18" s="18" t="n">
-        <v>41718525</v>
+        <v>39547156</v>
       </c>
       <c r="AS18" s="18" t="n">
-        <v>39547156</v>
+        <v>34154328</v>
       </c>
       <c r="AT18" s="18" t="n">
-        <v>34154328</v>
+        <v>24053102</v>
       </c>
       <c r="AU18" s="18" t="n">
-        <v>24053102</v>
+        <v>25945705</v>
       </c>
       <c r="AV18" s="18" t="n">
-        <v>25945705</v>
+        <v>15403588</v>
       </c>
       <c r="AW18" s="18" t="n">
-        <v>15403588</v>
+        <v>39350062</v>
       </c>
       <c r="AX18" s="18" t="n">
-        <v>39350062</v>
+        <v>51250767</v>
       </c>
       <c r="AY18" s="18" t="n">
-        <v>51250767</v>
+        <v>28666417</v>
       </c>
       <c r="AZ18" s="18" t="n">
-        <v>28666417</v>
+        <v>40345162</v>
       </c>
       <c r="BA18" s="18" t="n">
-        <v>40345162</v>
+        <v>27308400</v>
       </c>
       <c r="BB18" s="18" t="n">
-        <v>27308400</v>
+        <v>51355532</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,8 +4745,8 @@
       <c r="R20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="13" t="s">
-        <v>58</v>
+      <c r="S20" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T20" s="13" t="n">
         <v>0</v>
@@ -4781,8 +4781,8 @@
       <c r="AD20" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" s="13" t="n">
-        <v>0</v>
+      <c r="AE20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF20" s="13" t="s">
         <v>58</v>
@@ -4811,8 +4811,8 @@
       <c r="AN20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO20" s="13" t="s">
-        <v>58</v>
+      <c r="AO20" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP20" s="13" t="n">
         <v>0</v>
@@ -4904,8 +4904,8 @@
       <c r="R21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S21" s="16" t="s">
-        <v>58</v>
+      <c r="S21" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T21" s="16" t="n">
         <v>0</v>
@@ -4940,8 +4940,8 @@
       <c r="AD21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="16" t="n">
-        <v>0</v>
+      <c r="AE21" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF21" s="16" t="s">
         <v>58</v>
@@ -4970,8 +4970,8 @@
       <c r="AN21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO21" s="16" t="s">
-        <v>58</v>
+      <c r="AO21" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP21" s="16" t="n">
         <v>0</v>
@@ -5063,8 +5063,8 @@
       <c r="R22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S22" s="13" t="s">
-        <v>58</v>
+      <c r="S22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T22" s="13" t="n">
         <v>0</v>
@@ -5099,8 +5099,8 @@
       <c r="AD22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE22" s="13" t="n">
-        <v>0</v>
+      <c r="AE22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF22" s="13" t="s">
         <v>58</v>
@@ -5129,8 +5129,8 @@
       <c r="AN22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO22" s="13" t="s">
-        <v>58</v>
+      <c r="AO22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP22" s="13" t="n">
         <v>0</v>
@@ -5222,8 +5222,8 @@
       <c r="R23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S23" s="16" t="s">
-        <v>58</v>
+      <c r="S23" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T23" s="16" t="n">
         <v>0</v>
@@ -5258,8 +5258,8 @@
       <c r="AD23" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE23" s="16" t="n">
-        <v>0</v>
+      <c r="AE23" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF23" s="16" t="s">
         <v>58</v>
@@ -5288,8 +5288,8 @@
       <c r="AN23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO23" s="16" t="s">
-        <v>58</v>
+      <c r="AO23" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP23" s="16" t="n">
         <v>0</v>
@@ -5381,14 +5381,14 @@
       <c r="R24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="13" t="s">
-        <v>58</v>
+      <c r="S24" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U24" s="13" t="n">
-        <v>0</v>
+      <c r="U24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="V24" s="13" t="s">
         <v>58</v>
@@ -5396,8 +5396,8 @@
       <c r="W24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X24" s="13" t="s">
-        <v>58</v>
+      <c r="X24" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y24" s="13" t="n">
         <v>0</v>
@@ -5417,8 +5417,8 @@
       <c r="AD24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE24" s="13" t="n">
-        <v>0</v>
+      <c r="AE24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF24" s="13" t="s">
         <v>58</v>
@@ -5435,20 +5435,20 @@
       <c r="AJ24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL24" s="13" t="n">
+      <c r="AK24" s="13" t="n">
         <v>345838</v>
       </c>
-      <c r="AM24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="13" t="s">
-        <v>58</v>
+      <c r="AL24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO24" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP24" s="13" t="n">
         <v>0</v>
@@ -5609,8 +5609,8 @@
       <c r="AO25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP25" s="16" t="s">
-        <v>58</v>
+      <c r="AP25" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ25" s="16" t="n">
         <v>0</v>
@@ -5699,14 +5699,14 @@
       <c r="R26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="13" t="s">
-        <v>58</v>
+      <c r="S26" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T26" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U26" s="13" t="n">
-        <v>0</v>
+      <c r="U26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="V26" s="13" t="s">
         <v>58</v>
@@ -5911,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="AK27" s="18" t="n">
-        <v>0</v>
+        <v>345838</v>
       </c>
       <c r="AL27" s="18" t="n">
-        <v>345838</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="18" t="n">
         <v>0</v>
@@ -6078,8 +6078,8 @@
       <c r="T29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U29" s="13" t="s">
-        <v>58</v>
+      <c r="U29" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V29" s="13" t="n">
         <v>0</v>
@@ -6111,23 +6111,23 @@
       <c r="AE29" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AF29" s="13" t="n">
-        <v>0</v>
+      <c r="AF29" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH29" s="13" t="s">
-        <v>58</v>
+      <c r="AH29" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AI29" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ29" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="13" t="s">
-        <v>58</v>
+      <c r="AJ29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK29" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AL29" s="13" t="n">
         <v>0</v>
@@ -6135,8 +6135,8 @@
       <c r="AM29" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AN29" s="13" t="n">
-        <v>0</v>
+      <c r="AN29" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO29" s="13" t="s">
         <v>58</v>
@@ -6297,11 +6297,11 @@
       <c r="AN30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO30" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP30" s="16" t="n">
-        <v>0</v>
+      <c r="AO30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ30" s="16" t="s">
         <v>58</v>
@@ -6318,17 +6318,17 @@
       <c r="AU30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AV30" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW30" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY30" s="16" t="n">
-        <v>0</v>
+      <c r="AV30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ30" s="16" t="s">
         <v>58</v>
@@ -6394,8 +6394,8 @@
       <c r="T31" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="20" t="s">
-        <v>58</v>
+      <c r="U31" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="20" t="n">
         <v>0</v>
@@ -6546,112 +6546,112 @@
         <v>0</v>
       </c>
       <c r="S32" s="18" t="n">
-        <v>0</v>
+        <v>9691331</v>
       </c>
       <c r="T32" s="18" t="n">
-        <v>9691331</v>
+        <v>31333090</v>
       </c>
       <c r="U32" s="18" t="n">
-        <v>31333090</v>
+        <v>26872119</v>
       </c>
       <c r="V32" s="18" t="n">
-        <v>26872119</v>
+        <v>19037470</v>
       </c>
       <c r="W32" s="18" t="n">
-        <v>19037470</v>
+        <v>14362939</v>
       </c>
       <c r="X32" s="18" t="n">
-        <v>14362939</v>
+        <v>15113241</v>
       </c>
       <c r="Y32" s="18" t="n">
-        <v>15113241</v>
+        <v>21705152</v>
       </c>
       <c r="Z32" s="18" t="n">
-        <v>21705152</v>
+        <v>19407633</v>
       </c>
       <c r="AA32" s="18" t="n">
-        <v>19407633</v>
+        <v>12254854</v>
       </c>
       <c r="AB32" s="18" t="n">
-        <v>12254854</v>
+        <v>7265190</v>
       </c>
       <c r="AC32" s="18" t="n">
-        <v>7265190</v>
+        <v>15972895</v>
       </c>
       <c r="AD32" s="18" t="n">
-        <v>15972895</v>
+        <v>6712234</v>
       </c>
       <c r="AE32" s="18" t="n">
-        <v>6712234</v>
+        <v>13336334</v>
       </c>
       <c r="AF32" s="18" t="n">
-        <v>13336334</v>
+        <v>17818255</v>
       </c>
       <c r="AG32" s="18" t="n">
-        <v>17818255</v>
+        <v>49796519</v>
       </c>
       <c r="AH32" s="18" t="n">
-        <v>49796519</v>
+        <v>28579379</v>
       </c>
       <c r="AI32" s="18" t="n">
-        <v>28579379</v>
+        <v>54405475</v>
       </c>
       <c r="AJ32" s="18" t="n">
-        <v>54405475</v>
+        <v>15146190</v>
       </c>
       <c r="AK32" s="18" t="n">
-        <v>15146190</v>
+        <v>40225540</v>
       </c>
       <c r="AL32" s="18" t="n">
-        <v>40225540</v>
+        <v>46730322</v>
       </c>
       <c r="AM32" s="18" t="n">
-        <v>46730322</v>
+        <v>22417361</v>
       </c>
       <c r="AN32" s="18" t="n">
-        <v>22417361</v>
+        <v>20834755</v>
       </c>
       <c r="AO32" s="18" t="n">
-        <v>20834755</v>
+        <v>24547096</v>
       </c>
       <c r="AP32" s="18" t="n">
-        <v>24547096</v>
+        <v>12321035</v>
       </c>
       <c r="AQ32" s="18" t="n">
-        <v>12321035</v>
+        <v>41718525</v>
       </c>
       <c r="AR32" s="18" t="n">
-        <v>41718525</v>
+        <v>39547156</v>
       </c>
       <c r="AS32" s="18" t="n">
-        <v>39547156</v>
+        <v>34154328</v>
       </c>
       <c r="AT32" s="18" t="n">
-        <v>34154328</v>
+        <v>24053102</v>
       </c>
       <c r="AU32" s="18" t="n">
-        <v>24053102</v>
+        <v>25945705</v>
       </c>
       <c r="AV32" s="18" t="n">
-        <v>25945705</v>
+        <v>15403588</v>
       </c>
       <c r="AW32" s="18" t="n">
-        <v>15403588</v>
+        <v>39350062</v>
       </c>
       <c r="AX32" s="18" t="n">
-        <v>39350062</v>
+        <v>51250767</v>
       </c>
       <c r="AY32" s="18" t="n">
-        <v>51250767</v>
+        <v>28666417</v>
       </c>
       <c r="AZ32" s="18" t="n">
-        <v>28666417</v>
+        <v>40345162</v>
       </c>
       <c r="BA32" s="18" t="n">
-        <v>40345162</v>
+        <v>27308400</v>
       </c>
       <c r="BB32" s="18" t="n">
-        <v>27308400</v>
+        <v>51355532</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7138,113 +7138,113 @@
       <c r="R39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S39" s="13" t="s">
-        <v>58</v>
+      <c r="S39" s="13" t="n">
+        <v>352080</v>
       </c>
       <c r="T39" s="13" t="n">
-        <v>352080</v>
+        <v>293280</v>
       </c>
       <c r="U39" s="13" t="n">
-        <v>293280</v>
+        <v>0</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>0</v>
+        <v>293250</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>293250</v>
+        <v>58680</v>
       </c>
       <c r="X39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="13" t="n">
+        <v>116280</v>
+      </c>
+      <c r="AA39" s="13" t="n">
+        <v>293400</v>
+      </c>
+      <c r="AB39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="13" t="n">
         <v>58680</v>
       </c>
-      <c r="Y39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="13" t="n">
-        <v>116280</v>
-      </c>
-      <c r="AB39" s="13" t="n">
+      <c r="AE39" s="13" t="n">
+        <v>234600</v>
+      </c>
+      <c r="AF39" s="13" t="n">
+        <v>112530</v>
+      </c>
+      <c r="AG39" s="13" t="n">
+        <v>210960</v>
+      </c>
+      <c r="AH39" s="13" t="n">
+        <v>42240</v>
+      </c>
+      <c r="AI39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="13" t="n">
+        <v>176040</v>
+      </c>
+      <c r="AK39" s="13" t="n">
+        <v>207360</v>
+      </c>
+      <c r="AL39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO39" s="13" t="n">
+        <v>60000</v>
+      </c>
+      <c r="AP39" s="13" t="n">
+        <v>233400</v>
+      </c>
+      <c r="AQ39" s="13" t="n">
+        <v>45137</v>
+      </c>
+      <c r="AR39" s="13" t="n">
         <v>293400</v>
       </c>
-      <c r="AC39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="13" t="n">
-        <v>58680</v>
-      </c>
-      <c r="AF39" s="13" t="n">
-        <v>234600</v>
-      </c>
-      <c r="AG39" s="13" t="n">
-        <v>112530</v>
-      </c>
-      <c r="AH39" s="13" t="n">
-        <v>210960</v>
-      </c>
-      <c r="AI39" s="13" t="n">
-        <v>42240</v>
-      </c>
-      <c r="AJ39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="13" t="n">
-        <v>176040</v>
-      </c>
-      <c r="AL39" s="13" t="n">
-        <v>207360</v>
-      </c>
-      <c r="AM39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP39" s="13" t="n">
-        <v>60000</v>
-      </c>
-      <c r="AQ39" s="13" t="n">
-        <v>233400</v>
-      </c>
-      <c r="AR39" s="13" t="n">
-        <v>45137</v>
-      </c>
       <c r="AS39" s="13" t="n">
-        <v>293400</v>
+        <v>232320</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>232320</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>0</v>
+        <v>88712</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>88712</v>
+        <v>357560</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>357560</v>
+        <v>194398</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>194398</v>
+        <v>76169</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>76169</v>
+        <v>104791</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>104791</v>
+        <v>150000</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>40000</v>
+        <v>121672</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,113 +7297,113 @@
       <c r="R40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S40" s="16" t="s">
-        <v>58</v>
+      <c r="S40" s="16" t="n">
+        <v>350036</v>
       </c>
       <c r="T40" s="16" t="n">
-        <v>350036</v>
+        <v>314605</v>
       </c>
       <c r="U40" s="16" t="n">
-        <v>314605</v>
+        <v>749791</v>
       </c>
       <c r="V40" s="16" t="n">
-        <v>749791</v>
+        <v>521049</v>
       </c>
       <c r="W40" s="16" t="n">
-        <v>521049</v>
+        <v>617582</v>
       </c>
       <c r="X40" s="16" t="n">
-        <v>617582</v>
+        <v>652210</v>
       </c>
       <c r="Y40" s="16" t="n">
-        <v>652210</v>
+        <v>411366</v>
       </c>
       <c r="Z40" s="16" t="n">
-        <v>411366</v>
+        <v>554704</v>
       </c>
       <c r="AA40" s="16" t="n">
-        <v>554704</v>
+        <v>16900</v>
       </c>
       <c r="AB40" s="16" t="n">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="16" t="n">
-        <v>0</v>
+        <v>384770</v>
       </c>
       <c r="AD40" s="16" t="n">
-        <v>384770</v>
+        <v>225058</v>
       </c>
       <c r="AE40" s="16" t="n">
-        <v>225058</v>
+        <v>66194</v>
       </c>
       <c r="AF40" s="16" t="n">
-        <v>66194</v>
+        <v>462605</v>
       </c>
       <c r="AG40" s="16" t="n">
-        <v>462605</v>
+        <v>590694</v>
       </c>
       <c r="AH40" s="16" t="n">
-        <v>590694</v>
+        <v>623854</v>
       </c>
       <c r="AI40" s="16" t="n">
-        <v>623854</v>
+        <v>223425</v>
       </c>
       <c r="AJ40" s="16" t="n">
-        <v>223425</v>
+        <v>264913</v>
       </c>
       <c r="AK40" s="16" t="n">
-        <v>264913</v>
+        <v>637709</v>
       </c>
       <c r="AL40" s="16" t="n">
-        <v>637709</v>
+        <v>814046</v>
       </c>
       <c r="AM40" s="16" t="n">
-        <v>814046</v>
+        <v>681703</v>
       </c>
       <c r="AN40" s="16" t="n">
-        <v>681703</v>
+        <v>351924</v>
       </c>
       <c r="AO40" s="16" t="n">
-        <v>351924</v>
+        <v>175467</v>
       </c>
       <c r="AP40" s="16" t="n">
-        <v>175467</v>
+        <v>155901</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>155901</v>
+        <v>186323</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>186323</v>
+        <v>76001</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>76001</v>
+        <v>146648</v>
       </c>
       <c r="AT40" s="16" t="n">
-        <v>146648</v>
+        <v>121962</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>121962</v>
+        <v>497348</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>497348</v>
+        <v>801639</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>801639</v>
+        <v>883420</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>883420</v>
+        <v>457990</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>457990</v>
+        <v>106084</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>106084</v>
+        <v>448907</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>448907</v>
+        <v>118773</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>118773</v>
+        <v>457162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7456,113 +7456,113 @@
       <c r="R41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S41" s="13" t="s">
-        <v>58</v>
+      <c r="S41" s="13" t="n">
+        <v>127596</v>
       </c>
       <c r="T41" s="13" t="n">
-        <v>127596</v>
+        <v>26000</v>
       </c>
       <c r="U41" s="13" t="n">
-        <v>26000</v>
+        <v>72010</v>
       </c>
       <c r="V41" s="13" t="n">
-        <v>72010</v>
+        <v>41800</v>
       </c>
       <c r="W41" s="13" t="n">
-        <v>41800</v>
+        <v>279000</v>
       </c>
       <c r="X41" s="13" t="n">
+        <v>446982</v>
+      </c>
+      <c r="Y41" s="13" t="n">
+        <v>32396</v>
+      </c>
+      <c r="Z41" s="13" t="n">
+        <v>33668</v>
+      </c>
+      <c r="AA41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="13" t="n">
+        <v>203696</v>
+      </c>
+      <c r="AD41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="AI41" s="13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AJ41" s="13" t="n">
+        <v>247971</v>
+      </c>
+      <c r="AK41" s="13" t="n">
+        <v>135324</v>
+      </c>
+      <c r="AL41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="13" t="n">
+        <v>179340</v>
+      </c>
+      <c r="AN41" s="13" t="n">
+        <v>180894</v>
+      </c>
+      <c r="AO41" s="13" t="n">
+        <v>4430</v>
+      </c>
+      <c r="AP41" s="13" t="n">
+        <v>44254</v>
+      </c>
+      <c r="AQ41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="13" t="n">
+        <v>279450</v>
+      </c>
+      <c r="AX41" s="13" t="n">
+        <v>362381</v>
+      </c>
+      <c r="AY41" s="13" t="n">
         <v>279000</v>
       </c>
-      <c r="Y41" s="13" t="n">
-        <v>446982</v>
-      </c>
-      <c r="Z41" s="13" t="n">
-        <v>32396</v>
-      </c>
-      <c r="AA41" s="13" t="n">
-        <v>33668</v>
-      </c>
-      <c r="AB41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="13" t="n">
-        <v>203696</v>
-      </c>
-      <c r="AE41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="13" t="n">
-        <v>20000</v>
-      </c>
-      <c r="AJ41" s="13" t="n">
-        <v>15000</v>
-      </c>
-      <c r="AK41" s="13" t="n">
-        <v>247971</v>
-      </c>
-      <c r="AL41" s="13" t="n">
-        <v>135324</v>
-      </c>
-      <c r="AM41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="13" t="n">
-        <v>179340</v>
-      </c>
-      <c r="AO41" s="13" t="n">
-        <v>180894</v>
-      </c>
-      <c r="AP41" s="13" t="n">
-        <v>4430</v>
-      </c>
-      <c r="AQ41" s="13" t="n">
-        <v>44254</v>
-      </c>
-      <c r="AR41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="13" t="n">
-        <v>279450</v>
-      </c>
-      <c r="AY41" s="13" t="n">
-        <v>362381</v>
-      </c>
       <c r="AZ41" s="13" t="n">
-        <v>279000</v>
+        <v>328852</v>
       </c>
       <c r="BA41" s="13" t="n">
-        <v>328852</v>
+        <v>70000</v>
       </c>
       <c r="BB41" s="13" t="n">
-        <v>70000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,113 +7615,113 @@
       <c r="R42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S42" s="16" t="s">
-        <v>58</v>
+      <c r="S42" s="16" t="n">
+        <v>9808340</v>
       </c>
       <c r="T42" s="16" t="n">
-        <v>9808340</v>
+        <v>26264800</v>
       </c>
       <c r="U42" s="16" t="n">
-        <v>26264800</v>
+        <v>25781960</v>
       </c>
       <c r="V42" s="16" t="n">
-        <v>25781960</v>
+        <v>14958930</v>
       </c>
       <c r="W42" s="16" t="n">
-        <v>14958930</v>
+        <v>3650278</v>
       </c>
       <c r="X42" s="16" t="n">
-        <v>3650278</v>
+        <v>3313698</v>
       </c>
       <c r="Y42" s="16" t="n">
-        <v>3313698</v>
+        <v>29056350</v>
       </c>
       <c r="Z42" s="16" t="n">
-        <v>29056350</v>
+        <v>18249450</v>
       </c>
       <c r="AA42" s="16" t="n">
-        <v>18249450</v>
+        <v>3319694</v>
       </c>
       <c r="AB42" s="16" t="n">
-        <v>3319694</v>
+        <v>5095000</v>
       </c>
       <c r="AC42" s="16" t="n">
-        <v>5095000</v>
+        <v>16123430</v>
       </c>
       <c r="AD42" s="16" t="n">
-        <v>16123430</v>
+        <v>5246250</v>
       </c>
       <c r="AE42" s="16" t="n">
-        <v>5246250</v>
+        <v>10389950</v>
       </c>
       <c r="AF42" s="16" t="n">
-        <v>10389950</v>
+        <v>4586768</v>
       </c>
       <c r="AG42" s="16" t="n">
-        <v>4586768</v>
+        <v>55923024</v>
       </c>
       <c r="AH42" s="16" t="n">
-        <v>55923024</v>
+        <v>24923336</v>
       </c>
       <c r="AI42" s="16" t="n">
-        <v>24923336</v>
+        <v>51018720</v>
       </c>
       <c r="AJ42" s="16" t="n">
-        <v>51018720</v>
+        <v>10668860</v>
       </c>
       <c r="AK42" s="16" t="n">
-        <v>10668860</v>
+        <v>34980130</v>
       </c>
       <c r="AL42" s="16" t="n">
-        <v>34980130</v>
+        <v>44978050</v>
       </c>
       <c r="AM42" s="16" t="n">
-        <v>44978050</v>
+        <v>19983750</v>
       </c>
       <c r="AN42" s="16" t="n">
-        <v>19983750</v>
+        <v>17294200</v>
       </c>
       <c r="AO42" s="16" t="n">
-        <v>17294200</v>
+        <v>22223050</v>
       </c>
       <c r="AP42" s="16" t="n">
-        <v>22223050</v>
+        <v>9391220</v>
       </c>
       <c r="AQ42" s="16" t="n">
-        <v>9391220</v>
+        <v>38699600</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>38699600</v>
+        <v>34421030</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>34421030</v>
+        <v>26777450</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>26777450</v>
+        <v>28959360</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>28959360</v>
+        <v>20009370</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>20009370</v>
+        <v>7543550</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>7543550</v>
+        <v>32461460</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>32461460</v>
+        <v>49846060</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>49846060</v>
+        <v>31931740</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>31931740</v>
+        <v>35708130</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>35708130</v>
+        <v>23398550</v>
       </c>
       <c r="BB42" s="16" t="n">
-        <v>23398550</v>
+        <v>49388440</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7774,113 +7774,113 @@
       <c r="R43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S43" s="13" t="s">
-        <v>58</v>
+      <c r="S43" s="13" t="n">
+        <v>909718</v>
       </c>
       <c r="T43" s="13" t="n">
-        <v>909718</v>
+        <v>4172276</v>
       </c>
       <c r="U43" s="13" t="n">
-        <v>4172276</v>
+        <v>1689961</v>
       </c>
       <c r="V43" s="13" t="n">
-        <v>1689961</v>
+        <v>3586174</v>
       </c>
       <c r="W43" s="13" t="n">
-        <v>3586174</v>
+        <v>1869520</v>
       </c>
       <c r="X43" s="13" t="n">
-        <v>1869520</v>
+        <v>1701000</v>
       </c>
       <c r="Y43" s="13" t="n">
-        <v>1701000</v>
+        <v>2866590</v>
       </c>
       <c r="Z43" s="13" t="n">
-        <v>2866590</v>
+        <v>4088530</v>
       </c>
       <c r="AA43" s="13" t="n">
-        <v>4088530</v>
+        <v>5302230</v>
       </c>
       <c r="AB43" s="13" t="n">
-        <v>5302230</v>
+        <v>5243040</v>
       </c>
       <c r="AC43" s="13" t="n">
-        <v>5243040</v>
+        <v>640827</v>
       </c>
       <c r="AD43" s="13" t="n">
-        <v>640827</v>
+        <v>1091320</v>
       </c>
       <c r="AE43" s="13" t="n">
-        <v>1091320</v>
+        <v>1386230</v>
       </c>
       <c r="AF43" s="13" t="n">
-        <v>1386230</v>
+        <v>3985760</v>
       </c>
       <c r="AG43" s="13" t="n">
-        <v>3985760</v>
+        <v>2484060</v>
       </c>
       <c r="AH43" s="13" t="n">
-        <v>2484060</v>
+        <v>4816465</v>
       </c>
       <c r="AI43" s="13" t="n">
-        <v>4816465</v>
+        <v>3258720</v>
       </c>
       <c r="AJ43" s="13" t="n">
-        <v>3258720</v>
+        <v>2574820</v>
       </c>
       <c r="AK43" s="13" t="n">
-        <v>2574820</v>
+        <v>3669880</v>
       </c>
       <c r="AL43" s="13" t="n">
-        <v>3669880</v>
+        <v>1077780</v>
       </c>
       <c r="AM43" s="13" t="n">
-        <v>1077780</v>
+        <v>1147800</v>
       </c>
       <c r="AN43" s="13" t="n">
-        <v>1147800</v>
+        <v>3867980</v>
       </c>
       <c r="AO43" s="13" t="n">
-        <v>3867980</v>
+        <v>1546240</v>
       </c>
       <c r="AP43" s="13" t="n">
-        <v>1546240</v>
+        <v>1342800</v>
       </c>
       <c r="AQ43" s="13" t="n">
-        <v>1342800</v>
+        <v>4116468</v>
       </c>
       <c r="AR43" s="13" t="n">
-        <v>4116468</v>
+        <v>3355025</v>
       </c>
       <c r="AS43" s="13" t="n">
-        <v>3355025</v>
+        <v>2249560</v>
       </c>
       <c r="AT43" s="13" t="n">
-        <v>2249560</v>
+        <v>1702765</v>
       </c>
       <c r="AU43" s="13" t="n">
-        <v>1702765</v>
+        <v>3884700</v>
       </c>
       <c r="AV43" s="13" t="n">
-        <v>3884700</v>
+        <v>2906720</v>
       </c>
       <c r="AW43" s="13" t="n">
-        <v>2906720</v>
+        <v>868740</v>
       </c>
       <c r="AX43" s="13" t="n">
-        <v>868740</v>
+        <v>1691420</v>
       </c>
       <c r="AY43" s="13" t="n">
-        <v>1691420</v>
+        <v>2614182</v>
       </c>
       <c r="AZ43" s="13" t="n">
-        <v>2614182</v>
+        <v>2450040</v>
       </c>
       <c r="BA43" s="13" t="n">
-        <v>2450040</v>
+        <v>53200</v>
       </c>
       <c r="BB43" s="13" t="n">
-        <v>53200</v>
+        <v>1836475</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7966,11 +7966,11 @@
       <c r="AC44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD44" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE44" s="16" t="n">
-        <v>0</v>
+      <c r="AD44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF44" s="16" t="s">
         <v>58</v>
@@ -7999,8 +7999,8 @@
       <c r="AN44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO44" s="16" t="s">
-        <v>58</v>
+      <c r="AO44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP44" s="16" t="n">
         <v>0</v>
@@ -8092,14 +8092,14 @@
       <c r="R45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S45" s="13" t="s">
-        <v>58</v>
+      <c r="S45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U45" s="13" t="n">
-        <v>0</v>
+      <c r="U45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="V45" s="13" t="s">
         <v>58</v>
@@ -8250,112 +8250,112 @@
         <v>0</v>
       </c>
       <c r="S46" s="18" t="n">
-        <v>0</v>
+        <v>11547770</v>
       </c>
       <c r="T46" s="18" t="n">
-        <v>11547770</v>
+        <v>31070961</v>
       </c>
       <c r="U46" s="18" t="n">
-        <v>31070961</v>
+        <v>28293722</v>
       </c>
       <c r="V46" s="18" t="n">
-        <v>28293722</v>
+        <v>19401203</v>
       </c>
       <c r="W46" s="18" t="n">
-        <v>19401203</v>
+        <v>6475060</v>
       </c>
       <c r="X46" s="18" t="n">
-        <v>6475060</v>
+        <v>6113890</v>
       </c>
       <c r="Y46" s="18" t="n">
-        <v>6113890</v>
+        <v>32366702</v>
       </c>
       <c r="Z46" s="18" t="n">
-        <v>32366702</v>
+        <v>23042632</v>
       </c>
       <c r="AA46" s="18" t="n">
-        <v>23042632</v>
+        <v>8932224</v>
       </c>
       <c r="AB46" s="18" t="n">
-        <v>8932224</v>
+        <v>10338040</v>
       </c>
       <c r="AC46" s="18" t="n">
-        <v>10338040</v>
+        <v>17352723</v>
       </c>
       <c r="AD46" s="18" t="n">
-        <v>17352723</v>
+        <v>6621308</v>
       </c>
       <c r="AE46" s="18" t="n">
-        <v>6621308</v>
+        <v>12076974</v>
       </c>
       <c r="AF46" s="18" t="n">
-        <v>12076974</v>
+        <v>9147663</v>
       </c>
       <c r="AG46" s="18" t="n">
-        <v>9147663</v>
+        <v>59208738</v>
       </c>
       <c r="AH46" s="18" t="n">
-        <v>59208738</v>
+        <v>30425895</v>
       </c>
       <c r="AI46" s="18" t="n">
-        <v>30425895</v>
+        <v>54515865</v>
       </c>
       <c r="AJ46" s="18" t="n">
-        <v>54515865</v>
+        <v>13932604</v>
       </c>
       <c r="AK46" s="18" t="n">
-        <v>13932604</v>
+        <v>39630403</v>
       </c>
       <c r="AL46" s="18" t="n">
-        <v>39630403</v>
+        <v>46869876</v>
       </c>
       <c r="AM46" s="18" t="n">
-        <v>46869876</v>
+        <v>21992593</v>
       </c>
       <c r="AN46" s="18" t="n">
-        <v>21992593</v>
+        <v>21694998</v>
       </c>
       <c r="AO46" s="18" t="n">
-        <v>21694998</v>
+        <v>24009187</v>
       </c>
       <c r="AP46" s="18" t="n">
-        <v>24009187</v>
+        <v>11167575</v>
       </c>
       <c r="AQ46" s="18" t="n">
-        <v>11167575</v>
+        <v>43047528</v>
       </c>
       <c r="AR46" s="18" t="n">
-        <v>43047528</v>
+        <v>38145456</v>
       </c>
       <c r="AS46" s="18" t="n">
-        <v>38145456</v>
+        <v>29405978</v>
       </c>
       <c r="AT46" s="18" t="n">
-        <v>29405978</v>
+        <v>30784087</v>
       </c>
       <c r="AU46" s="18" t="n">
-        <v>30784087</v>
+        <v>24480130</v>
       </c>
       <c r="AV46" s="18" t="n">
-        <v>24480130</v>
+        <v>11609469</v>
       </c>
       <c r="AW46" s="18" t="n">
-        <v>11609469</v>
+        <v>34687468</v>
       </c>
       <c r="AX46" s="18" t="n">
-        <v>34687468</v>
+        <v>52434020</v>
       </c>
       <c r="AY46" s="18" t="n">
-        <v>52434020</v>
+        <v>35035797</v>
       </c>
       <c r="AZ46" s="18" t="n">
-        <v>35035797</v>
+        <v>39085929</v>
       </c>
       <c r="BA46" s="18" t="n">
-        <v>39085929</v>
+        <v>23680523</v>
       </c>
       <c r="BB46" s="18" t="n">
-        <v>23680523</v>
+        <v>51928749</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8465,8 +8465,8 @@
       <c r="R48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S48" s="13" t="s">
-        <v>58</v>
+      <c r="S48" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T48" s="13" t="n">
         <v>0</v>
@@ -8501,14 +8501,14 @@
       <c r="AD48" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE48" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG48" s="13" t="n">
-        <v>0</v>
+      <c r="AE48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH48" s="13" t="s">
         <v>58</v>
@@ -8531,8 +8531,8 @@
       <c r="AN48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO48" s="13" t="s">
-        <v>58</v>
+      <c r="AO48" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP48" s="13" t="n">
         <v>0</v>
@@ -8624,8 +8624,8 @@
       <c r="R49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S49" s="16" t="s">
-        <v>58</v>
+      <c r="S49" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T49" s="16" t="n">
         <v>0</v>
@@ -8660,14 +8660,14 @@
       <c r="AD49" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE49" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG49" s="16" t="n">
-        <v>0</v>
+      <c r="AE49" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF49" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH49" s="16" t="s">
         <v>58</v>
@@ -8690,8 +8690,8 @@
       <c r="AN49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO49" s="16" t="s">
-        <v>58</v>
+      <c r="AO49" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP49" s="16" t="n">
         <v>0</v>
@@ -8783,8 +8783,8 @@
       <c r="R50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S50" s="13" t="s">
-        <v>58</v>
+      <c r="S50" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T50" s="13" t="n">
         <v>0</v>
@@ -8819,14 +8819,14 @@
       <c r="AD50" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE50" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG50" s="13" t="n">
-        <v>0</v>
+      <c r="AE50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF50" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH50" s="13" t="s">
         <v>58</v>
@@ -8849,8 +8849,8 @@
       <c r="AN50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO50" s="13" t="s">
-        <v>58</v>
+      <c r="AO50" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP50" s="13" t="n">
         <v>0</v>
@@ -8942,8 +8942,8 @@
       <c r="R51" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S51" s="16" t="s">
-        <v>58</v>
+      <c r="S51" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T51" s="16" t="n">
         <v>0</v>
@@ -8978,14 +8978,14 @@
       <c r="AD51" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE51" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG51" s="16" t="n">
-        <v>0</v>
+      <c r="AE51" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF51" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH51" s="16" t="s">
         <v>58</v>
@@ -9008,8 +9008,8 @@
       <c r="AN51" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO51" s="16" t="s">
-        <v>58</v>
+      <c r="AO51" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP51" s="16" t="n">
         <v>0</v>
@@ -9101,14 +9101,14 @@
       <c r="R52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S52" s="13" t="s">
-        <v>58</v>
+      <c r="S52" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T52" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U52" s="13" t="n">
-        <v>0</v>
+      <c r="U52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="V52" s="13" t="s">
         <v>58</v>
@@ -9116,8 +9116,8 @@
       <c r="W52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X52" s="13" t="s">
-        <v>58</v>
+      <c r="X52" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y52" s="13" t="n">
         <v>0</v>
@@ -9137,14 +9137,14 @@
       <c r="AD52" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE52" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG52" s="13" t="n">
-        <v>0</v>
+      <c r="AE52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH52" s="13" t="s">
         <v>58</v>
@@ -9155,20 +9155,20 @@
       <c r="AJ52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL52" s="13" t="n">
+      <c r="AK52" s="13" t="n">
         <v>366798</v>
       </c>
-      <c r="AM52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN52" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO52" s="13" t="s">
-        <v>58</v>
+      <c r="AL52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO52" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP52" s="13" t="n">
         <v>0</v>
@@ -9329,8 +9329,8 @@
       <c r="AO53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP53" s="16" t="s">
-        <v>58</v>
+      <c r="AP53" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ53" s="16" t="n">
         <v>0</v>
@@ -9419,14 +9419,14 @@
       <c r="R54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S54" s="13" t="s">
-        <v>58</v>
+      <c r="S54" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T54" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U54" s="13" t="n">
-        <v>0</v>
+      <c r="U54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="V54" s="13" t="s">
         <v>58</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="AK55" s="18" t="n">
-        <v>0</v>
+        <v>366798</v>
       </c>
       <c r="AL55" s="18" t="n">
-        <v>366798</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="18" t="n">
         <v>0</v>
@@ -9798,68 +9798,68 @@
       <c r="T57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="13" t="s">
-        <v>58</v>
+      <c r="U57" s="13" t="n">
+        <v>8</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Y57" s="13" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AB57" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC57" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD57" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE57" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF57" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG57" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH57" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ57" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="AC57" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD57" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE57" s="13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF57" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG57" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH57" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI57" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK57" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL57" s="13" t="s">
+      <c r="AK57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL57" s="13" t="n">
         <v>58</v>
       </c>
       <c r="AM57" s="13" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO57" s="13" t="n">
         <v>21</v>
+      </c>
+      <c r="AO57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP57" s="13" t="s">
         <v>58</v>
@@ -10017,47 +10017,47 @@
       <c r="AN58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP58" s="16" t="n">
+      <c r="AO58" s="16" t="n">
         <v>1751428</v>
       </c>
-      <c r="AQ58" s="16" t="s">
-        <v>58</v>
+      <c r="AP58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ58" s="16" t="n">
+        <v>377858</v>
       </c>
       <c r="AR58" s="16" t="n">
-        <v>377858</v>
+        <v>480437</v>
       </c>
       <c r="AS58" s="16" t="n">
-        <v>480437</v>
+        <v>113565</v>
       </c>
       <c r="AT58" s="16" t="n">
-        <v>113565</v>
+        <v>128507</v>
       </c>
       <c r="AU58" s="16" t="n">
-        <v>128507</v>
-      </c>
-      <c r="AV58" s="16" t="n">
         <v>498767</v>
       </c>
-      <c r="AW58" s="16" t="s">
-        <v>58</v>
+      <c r="AV58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW58" s="16" t="n">
+        <v>30187</v>
       </c>
       <c r="AX58" s="16" t="n">
-        <v>30187</v>
+        <v>11850</v>
       </c>
       <c r="AY58" s="16" t="n">
-        <v>11850</v>
+        <v>354846</v>
       </c>
       <c r="AZ58" s="16" t="n">
-        <v>354846</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="16" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="BB58" s="16" t="n">
-        <v>180000</v>
+        <v>1078419</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10114,107 +10114,107 @@
       <c r="T59" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="20" t="s">
-        <v>58</v>
+      <c r="U59" s="20" t="n">
+        <v>8</v>
       </c>
       <c r="V59" s="20" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="W59" s="20" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="X59" s="20" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Y59" s="20" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Z59" s="20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA59" s="20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AB59" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC59" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD59" s="20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE59" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF59" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG59" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH59" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ59" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="AC59" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD59" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE59" s="20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF59" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG59" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH59" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI59" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="20" t="n">
-        <v>51</v>
-      </c>
       <c r="AK59" s="20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="20" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AM59" s="20" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="AN59" s="20" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AO59" s="20" t="n">
-        <v>21</v>
+        <v>1751428</v>
       </c>
       <c r="AP59" s="20" t="n">
-        <v>1751428</v>
+        <v>0</v>
       </c>
       <c r="AQ59" s="20" t="n">
-        <v>0</v>
+        <v>377858</v>
       </c>
       <c r="AR59" s="20" t="n">
-        <v>377858</v>
+        <v>480437</v>
       </c>
       <c r="AS59" s="20" t="n">
-        <v>480437</v>
+        <v>113565</v>
       </c>
       <c r="AT59" s="20" t="n">
-        <v>113565</v>
+        <v>128507</v>
       </c>
       <c r="AU59" s="20" t="n">
-        <v>128507</v>
+        <v>498767</v>
       </c>
       <c r="AV59" s="20" t="n">
-        <v>498767</v>
+        <v>0</v>
       </c>
       <c r="AW59" s="20" t="n">
-        <v>0</v>
+        <v>30187</v>
       </c>
       <c r="AX59" s="20" t="n">
-        <v>30187</v>
+        <v>11850</v>
       </c>
       <c r="AY59" s="20" t="n">
-        <v>11850</v>
+        <v>354846</v>
       </c>
       <c r="AZ59" s="20" t="n">
-        <v>354846</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="20" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="BB59" s="20" t="n">
-        <v>180000</v>
+        <v>1078419</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10330,8 +10330,8 @@
       <c r="T61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="13" t="s">
-        <v>58</v>
+      <c r="U61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="13" t="n">
         <v>0</v>
@@ -10360,14 +10360,14 @@
       <c r="AD61" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE61" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG61" s="13" t="n">
-        <v>0</v>
+      <c r="AE61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH61" s="13" t="s">
         <v>58</v>
@@ -10384,11 +10384,11 @@
       <c r="AL61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN61" s="13" t="n">
-        <v>0</v>
+      <c r="AM61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO61" s="13" t="s">
         <v>58</v>
@@ -10489,44 +10489,44 @@
       <c r="T62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="16" t="s">
-        <v>58</v>
+      <c r="U62" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V62" s="16" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W62" s="16" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X62" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Y62" s="16" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="Z62" s="16" t="n">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AB62" s="16" t="n">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AC62" s="16" t="n">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="AD62" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE62" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG62" s="16" t="n">
-        <v>0</v>
+      <c r="AE62" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF62" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH62" s="16" t="s">
         <v>58</v>
@@ -10543,11 +10543,11 @@
       <c r="AL62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM62" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN62" s="16" t="n">
-        <v>0</v>
+      <c r="AM62" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO62" s="16" t="s">
         <v>58</v>
@@ -10573,23 +10573,23 @@
       <c r="AV62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AW62" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX62" s="16" t="n">
+      <c r="AW62" s="16" t="n">
         <v>-120</v>
       </c>
+      <c r="AX62" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AY62" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AZ62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA62" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB62" s="16" t="n">
-        <v>0</v>
+      <c r="BA62" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB62" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10648,8 +10648,8 @@
       <c r="T63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>58</v>
+      <c r="U63" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V63" s="13" t="n">
         <v>0</v>
@@ -10678,14 +10678,14 @@
       <c r="AD63" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE63" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG63" s="13" t="n">
-        <v>0</v>
+      <c r="AE63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF63" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH63" s="13" t="s">
         <v>58</v>
@@ -10702,11 +10702,11 @@
       <c r="AL63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN63" s="13" t="n">
-        <v>0</v>
+      <c r="AM63" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO63" s="13" t="s">
         <v>58</v>
@@ -10807,17 +10807,17 @@
       <c r="T64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U64" s="16" t="s">
-        <v>58</v>
+      <c r="U64" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V64" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W64" s="16" t="n">
-        <v>0</v>
+        <v>-108000</v>
       </c>
       <c r="X64" s="16" t="n">
-        <v>-108000</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="16" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="AC64" s="16" t="n">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="AD64" s="16" t="n">
-        <v>-450</v>
-      </c>
-      <c r="AE64" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG64" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF64" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH64" s="16" t="s">
         <v>58</v>
@@ -10858,17 +10858,17 @@
       <c r="AK64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL64" s="16" t="s">
-        <v>58</v>
+      <c r="AL64" s="16" t="n">
+        <v>-414</v>
       </c>
       <c r="AM64" s="16" t="n">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AO64" s="16" t="n">
-        <v>0</v>
+      <c r="AO64" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP64" s="16" t="s">
         <v>58</v>
@@ -10876,38 +10876,38 @@
       <c r="AQ64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR64" s="16" t="s">
-        <v>58</v>
+      <c r="AR64" s="16" t="n">
+        <v>-62490</v>
       </c>
       <c r="AS64" s="16" t="n">
-        <v>-62490</v>
-      </c>
-      <c r="AT64" s="16" t="n">
         <v>-6120</v>
       </c>
+      <c r="AT64" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AU64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AV64" s="16" t="s">
-        <v>58</v>
+      <c r="AV64" s="16" t="n">
+        <v>-933650</v>
       </c>
       <c r="AW64" s="16" t="n">
-        <v>-933650</v>
-      </c>
-      <c r="AX64" s="16" t="n">
         <v>-1884400</v>
       </c>
-      <c r="AY64" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ64" s="16" t="n">
+      <c r="AX64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY64" s="16" t="n">
         <v>-25950</v>
       </c>
-      <c r="BA64" s="16" t="s">
-        <v>58</v>
+      <c r="AZ64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA64" s="16" t="n">
+        <v>-4750</v>
       </c>
       <c r="BB64" s="16" t="n">
-        <v>-4750</v>
+        <v>-1200000</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10966,14 +10966,14 @@
       <c r="T65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="13" t="s">
-        <v>58</v>
+      <c r="U65" s="13" t="n">
+        <v>-10927</v>
       </c>
       <c r="V65" s="13" t="n">
-        <v>-10927</v>
+        <v>-800</v>
       </c>
       <c r="W65" s="13" t="n">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="X65" s="13" t="n">
         <v>0</v>
@@ -10991,34 +10991,34 @@
         <v>0</v>
       </c>
       <c r="AC65" s="13" t="n">
-        <v>0</v>
+        <v>-471</v>
       </c>
       <c r="AD65" s="13" t="n">
-        <v>-471</v>
-      </c>
-      <c r="AE65" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF65" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG65" s="13" t="n">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AH65" s="13" t="n">
-        <v>-2000</v>
+        <v>-5000</v>
       </c>
       <c r="AI65" s="13" t="n">
-        <v>-5000</v>
+        <v>-25720</v>
       </c>
       <c r="AJ65" s="13" t="n">
-        <v>-25720</v>
+        <v>-21000</v>
       </c>
       <c r="AK65" s="13" t="n">
-        <v>-21000</v>
+        <v>-4860</v>
       </c>
       <c r="AL65" s="13" t="n">
-        <v>-4860</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="13" t="n">
         <v>0</v>
@@ -11026,8 +11026,8 @@
       <c r="AN65" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO65" s="13" t="n">
-        <v>0</v>
+      <c r="AO65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP65" s="13" t="s">
         <v>58</v>
@@ -11035,32 +11035,32 @@
       <c r="AQ65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR65" s="13" t="s">
-        <v>58</v>
+      <c r="AR65" s="13" t="n">
+        <v>-13</v>
       </c>
       <c r="AS65" s="13" t="n">
-        <v>-13</v>
-      </c>
-      <c r="AT65" s="13" t="n">
         <v>-557600</v>
       </c>
+      <c r="AT65" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW65" s="13" t="n">
+      <c r="AV65" s="13" t="n">
         <v>-10000</v>
       </c>
+      <c r="AW65" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AX65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ65" s="13" t="n">
+      <c r="AY65" s="13" t="n">
         <v>-50</v>
+      </c>
+      <c r="AZ65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA65" s="13" t="s">
         <v>58</v>
@@ -11152,17 +11152,17 @@
       <c r="AC66" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD66" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE66" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG66" s="16" t="n">
-        <v>0</v>
+      <c r="AD66" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF66" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH66" s="16" t="s">
         <v>58</v>
@@ -11179,11 +11179,11 @@
       <c r="AL66" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM66" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN66" s="16" t="n">
-        <v>0</v>
+      <c r="AM66" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO66" s="16" t="s">
         <v>58</v>
@@ -11441,35 +11441,35 @@
       <c r="T68" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U68" s="18" t="s">
-        <v>58</v>
+      <c r="U68" s="18" t="n">
+        <v>-10927</v>
       </c>
       <c r="V68" s="18" t="n">
-        <v>-10927</v>
+        <v>-900</v>
       </c>
       <c r="W68" s="18" t="n">
-        <v>-900</v>
+        <v>-108000</v>
       </c>
       <c r="X68" s="18" t="n">
-        <v>-108000</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="18" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="Z68" s="18" t="n">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AB68" s="18" t="n">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="AC68" s="18" t="n">
-        <v>-1500</v>
+        <v>-921</v>
       </c>
       <c r="AD68" s="18" t="n">
-        <v>-921</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="18" t="n">
         <v>0</v>
@@ -11478,25 +11478,25 @@
         <v>0</v>
       </c>
       <c r="AG68" s="18" t="n">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="AH68" s="18" t="n">
-        <v>-2000</v>
+        <v>-5000</v>
       </c>
       <c r="AI68" s="18" t="n">
-        <v>-5000</v>
+        <v>-25720</v>
       </c>
       <c r="AJ68" s="18" t="n">
-        <v>-25720</v>
+        <v>-21000</v>
       </c>
       <c r="AK68" s="18" t="n">
-        <v>-21000</v>
+        <v>-4860</v>
       </c>
       <c r="AL68" s="18" t="n">
-        <v>-4860</v>
+        <v>-414</v>
       </c>
       <c r="AM68" s="18" t="n">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AN68" s="18" t="n">
         <v>0</v>
@@ -11511,37 +11511,37 @@
         <v>0</v>
       </c>
       <c r="AR68" s="18" t="n">
-        <v>0</v>
+        <v>-62503</v>
       </c>
       <c r="AS68" s="18" t="n">
-        <v>-62503</v>
+        <v>-563720</v>
       </c>
       <c r="AT68" s="18" t="n">
-        <v>-563720</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AV68" s="18" t="n">
-        <v>0</v>
+        <v>-943650</v>
       </c>
       <c r="AW68" s="18" t="n">
-        <v>-943650</v>
+        <v>-1884520</v>
       </c>
       <c r="AX68" s="18" t="n">
-        <v>-1884520</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="18" t="n">
-        <v>0</v>
+        <v>-26000</v>
       </c>
       <c r="AZ68" s="18" t="n">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="18" t="n">
-        <v>0</v>
+        <v>-4750</v>
       </c>
       <c r="BB68" s="18" t="n">
-        <v>-4750</v>
+        <v>-1200000</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11593,112 +11593,112 @@
         <v>0</v>
       </c>
       <c r="S69" s="20" t="n">
-        <v>0</v>
+        <v>11547770</v>
       </c>
       <c r="T69" s="20" t="n">
-        <v>11547770</v>
+        <v>31070961</v>
       </c>
       <c r="U69" s="20" t="n">
-        <v>31070961</v>
+        <v>28282803</v>
       </c>
       <c r="V69" s="20" t="n">
-        <v>28282803</v>
+        <v>19400331</v>
       </c>
       <c r="W69" s="20" t="n">
-        <v>19400331</v>
+        <v>6367072</v>
       </c>
       <c r="X69" s="20" t="n">
-        <v>6367072</v>
+        <v>6113920</v>
       </c>
       <c r="Y69" s="20" t="n">
-        <v>6113920</v>
+        <v>32316709</v>
       </c>
       <c r="Z69" s="20" t="n">
-        <v>32316709</v>
+        <v>23042643</v>
       </c>
       <c r="AA69" s="20" t="n">
-        <v>23042643</v>
+        <v>8932229</v>
       </c>
       <c r="AB69" s="20" t="n">
-        <v>8932229</v>
+        <v>10336543</v>
       </c>
       <c r="AC69" s="20" t="n">
-        <v>10336543</v>
+        <v>17351808</v>
       </c>
       <c r="AD69" s="20" t="n">
-        <v>17351808</v>
+        <v>6621321</v>
       </c>
       <c r="AE69" s="20" t="n">
-        <v>6621321</v>
+        <v>12076989</v>
       </c>
       <c r="AF69" s="20" t="n">
-        <v>12076989</v>
+        <v>9147667</v>
       </c>
       <c r="AG69" s="20" t="n">
-        <v>9147667</v>
+        <v>59206741</v>
       </c>
       <c r="AH69" s="20" t="n">
-        <v>59206741</v>
+        <v>30420895</v>
       </c>
       <c r="AI69" s="20" t="n">
-        <v>30420895</v>
+        <v>54490196</v>
       </c>
       <c r="AJ69" s="20" t="n">
-        <v>54490196</v>
+        <v>13911609</v>
       </c>
       <c r="AK69" s="20" t="n">
-        <v>13911609</v>
+        <v>39992341</v>
       </c>
       <c r="AL69" s="20" t="n">
-        <v>39992341</v>
+        <v>46869520</v>
       </c>
       <c r="AM69" s="20" t="n">
-        <v>46869520</v>
+        <v>21992602</v>
       </c>
       <c r="AN69" s="20" t="n">
-        <v>21992602</v>
+        <v>21695019</v>
       </c>
       <c r="AO69" s="20" t="n">
-        <v>21695019</v>
+        <v>25760615</v>
       </c>
       <c r="AP69" s="20" t="n">
-        <v>25760615</v>
+        <v>11167575</v>
       </c>
       <c r="AQ69" s="20" t="n">
-        <v>11167575</v>
+        <v>43425386</v>
       </c>
       <c r="AR69" s="20" t="n">
-        <v>43425386</v>
+        <v>38563390</v>
       </c>
       <c r="AS69" s="20" t="n">
-        <v>38563390</v>
+        <v>28955823</v>
       </c>
       <c r="AT69" s="20" t="n">
-        <v>28955823</v>
+        <v>30912594</v>
       </c>
       <c r="AU69" s="20" t="n">
-        <v>30912594</v>
+        <v>24978897</v>
       </c>
       <c r="AV69" s="20" t="n">
-        <v>24978897</v>
+        <v>10665819</v>
       </c>
       <c r="AW69" s="20" t="n">
-        <v>10665819</v>
+        <v>32833135</v>
       </c>
       <c r="AX69" s="20" t="n">
-        <v>32833135</v>
+        <v>52445870</v>
       </c>
       <c r="AY69" s="20" t="n">
-        <v>52445870</v>
+        <v>35364643</v>
       </c>
       <c r="AZ69" s="20" t="n">
-        <v>35364643</v>
+        <v>39085929</v>
       </c>
       <c r="BA69" s="20" t="n">
-        <v>39085929</v>
+        <v>23855773</v>
       </c>
       <c r="BB69" s="20" t="n">
-        <v>23855773</v>
+        <v>51807168</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12185,65 +12185,65 @@
       <c r="R76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S76" s="13" t="s">
-        <v>58</v>
+      <c r="S76" s="13" t="n">
+        <v>10307</v>
       </c>
       <c r="T76" s="13" t="n">
-        <v>10307</v>
+        <v>8157</v>
       </c>
       <c r="U76" s="13" t="n">
-        <v>8157</v>
+        <v>0</v>
       </c>
       <c r="V76" s="13" t="n">
-        <v>0</v>
+        <v>8585</v>
       </c>
       <c r="W76" s="13" t="n">
-        <v>8585</v>
+        <v>1718</v>
       </c>
       <c r="X76" s="13" t="n">
-        <v>1718</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Z76" s="13" t="n">
-        <v>0</v>
+        <v>4658</v>
       </c>
       <c r="AA76" s="13" t="n">
-        <v>4658</v>
+        <v>11754</v>
       </c>
       <c r="AB76" s="13" t="n">
-        <v>11754</v>
+        <v>0</v>
       </c>
       <c r="AC76" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AD76" s="13" t="n">
-        <v>0</v>
+        <v>2351</v>
       </c>
       <c r="AE76" s="13" t="n">
-        <v>2351</v>
+        <v>9399</v>
       </c>
       <c r="AF76" s="13" t="n">
-        <v>9399</v>
+        <v>3791</v>
       </c>
       <c r="AG76" s="13" t="n">
-        <v>3791</v>
+        <v>10909</v>
       </c>
       <c r="AH76" s="13" t="n">
-        <v>10909</v>
+        <v>1692</v>
       </c>
       <c r="AI76" s="13" t="n">
-        <v>1692</v>
+        <v>0</v>
       </c>
       <c r="AJ76" s="13" t="n">
-        <v>0</v>
+        <v>9330</v>
       </c>
       <c r="AK76" s="13" t="n">
-        <v>9330</v>
+        <v>10990</v>
       </c>
       <c r="AL76" s="13" t="n">
-        <v>10990</v>
+        <v>0</v>
       </c>
       <c r="AM76" s="13" t="n">
         <v>0</v>
@@ -12252,46 +12252,46 @@
         <v>0</v>
       </c>
       <c r="AO76" s="13" t="n">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AP76" s="13" t="n">
-        <v>3180</v>
+        <v>12370</v>
       </c>
       <c r="AQ76" s="13" t="n">
-        <v>12370</v>
+        <v>2392</v>
       </c>
       <c r="AR76" s="13" t="n">
-        <v>2392</v>
+        <v>15550</v>
       </c>
       <c r="AS76" s="13" t="n">
-        <v>15550</v>
+        <v>12313</v>
       </c>
       <c r="AT76" s="13" t="n">
-        <v>12313</v>
+        <v>0</v>
       </c>
       <c r="AU76" s="13" t="n">
-        <v>0</v>
+        <v>8291</v>
       </c>
       <c r="AV76" s="13" t="n">
-        <v>8291</v>
+        <v>21779</v>
       </c>
       <c r="AW76" s="13" t="n">
-        <v>21779</v>
+        <v>9420</v>
       </c>
       <c r="AX76" s="13" t="n">
-        <v>9420</v>
+        <v>9521</v>
       </c>
       <c r="AY76" s="13" t="n">
-        <v>9521</v>
+        <v>13099</v>
       </c>
       <c r="AZ76" s="13" t="n">
-        <v>13099</v>
+        <v>15150</v>
       </c>
       <c r="BA76" s="13" t="n">
-        <v>15150</v>
+        <v>4200</v>
       </c>
       <c r="BB76" s="13" t="n">
-        <v>4200</v>
+        <v>10984</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12344,113 +12344,113 @@
       <c r="R77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S77" s="16" t="s">
-        <v>58</v>
+      <c r="S77" s="16" t="n">
+        <v>47991</v>
       </c>
       <c r="T77" s="16" t="n">
-        <v>47991</v>
+        <v>60447</v>
       </c>
       <c r="U77" s="16" t="n">
-        <v>60447</v>
+        <v>161256</v>
       </c>
       <c r="V77" s="16" t="n">
-        <v>161256</v>
+        <v>212547</v>
       </c>
       <c r="W77" s="16" t="n">
-        <v>212547</v>
+        <v>307590</v>
       </c>
       <c r="X77" s="16" t="n">
-        <v>307590</v>
+        <v>247431</v>
       </c>
       <c r="Y77" s="16" t="n">
-        <v>247431</v>
+        <v>172764</v>
       </c>
       <c r="Z77" s="16" t="n">
-        <v>172764</v>
+        <v>108790</v>
       </c>
       <c r="AA77" s="16" t="n">
-        <v>108790</v>
+        <v>3322</v>
       </c>
       <c r="AB77" s="16" t="n">
-        <v>3322</v>
+        <v>0</v>
       </c>
       <c r="AC77" s="16" t="n">
-        <v>0</v>
+        <v>90097</v>
       </c>
       <c r="AD77" s="16" t="n">
-        <v>90097</v>
+        <v>58098</v>
       </c>
       <c r="AE77" s="16" t="n">
-        <v>58098</v>
+        <v>28297</v>
       </c>
       <c r="AF77" s="16" t="n">
-        <v>28297</v>
+        <v>151540</v>
       </c>
       <c r="AG77" s="16" t="n">
-        <v>151540</v>
+        <v>174366</v>
       </c>
       <c r="AH77" s="16" t="n">
-        <v>174366</v>
+        <v>242443</v>
       </c>
       <c r="AI77" s="16" t="n">
-        <v>242443</v>
+        <v>97097</v>
       </c>
       <c r="AJ77" s="16" t="n">
-        <v>97097</v>
+        <v>76651</v>
       </c>
       <c r="AK77" s="16" t="n">
-        <v>76651</v>
+        <v>177613</v>
       </c>
       <c r="AL77" s="16" t="n">
-        <v>177613</v>
+        <v>276757</v>
       </c>
       <c r="AM77" s="16" t="n">
-        <v>276757</v>
+        <v>145962</v>
       </c>
       <c r="AN77" s="16" t="n">
-        <v>145962</v>
+        <v>100349</v>
       </c>
       <c r="AO77" s="16" t="n">
-        <v>100349</v>
+        <v>16181</v>
       </c>
       <c r="AP77" s="16" t="n">
-        <v>16181</v>
+        <v>22580</v>
       </c>
       <c r="AQ77" s="16" t="n">
-        <v>22580</v>
+        <v>28980</v>
       </c>
       <c r="AR77" s="16" t="n">
-        <v>28980</v>
+        <v>7594</v>
       </c>
       <c r="AS77" s="16" t="n">
-        <v>7594</v>
+        <v>42876</v>
       </c>
       <c r="AT77" s="16" t="n">
-        <v>42876</v>
+        <v>23552</v>
       </c>
       <c r="AU77" s="16" t="n">
-        <v>23552</v>
+        <v>193370</v>
       </c>
       <c r="AV77" s="16" t="n">
-        <v>193370</v>
+        <v>278000</v>
       </c>
       <c r="AW77" s="16" t="n">
-        <v>278000</v>
+        <v>296732</v>
       </c>
       <c r="AX77" s="16" t="n">
-        <v>296732</v>
+        <v>196240</v>
       </c>
       <c r="AY77" s="16" t="n">
-        <v>196240</v>
+        <v>42434</v>
       </c>
       <c r="AZ77" s="16" t="n">
-        <v>42434</v>
+        <v>174774</v>
       </c>
       <c r="BA77" s="16" t="n">
-        <v>174774</v>
+        <v>63790</v>
       </c>
       <c r="BB77" s="16" t="n">
-        <v>63790</v>
+        <v>255561</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12503,41 +12503,41 @@
       <c r="R78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S78" s="13" t="s">
-        <v>58</v>
+      <c r="S78" s="13" t="n">
+        <v>6428</v>
       </c>
       <c r="T78" s="13" t="n">
-        <v>6428</v>
+        <v>1042</v>
       </c>
       <c r="U78" s="13" t="n">
-        <v>1042</v>
+        <v>3204</v>
       </c>
       <c r="V78" s="13" t="n">
-        <v>3204</v>
+        <v>2452</v>
       </c>
       <c r="W78" s="13" t="n">
-        <v>2452</v>
+        <v>14868</v>
       </c>
       <c r="X78" s="13" t="n">
-        <v>14868</v>
+        <v>27178</v>
       </c>
       <c r="Y78" s="13" t="n">
-        <v>27178</v>
+        <v>1824</v>
       </c>
       <c r="Z78" s="13" t="n">
-        <v>1824</v>
+        <v>1540</v>
       </c>
       <c r="AA78" s="13" t="n">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="AB78" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AC78" s="13" t="n">
-        <v>0</v>
+        <v>14254</v>
       </c>
       <c r="AD78" s="13" t="n">
-        <v>14254</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="13" t="n">
         <v>0</v>
@@ -12549,34 +12549,34 @@
         <v>0</v>
       </c>
       <c r="AH78" s="13" t="n">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="AI78" s="13" t="n">
-        <v>1351</v>
+        <v>1013</v>
       </c>
       <c r="AJ78" s="13" t="n">
-        <v>1013</v>
+        <v>13913</v>
       </c>
       <c r="AK78" s="13" t="n">
-        <v>13913</v>
+        <v>7443</v>
       </c>
       <c r="AL78" s="13" t="n">
-        <v>7443</v>
+        <v>0</v>
       </c>
       <c r="AM78" s="13" t="n">
-        <v>0</v>
+        <v>13451</v>
       </c>
       <c r="AN78" s="13" t="n">
-        <v>13451</v>
+        <v>13567</v>
       </c>
       <c r="AO78" s="13" t="n">
-        <v>13567</v>
+        <v>487</v>
       </c>
       <c r="AP78" s="13" t="n">
-        <v>487</v>
+        <v>3319</v>
       </c>
       <c r="AQ78" s="13" t="n">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="AR78" s="13" t="n">
         <v>0</v>
@@ -12594,22 +12594,22 @@
         <v>0</v>
       </c>
       <c r="AW78" s="13" t="n">
-        <v>0</v>
+        <v>56643</v>
       </c>
       <c r="AX78" s="13" t="n">
-        <v>56643</v>
+        <v>72284</v>
       </c>
       <c r="AY78" s="13" t="n">
-        <v>72284</v>
+        <v>53497</v>
       </c>
       <c r="AZ78" s="13" t="n">
-        <v>53497</v>
+        <v>57081</v>
       </c>
       <c r="BA78" s="13" t="n">
-        <v>57081</v>
+        <v>13422</v>
       </c>
       <c r="BB78" s="13" t="n">
-        <v>13422</v>
+        <v>23968</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12662,113 +12662,113 @@
       <c r="R79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S79" s="16" t="s">
-        <v>58</v>
+      <c r="S79" s="16" t="n">
+        <v>58107</v>
       </c>
       <c r="T79" s="16" t="n">
-        <v>58107</v>
+        <v>72192</v>
       </c>
       <c r="U79" s="16" t="n">
-        <v>72192</v>
+        <v>125966</v>
       </c>
       <c r="V79" s="16" t="n">
-        <v>125966</v>
+        <v>42461</v>
       </c>
       <c r="W79" s="16" t="n">
-        <v>42461</v>
+        <v>21704</v>
       </c>
       <c r="X79" s="16" t="n">
-        <v>21704</v>
+        <v>46637</v>
       </c>
       <c r="Y79" s="16" t="n">
-        <v>46637</v>
+        <v>128731</v>
       </c>
       <c r="Z79" s="16" t="n">
-        <v>128731</v>
+        <v>92702</v>
       </c>
       <c r="AA79" s="16" t="n">
-        <v>92702</v>
+        <v>19910</v>
       </c>
       <c r="AB79" s="16" t="n">
-        <v>19910</v>
+        <v>29784</v>
       </c>
       <c r="AC79" s="16" t="n">
-        <v>29784</v>
+        <v>97643</v>
       </c>
       <c r="AD79" s="16" t="n">
-        <v>97643</v>
+        <v>24411</v>
       </c>
       <c r="AE79" s="16" t="n">
-        <v>24411</v>
+        <v>47975</v>
       </c>
       <c r="AF79" s="16" t="n">
-        <v>47975</v>
+        <v>19510</v>
       </c>
       <c r="AG79" s="16" t="n">
-        <v>19510</v>
+        <v>475336</v>
       </c>
       <c r="AH79" s="16" t="n">
-        <v>475336</v>
+        <v>179921</v>
       </c>
       <c r="AI79" s="16" t="n">
-        <v>179921</v>
+        <v>429215</v>
       </c>
       <c r="AJ79" s="16" t="n">
-        <v>429215</v>
+        <v>55755</v>
       </c>
       <c r="AK79" s="16" t="n">
-        <v>55755</v>
+        <v>234475</v>
       </c>
       <c r="AL79" s="16" t="n">
-        <v>234475</v>
+        <v>339821</v>
       </c>
       <c r="AM79" s="16" t="n">
-        <v>339821</v>
+        <v>120407</v>
       </c>
       <c r="AN79" s="16" t="n">
-        <v>120407</v>
+        <v>104790</v>
       </c>
       <c r="AO79" s="16" t="n">
-        <v>104790</v>
+        <v>177478</v>
       </c>
       <c r="AP79" s="16" t="n">
-        <v>177478</v>
+        <v>110070</v>
       </c>
       <c r="AQ79" s="16" t="n">
-        <v>110070</v>
+        <v>349688</v>
       </c>
       <c r="AR79" s="16" t="n">
-        <v>349688</v>
+        <v>278033</v>
       </c>
       <c r="AS79" s="16" t="n">
-        <v>278033</v>
+        <v>232174</v>
       </c>
       <c r="AT79" s="16" t="n">
-        <v>232174</v>
+        <v>237308</v>
       </c>
       <c r="AU79" s="16" t="n">
-        <v>237308</v>
+        <v>210039</v>
       </c>
       <c r="AV79" s="16" t="n">
-        <v>210039</v>
+        <v>91005</v>
       </c>
       <c r="AW79" s="16" t="n">
-        <v>91005</v>
+        <v>389632</v>
       </c>
       <c r="AX79" s="16" t="n">
-        <v>389632</v>
+        <v>632033</v>
       </c>
       <c r="AY79" s="16" t="n">
-        <v>632033</v>
+        <v>348098</v>
       </c>
       <c r="AZ79" s="16" t="n">
-        <v>348098</v>
+        <v>457077</v>
       </c>
       <c r="BA79" s="16" t="n">
-        <v>457077</v>
+        <v>282117</v>
       </c>
       <c r="BB79" s="16" t="n">
-        <v>282117</v>
+        <v>724469</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12821,113 +12821,113 @@
       <c r="R80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S80" s="13" t="s">
-        <v>58</v>
+      <c r="S80" s="13" t="n">
+        <v>78922</v>
       </c>
       <c r="T80" s="13" t="n">
-        <v>78922</v>
+        <v>152315</v>
       </c>
       <c r="U80" s="13" t="n">
-        <v>152315</v>
+        <v>85005</v>
       </c>
       <c r="V80" s="13" t="n">
-        <v>85005</v>
+        <v>136854</v>
       </c>
       <c r="W80" s="13" t="n">
-        <v>136854</v>
+        <v>100090</v>
       </c>
       <c r="X80" s="13" t="n">
-        <v>100090</v>
+        <v>84238</v>
       </c>
       <c r="Y80" s="13" t="n">
-        <v>84238</v>
+        <v>125014</v>
       </c>
       <c r="Z80" s="13" t="n">
-        <v>125014</v>
+        <v>175782</v>
       </c>
       <c r="AA80" s="13" t="n">
-        <v>175782</v>
+        <v>230730</v>
       </c>
       <c r="AB80" s="13" t="n">
-        <v>230730</v>
+        <v>229744</v>
       </c>
       <c r="AC80" s="13" t="n">
-        <v>229744</v>
+        <v>20814</v>
       </c>
       <c r="AD80" s="13" t="n">
-        <v>20814</v>
+        <v>29141</v>
       </c>
       <c r="AE80" s="13" t="n">
-        <v>29141</v>
+        <v>137842</v>
       </c>
       <c r="AF80" s="13" t="n">
-        <v>137842</v>
+        <v>203737</v>
       </c>
       <c r="AG80" s="13" t="n">
-        <v>203737</v>
+        <v>97889</v>
       </c>
       <c r="AH80" s="13" t="n">
-        <v>97889</v>
+        <v>212354</v>
       </c>
       <c r="AI80" s="13" t="n">
-        <v>212354</v>
+        <v>183639</v>
       </c>
       <c r="AJ80" s="13" t="n">
-        <v>183639</v>
+        <v>146001</v>
       </c>
       <c r="AK80" s="13" t="n">
-        <v>146001</v>
+        <v>175094</v>
       </c>
       <c r="AL80" s="13" t="n">
-        <v>175094</v>
+        <v>51604</v>
       </c>
       <c r="AM80" s="13" t="n">
-        <v>51604</v>
+        <v>52676</v>
       </c>
       <c r="AN80" s="13" t="n">
-        <v>52676</v>
+        <v>220945</v>
       </c>
       <c r="AO80" s="13" t="n">
-        <v>220945</v>
+        <v>135164</v>
       </c>
       <c r="AP80" s="13" t="n">
-        <v>135164</v>
+        <v>53711</v>
       </c>
       <c r="AQ80" s="13" t="n">
-        <v>53711</v>
+        <v>170814</v>
       </c>
       <c r="AR80" s="13" t="n">
-        <v>170814</v>
+        <v>123193</v>
       </c>
       <c r="AS80" s="13" t="n">
-        <v>123193</v>
+        <v>439004</v>
       </c>
       <c r="AT80" s="13" t="n">
-        <v>439004</v>
+        <v>267284</v>
       </c>
       <c r="AU80" s="13" t="n">
-        <v>267284</v>
+        <v>652686</v>
       </c>
       <c r="AV80" s="13" t="n">
-        <v>652686</v>
+        <v>372804</v>
       </c>
       <c r="AW80" s="13" t="n">
-        <v>372804</v>
+        <v>125385</v>
       </c>
       <c r="AX80" s="13" t="n">
-        <v>125385</v>
+        <v>157486</v>
       </c>
       <c r="AY80" s="13" t="n">
-        <v>157486</v>
+        <v>368913</v>
       </c>
       <c r="AZ80" s="13" t="n">
-        <v>368913</v>
+        <v>249682</v>
       </c>
       <c r="BA80" s="13" t="n">
-        <v>249682</v>
+        <v>5320</v>
       </c>
       <c r="BB80" s="13" t="n">
-        <v>5320</v>
+        <v>210218</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13013,8 +13013,8 @@
       <c r="AC81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD81" s="16" t="s">
-        <v>58</v>
+      <c r="AD81" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE81" s="16" t="n">
         <v>0</v>
@@ -13139,14 +13139,14 @@
       <c r="R82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S82" s="13" t="s">
-        <v>58</v>
+      <c r="S82" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T82" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U82" s="13" t="n">
-        <v>0</v>
+      <c r="U82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="V82" s="13" t="s">
         <v>58</v>
@@ -13297,112 +13297,112 @@
         <v>0</v>
       </c>
       <c r="S83" s="18" t="n">
-        <v>0</v>
+        <v>201755</v>
       </c>
       <c r="T83" s="18" t="n">
-        <v>201755</v>
+        <v>294153</v>
       </c>
       <c r="U83" s="18" t="n">
-        <v>294153</v>
+        <v>375431</v>
       </c>
       <c r="V83" s="18" t="n">
-        <v>375431</v>
+        <v>402899</v>
       </c>
       <c r="W83" s="18" t="n">
-        <v>402899</v>
+        <v>445970</v>
       </c>
       <c r="X83" s="18" t="n">
-        <v>445970</v>
+        <v>405484</v>
       </c>
       <c r="Y83" s="18" t="n">
-        <v>405484</v>
+        <v>428333</v>
       </c>
       <c r="Z83" s="18" t="n">
-        <v>428333</v>
+        <v>383472</v>
       </c>
       <c r="AA83" s="18" t="n">
-        <v>383472</v>
+        <v>265716</v>
       </c>
       <c r="AB83" s="18" t="n">
-        <v>265716</v>
+        <v>259528</v>
       </c>
       <c r="AC83" s="18" t="n">
-        <v>259528</v>
+        <v>222808</v>
       </c>
       <c r="AD83" s="18" t="n">
-        <v>222808</v>
+        <v>114001</v>
       </c>
       <c r="AE83" s="18" t="n">
-        <v>114001</v>
+        <v>223513</v>
       </c>
       <c r="AF83" s="18" t="n">
-        <v>223513</v>
+        <v>378578</v>
       </c>
       <c r="AG83" s="18" t="n">
-        <v>378578</v>
+        <v>758500</v>
       </c>
       <c r="AH83" s="18" t="n">
-        <v>758500</v>
+        <v>637761</v>
       </c>
       <c r="AI83" s="18" t="n">
-        <v>637761</v>
+        <v>710964</v>
       </c>
       <c r="AJ83" s="18" t="n">
-        <v>710964</v>
+        <v>301650</v>
       </c>
       <c r="AK83" s="18" t="n">
-        <v>301650</v>
+        <v>605615</v>
       </c>
       <c r="AL83" s="18" t="n">
-        <v>605615</v>
+        <v>668182</v>
       </c>
       <c r="AM83" s="18" t="n">
-        <v>668182</v>
+        <v>332496</v>
       </c>
       <c r="AN83" s="18" t="n">
-        <v>332496</v>
+        <v>439651</v>
       </c>
       <c r="AO83" s="18" t="n">
-        <v>439651</v>
+        <v>332490</v>
       </c>
       <c r="AP83" s="18" t="n">
-        <v>332490</v>
+        <v>202050</v>
       </c>
       <c r="AQ83" s="18" t="n">
-        <v>202050</v>
+        <v>551874</v>
       </c>
       <c r="AR83" s="18" t="n">
-        <v>551874</v>
+        <v>424370</v>
       </c>
       <c r="AS83" s="18" t="n">
-        <v>424370</v>
+        <v>726367</v>
       </c>
       <c r="AT83" s="18" t="n">
-        <v>726367</v>
+        <v>528144</v>
       </c>
       <c r="AU83" s="18" t="n">
-        <v>528144</v>
+        <v>1064386</v>
       </c>
       <c r="AV83" s="18" t="n">
-        <v>1064386</v>
+        <v>763588</v>
       </c>
       <c r="AW83" s="18" t="n">
-        <v>763588</v>
+        <v>877812</v>
       </c>
       <c r="AX83" s="18" t="n">
-        <v>877812</v>
+        <v>1067564</v>
       </c>
       <c r="AY83" s="18" t="n">
-        <v>1067564</v>
+        <v>826041</v>
       </c>
       <c r="AZ83" s="18" t="n">
-        <v>826041</v>
+        <v>953764</v>
       </c>
       <c r="BA83" s="18" t="n">
-        <v>953764</v>
+        <v>368849</v>
       </c>
       <c r="BB83" s="18" t="n">
-        <v>368849</v>
+        <v>1225200</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13512,8 +13512,8 @@
       <c r="R85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S85" s="13" t="s">
-        <v>58</v>
+      <c r="S85" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T85" s="13" t="n">
         <v>0</v>
@@ -13671,8 +13671,8 @@
       <c r="R86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S86" s="16" t="s">
-        <v>58</v>
+      <c r="S86" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T86" s="16" t="n">
         <v>0</v>
@@ -13830,8 +13830,8 @@
       <c r="R87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S87" s="13" t="s">
-        <v>58</v>
+      <c r="S87" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T87" s="13" t="n">
         <v>0</v>
@@ -13989,8 +13989,8 @@
       <c r="R88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S88" s="16" t="s">
-        <v>58</v>
+      <c r="S88" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T88" s="16" t="n">
         <v>0</v>
@@ -14148,14 +14148,14 @@
       <c r="R89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S89" s="13" t="s">
-        <v>58</v>
+      <c r="S89" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T89" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U89" s="13" t="n">
-        <v>0</v>
+      <c r="U89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="V89" s="13" t="s">
         <v>58</v>
@@ -14163,8 +14163,8 @@
       <c r="W89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X89" s="13" t="s">
-        <v>58</v>
+      <c r="X89" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y89" s="13" t="n">
         <v>0</v>
@@ -14203,10 +14203,10 @@
         <v>0</v>
       </c>
       <c r="AK89" s="13" t="n">
-        <v>0</v>
+        <v>14597</v>
       </c>
       <c r="AL89" s="13" t="n">
-        <v>14597</v>
+        <v>0</v>
       </c>
       <c r="AM89" s="13" t="n">
         <v>0</v>
@@ -14376,8 +14376,8 @@
       <c r="AO90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP90" s="16" t="s">
-        <v>58</v>
+      <c r="AP90" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ90" s="16" t="n">
         <v>0</v>
@@ -14466,14 +14466,14 @@
       <c r="R91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S91" s="13" t="s">
-        <v>58</v>
+      <c r="S91" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T91" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U91" s="13" t="n">
-        <v>0</v>
+      <c r="U91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="V91" s="13" t="s">
         <v>58</v>
@@ -14678,10 +14678,10 @@
         <v>0</v>
       </c>
       <c r="AK92" s="18" t="n">
-        <v>0</v>
+        <v>14597</v>
       </c>
       <c r="AL92" s="18" t="n">
-        <v>14597</v>
+        <v>0</v>
       </c>
       <c r="AM92" s="18" t="n">
         <v>0</v>
@@ -14845,68 +14845,68 @@
       <c r="T94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U94" s="13" t="s">
-        <v>58</v>
+      <c r="U94" s="13" t="n">
+        <v>208</v>
       </c>
       <c r="V94" s="13" t="n">
-        <v>208</v>
+        <v>791</v>
       </c>
       <c r="W94" s="13" t="n">
-        <v>791</v>
+        <v>160</v>
       </c>
       <c r="X94" s="13" t="n">
-        <v>160</v>
+        <v>484</v>
       </c>
       <c r="Y94" s="13" t="n">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="Z94" s="13" t="n">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AA94" s="13" t="n">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AB94" s="13" t="n">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="AC94" s="13" t="n">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AD94" s="13" t="n">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AE94" s="13" t="n">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="AF94" s="13" t="n">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="AG94" s="13" t="n">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="AH94" s="13" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AI94" s="13" t="n">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="AJ94" s="13" t="n">
-        <v>916</v>
+        <v>94</v>
       </c>
       <c r="AK94" s="13" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AL94" s="13" t="n">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="AM94" s="13" t="n">
-        <v>1401</v>
+        <v>261</v>
       </c>
       <c r="AN94" s="13" t="n">
-        <v>261</v>
-      </c>
-      <c r="AO94" s="13" t="n">
         <v>902</v>
+      </c>
+      <c r="AO94" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP94" s="13" t="s">
         <v>58</v>
@@ -15064,47 +15064,47 @@
       <c r="AN95" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO95" s="16" t="s">
-        <v>58</v>
+      <c r="AO95" s="16" t="n">
+        <v>84477</v>
       </c>
       <c r="AP95" s="16" t="n">
-        <v>84477</v>
+        <v>0</v>
       </c>
       <c r="AQ95" s="16" t="n">
-        <v>0</v>
+        <v>22360</v>
       </c>
       <c r="AR95" s="16" t="n">
-        <v>22360</v>
+        <v>23707</v>
       </c>
       <c r="AS95" s="16" t="n">
-        <v>23707</v>
+        <v>5167</v>
       </c>
       <c r="AT95" s="16" t="n">
-        <v>5167</v>
+        <v>9875</v>
       </c>
       <c r="AU95" s="16" t="n">
-        <v>9875</v>
+        <v>27883</v>
       </c>
       <c r="AV95" s="16" t="n">
-        <v>27883</v>
+        <v>0</v>
       </c>
       <c r="AW95" s="16" t="n">
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="AX95" s="16" t="n">
-        <v>5858</v>
+        <v>12755</v>
       </c>
       <c r="AY95" s="16" t="n">
-        <v>12755</v>
+        <v>8668</v>
       </c>
       <c r="AZ95" s="16" t="n">
-        <v>8668</v>
+        <v>0</v>
       </c>
       <c r="BA95" s="16" t="n">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="BB95" s="16" t="n">
-        <v>8100</v>
+        <v>11221</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15163,107 +15163,107 @@
       <c r="T96" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U96" s="20" t="s">
-        <v>58</v>
+      <c r="U96" s="21" t="n">
+        <v>208</v>
       </c>
       <c r="V96" s="21" t="n">
-        <v>208</v>
+        <v>791</v>
       </c>
       <c r="W96" s="21" t="n">
-        <v>791</v>
+        <v>160</v>
       </c>
       <c r="X96" s="21" t="n">
-        <v>160</v>
+        <v>484</v>
       </c>
       <c r="Y96" s="21" t="n">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="Z96" s="21" t="n">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AA96" s="21" t="n">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AB96" s="21" t="n">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="AC96" s="21" t="n">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AD96" s="21" t="n">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="AE96" s="21" t="n">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="AF96" s="21" t="n">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="AG96" s="21" t="n">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="AH96" s="21" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AI96" s="21" t="n">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="AJ96" s="21" t="n">
-        <v>916</v>
+        <v>94</v>
       </c>
       <c r="AK96" s="21" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AL96" s="21" t="n">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="AM96" s="21" t="n">
-        <v>1401</v>
+        <v>261</v>
       </c>
       <c r="AN96" s="21" t="n">
-        <v>261</v>
+        <v>902</v>
       </c>
       <c r="AO96" s="21" t="n">
-        <v>902</v>
+        <v>84477</v>
       </c>
       <c r="AP96" s="21" t="n">
-        <v>84477</v>
+        <v>0</v>
       </c>
       <c r="AQ96" s="21" t="n">
-        <v>0</v>
+        <v>22360</v>
       </c>
       <c r="AR96" s="21" t="n">
-        <v>22360</v>
+        <v>23707</v>
       </c>
       <c r="AS96" s="21" t="n">
-        <v>23707</v>
+        <v>5167</v>
       </c>
       <c r="AT96" s="21" t="n">
-        <v>5167</v>
+        <v>9875</v>
       </c>
       <c r="AU96" s="21" t="n">
-        <v>9875</v>
+        <v>27883</v>
       </c>
       <c r="AV96" s="21" t="n">
-        <v>27883</v>
+        <v>0</v>
       </c>
       <c r="AW96" s="21" t="n">
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="AX96" s="21" t="n">
-        <v>5858</v>
+        <v>12755</v>
       </c>
       <c r="AY96" s="21" t="n">
-        <v>12755</v>
+        <v>8668</v>
       </c>
       <c r="AZ96" s="21" t="n">
-        <v>8668</v>
+        <v>0</v>
       </c>
       <c r="BA96" s="21" t="n">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="BB96" s="21" t="n">
-        <v>8100</v>
+        <v>11221</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15379,8 +15379,8 @@
       <c r="T98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U98" s="13" t="s">
-        <v>58</v>
+      <c r="U98" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V98" s="13" t="n">
         <v>0</v>
@@ -15442,14 +15442,14 @@
       <c r="AO98" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP98" s="13" t="n">
-        <v>0</v>
+      <c r="AP98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR98" s="13" t="s">
-        <v>58</v>
+      <c r="AR98" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS98" s="13" t="n">
         <v>0</v>
@@ -15538,32 +15538,32 @@
       <c r="T99" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U99" s="16" t="s">
-        <v>58</v>
+      <c r="U99" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V99" s="16" t="n">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="W99" s="16" t="n">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="X99" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Y99" s="16" t="n">
-        <v>0</v>
+        <v>-80979</v>
       </c>
       <c r="Z99" s="16" t="n">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AA99" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AB99" s="16" t="n">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AC99" s="16" t="n">
-        <v>-2429</v>
+        <v>0</v>
       </c>
       <c r="AD99" s="16" t="n">
         <v>0</v>
@@ -15601,14 +15601,14 @@
       <c r="AO99" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP99" s="16" t="n">
-        <v>0</v>
+      <c r="AP99" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ99" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR99" s="16" t="s">
-        <v>58</v>
+      <c r="AR99" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS99" s="16" t="n">
         <v>0</v>
@@ -15623,10 +15623,10 @@
         <v>0</v>
       </c>
       <c r="AW99" s="16" t="n">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="AX99" s="16" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="AY99" s="16" t="n">
         <v>0</v>
@@ -15697,8 +15697,8 @@
       <c r="T100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U100" s="13" t="s">
-        <v>58</v>
+      <c r="U100" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V100" s="13" t="n">
         <v>0</v>
@@ -15760,14 +15760,14 @@
       <c r="AO100" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP100" s="13" t="n">
-        <v>0</v>
+      <c r="AP100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR100" s="13" t="s">
-        <v>58</v>
+      <c r="AR100" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS100" s="13" t="n">
         <v>0</v>
@@ -15856,17 +15856,17 @@
       <c r="T101" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U101" s="16" t="s">
-        <v>58</v>
+      <c r="U101" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V101" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W101" s="16" t="n">
-        <v>0</v>
+        <v>-2714</v>
       </c>
       <c r="X101" s="16" t="n">
-        <v>-2714</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="16" t="n">
         <v>0</v>
@@ -15881,10 +15881,10 @@
         <v>0</v>
       </c>
       <c r="AC101" s="16" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD101" s="16" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE101" s="16" t="n">
         <v>0</v>
@@ -15908,10 +15908,10 @@
         <v>0</v>
       </c>
       <c r="AL101" s="16" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AM101" s="16" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AN101" s="16" t="n">
         <v>0</v>
@@ -15919,44 +15919,44 @@
       <c r="AO101" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP101" s="16" t="n">
-        <v>0</v>
+      <c r="AP101" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ101" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR101" s="16" t="s">
-        <v>58</v>
+      <c r="AR101" s="16" t="n">
+        <v>-233</v>
       </c>
       <c r="AS101" s="16" t="n">
-        <v>-233</v>
+        <v>-26</v>
       </c>
       <c r="AT101" s="16" t="n">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="AU101" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AV101" s="16" t="n">
-        <v>0</v>
+        <v>-6965</v>
       </c>
       <c r="AW101" s="16" t="n">
-        <v>-6965</v>
+        <v>-18844</v>
       </c>
       <c r="AX101" s="16" t="n">
-        <v>-18844</v>
+        <v>0</v>
       </c>
       <c r="AY101" s="16" t="n">
-        <v>0</v>
+        <v>-295</v>
       </c>
       <c r="AZ101" s="16" t="n">
-        <v>-295</v>
+        <v>0</v>
       </c>
       <c r="BA101" s="16" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="BB101" s="16" t="n">
-        <v>-32</v>
+        <v>-11830</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16015,14 +16015,14 @@
       <c r="T102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U102" s="13" t="s">
-        <v>58</v>
+      <c r="U102" s="13" t="n">
+        <v>-768</v>
       </c>
       <c r="V102" s="13" t="n">
-        <v>-768</v>
+        <v>-24</v>
       </c>
       <c r="W102" s="13" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="X102" s="13" t="n">
         <v>0</v>
@@ -16040,10 +16040,10 @@
         <v>0</v>
       </c>
       <c r="AC102" s="13" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AD102" s="13" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="AE102" s="13" t="n">
         <v>0</v>
@@ -16052,22 +16052,22 @@
         <v>0</v>
       </c>
       <c r="AG102" s="13" t="n">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AH102" s="13" t="n">
-        <v>-74</v>
+        <v>-175</v>
       </c>
       <c r="AI102" s="13" t="n">
-        <v>-175</v>
+        <v>-1183</v>
       </c>
       <c r="AJ102" s="13" t="n">
-        <v>-1183</v>
+        <v>-568</v>
       </c>
       <c r="AK102" s="13" t="n">
-        <v>-568</v>
+        <v>-1030</v>
       </c>
       <c r="AL102" s="13" t="n">
-        <v>-1030</v>
+        <v>0</v>
       </c>
       <c r="AM102" s="13" t="n">
         <v>0</v>
@@ -16078,38 +16078,38 @@
       <c r="AO102" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP102" s="13" t="n">
-        <v>0</v>
+      <c r="AP102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR102" s="13" t="s">
-        <v>58</v>
+      <c r="AR102" s="13" t="n">
+        <v>-1</v>
       </c>
       <c r="AS102" s="13" t="n">
-        <v>-1</v>
+        <v>-18959</v>
       </c>
       <c r="AT102" s="13" t="n">
-        <v>-18959</v>
+        <v>0</v>
       </c>
       <c r="AU102" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AV102" s="13" t="n">
-        <v>0</v>
+        <v>-4275</v>
       </c>
       <c r="AW102" s="13" t="n">
-        <v>-4275</v>
+        <v>0</v>
       </c>
       <c r="AX102" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AY102" s="13" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AZ102" s="13" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="BA102" s="13" t="n">
         <v>0</v>
@@ -16201,8 +16201,8 @@
       <c r="AC103" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD103" s="16" t="s">
-        <v>58</v>
+      <c r="AD103" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE103" s="16" t="n">
         <v>0</v>
@@ -16237,8 +16237,8 @@
       <c r="AO103" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP103" s="16" t="n">
-        <v>0</v>
+      <c r="AP103" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ103" s="16" t="s">
         <v>58</v>
@@ -16402,8 +16402,8 @@
       <c r="AQ104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR104" s="13" t="s">
-        <v>58</v>
+      <c r="AR104" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS104" s="13" t="n">
         <v>0</v>
@@ -16432,8 +16432,8 @@
       <c r="BA104" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB104" s="13" t="n">
-        <v>0</v>
+      <c r="BB104" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16492,35 +16492,35 @@
       <c r="T105" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U105" s="18" t="s">
-        <v>58</v>
+      <c r="U105" s="22" t="n">
+        <v>-768</v>
       </c>
       <c r="V105" s="22" t="n">
-        <v>-768</v>
+        <v>-65</v>
       </c>
       <c r="W105" s="22" t="n">
-        <v>-65</v>
+        <v>-2714</v>
       </c>
       <c r="X105" s="22" t="n">
-        <v>-2714</v>
+        <v>0</v>
       </c>
       <c r="Y105" s="22" t="n">
-        <v>0</v>
+        <v>-80979</v>
       </c>
       <c r="Z105" s="22" t="n">
-        <v>-80979</v>
+        <v>0</v>
       </c>
       <c r="AA105" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AB105" s="22" t="n">
-        <v>0</v>
+        <v>-2429</v>
       </c>
       <c r="AC105" s="22" t="n">
-        <v>-2429</v>
+        <v>-49</v>
       </c>
       <c r="AD105" s="22" t="n">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="AE105" s="22" t="n">
         <v>0</v>
@@ -16529,25 +16529,25 @@
         <v>0</v>
       </c>
       <c r="AG105" s="22" t="n">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="AH105" s="22" t="n">
-        <v>-74</v>
+        <v>-175</v>
       </c>
       <c r="AI105" s="22" t="n">
-        <v>-175</v>
+        <v>-1183</v>
       </c>
       <c r="AJ105" s="22" t="n">
-        <v>-1183</v>
+        <v>-568</v>
       </c>
       <c r="AK105" s="22" t="n">
-        <v>-568</v>
+        <v>-1030</v>
       </c>
       <c r="AL105" s="22" t="n">
-        <v>-1030</v>
+        <v>-3</v>
       </c>
       <c r="AM105" s="22" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AN105" s="22" t="n">
         <v>0</v>
@@ -16562,37 +16562,37 @@
         <v>0</v>
       </c>
       <c r="AR105" s="22" t="n">
-        <v>0</v>
+        <v>-234</v>
       </c>
       <c r="AS105" s="22" t="n">
-        <v>-234</v>
+        <v>-18985</v>
       </c>
       <c r="AT105" s="22" t="n">
-        <v>-18985</v>
+        <v>0</v>
       </c>
       <c r="AU105" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AV105" s="22" t="n">
-        <v>0</v>
+        <v>-11240</v>
       </c>
       <c r="AW105" s="22" t="n">
-        <v>-11240</v>
+        <v>-18924</v>
       </c>
       <c r="AX105" s="22" t="n">
-        <v>-18924</v>
+        <v>0</v>
       </c>
       <c r="AY105" s="22" t="n">
-        <v>0</v>
+        <v>-301</v>
       </c>
       <c r="AZ105" s="22" t="n">
-        <v>-301</v>
+        <v>0</v>
       </c>
       <c r="BA105" s="22" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="BB105" s="22" t="n">
-        <v>-32</v>
+        <v>-11830</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16708,107 +16708,107 @@
       <c r="T107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U107" s="13" t="s">
-        <v>58</v>
+      <c r="U107" s="13" t="n">
+        <v>-53535</v>
       </c>
       <c r="V107" s="13" t="n">
-        <v>-53535</v>
+        <v>-26683</v>
       </c>
       <c r="W107" s="13" t="n">
-        <v>-26683</v>
+        <v>-51250</v>
       </c>
       <c r="X107" s="13" t="n">
-        <v>-51250</v>
+        <v>-19708</v>
       </c>
       <c r="Y107" s="13" t="n">
-        <v>-19708</v>
+        <v>-20840</v>
       </c>
       <c r="Z107" s="13" t="n">
-        <v>-20840</v>
+        <v>-40908</v>
       </c>
       <c r="AA107" s="13" t="n">
-        <v>-40908</v>
+        <v>-54275</v>
       </c>
       <c r="AB107" s="13" t="n">
-        <v>-54275</v>
+        <v>-56779</v>
       </c>
       <c r="AC107" s="13" t="n">
-        <v>-56779</v>
+        <v>-51415</v>
       </c>
       <c r="AD107" s="13" t="n">
-        <v>-51415</v>
+        <v>0</v>
       </c>
       <c r="AE107" s="13" t="n">
-        <v>0</v>
+        <v>-16580</v>
       </c>
       <c r="AF107" s="13" t="n">
-        <v>-16580</v>
+        <v>-23757</v>
       </c>
       <c r="AG107" s="13" t="n">
-        <v>-23757</v>
+        <v>-24507</v>
       </c>
       <c r="AH107" s="13" t="n">
-        <v>-24507</v>
+        <v>-37338</v>
       </c>
       <c r="AI107" s="13" t="n">
-        <v>-37338</v>
+        <v>-109756</v>
       </c>
       <c r="AJ107" s="13" t="n">
-        <v>-109756</v>
+        <v>-14216</v>
       </c>
       <c r="AK107" s="13" t="n">
-        <v>-14216</v>
+        <v>-62287</v>
       </c>
       <c r="AL107" s="13" t="n">
-        <v>-62287</v>
+        <v>-64914</v>
       </c>
       <c r="AM107" s="13" t="n">
-        <v>-64914</v>
+        <v>-29034</v>
       </c>
       <c r="AN107" s="13" t="n">
-        <v>-29034</v>
+        <v>-58989</v>
       </c>
       <c r="AO107" s="13" t="n">
-        <v>-58989</v>
+        <v>-71192</v>
       </c>
       <c r="AP107" s="13" t="n">
-        <v>-71192</v>
+        <v>-6276</v>
       </c>
       <c r="AQ107" s="13" t="n">
-        <v>-6276</v>
+        <v>-44107</v>
       </c>
       <c r="AR107" s="13" t="n">
-        <v>-44107</v>
+        <v>-83965</v>
       </c>
       <c r="AS107" s="13" t="n">
-        <v>-83965</v>
+        <v>-62345</v>
       </c>
       <c r="AT107" s="13" t="n">
-        <v>-62345</v>
+        <v>-64805</v>
       </c>
       <c r="AU107" s="13" t="n">
-        <v>-64805</v>
+        <v>-127801</v>
       </c>
       <c r="AV107" s="13" t="n">
-        <v>-127801</v>
+        <v>-76623</v>
       </c>
       <c r="AW107" s="13" t="n">
-        <v>-76623</v>
+        <v>-58198</v>
       </c>
       <c r="AX107" s="13" t="n">
-        <v>-58198</v>
+        <v>-122441</v>
       </c>
       <c r="AY107" s="13" t="n">
-        <v>-122441</v>
+        <v>-126273</v>
       </c>
       <c r="AZ107" s="13" t="n">
-        <v>-126273</v>
+        <v>-33010</v>
       </c>
       <c r="BA107" s="13" t="n">
-        <v>-33010</v>
+        <v>-171089</v>
       </c>
       <c r="BB107" s="13" t="n">
-        <v>-171089</v>
+        <v>-107872</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16860,112 +16860,112 @@
         <v>0</v>
       </c>
       <c r="S108" s="22" t="n">
-        <v>0</v>
+        <v>201755</v>
       </c>
       <c r="T108" s="22" t="n">
-        <v>201755</v>
+        <v>294153</v>
       </c>
       <c r="U108" s="22" t="n">
-        <v>294153</v>
+        <v>321336</v>
       </c>
       <c r="V108" s="22" t="n">
-        <v>321336</v>
+        <v>376942</v>
       </c>
       <c r="W108" s="22" t="n">
-        <v>376942</v>
+        <v>392166</v>
       </c>
       <c r="X108" s="22" t="n">
-        <v>392166</v>
+        <v>386260</v>
       </c>
       <c r="Y108" s="22" t="n">
-        <v>386260</v>
+        <v>326556</v>
       </c>
       <c r="Z108" s="22" t="n">
-        <v>326556</v>
+        <v>342861</v>
       </c>
       <c r="AA108" s="22" t="n">
-        <v>342861</v>
+        <v>211505</v>
       </c>
       <c r="AB108" s="22" t="n">
-        <v>211505</v>
+        <v>200550</v>
       </c>
       <c r="AC108" s="22" t="n">
-        <v>200550</v>
+        <v>171601</v>
       </c>
       <c r="AD108" s="22" t="n">
-        <v>171601</v>
+        <v>114228</v>
       </c>
       <c r="AE108" s="22" t="n">
-        <v>114228</v>
+        <v>207304</v>
       </c>
       <c r="AF108" s="22" t="n">
-        <v>207304</v>
+        <v>354835</v>
       </c>
       <c r="AG108" s="22" t="n">
-        <v>354835</v>
+        <v>734129</v>
       </c>
       <c r="AH108" s="22" t="n">
-        <v>734129</v>
+        <v>600248</v>
       </c>
       <c r="AI108" s="22" t="n">
-        <v>600248</v>
+        <v>600941</v>
       </c>
       <c r="AJ108" s="22" t="n">
-        <v>600941</v>
+        <v>286960</v>
       </c>
       <c r="AK108" s="22" t="n">
-        <v>286960</v>
+        <v>556895</v>
       </c>
       <c r="AL108" s="22" t="n">
-        <v>556895</v>
+        <v>604666</v>
       </c>
       <c r="AM108" s="22" t="n">
-        <v>604666</v>
+        <v>303723</v>
       </c>
       <c r="AN108" s="22" t="n">
-        <v>303723</v>
+        <v>381564</v>
       </c>
       <c r="AO108" s="22" t="n">
-        <v>381564</v>
+        <v>345775</v>
       </c>
       <c r="AP108" s="22" t="n">
-        <v>345775</v>
+        <v>195774</v>
       </c>
       <c r="AQ108" s="22" t="n">
-        <v>195774</v>
+        <v>530127</v>
       </c>
       <c r="AR108" s="22" t="n">
-        <v>530127</v>
+        <v>363878</v>
       </c>
       <c r="AS108" s="22" t="n">
-        <v>363878</v>
+        <v>650204</v>
       </c>
       <c r="AT108" s="22" t="n">
-        <v>650204</v>
+        <v>473214</v>
       </c>
       <c r="AU108" s="22" t="n">
-        <v>473214</v>
+        <v>964468</v>
       </c>
       <c r="AV108" s="22" t="n">
-        <v>964468</v>
+        <v>675725</v>
       </c>
       <c r="AW108" s="22" t="n">
-        <v>675725</v>
+        <v>806548</v>
       </c>
       <c r="AX108" s="22" t="n">
-        <v>806548</v>
+        <v>957878</v>
       </c>
       <c r="AY108" s="22" t="n">
-        <v>957878</v>
+        <v>708135</v>
       </c>
       <c r="AZ108" s="22" t="n">
-        <v>708135</v>
+        <v>920754</v>
       </c>
       <c r="BA108" s="22" t="n">
-        <v>920754</v>
+        <v>205828</v>
       </c>
       <c r="BB108" s="22" t="n">
-        <v>205828</v>
+        <v>1116719</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17452,113 +17452,113 @@
       <c r="R115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S115" s="13" t="s">
-        <v>58</v>
+      <c r="S115" s="13" t="n">
+        <v>29275</v>
       </c>
       <c r="T115" s="13" t="n">
+        <v>27813</v>
+      </c>
+      <c r="U115" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V115" s="13" t="n">
         <v>29275</v>
       </c>
-      <c r="U115" s="13" t="n">
-        <v>27813</v>
-      </c>
-      <c r="V115" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="W115" s="13" t="n">
-        <v>29275</v>
-      </c>
-      <c r="X115" s="13" t="n">
         <v>29277</v>
       </c>
+      <c r="X115" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Y115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z115" s="13" t="s">
-        <v>58</v>
+      <c r="Z115" s="13" t="n">
+        <v>40058</v>
       </c>
       <c r="AA115" s="13" t="n">
-        <v>40058</v>
-      </c>
-      <c r="AB115" s="13" t="n">
         <v>40061</v>
       </c>
+      <c r="AB115" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD115" s="13" t="s">
-        <v>58</v>
+      <c r="AD115" s="13" t="n">
+        <v>40065</v>
       </c>
       <c r="AE115" s="13" t="n">
-        <v>40065</v>
+        <v>40064</v>
       </c>
       <c r="AF115" s="13" t="n">
-        <v>40064</v>
+        <v>33689</v>
       </c>
       <c r="AG115" s="13" t="n">
-        <v>33689</v>
+        <v>51711</v>
       </c>
       <c r="AH115" s="13" t="n">
-        <v>51711</v>
-      </c>
-      <c r="AI115" s="13" t="n">
         <v>40057</v>
       </c>
-      <c r="AJ115" s="13" t="s">
-        <v>58</v>
+      <c r="AI115" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ115" s="13" t="n">
+        <v>52999</v>
       </c>
       <c r="AK115" s="13" t="n">
+        <v>53000</v>
+      </c>
+      <c r="AL115" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM115" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN115" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO115" s="13" t="n">
+        <v>53000</v>
+      </c>
+      <c r="AP115" s="13" t="n">
         <v>52999</v>
       </c>
-      <c r="AL115" s="13" t="n">
+      <c r="AQ115" s="13" t="n">
+        <v>52994</v>
+      </c>
+      <c r="AR115" s="13" t="n">
+        <v>52999</v>
+      </c>
+      <c r="AS115" s="13" t="n">
         <v>53000</v>
       </c>
-      <c r="AM115" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN115" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO115" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP115" s="13" t="n">
-        <v>53000</v>
-      </c>
-      <c r="AQ115" s="13" t="n">
-        <v>52999</v>
-      </c>
-      <c r="AR115" s="13" t="n">
-        <v>52994</v>
-      </c>
-      <c r="AS115" s="13" t="n">
-        <v>52999</v>
-      </c>
-      <c r="AT115" s="13" t="n">
-        <v>53000</v>
-      </c>
-      <c r="AU115" s="13" t="s">
-        <v>58</v>
+      <c r="AT115" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU115" s="13" t="n">
+        <v>93460</v>
       </c>
       <c r="AV115" s="13" t="n">
-        <v>93460</v>
+        <v>60910</v>
       </c>
       <c r="AW115" s="13" t="n">
-        <v>60910</v>
+        <v>48457</v>
       </c>
       <c r="AX115" s="13" t="n">
-        <v>48457</v>
+        <v>124998</v>
       </c>
       <c r="AY115" s="13" t="n">
-        <v>124998</v>
+        <v>125001</v>
       </c>
       <c r="AZ115" s="13" t="n">
-        <v>125001</v>
+        <v>101000</v>
       </c>
       <c r="BA115" s="13" t="n">
-        <v>101000</v>
+        <v>105000</v>
       </c>
       <c r="BB115" s="13" t="n">
-        <v>105000</v>
+        <v>90275</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17611,113 +17611,113 @@
       <c r="R116" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S116" s="16" t="s">
-        <v>58</v>
+      <c r="S116" s="16" t="n">
+        <v>137103</v>
       </c>
       <c r="T116" s="16" t="n">
-        <v>137103</v>
+        <v>192136</v>
       </c>
       <c r="U116" s="16" t="n">
-        <v>192136</v>
+        <v>215068</v>
       </c>
       <c r="V116" s="16" t="n">
-        <v>215068</v>
+        <v>407921</v>
       </c>
       <c r="W116" s="16" t="n">
-        <v>407921</v>
+        <v>498055</v>
       </c>
       <c r="X116" s="16" t="n">
-        <v>498055</v>
+        <v>379373</v>
       </c>
       <c r="Y116" s="16" t="n">
-        <v>379373</v>
+        <v>419976</v>
       </c>
       <c r="Z116" s="16" t="n">
-        <v>419976</v>
+        <v>196123</v>
       </c>
       <c r="AA116" s="16" t="n">
-        <v>196123</v>
-      </c>
-      <c r="AB116" s="16" t="n">
         <v>196568</v>
       </c>
-      <c r="AC116" s="16" t="s">
-        <v>58</v>
+      <c r="AB116" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC116" s="16" t="n">
+        <v>234158</v>
       </c>
       <c r="AD116" s="16" t="n">
-        <v>234158</v>
+        <v>258147</v>
       </c>
       <c r="AE116" s="16" t="n">
-        <v>258147</v>
+        <v>427486</v>
       </c>
       <c r="AF116" s="16" t="n">
-        <v>427486</v>
+        <v>327580</v>
       </c>
       <c r="AG116" s="16" t="n">
-        <v>327580</v>
+        <v>295188</v>
       </c>
       <c r="AH116" s="16" t="n">
-        <v>295188</v>
+        <v>388621</v>
       </c>
       <c r="AI116" s="16" t="n">
-        <v>388621</v>
+        <v>434584</v>
       </c>
       <c r="AJ116" s="16" t="n">
-        <v>434584</v>
+        <v>289344</v>
       </c>
       <c r="AK116" s="16" t="n">
-        <v>289344</v>
+        <v>278517</v>
       </c>
       <c r="AL116" s="16" t="n">
-        <v>278517</v>
+        <v>339977</v>
       </c>
       <c r="AM116" s="16" t="n">
-        <v>339977</v>
+        <v>214114</v>
       </c>
       <c r="AN116" s="16" t="n">
-        <v>214114</v>
+        <v>285144</v>
       </c>
       <c r="AO116" s="16" t="n">
-        <v>285144</v>
+        <v>92217</v>
       </c>
       <c r="AP116" s="16" t="n">
-        <v>92217</v>
+        <v>144836</v>
       </c>
       <c r="AQ116" s="16" t="n">
-        <v>144836</v>
+        <v>155536</v>
       </c>
       <c r="AR116" s="16" t="n">
-        <v>155536</v>
+        <v>99920</v>
       </c>
       <c r="AS116" s="16" t="n">
-        <v>99920</v>
+        <v>292374</v>
       </c>
       <c r="AT116" s="16" t="n">
-        <v>292374</v>
+        <v>193109</v>
       </c>
       <c r="AU116" s="16" t="n">
-        <v>193109</v>
+        <v>388802</v>
       </c>
       <c r="AV116" s="16" t="n">
-        <v>388802</v>
+        <v>346790</v>
       </c>
       <c r="AW116" s="16" t="n">
-        <v>346790</v>
+        <v>335890</v>
       </c>
       <c r="AX116" s="16" t="n">
-        <v>335890</v>
+        <v>428481</v>
       </c>
       <c r="AY116" s="16" t="n">
-        <v>428481</v>
+        <v>400004</v>
       </c>
       <c r="AZ116" s="16" t="n">
-        <v>400004</v>
+        <v>389332</v>
       </c>
       <c r="BA116" s="16" t="n">
-        <v>389332</v>
+        <v>537075</v>
       </c>
       <c r="BB116" s="16" t="n">
-        <v>537075</v>
+        <v>559016</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17770,42 +17770,42 @@
       <c r="R117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S117" s="13" t="s">
-        <v>58</v>
+      <c r="S117" s="13" t="n">
+        <v>50378</v>
       </c>
       <c r="T117" s="13" t="n">
-        <v>50378</v>
+        <v>40077</v>
       </c>
       <c r="U117" s="13" t="n">
-        <v>40077</v>
+        <v>44494</v>
       </c>
       <c r="V117" s="13" t="n">
-        <v>44494</v>
+        <v>58660</v>
       </c>
       <c r="W117" s="13" t="n">
-        <v>58660</v>
+        <v>53290</v>
       </c>
       <c r="X117" s="13" t="n">
-        <v>53290</v>
+        <v>60803</v>
       </c>
       <c r="Y117" s="13" t="n">
-        <v>60803</v>
+        <v>56303</v>
       </c>
       <c r="Z117" s="13" t="n">
-        <v>56303</v>
-      </c>
-      <c r="AA117" s="13" t="n">
         <v>45741</v>
       </c>
+      <c r="AA117" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AB117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD117" s="13" t="n">
+      <c r="AC117" s="13" t="n">
         <v>69977</v>
       </c>
+      <c r="AD117" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE117" s="13" t="s">
         <v>58</v>
       </c>
@@ -17815,36 +17815,36 @@
       <c r="AG117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH117" s="13" t="s">
-        <v>58</v>
+      <c r="AH117" s="13" t="n">
+        <v>67550</v>
       </c>
       <c r="AI117" s="13" t="n">
-        <v>67550</v>
+        <v>67533</v>
       </c>
       <c r="AJ117" s="13" t="n">
-        <v>67533</v>
+        <v>56107</v>
       </c>
       <c r="AK117" s="13" t="n">
-        <v>56107</v>
-      </c>
-      <c r="AL117" s="13" t="n">
         <v>55001</v>
       </c>
-      <c r="AM117" s="13" t="s">
-        <v>58</v>
+      <c r="AL117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM117" s="13" t="n">
+        <v>75003</v>
       </c>
       <c r="AN117" s="13" t="n">
-        <v>75003</v>
+        <v>75000</v>
       </c>
       <c r="AO117" s="13" t="n">
-        <v>75000</v>
+        <v>109932</v>
       </c>
       <c r="AP117" s="13" t="n">
-        <v>109932</v>
-      </c>
-      <c r="AQ117" s="13" t="n">
         <v>74999</v>
       </c>
+      <c r="AQ117" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR117" s="13" t="s">
         <v>58</v>
       </c>
@@ -17860,23 +17860,23 @@
       <c r="AV117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW117" s="13" t="s">
-        <v>58</v>
+      <c r="AW117" s="13" t="n">
+        <v>202695</v>
       </c>
       <c r="AX117" s="13" t="n">
-        <v>202695</v>
+        <v>199470</v>
       </c>
       <c r="AY117" s="13" t="n">
-        <v>199470</v>
+        <v>191746</v>
       </c>
       <c r="AZ117" s="13" t="n">
-        <v>191746</v>
+        <v>173577</v>
       </c>
       <c r="BA117" s="13" t="n">
-        <v>173577</v>
+        <v>191743</v>
       </c>
       <c r="BB117" s="13" t="n">
-        <v>191743</v>
+        <v>191744</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17929,113 +17929,113 @@
       <c r="R118" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S118" s="16" t="s">
-        <v>58</v>
+      <c r="S118" s="16" t="n">
+        <v>5924</v>
       </c>
       <c r="T118" s="16" t="n">
-        <v>5924</v>
+        <v>2749</v>
       </c>
       <c r="U118" s="16" t="n">
-        <v>2749</v>
+        <v>4886</v>
       </c>
       <c r="V118" s="16" t="n">
-        <v>4886</v>
+        <v>2839</v>
       </c>
       <c r="W118" s="16" t="n">
-        <v>2839</v>
+        <v>5946</v>
       </c>
       <c r="X118" s="16" t="n">
-        <v>5946</v>
+        <v>14074</v>
       </c>
       <c r="Y118" s="16" t="n">
-        <v>14074</v>
+        <v>4430</v>
       </c>
       <c r="Z118" s="16" t="n">
-        <v>4430</v>
+        <v>5080</v>
       </c>
       <c r="AA118" s="16" t="n">
-        <v>5080</v>
+        <v>5998</v>
       </c>
       <c r="AB118" s="16" t="n">
-        <v>5998</v>
+        <v>5846</v>
       </c>
       <c r="AC118" s="16" t="n">
-        <v>5846</v>
+        <v>6056</v>
       </c>
       <c r="AD118" s="16" t="n">
-        <v>6056</v>
+        <v>4653</v>
       </c>
       <c r="AE118" s="16" t="n">
-        <v>4653</v>
+        <v>4617</v>
       </c>
       <c r="AF118" s="16" t="n">
-        <v>4617</v>
+        <v>4254</v>
       </c>
       <c r="AG118" s="16" t="n">
-        <v>4254</v>
+        <v>8500</v>
       </c>
       <c r="AH118" s="16" t="n">
-        <v>8500</v>
+        <v>7219</v>
       </c>
       <c r="AI118" s="16" t="n">
-        <v>7219</v>
+        <v>8413</v>
       </c>
       <c r="AJ118" s="16" t="n">
-        <v>8413</v>
+        <v>5226</v>
       </c>
       <c r="AK118" s="16" t="n">
-        <v>5226</v>
+        <v>6703</v>
       </c>
       <c r="AL118" s="16" t="n">
-        <v>6703</v>
+        <v>7555</v>
       </c>
       <c r="AM118" s="16" t="n">
-        <v>7555</v>
+        <v>6025</v>
       </c>
       <c r="AN118" s="16" t="n">
-        <v>6025</v>
+        <v>6059</v>
       </c>
       <c r="AO118" s="16" t="n">
-        <v>6059</v>
+        <v>7986</v>
       </c>
       <c r="AP118" s="16" t="n">
-        <v>7986</v>
+        <v>11721</v>
       </c>
       <c r="AQ118" s="16" t="n">
-        <v>11721</v>
+        <v>9036</v>
       </c>
       <c r="AR118" s="16" t="n">
-        <v>9036</v>
+        <v>8077</v>
       </c>
       <c r="AS118" s="16" t="n">
-        <v>8077</v>
+        <v>8671</v>
       </c>
       <c r="AT118" s="16" t="n">
-        <v>8671</v>
+        <v>8195</v>
       </c>
       <c r="AU118" s="16" t="n">
-        <v>8195</v>
+        <v>10497</v>
       </c>
       <c r="AV118" s="16" t="n">
-        <v>10497</v>
+        <v>12064</v>
       </c>
       <c r="AW118" s="16" t="n">
-        <v>12064</v>
+        <v>12003</v>
       </c>
       <c r="AX118" s="16" t="n">
-        <v>12003</v>
+        <v>12680</v>
       </c>
       <c r="AY118" s="16" t="n">
-        <v>12680</v>
+        <v>10901</v>
       </c>
       <c r="AZ118" s="16" t="n">
-        <v>10901</v>
+        <v>12800</v>
       </c>
       <c r="BA118" s="16" t="n">
-        <v>12800</v>
+        <v>12057</v>
       </c>
       <c r="BB118" s="16" t="n">
-        <v>12057</v>
+        <v>14669</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18088,113 +18088,113 @@
       <c r="R119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S119" s="13" t="s">
-        <v>58</v>
+      <c r="S119" s="13" t="n">
+        <v>86754</v>
       </c>
       <c r="T119" s="13" t="n">
-        <v>86754</v>
+        <v>36506</v>
       </c>
       <c r="U119" s="13" t="n">
-        <v>36506</v>
+        <v>50300</v>
       </c>
       <c r="V119" s="13" t="n">
-        <v>50300</v>
+        <v>38162</v>
       </c>
       <c r="W119" s="13" t="n">
-        <v>38162</v>
+        <v>53538</v>
       </c>
       <c r="X119" s="13" t="n">
-        <v>53538</v>
+        <v>49523</v>
       </c>
       <c r="Y119" s="13" t="n">
-        <v>49523</v>
+        <v>43611</v>
       </c>
       <c r="Z119" s="13" t="n">
-        <v>43611</v>
+        <v>42994</v>
       </c>
       <c r="AA119" s="13" t="n">
-        <v>42994</v>
+        <v>43516</v>
       </c>
       <c r="AB119" s="13" t="n">
-        <v>43516</v>
+        <v>43819</v>
       </c>
       <c r="AC119" s="13" t="n">
-        <v>43819</v>
+        <v>32480</v>
       </c>
       <c r="AD119" s="13" t="n">
-        <v>32480</v>
+        <v>26703</v>
       </c>
       <c r="AE119" s="13" t="n">
-        <v>26703</v>
+        <v>99437</v>
       </c>
       <c r="AF119" s="13" t="n">
-        <v>99437</v>
+        <v>51116</v>
       </c>
       <c r="AG119" s="13" t="n">
-        <v>51116</v>
+        <v>39407</v>
       </c>
       <c r="AH119" s="13" t="n">
-        <v>39407</v>
+        <v>44089</v>
       </c>
       <c r="AI119" s="13" t="n">
-        <v>44089</v>
+        <v>56353</v>
       </c>
       <c r="AJ119" s="13" t="n">
-        <v>56353</v>
+        <v>56703</v>
       </c>
       <c r="AK119" s="13" t="n">
-        <v>56703</v>
+        <v>47711</v>
       </c>
       <c r="AL119" s="13" t="n">
-        <v>47711</v>
+        <v>47880</v>
       </c>
       <c r="AM119" s="13" t="n">
-        <v>47880</v>
+        <v>45893</v>
       </c>
       <c r="AN119" s="13" t="n">
-        <v>45893</v>
+        <v>57122</v>
       </c>
       <c r="AO119" s="13" t="n">
-        <v>57122</v>
+        <v>87415</v>
       </c>
       <c r="AP119" s="13" t="n">
-        <v>87415</v>
+        <v>39999</v>
       </c>
       <c r="AQ119" s="13" t="n">
-        <v>39999</v>
+        <v>41495</v>
       </c>
       <c r="AR119" s="13" t="n">
-        <v>41495</v>
+        <v>36719</v>
       </c>
       <c r="AS119" s="13" t="n">
-        <v>36719</v>
+        <v>195151</v>
       </c>
       <c r="AT119" s="13" t="n">
-        <v>195151</v>
+        <v>156971</v>
       </c>
       <c r="AU119" s="13" t="n">
-        <v>156971</v>
+        <v>168015</v>
       </c>
       <c r="AV119" s="13" t="n">
-        <v>168015</v>
+        <v>128256</v>
       </c>
       <c r="AW119" s="13" t="n">
-        <v>128256</v>
+        <v>144330</v>
       </c>
       <c r="AX119" s="13" t="n">
-        <v>144330</v>
+        <v>93109</v>
       </c>
       <c r="AY119" s="13" t="n">
-        <v>93109</v>
+        <v>141120</v>
       </c>
       <c r="AZ119" s="13" t="n">
-        <v>141120</v>
+        <v>101909</v>
       </c>
       <c r="BA119" s="13" t="n">
-        <v>101909</v>
+        <v>100000</v>
       </c>
       <c r="BB119" s="13" t="n">
-        <v>100000</v>
+        <v>114468</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18358,11 +18358,11 @@
       <c r="AJ121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL121" s="13" t="n">
+      <c r="AK121" s="13" t="n">
         <v>39796</v>
+      </c>
+      <c r="AL121" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM121" s="13" t="s">
         <v>58</v>
@@ -18526,68 +18526,68 @@
       <c r="T123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U123" s="13" t="s">
-        <v>58</v>
+      <c r="U123" s="13" t="n">
+        <v>26000000</v>
       </c>
       <c r="V123" s="13" t="n">
-        <v>26000000</v>
+        <v>28250000</v>
       </c>
       <c r="W123" s="13" t="n">
-        <v>28250000</v>
+        <v>13333333</v>
       </c>
       <c r="X123" s="13" t="n">
-        <v>13333333</v>
+        <v>16133333</v>
       </c>
       <c r="Y123" s="13" t="n">
-        <v>16133333</v>
+        <v>6000000</v>
       </c>
       <c r="Z123" s="13" t="n">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="AA123" s="13" t="n">
-        <v>27000000</v>
+        <v>12800000</v>
       </c>
       <c r="AB123" s="13" t="n">
-        <v>12800000</v>
+        <v>76666667</v>
       </c>
       <c r="AC123" s="13" t="n">
-        <v>76666667</v>
+        <v>42833333</v>
       </c>
       <c r="AD123" s="13" t="n">
-        <v>42833333</v>
+        <v>17461538</v>
       </c>
       <c r="AE123" s="13" t="n">
-        <v>17461538</v>
+        <v>24733333</v>
       </c>
       <c r="AF123" s="13" t="n">
-        <v>24733333</v>
+        <v>3500000</v>
       </c>
       <c r="AG123" s="13" t="n">
-        <v>3500000</v>
+        <v>70000000</v>
       </c>
       <c r="AH123" s="13" t="n">
-        <v>70000000</v>
+        <v>0</v>
       </c>
       <c r="AI123" s="13" t="n">
-        <v>0</v>
+        <v>17960784</v>
       </c>
       <c r="AJ123" s="13" t="n">
-        <v>17960784</v>
+        <v>18800000</v>
       </c>
       <c r="AK123" s="13" t="n">
-        <v>18800000</v>
+        <v>0</v>
       </c>
       <c r="AL123" s="13" t="n">
-        <v>0</v>
+        <v>24155172</v>
       </c>
       <c r="AM123" s="13" t="n">
-        <v>24155172</v>
+        <v>29000000</v>
       </c>
       <c r="AN123" s="13" t="n">
-        <v>29000000</v>
-      </c>
-      <c r="AO123" s="13" t="n">
         <v>42952381</v>
+      </c>
+      <c r="AO123" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP123" s="13" t="s">
         <v>58</v>
@@ -18745,47 +18745,47 @@
       <c r="AN124" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO124" s="16" t="s">
-        <v>58</v>
+      <c r="AO124" s="16" t="n">
+        <v>48233</v>
       </c>
       <c r="AP124" s="16" t="n">
-        <v>48233</v>
+        <v>0</v>
       </c>
       <c r="AQ124" s="16" t="n">
-        <v>0</v>
+        <v>59176</v>
       </c>
       <c r="AR124" s="16" t="n">
-        <v>59176</v>
+        <v>49345</v>
       </c>
       <c r="AS124" s="16" t="n">
-        <v>49345</v>
+        <v>45498</v>
       </c>
       <c r="AT124" s="16" t="n">
-        <v>45498</v>
+        <v>76844</v>
       </c>
       <c r="AU124" s="16" t="n">
-        <v>76844</v>
+        <v>55904</v>
       </c>
       <c r="AV124" s="16" t="n">
-        <v>55904</v>
+        <v>0</v>
       </c>
       <c r="AW124" s="16" t="n">
-        <v>0</v>
+        <v>194057</v>
       </c>
       <c r="AX124" s="16" t="n">
-        <v>194057</v>
+        <v>1076371</v>
       </c>
       <c r="AY124" s="16" t="n">
-        <v>1076371</v>
+        <v>24427</v>
       </c>
       <c r="AZ124" s="16" t="n">
-        <v>24427</v>
+        <v>0</v>
       </c>
       <c r="BA124" s="16" t="n">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="BB124" s="16" t="n">
-        <v>45000</v>
+        <v>10405</v>
       </c>
     </row>
   </sheetData>
